--- a/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
@@ -18942,8 +18942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1606"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1556" workbookViewId="0">
-      <selection activeCell="H1586" sqref="H1586"/>
+    <sheetView tabSelected="1" topLeftCell="A1301" workbookViewId="0">
+      <selection activeCell="B1308" sqref="B1308:B1387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -53488,7 +53488,7 @@
         <v>4738</v>
       </c>
       <c r="B1280" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1280" s="1" t="s">
         <v>2186</v>
@@ -53517,7 +53517,7 @@
         <v>3968</v>
       </c>
       <c r="B1281" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1281" s="1" t="s">
         <v>2186</v>
@@ -53546,7 +53546,7 @@
         <v>3969</v>
       </c>
       <c r="B1282" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1282" s="1" t="s">
         <v>2186</v>
@@ -53575,7 +53575,7 @@
         <v>3970</v>
       </c>
       <c r="B1283" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1283" s="1" t="s">
         <v>2186</v>
@@ -53604,7 +53604,7 @@
         <v>3971</v>
       </c>
       <c r="B1284" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1284" s="1" t="s">
         <v>2186</v>
@@ -53633,7 +53633,7 @@
         <v>3972</v>
       </c>
       <c r="B1285" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1285" s="1" t="s">
         <v>2186</v>
@@ -53662,7 +53662,7 @@
         <v>3973</v>
       </c>
       <c r="B1286" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1286" s="1" t="s">
         <v>2186</v>
@@ -53691,7 +53691,7 @@
         <v>3974</v>
       </c>
       <c r="B1287" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1287" s="1" t="s">
         <v>2186</v>
@@ -53720,7 +53720,7 @@
         <v>3975</v>
       </c>
       <c r="B1288" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1288" s="1" t="s">
         <v>2186</v>
@@ -53749,7 +53749,7 @@
         <v>3976</v>
       </c>
       <c r="B1289" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1289" s="1" t="s">
         <v>2186</v>
@@ -54300,7 +54300,7 @@
         <v>3993</v>
       </c>
       <c r="B1308" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1308" s="1" t="s">
         <v>2208</v>
@@ -54332,7 +54332,7 @@
         <v>3994</v>
       </c>
       <c r="B1309" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1309" s="1" t="s">
         <v>2211</v>
@@ -54364,7 +54364,7 @@
         <v>3995</v>
       </c>
       <c r="B1310" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1310" s="1" t="s">
         <v>2212</v>
@@ -54396,7 +54396,7 @@
         <v>3996</v>
       </c>
       <c r="B1311" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1311" s="1" t="s">
         <v>2213</v>
@@ -54428,7 +54428,7 @@
         <v>3997</v>
       </c>
       <c r="B1312" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1312" s="1" t="s">
         <v>2214</v>
@@ -54460,7 +54460,7 @@
         <v>3998</v>
       </c>
       <c r="B1313" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1313" s="1" t="s">
         <v>2215</v>
@@ -54492,7 +54492,7 @@
         <v>3999</v>
       </c>
       <c r="B1314" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1314" s="1" t="s">
         <v>2216</v>
@@ -54524,7 +54524,7 @@
         <v>4000</v>
       </c>
       <c r="B1315" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1315" s="1" t="s">
         <v>2217</v>
@@ -54556,7 +54556,7 @@
         <v>4001</v>
       </c>
       <c r="B1316" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1316" s="1" t="s">
         <v>2218</v>
@@ -54588,7 +54588,7 @@
         <v>4002</v>
       </c>
       <c r="B1317" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1317" s="1" t="s">
         <v>2220</v>
@@ -54620,7 +54620,7 @@
         <v>4003</v>
       </c>
       <c r="B1318" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1318" s="1" t="s">
         <v>2221</v>
@@ -54652,7 +54652,7 @@
         <v>4750</v>
       </c>
       <c r="B1319" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1319" s="1" t="s">
         <v>2223</v>
@@ -54684,7 +54684,7 @@
         <v>4004</v>
       </c>
       <c r="B1320" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1320" s="1" t="s">
         <v>2224</v>
@@ -54716,7 +54716,7 @@
         <v>4005</v>
       </c>
       <c r="B1321" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1321" s="1" t="s">
         <v>2225</v>
@@ -54748,7 +54748,7 @@
         <v>4006</v>
       </c>
       <c r="B1322" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1322" s="1" t="s">
         <v>2238</v>
@@ -54780,7 +54780,7 @@
         <v>4752</v>
       </c>
       <c r="B1323" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1323" s="1" t="s">
         <v>2239</v>
@@ -54812,7 +54812,7 @@
         <v>4007</v>
       </c>
       <c r="B1324" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1324" s="1" t="s">
         <v>2240</v>
@@ -54844,7 +54844,7 @@
         <v>4008</v>
       </c>
       <c r="B1325" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1325" s="1" t="s">
         <v>2241</v>
@@ -54876,7 +54876,7 @@
         <v>4009</v>
       </c>
       <c r="B1326" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1326" s="1" t="s">
         <v>2248</v>
@@ -54908,7 +54908,7 @@
         <v>4010</v>
       </c>
       <c r="B1327" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1327" s="1" t="s">
         <v>2242</v>
@@ -54940,7 +54940,7 @@
         <v>4011</v>
       </c>
       <c r="B1328" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1328" s="1" t="s">
         <v>2249</v>
@@ -54972,7 +54972,7 @@
         <v>4012</v>
       </c>
       <c r="B1329" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1329" s="1" t="s">
         <v>2250</v>
@@ -55004,7 +55004,7 @@
         <v>4013</v>
       </c>
       <c r="B1330" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1330" s="1" t="s">
         <v>2252</v>
@@ -55036,7 +55036,7 @@
         <v>4014</v>
       </c>
       <c r="B1331" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1331" s="1" t="s">
         <v>2252</v>
@@ -55068,7 +55068,7 @@
         <v>4015</v>
       </c>
       <c r="B1332" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1332" s="1" t="s">
         <v>2254</v>
@@ -55100,7 +55100,7 @@
         <v>4016</v>
       </c>
       <c r="B1333" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1333" s="1" t="s">
         <v>2256</v>
@@ -55132,7 +55132,7 @@
         <v>4017</v>
       </c>
       <c r="B1334" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1334" s="1" t="s">
         <v>2257</v>
@@ -55164,7 +55164,7 @@
         <v>4748</v>
       </c>
       <c r="B1335" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1335" s="1" t="s">
         <v>2261</v>
@@ -55196,7 +55196,7 @@
         <v>4744</v>
       </c>
       <c r="B1336" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1336" s="1" t="s">
         <v>2267</v>
@@ -55228,7 +55228,7 @@
         <v>4018</v>
       </c>
       <c r="B1337" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1337" s="1" t="s">
         <v>2268</v>
@@ -55260,7 +55260,7 @@
         <v>4019</v>
       </c>
       <c r="B1338" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1338" s="1" t="s">
         <v>2269</v>
@@ -55292,7 +55292,7 @@
         <v>4020</v>
       </c>
       <c r="B1339" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1339" s="1" t="s">
         <v>2272</v>
@@ -55324,7 +55324,7 @@
         <v>4021</v>
       </c>
       <c r="B1340" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1340" s="1" t="s">
         <v>2273</v>
@@ -55356,7 +55356,7 @@
         <v>4022</v>
       </c>
       <c r="B1341" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1341" s="1" t="s">
         <v>2274</v>
@@ -55388,7 +55388,7 @@
         <v>4023</v>
       </c>
       <c r="B1342" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1342" s="1" t="s">
         <v>2275</v>
@@ -55417,7 +55417,7 @@
         <v>4024</v>
       </c>
       <c r="B1343" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1343" s="1" t="s">
         <v>2277</v>
@@ -55449,7 +55449,7 @@
         <v>4025</v>
       </c>
       <c r="B1344" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1344" s="1" t="s">
         <v>2278</v>
@@ -55481,7 +55481,7 @@
         <v>4746</v>
       </c>
       <c r="B1345" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1345" s="1" t="s">
         <v>2280</v>
@@ -55513,7 +55513,7 @@
         <v>4026</v>
       </c>
       <c r="B1346" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1346" s="1" t="s">
         <v>2281</v>
@@ -55545,7 +55545,7 @@
         <v>4027</v>
       </c>
       <c r="B1347" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1347" s="1" t="s">
         <v>2282</v>
@@ -55577,7 +55577,7 @@
         <v>4028</v>
       </c>
       <c r="B1348" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1348" s="1" t="s">
         <v>2283</v>
@@ -55609,7 +55609,7 @@
         <v>4029</v>
       </c>
       <c r="B1349" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1349" s="1" t="s">
         <v>2284</v>
@@ -55641,7 +55641,7 @@
         <v>4030</v>
       </c>
       <c r="B1350" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1350" s="1" t="s">
         <v>2285</v>
@@ -55673,7 +55673,7 @@
         <v>4031</v>
       </c>
       <c r="B1351" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1351" s="1" t="s">
         <v>2297</v>
@@ -55705,7 +55705,7 @@
         <v>4032</v>
       </c>
       <c r="B1352" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1352" s="1" t="s">
         <v>2300</v>
@@ -55737,7 +55737,7 @@
         <v>4033</v>
       </c>
       <c r="B1353" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1353" s="1" t="s">
         <v>2301</v>
@@ -55769,7 +55769,7 @@
         <v>4034</v>
       </c>
       <c r="B1354" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1354" s="1" t="s">
         <v>2302</v>
@@ -55801,7 +55801,7 @@
         <v>4035</v>
       </c>
       <c r="B1355" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1355" s="1" t="s">
         <v>2304</v>
@@ -55833,7 +55833,7 @@
         <v>4036</v>
       </c>
       <c r="B1356" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1356" s="1" t="s">
         <v>2305</v>
@@ -55865,7 +55865,7 @@
         <v>4037</v>
       </c>
       <c r="B1357" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1357" s="1" t="s">
         <v>2305</v>
@@ -55897,7 +55897,7 @@
         <v>4038</v>
       </c>
       <c r="B1358" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1358" s="1" t="s">
         <v>2306</v>
@@ -55929,7 +55929,7 @@
         <v>4039</v>
       </c>
       <c r="B1359" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1359" s="1" t="s">
         <v>2307</v>
@@ -55961,7 +55961,7 @@
         <v>4040</v>
       </c>
       <c r="B1360" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1360" s="1" t="s">
         <v>2308</v>
@@ -55993,7 +55993,7 @@
         <v>4041</v>
       </c>
       <c r="B1361" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1361" s="1" t="s">
         <v>2309</v>
@@ -56025,7 +56025,7 @@
         <v>4042</v>
       </c>
       <c r="B1362" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1362" s="1" t="s">
         <v>2310</v>
@@ -56057,7 +56057,7 @@
         <v>4043</v>
       </c>
       <c r="B1363" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1363" s="1" t="s">
         <v>2311</v>
@@ -56089,7 +56089,7 @@
         <v>4044</v>
       </c>
       <c r="B1364" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1364" s="1" t="s">
         <v>2312</v>
@@ -56121,7 +56121,7 @@
         <v>4045</v>
       </c>
       <c r="B1365" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1365" s="1" t="s">
         <v>2313</v>
@@ -56153,7 +56153,7 @@
         <v>4046</v>
       </c>
       <c r="B1366" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1366" s="1" t="s">
         <v>2355</v>
@@ -56185,7 +56185,7 @@
         <v>4047</v>
       </c>
       <c r="B1367" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1367" s="1" t="s">
         <v>2340</v>
@@ -56217,7 +56217,7 @@
         <v>4048</v>
       </c>
       <c r="B1368" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1368" s="1" t="s">
         <v>2341</v>
@@ -56249,7 +56249,7 @@
         <v>4049</v>
       </c>
       <c r="B1369" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1369" s="1" t="s">
         <v>2346</v>
@@ -56281,7 +56281,7 @@
         <v>4050</v>
       </c>
       <c r="B1370" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1370" s="1" t="s">
         <v>2348</v>
@@ -56313,7 +56313,7 @@
         <v>4051</v>
       </c>
       <c r="B1371" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1371" s="1" t="s">
         <v>2349</v>
@@ -56345,7 +56345,7 @@
         <v>4052</v>
       </c>
       <c r="B1372" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1372" s="1" t="s">
         <v>2351</v>
@@ -56377,7 +56377,7 @@
         <v>4053</v>
       </c>
       <c r="B1373" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1373" s="1" t="s">
         <v>2351</v>
@@ -56409,7 +56409,7 @@
         <v>4054</v>
       </c>
       <c r="B1374" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1374" s="1" t="s">
         <v>2353</v>
@@ -56441,7 +56441,7 @@
         <v>4055</v>
       </c>
       <c r="B1375" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1375" s="1" t="s">
         <v>2377</v>
@@ -56473,7 +56473,7 @@
         <v>4056</v>
       </c>
       <c r="B1376" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1376" s="1" t="s">
         <v>2378</v>
@@ -56505,7 +56505,7 @@
         <v>4057</v>
       </c>
       <c r="B1377" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1377" s="1" t="s">
         <v>2379</v>
@@ -56537,7 +56537,7 @@
         <v>4058</v>
       </c>
       <c r="B1378" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1378" s="1" t="s">
         <v>2380</v>
@@ -56569,7 +56569,7 @@
         <v>4059</v>
       </c>
       <c r="B1379" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1379" s="1" t="s">
         <v>2381</v>
@@ -56601,7 +56601,7 @@
         <v>4060</v>
       </c>
       <c r="B1380" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1380" s="1" t="s">
         <v>2382</v>
@@ -56633,7 +56633,7 @@
         <v>4061</v>
       </c>
       <c r="B1381" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1381" s="1" t="s">
         <v>2383</v>
@@ -56665,7 +56665,7 @@
         <v>4062</v>
       </c>
       <c r="B1382" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1382" s="1" t="s">
         <v>2384</v>
@@ -56697,7 +56697,7 @@
         <v>4063</v>
       </c>
       <c r="B1383" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1383" s="1" t="s">
         <v>2369</v>
@@ -56726,7 +56726,7 @@
         <v>4753</v>
       </c>
       <c r="B1384" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1384" s="1" t="s">
         <v>2369</v>
@@ -56755,7 +56755,7 @@
         <v>4064</v>
       </c>
       <c r="B1385" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1385" s="1" t="s">
         <v>2369</v>
@@ -56784,7 +56784,7 @@
         <v>4065</v>
       </c>
       <c r="B1386" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1386" s="1" t="s">
         <v>2369</v>
@@ -56813,7 +56813,7 @@
         <v>4066</v>
       </c>
       <c r="B1387" s="4" t="s">
-        <v>34</v>
+        <v>5146</v>
       </c>
       <c r="C1387" s="1" t="s">
         <v>2369</v>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
@@ -18565,7 +18565,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select count(*) cn from (select * from $schema10 limit 3 offset 3.8) la;</t>
+    <t>select count(*) cn from (select * from $schema10 limit 3 offset 3.8) la</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -18942,8 +18942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1606"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1301" workbookViewId="0">
-      <selection activeCell="B1308" sqref="B1308:B1387"/>
+    <sheetView tabSelected="1" topLeftCell="A1567" workbookViewId="0">
+      <selection activeCell="H1584" sqref="H1584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13902" uniqueCount="5249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13920" uniqueCount="5261">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -18558,6 +18558,52 @@
   </si>
   <si>
     <t>select char_length(left(Now(),19))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1607</t>
+  </si>
+  <si>
+    <t>主键顺序和建表列顺序不一致的多分区表第一个主键范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键顺序和建表列顺序不一致的多分区表第二个主键范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RangeScan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value_partition49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>partition49</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1606</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1606</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/RangeScan/queryc1_1606.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $partition49 where id between 49 and 5000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/RangeScan/queryc1_1607.csv</t>
+  </si>
+  <si>
+    <t>select * from $partition49 where name between 'Ww' and 'mp'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -18932,10 +18978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1606"/>
+  <dimension ref="A1:K1608"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A532" workbookViewId="0">
-      <selection activeCell="I539" sqref="I539"/>
+    <sheetView tabSelected="1" topLeftCell="C1583" workbookViewId="0">
+      <selection activeCell="J1607" sqref="J1607"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -63876,6 +63922,64 @@
         <v>5195</v>
       </c>
       <c r="K1606" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1607" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1607" s="1" t="s">
+        <v>5255</v>
+      </c>
+      <c r="B1607" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1607" s="1" t="s">
+        <v>5250</v>
+      </c>
+      <c r="D1607" s="1" t="s">
+        <v>5252</v>
+      </c>
+      <c r="F1607" s="1" t="s">
+        <v>5254</v>
+      </c>
+      <c r="G1607" s="1" t="s">
+        <v>5253</v>
+      </c>
+      <c r="I1607" s="1" t="s">
+        <v>5260</v>
+      </c>
+      <c r="J1607" s="1" t="s">
+        <v>5257</v>
+      </c>
+      <c r="K1607" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1608" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1608" s="1" t="s">
+        <v>5249</v>
+      </c>
+      <c r="B1608" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1608" s="1" t="s">
+        <v>5251</v>
+      </c>
+      <c r="D1608" s="1" t="s">
+        <v>5252</v>
+      </c>
+      <c r="F1608" s="1" t="s">
+        <v>5254</v>
+      </c>
+      <c r="H1608" s="1" t="s">
+        <v>5256</v>
+      </c>
+      <c r="I1608" s="1" t="s">
+        <v>5258</v>
+      </c>
+      <c r="J1608" s="1" t="s">
+        <v>5259</v>
+      </c>
+      <c r="K1608" s="1" t="s">
         <v>44</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
@@ -18644,7 +18644,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -18654,6 +18654,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -18670,13 +18676,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -18980,8 +18987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1608"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1583" workbookViewId="0">
-      <selection activeCell="J1607" sqref="J1607"/>
+    <sheetView tabSelected="1" topLeftCell="A690" workbookViewId="0">
+      <selection activeCell="B704" sqref="B704"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -42319,11 +42326,11 @@
       </c>
     </row>
     <row r="897" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A897" s="1" t="s">
+      <c r="A897" s="6" t="s">
         <v>3581</v>
       </c>
       <c r="B897" s="4" t="s">
-        <v>5137</v>
+        <v>34</v>
       </c>
       <c r="C897" s="1" t="s">
         <v>1846</v>
@@ -42351,11 +42358,11 @@
       </c>
     </row>
     <row r="898" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A898" s="1" t="s">
+      <c r="A898" s="6" t="s">
         <v>3582</v>
       </c>
       <c r="B898" s="4" t="s">
-        <v>5137</v>
+        <v>34</v>
       </c>
       <c r="C898" s="1" t="s">
         <v>1847</v>
@@ -42877,11 +42884,11 @@
       </c>
     </row>
     <row r="918" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A918" s="1" t="s">
+      <c r="A918" s="6" t="s">
         <v>3602</v>
       </c>
       <c r="B918" s="4" t="s">
-        <v>5137</v>
+        <v>34</v>
       </c>
       <c r="C918" s="1" t="s">
         <v>1851</v>
@@ -43637,11 +43644,11 @@
       </c>
     </row>
     <row r="947" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A947" s="1" t="s">
+      <c r="A947" s="6" t="s">
         <v>3631</v>
       </c>
       <c r="B947" s="4" t="s">
-        <v>5137</v>
+        <v>34</v>
       </c>
       <c r="C947" s="1" t="s">
         <v>1853</v>
@@ -44033,7 +44040,7 @@
       </c>
     </row>
     <row r="962" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A962" s="1" t="s">
+      <c r="A962" s="6" t="s">
         <v>3646</v>
       </c>
       <c r="B962" s="4" t="s">

--- a/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
@@ -11,12 +11,15 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$K$1644</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13928" uniqueCount="5267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14243" uniqueCount="5377">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -17866,14 +17869,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select 'abcdefghijklmnopqrstuvwsyz0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZ`~!@#$%^&amp;*()-_=+[]\,./{}|:"&lt;&gt;?'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abcdefghijklmnopqrstuvwsyz0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZ`~!@#$%^&amp;*()-_=+[]\,./{}|:"&lt;&gt;?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select '10.24' - '10.24'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -17886,10 +17881,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>abc~!@#$%^&amp;*()_+=-|][}{:/.,?&gt;&lt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select concat('Hello',' World')</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -18353,18 +18344,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select 'abc'||'~!@#$%^&amp;*()_+=-|][}{:/.,?&gt;&lt;'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select repeat('http://www.baidu.com ',3)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.baidu.com http://www.baidu.com http://www.baidu.com </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select repeat('~!@#$%^&amp;*()_+=-|][}{:/.,?&gt;&lt;',2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -18627,6 +18606,384 @@
   </si>
   <si>
     <t>justExec</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwsyz0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZ`~!@#$%^&amp;*()-_=+[]\;,./{}|:"&lt;&gt;?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select 'abcdefghijklmnopqrstuvwsyz0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZ`~!@#$%^&amp;*()-_=+[]\;,./{}|:"&lt;&gt;?'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1610</t>
+  </si>
+  <si>
+    <t>dqlc1_1611</t>
+  </si>
+  <si>
+    <t>dqlc1_1612</t>
+  </si>
+  <si>
+    <t>dqlc1_1613</t>
+  </si>
+  <si>
+    <t>dqlc1_1614</t>
+  </si>
+  <si>
+    <t>dqlc1_1615</t>
+  </si>
+  <si>
+    <t>dqlc1_1616</t>
+  </si>
+  <si>
+    <t>dqlc1_1617</t>
+  </si>
+  <si>
+    <t>dqlc1_1618</t>
+  </si>
+  <si>
+    <t>dqlc1_1619</t>
+  </si>
+  <si>
+    <t>dqlc1_1620</t>
+  </si>
+  <si>
+    <t>dqlc1_1621</t>
+  </si>
+  <si>
+    <t>dqlc1_1622</t>
+  </si>
+  <si>
+    <t>dqlc1_1623</t>
+  </si>
+  <si>
+    <t>dqlc1_1624</t>
+  </si>
+  <si>
+    <t>dqlc1_1625</t>
+  </si>
+  <si>
+    <t>dqlc1_1626</t>
+  </si>
+  <si>
+    <t>dqlc1_1627</t>
+  </si>
+  <si>
+    <t>dqlc1_1628</t>
+  </si>
+  <si>
+    <t>dqlc1_1629</t>
+  </si>
+  <si>
+    <t>dqlc1_1630</t>
+  </si>
+  <si>
+    <t>dqlc1_1631</t>
+  </si>
+  <si>
+    <t>dqlc1_1632</t>
+  </si>
+  <si>
+    <t>dqlc1_1633</t>
+  </si>
+  <si>
+    <t>like查询匹配符号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Like</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc1_value23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1609.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1609</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1609</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%~'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1610.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1611.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1612.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1613.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1614.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1615.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1616.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1617.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1618.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1619.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1620.csv</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like '%!'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%@%'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1621.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1622.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1623.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1624.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1625.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1626.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1627.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1628.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1629.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1630.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1631.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1632.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1633.csv</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like '%##'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%\$\$'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like binary '%\%\%'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like '%&amp;%'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%\*'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like '%\(%'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like '%\)%'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like '%-%'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1634</t>
+  </si>
+  <si>
+    <t>dqlc1_1635</t>
+  </si>
+  <si>
+    <t>dqlc1_1636</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1634.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1635.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1636.csv</t>
+  </si>
+  <si>
+    <t>dqlc1_1637</t>
+  </si>
+  <si>
+    <t>dqlc1_1638</t>
+  </si>
+  <si>
+    <t>dqlc1_1639</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1637.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1638.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1639.csv</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%\_'</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%=%'</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like '%\+%'</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%\{%'</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%]%'</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like '%\}%'</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%\|\| '</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%\;%'</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like '%:%'</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%"%'</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like '%&lt;%'</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%,%'</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%&gt;%'</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like '%\.%'</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%/%'</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%\?%'</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like '`%'</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like '%123%'</t>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like '%`%'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1640</t>
+  </si>
+  <si>
+    <t>dqlc1_1641</t>
+  </si>
+  <si>
+    <t>dqlc1_1642</t>
+  </si>
+  <si>
+    <t>dqlc1_1643</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1640.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1641.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1642.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Like/queryc1_1643.csv</t>
+  </si>
+  <si>
+    <t>select repeat('http://www.baidu.com; ',3)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.baidu.com; http://www.baidu.com; http://www.baidu.com; </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like binary '%Abc%'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like 'test_'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like binary 'test__'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema27 where name like 'test[~@\*=\]/ "\?]%'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like '__ [!#\%&amp;-\.]%'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select 'abc'||'~!@#$%^&amp;*()_+=-|][}{;:/.,?&gt;&lt;'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc~!@#$%^&amp;*()_+=-|][}{;:/.,?&gt;&lt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -18667,7 +19024,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -18686,6 +19043,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -18699,7 +19062,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -18707,6 +19070,7 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -19008,10 +19372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1609"/>
+  <dimension ref="A1:K1644"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1584" workbookViewId="0">
-      <selection activeCell="F1613" sqref="F1613"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -19097,10 +19461,10 @@
       </c>
       <c r="G3" s="4"/>
       <c r="I3" s="3" t="s">
-        <v>5057</v>
+        <v>5262</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>5058</v>
+        <v>5261</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>9</v>
@@ -19195,7 +19559,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>5059</v>
+        <v>5057</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>26</v>
@@ -19218,7 +19582,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>5060</v>
+        <v>5058</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>27</v>
@@ -19565,10 +19929,10 @@
         <v>136</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>5197</v>
+        <v>5375</v>
       </c>
       <c r="J21" t="s">
-        <v>5062</v>
+        <v>5376</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>9</v>
@@ -19591,7 +19955,7 @@
         <v>136</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>5061</v>
+        <v>5059</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>152</v>
@@ -19617,7 +19981,7 @@
         <v>136</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>5063</v>
+        <v>5060</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>153</v>
@@ -19643,7 +20007,7 @@
         <v>136</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>5064</v>
+        <v>5061</v>
       </c>
       <c r="J24" t="s">
         <v>150</v>
@@ -20349,7 +20713,7 @@
         <v>195</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>5195</v>
+        <v>5192</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>197</v>
@@ -20375,7 +20739,7 @@
         <v>195</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>5196</v>
+        <v>5193</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>201</v>
@@ -24033,10 +24397,10 @@
         <v>415</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>5198</v>
+        <v>5368</v>
       </c>
       <c r="J191" t="s">
-        <v>5199</v>
+        <v>5369</v>
       </c>
       <c r="K191" s="1" t="s">
         <v>9</v>
@@ -24059,10 +24423,10 @@
         <v>415</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>5200</v>
+        <v>5194</v>
       </c>
       <c r="J192" t="s">
-        <v>5201</v>
+        <v>5195</v>
       </c>
       <c r="K192" s="1" t="s">
         <v>9</v>
@@ -24180,7 +24544,7 @@
         <v>415</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>5202</v>
+        <v>5196</v>
       </c>
       <c r="K197" s="1" t="s">
         <v>9</v>
@@ -24203,7 +24567,7 @@
         <v>415</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>5203</v>
+        <v>5197</v>
       </c>
       <c r="K198" s="1" t="s">
         <v>9</v>
@@ -24694,7 +25058,7 @@
         <v>453</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>5204</v>
+        <v>5198</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>462</v>
@@ -24746,10 +25110,10 @@
         <v>453</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>5205</v>
+        <v>5199</v>
       </c>
       <c r="J219" t="s">
-        <v>5206</v>
+        <v>5200</v>
       </c>
       <c r="K219" s="1" t="s">
         <v>9</v>
@@ -24876,10 +25240,10 @@
         <v>453</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>5207</v>
+        <v>5201</v>
       </c>
       <c r="J224" t="s">
-        <v>5208</v>
+        <v>5202</v>
       </c>
       <c r="K224" s="1" t="s">
         <v>9</v>
@@ -26055,10 +26419,10 @@
         <v>539</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>5209</v>
+        <v>5203</v>
       </c>
       <c r="J269" t="s">
-        <v>5210</v>
+        <v>5204</v>
       </c>
       <c r="K269" s="1" t="s">
         <v>9</v>
@@ -26361,10 +26725,10 @@
         <v>539</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>5211</v>
+        <v>5205</v>
       </c>
       <c r="J281" t="s">
-        <v>5212</v>
+        <v>5206</v>
       </c>
       <c r="K281" s="1" t="s">
         <v>9</v>
@@ -26667,10 +27031,10 @@
         <v>539</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>5213</v>
+        <v>5207</v>
       </c>
       <c r="J293" s="1" t="s">
-        <v>5214</v>
+        <v>5208</v>
       </c>
       <c r="K293" s="1" t="s">
         <v>9</v>
@@ -26973,10 +27337,10 @@
         <v>539</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>5215</v>
+        <v>5209</v>
       </c>
       <c r="J305" t="s">
-        <v>5210</v>
+        <v>5204</v>
       </c>
       <c r="K305" s="1" t="s">
         <v>9</v>
@@ -28697,10 +29061,10 @@
         <v>702</v>
       </c>
       <c r="I372" s="1" t="s">
-        <v>5216</v>
+        <v>5210</v>
       </c>
       <c r="J372" t="s">
-        <v>5212</v>
+        <v>5206</v>
       </c>
       <c r="K372" s="1" t="s">
         <v>9</v>
@@ -29035,10 +29399,10 @@
         <v>714</v>
       </c>
       <c r="I385" s="1" t="s">
-        <v>5217</v>
+        <v>5211</v>
       </c>
       <c r="J385" s="1" t="s">
-        <v>5214</v>
+        <v>5208</v>
       </c>
       <c r="K385" s="1" t="s">
         <v>9</v>
@@ -32538,10 +32902,10 @@
         <v>81</v>
       </c>
       <c r="I521" s="1" t="s">
-        <v>5218</v>
+        <v>5212</v>
       </c>
       <c r="J521" s="1" t="s">
-        <v>5219</v>
+        <v>5213</v>
       </c>
       <c r="K521" s="1" t="s">
         <v>9</v>
@@ -32720,10 +33084,10 @@
         <v>81</v>
       </c>
       <c r="I528" s="1" t="s">
-        <v>5220</v>
+        <v>5214</v>
       </c>
       <c r="J528" s="1" t="s">
-        <v>5221</v>
+        <v>5215</v>
       </c>
       <c r="K528" s="1" t="s">
         <v>9</v>
@@ -33214,7 +33578,7 @@
         <v>81</v>
       </c>
       <c r="I547" s="1" t="s">
-        <v>5247</v>
+        <v>5241</v>
       </c>
       <c r="J547" s="1" t="s">
         <v>99</v>
@@ -33240,7 +33604,7 @@
         <v>81</v>
       </c>
       <c r="I548" s="1" t="s">
-        <v>5245</v>
+        <v>5239</v>
       </c>
       <c r="J548" s="1" t="s">
         <v>89</v>
@@ -33292,7 +33656,7 @@
         <v>81</v>
       </c>
       <c r="I550" s="1" t="s">
-        <v>5246</v>
+        <v>5240</v>
       </c>
       <c r="J550" s="1" t="s">
         <v>99</v>
@@ -33437,7 +33801,7 @@
         <v>983</v>
       </c>
       <c r="J555" s="1" t="s">
-        <v>5222</v>
+        <v>5216</v>
       </c>
       <c r="K555" s="1" t="s">
         <v>9</v>
@@ -33463,7 +33827,7 @@
         <v>985</v>
       </c>
       <c r="J556" s="1" t="s">
-        <v>5223</v>
+        <v>5217</v>
       </c>
       <c r="K556" s="1" t="s">
         <v>9</v>
@@ -33489,7 +33853,7 @@
         <v>986</v>
       </c>
       <c r="J557" s="1" t="s">
-        <v>5224</v>
+        <v>5218</v>
       </c>
       <c r="K557" s="1" t="s">
         <v>9</v>
@@ -33515,7 +33879,7 @@
         <v>987</v>
       </c>
       <c r="J558" s="1" t="s">
-        <v>5225</v>
+        <v>5219</v>
       </c>
       <c r="K558" s="1" t="s">
         <v>9</v>
@@ -33541,7 +33905,7 @@
         <v>988</v>
       </c>
       <c r="J559" s="1" t="s">
-        <v>5226</v>
+        <v>5220</v>
       </c>
       <c r="K559" s="1" t="s">
         <v>9</v>
@@ -33567,7 +33931,7 @@
         <v>989</v>
       </c>
       <c r="J560" s="1" t="s">
-        <v>5227</v>
+        <v>5221</v>
       </c>
       <c r="K560" s="1" t="s">
         <v>9</v>
@@ -33593,7 +33957,7 @@
         <v>990</v>
       </c>
       <c r="J561" s="1" t="s">
-        <v>5228</v>
+        <v>5222</v>
       </c>
       <c r="K561" s="1" t="s">
         <v>9</v>
@@ -33619,7 +33983,7 @@
         <v>991</v>
       </c>
       <c r="J562" s="1" t="s">
-        <v>5229</v>
+        <v>5223</v>
       </c>
       <c r="K562" s="1" t="s">
         <v>9</v>
@@ -33645,7 +34009,7 @@
         <v>992</v>
       </c>
       <c r="J563" s="1" t="s">
-        <v>5230</v>
+        <v>5224</v>
       </c>
       <c r="K563" s="1" t="s">
         <v>9</v>
@@ -33671,7 +34035,7 @@
         <v>994</v>
       </c>
       <c r="J564" s="1" t="s">
-        <v>5231</v>
+        <v>5225</v>
       </c>
       <c r="K564" s="1" t="s">
         <v>9</v>
@@ -33697,7 +34061,7 @@
         <v>995</v>
       </c>
       <c r="J565" s="1" t="s">
-        <v>5232</v>
+        <v>5226</v>
       </c>
       <c r="K565" s="1" t="s">
         <v>9</v>
@@ -33723,7 +34087,7 @@
         <v>996</v>
       </c>
       <c r="J566" s="1" t="s">
-        <v>5233</v>
+        <v>5227</v>
       </c>
       <c r="K566" s="1" t="s">
         <v>9</v>
@@ -33749,7 +34113,7 @@
         <v>997</v>
       </c>
       <c r="J567" s="1" t="s">
-        <v>5234</v>
+        <v>5228</v>
       </c>
       <c r="K567" s="1" t="s">
         <v>9</v>
@@ -33775,7 +34139,7 @@
         <v>998</v>
       </c>
       <c r="J568" s="1" t="s">
-        <v>5235</v>
+        <v>5229</v>
       </c>
       <c r="K568" s="1" t="s">
         <v>9</v>
@@ -33801,7 +34165,7 @@
         <v>1002</v>
       </c>
       <c r="J569" s="1" t="s">
-        <v>5223</v>
+        <v>5217</v>
       </c>
       <c r="K569" s="1" t="s">
         <v>9</v>
@@ -41073,7 +41437,7 @@
         <v>3531</v>
       </c>
       <c r="B848" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C848" s="1" t="s">
         <v>1501</v>
@@ -41099,7 +41463,7 @@
         <v>3532</v>
       </c>
       <c r="B849" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C849" s="1" t="s">
         <v>1501</v>
@@ -41125,7 +41489,7 @@
         <v>3533</v>
       </c>
       <c r="B850" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C850" s="1" t="s">
         <v>1501</v>
@@ -41801,7 +42165,7 @@
         <v>3559</v>
       </c>
       <c r="B876" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C876" s="1" t="s">
         <v>1501</v>
@@ -41827,7 +42191,7 @@
         <v>3560</v>
       </c>
       <c r="B877" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C877" s="1" t="s">
         <v>1501</v>
@@ -41853,7 +42217,7 @@
         <v>3561</v>
       </c>
       <c r="B878" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C878" s="1" t="s">
         <v>1501</v>
@@ -41983,7 +42347,7 @@
         <v>3566</v>
       </c>
       <c r="B883" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C883" s="1" t="s">
         <v>1501</v>
@@ -42009,7 +42373,7 @@
         <v>3567</v>
       </c>
       <c r="B884" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C884" s="1" t="s">
         <v>1501</v>
@@ -42755,7 +43119,7 @@
         <v>3595</v>
       </c>
       <c r="B912" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C912" s="1" t="s">
         <v>1608</v>
@@ -42781,7 +43145,7 @@
         <v>3596</v>
       </c>
       <c r="B913" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C913" s="1" t="s">
         <v>1608</v>
@@ -42807,7 +43171,7 @@
         <v>3597</v>
       </c>
       <c r="B914" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C914" s="1" t="s">
         <v>1608</v>
@@ -43489,7 +43853,7 @@
         <v>3623</v>
       </c>
       <c r="B940" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C940" s="1" t="s">
         <v>1655</v>
@@ -43515,7 +43879,7 @@
         <v>3624</v>
       </c>
       <c r="B941" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C941" s="1" t="s">
         <v>1655</v>
@@ -43541,7 +43905,7 @@
         <v>3625</v>
       </c>
       <c r="B942" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C942" s="1" t="s">
         <v>1655</v>
@@ -43567,7 +43931,7 @@
         <v>3626</v>
       </c>
       <c r="B943" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C943" s="1" t="s">
         <v>1655</v>
@@ -44063,11 +44427,11 @@
       </c>
     </row>
     <row r="962" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A962" s="6" t="s">
+      <c r="A962" s="7" t="s">
         <v>3645</v>
       </c>
       <c r="B962" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C962" s="1" t="s">
         <v>1686</v>
@@ -44197,7 +44561,7 @@
         <v>3650</v>
       </c>
       <c r="B967" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C967" s="1" t="s">
         <v>1686</v>
@@ -44327,7 +44691,7 @@
         <v>3655</v>
       </c>
       <c r="B972" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C972" s="1" t="s">
         <v>1686</v>
@@ -44353,7 +44717,7 @@
         <v>3656</v>
       </c>
       <c r="B973" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C973" s="1" t="s">
         <v>1686</v>
@@ -44379,7 +44743,7 @@
         <v>3657</v>
       </c>
       <c r="B974" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C974" s="1" t="s">
         <v>1686</v>
@@ -50216,7 +50580,7 @@
     </row>
     <row r="1173" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1173" s="1" t="s">
-        <v>5237</v>
+        <v>5231</v>
       </c>
       <c r="B1173" s="4" t="s">
         <v>34</v>
@@ -50257,7 +50621,7 @@
         <v>1886</v>
       </c>
       <c r="F1174" s="1" t="s">
-        <v>5236</v>
+        <v>5230</v>
       </c>
       <c r="H1174" s="1" t="s">
         <v>4723</v>
@@ -56896,7 +57260,7 @@
         <v>2384</v>
       </c>
       <c r="I1387" s="1" t="s">
-        <v>5244</v>
+        <v>5238</v>
       </c>
       <c r="J1387" s="1" t="s">
         <v>4575</v>
@@ -56925,7 +57289,7 @@
         <v>2413</v>
       </c>
       <c r="G1388" s="1" t="s">
-        <v>5263</v>
+        <v>5257</v>
       </c>
       <c r="I1388" s="1" t="s">
         <v>2415</v>
@@ -57213,7 +57577,7 @@
         <v>4057</v>
       </c>
       <c r="I1397" s="1" t="s">
-        <v>5241</v>
+        <v>5235</v>
       </c>
       <c r="J1397" s="1" t="s">
         <v>4585</v>
@@ -57245,7 +57609,7 @@
         <v>4057</v>
       </c>
       <c r="I1398" s="1" t="s">
-        <v>5242</v>
+        <v>5236</v>
       </c>
       <c r="J1398" s="1" t="s">
         <v>4586</v>
@@ -59153,7 +59517,7 @@
         <v>4747</v>
       </c>
       <c r="I1458" s="1" t="s">
-        <v>5243</v>
+        <v>5237</v>
       </c>
       <c r="J1458" s="1" t="s">
         <v>4646</v>
@@ -59211,13 +59575,13 @@
         <v>2532</v>
       </c>
       <c r="F1460" s="1" t="s">
-        <v>5238</v>
+        <v>5232</v>
       </c>
       <c r="H1460" s="1" t="s">
         <v>4722</v>
       </c>
       <c r="I1460" s="1" t="s">
-        <v>5239</v>
+        <v>5233</v>
       </c>
       <c r="J1460" s="1" t="s">
         <v>4648</v>
@@ -59569,7 +59933,7 @@
         <v>4733</v>
       </c>
       <c r="I1471" s="1" t="s">
-        <v>5240</v>
+        <v>5234</v>
       </c>
       <c r="J1471" s="1" t="s">
         <v>4659</v>
@@ -61318,11 +61682,11 @@
       </c>
     </row>
     <row r="1527" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1527" s="1" t="s">
+      <c r="A1527" s="7" t="s">
         <v>4753</v>
       </c>
       <c r="B1527" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1527" s="1" t="s">
         <v>4756</v>
@@ -61350,11 +61714,11 @@
       </c>
     </row>
     <row r="1528" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1528" s="1" t="s">
+      <c r="A1528" s="7" t="s">
         <v>4762</v>
       </c>
       <c r="B1528" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1528" s="1" t="s">
         <v>4778</v>
@@ -61382,11 +61746,11 @@
       </c>
     </row>
     <row r="1529" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1529" s="1" t="s">
+      <c r="A1529" s="7" t="s">
         <v>4763</v>
       </c>
       <c r="B1529" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1529" s="1" t="s">
         <v>4784</v>
@@ -61414,11 +61778,11 @@
       </c>
     </row>
     <row r="1530" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1530" s="1" t="s">
+      <c r="A1530" s="7" t="s">
         <v>4764</v>
       </c>
       <c r="B1530" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1530" s="1" t="s">
         <v>4788</v>
@@ -61446,11 +61810,11 @@
       </c>
     </row>
     <row r="1531" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1531" s="1" t="s">
+      <c r="A1531" s="7" t="s">
         <v>4765</v>
       </c>
       <c r="B1531" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1531" s="1" t="s">
         <v>4793</v>
@@ -61478,11 +61842,11 @@
       </c>
     </row>
     <row r="1532" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1532" s="1" t="s">
+      <c r="A1532" s="7" t="s">
         <v>4766</v>
       </c>
       <c r="B1532" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1532" s="1" t="s">
         <v>4799</v>
@@ -61510,11 +61874,11 @@
       </c>
     </row>
     <row r="1533" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1533" s="1" t="s">
+      <c r="A1533" s="7" t="s">
         <v>4767</v>
       </c>
       <c r="B1533" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1533" s="1" t="s">
         <v>4803</v>
@@ -61542,11 +61906,11 @@
       </c>
     </row>
     <row r="1534" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1534" s="1" t="s">
+      <c r="A1534" s="7" t="s">
         <v>4768</v>
       </c>
       <c r="B1534" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1534" s="1" t="s">
         <v>4808</v>
@@ -61574,11 +61938,11 @@
       </c>
     </row>
     <row r="1535" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1535" s="1" t="s">
+      <c r="A1535" s="7" t="s">
         <v>4769</v>
       </c>
       <c r="B1535" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1535" s="1" t="s">
         <v>4813</v>
@@ -61606,11 +61970,11 @@
       </c>
     </row>
     <row r="1536" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1536" s="1" t="s">
+      <c r="A1536" s="7" t="s">
         <v>4770</v>
       </c>
       <c r="B1536" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1536" s="1" t="s">
         <v>4820</v>
@@ -61638,11 +62002,11 @@
       </c>
     </row>
     <row r="1537" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1537" s="1" t="s">
+      <c r="A1537" s="7" t="s">
         <v>4771</v>
       </c>
       <c r="B1537" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1537" s="1" t="s">
         <v>4818</v>
@@ -61670,11 +62034,11 @@
       </c>
     </row>
     <row r="1538" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1538" s="1" t="s">
+      <c r="A1538" s="7" t="s">
         <v>4772</v>
       </c>
       <c r="B1538" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1538" s="1" t="s">
         <v>4852</v>
@@ -61702,11 +62066,11 @@
       </c>
     </row>
     <row r="1539" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1539" s="1" t="s">
+      <c r="A1539" s="7" t="s">
         <v>4773</v>
       </c>
       <c r="B1539" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1539" s="1" t="s">
         <v>4853</v>
@@ -61734,11 +62098,11 @@
       </c>
     </row>
     <row r="1540" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1540" s="1" t="s">
+      <c r="A1540" s="7" t="s">
         <v>4774</v>
       </c>
       <c r="B1540" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1540" s="1" t="s">
         <v>4854</v>
@@ -61766,11 +62130,11 @@
       </c>
     </row>
     <row r="1541" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1541" s="1" t="s">
+      <c r="A1541" s="7" t="s">
         <v>4775</v>
       </c>
       <c r="B1541" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1541" s="1" t="s">
         <v>4855</v>
@@ -61798,11 +62162,11 @@
       </c>
     </row>
     <row r="1542" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1542" s="1" t="s">
+      <c r="A1542" s="7" t="s">
         <v>4776</v>
       </c>
       <c r="B1542" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1542" s="1" t="s">
         <v>4856</v>
@@ -61830,11 +62194,11 @@
       </c>
     </row>
     <row r="1543" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1543" s="1" t="s">
+      <c r="A1543" s="7" t="s">
         <v>4777</v>
       </c>
       <c r="B1543" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1543" s="1" t="s">
         <v>4857</v>
@@ -61862,11 +62226,11 @@
       </c>
     </row>
     <row r="1544" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1544" s="1" t="s">
+      <c r="A1544" s="7" t="s">
         <v>4858</v>
       </c>
       <c r="B1544" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1544" s="1" t="s">
         <v>4864</v>
@@ -61894,11 +62258,11 @@
       </c>
     </row>
     <row r="1545" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1545" s="1" t="s">
+      <c r="A1545" s="7" t="s">
         <v>4929</v>
       </c>
       <c r="B1545" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1545" s="1" t="s">
         <v>4922</v>
@@ -61926,11 +62290,11 @@
       </c>
     </row>
     <row r="1546" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1546" s="1" t="s">
+      <c r="A1546" s="7" t="s">
         <v>4859</v>
       </c>
       <c r="B1546" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1546" s="1" t="s">
         <v>4924</v>
@@ -61961,11 +62325,11 @@
       </c>
     </row>
     <row r="1547" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1547" s="1" t="s">
+      <c r="A1547" s="7" t="s">
         <v>4860</v>
       </c>
       <c r="B1547" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1547" s="1" t="s">
         <v>4923</v>
@@ -61996,11 +62360,11 @@
       </c>
     </row>
     <row r="1548" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1548" s="1" t="s">
+      <c r="A1548" s="7" t="s">
         <v>4964</v>
       </c>
       <c r="B1548" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1548" s="1" t="s">
         <v>4933</v>
@@ -62028,11 +62392,11 @@
       </c>
     </row>
     <row r="1549" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1549" s="1" t="s">
+      <c r="A1549" s="7" t="s">
         <v>4861</v>
       </c>
       <c r="B1549" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1549" s="1" t="s">
         <v>4931</v>
@@ -62063,11 +62427,11 @@
       </c>
     </row>
     <row r="1550" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1550" s="1" t="s">
+      <c r="A1550" s="7" t="s">
         <v>4862</v>
       </c>
       <c r="B1550" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1550" s="1" t="s">
         <v>4932</v>
@@ -62098,11 +62462,11 @@
       </c>
     </row>
     <row r="1551" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1551" s="1" t="s">
+      <c r="A1551" s="7" t="s">
         <v>5019</v>
       </c>
       <c r="B1551" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1551" s="1" t="s">
         <v>4941</v>
@@ -62130,11 +62494,11 @@
       </c>
     </row>
     <row r="1552" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1552" s="1" t="s">
+      <c r="A1552" s="7" t="s">
         <v>4863</v>
       </c>
       <c r="B1552" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1552" s="1" t="s">
         <v>4945</v>
@@ -62162,11 +62526,11 @@
       </c>
     </row>
     <row r="1553" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1553" s="1" t="s">
+      <c r="A1553" s="7" t="s">
         <v>4966</v>
       </c>
       <c r="B1553" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1553" s="1" t="s">
         <v>4946</v>
@@ -62197,11 +62561,11 @@
       </c>
     </row>
     <row r="1554" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1554" s="1" t="s">
+      <c r="A1554" s="7" t="s">
         <v>4868</v>
       </c>
       <c r="B1554" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1554" s="1" t="s">
         <v>4947</v>
@@ -62232,11 +62596,11 @@
       </c>
     </row>
     <row r="1555" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1555" s="1" t="s">
+      <c r="A1555" s="7" t="s">
         <v>4869</v>
       </c>
       <c r="B1555" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1555" s="1" t="s">
         <v>4948</v>
@@ -62267,11 +62631,11 @@
       </c>
     </row>
     <row r="1556" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1556" s="1" t="s">
+      <c r="A1556" s="7" t="s">
         <v>4870</v>
       </c>
       <c r="B1556" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1556" s="1" t="s">
         <v>4949</v>
@@ -62302,11 +62666,11 @@
       </c>
     </row>
     <row r="1557" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1557" s="1" t="s">
+      <c r="A1557" s="7" t="s">
         <v>4871</v>
       </c>
       <c r="B1557" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1557" s="1" t="s">
         <v>4950</v>
@@ -62337,11 +62701,11 @@
       </c>
     </row>
     <row r="1558" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1558" s="1" t="s">
+      <c r="A1558" s="7" t="s">
         <v>4872</v>
       </c>
       <c r="B1558" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1558" s="1" t="s">
         <v>4968</v>
@@ -62369,11 +62733,11 @@
       </c>
     </row>
     <row r="1559" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1559" s="1" t="s">
+      <c r="A1559" s="7" t="s">
         <v>4873</v>
       </c>
       <c r="B1559" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1559" s="1" t="s">
         <v>4968</v>
@@ -62404,11 +62768,11 @@
       </c>
     </row>
     <row r="1560" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1560" s="1" t="s">
+      <c r="A1560" s="7" t="s">
         <v>4874</v>
       </c>
       <c r="B1560" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1560" s="1" t="s">
         <v>4968</v>
@@ -62439,11 +62803,11 @@
       </c>
     </row>
     <row r="1561" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1561" s="1" t="s">
+      <c r="A1561" s="7" t="s">
         <v>4875</v>
       </c>
       <c r="B1561" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1561" s="1" t="s">
         <v>4968</v>
@@ -62474,11 +62838,11 @@
       </c>
     </row>
     <row r="1562" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1562" s="1" t="s">
+      <c r="A1562" s="7" t="s">
         <v>4876</v>
       </c>
       <c r="B1562" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1562" s="1" t="s">
         <v>4968</v>
@@ -62509,11 +62873,11 @@
       </c>
     </row>
     <row r="1563" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1563" s="1" t="s">
+      <c r="A1563" s="7" t="s">
         <v>4877</v>
       </c>
       <c r="B1563" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1563" s="1" t="s">
         <v>4981</v>
@@ -62541,11 +62905,11 @@
       </c>
     </row>
     <row r="1564" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1564" s="1" t="s">
+      <c r="A1564" s="7" t="s">
         <v>4878</v>
       </c>
       <c r="B1564" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1564" s="1" t="s">
         <v>4981</v>
@@ -62576,11 +62940,11 @@
       </c>
     </row>
     <row r="1565" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1565" s="1" t="s">
+      <c r="A1565" s="7" t="s">
         <v>4879</v>
       </c>
       <c r="B1565" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1565" s="1" t="s">
         <v>4981</v>
@@ -62611,11 +62975,11 @@
       </c>
     </row>
     <row r="1566" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1566" s="1" t="s">
+      <c r="A1566" s="7" t="s">
         <v>4880</v>
       </c>
       <c r="B1566" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1566" s="1" t="s">
         <v>4990</v>
@@ -62643,11 +63007,11 @@
       </c>
     </row>
     <row r="1567" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1567" s="1" t="s">
+      <c r="A1567" s="7" t="s">
         <v>4881</v>
       </c>
       <c r="B1567" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1567" s="1" t="s">
         <v>4995</v>
@@ -62678,11 +63042,11 @@
       </c>
     </row>
     <row r="1568" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1568" s="1" t="s">
+      <c r="A1568" s="7" t="s">
         <v>4882</v>
       </c>
       <c r="B1568" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1568" s="1" t="s">
         <v>4998</v>
@@ -62713,11 +63077,11 @@
       </c>
     </row>
     <row r="1569" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1569" s="1" t="s">
+      <c r="A1569" s="7" t="s">
         <v>4883</v>
       </c>
       <c r="B1569" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1569" s="1" t="s">
         <v>5005</v>
@@ -62748,11 +63112,11 @@
       </c>
     </row>
     <row r="1570" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1570" s="1" t="s">
+      <c r="A1570" s="7" t="s">
         <v>4884</v>
       </c>
       <c r="B1570" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1570" s="1" t="s">
         <v>5006</v>
@@ -62783,11 +63147,11 @@
       </c>
     </row>
     <row r="1571" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1571" s="1" t="s">
+      <c r="A1571" s="7" t="s">
         <v>4885</v>
       </c>
       <c r="B1571" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1571" s="1" t="s">
         <v>5007</v>
@@ -62818,11 +63182,11 @@
       </c>
     </row>
     <row r="1572" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1572" s="1" t="s">
+      <c r="A1572" s="7" t="s">
         <v>4991</v>
       </c>
       <c r="B1572" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1572" s="1" t="s">
         <v>5008</v>
@@ -62853,11 +63217,11 @@
       </c>
     </row>
     <row r="1573" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1573" s="1" t="s">
+      <c r="A1573" s="7" t="s">
         <v>5001</v>
       </c>
       <c r="B1573" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1573" s="1" t="s">
         <v>5009</v>
@@ -62888,11 +63252,11 @@
       </c>
     </row>
     <row r="1574" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1574" s="1" t="s">
+      <c r="A1574" s="7" t="s">
         <v>5002</v>
       </c>
       <c r="B1574" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1574" s="1" t="s">
         <v>5010</v>
@@ -62923,11 +63287,11 @@
       </c>
     </row>
     <row r="1575" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1575" s="1" t="s">
+      <c r="A1575" s="7" t="s">
         <v>5003</v>
       </c>
       <c r="B1575" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1575" s="1" t="s">
         <v>5011</v>
@@ -62958,11 +63322,11 @@
       </c>
     </row>
     <row r="1576" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1576" s="1" t="s">
+      <c r="A1576" s="7" t="s">
         <v>5004</v>
       </c>
       <c r="B1576" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1576" s="1" t="s">
         <v>5028</v>
@@ -62993,11 +63357,11 @@
       </c>
     </row>
     <row r="1577" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1577" s="1" t="s">
+      <c r="A1577" s="7" t="s">
         <v>5027</v>
       </c>
       <c r="B1577" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1577" s="1" t="s">
         <v>5029</v>
@@ -63028,11 +63392,11 @@
       </c>
     </row>
     <row r="1578" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1578" s="1" t="s">
+      <c r="A1578" s="7" t="s">
         <v>5048</v>
       </c>
       <c r="B1578" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1578" s="1" t="s">
         <v>5042</v>
@@ -63060,11 +63424,11 @@
       </c>
     </row>
     <row r="1579" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1579" s="1" t="s">
+      <c r="A1579" s="7" t="s">
         <v>5034</v>
       </c>
       <c r="B1579" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1579" s="1" t="s">
         <v>5043</v>
@@ -63092,11 +63456,11 @@
       </c>
     </row>
     <row r="1580" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1580" s="1" t="s">
+      <c r="A1580" s="7" t="s">
         <v>5035</v>
       </c>
       <c r="B1580" s="4" t="s">
-        <v>5136</v>
+        <v>5133</v>
       </c>
       <c r="C1580" s="1" t="s">
         <v>5043</v>
@@ -63127,7 +63491,7 @@
       <c r="A1581" s="1" t="s">
         <v>5050</v>
       </c>
-      <c r="B1581" s="1" t="s">
+      <c r="B1581" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1581" s="1" t="s">
@@ -63157,13 +63521,13 @@
     </row>
     <row r="1582" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1582" s="1" t="s">
-        <v>5065</v>
-      </c>
-      <c r="B1582" s="1" t="s">
+        <v>5062</v>
+      </c>
+      <c r="B1582" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1582" s="1" t="s">
-        <v>5070</v>
+        <v>5067</v>
       </c>
       <c r="D1582" s="1" t="s">
         <v>4754</v>
@@ -63175,13 +63539,13 @@
         <v>5053</v>
       </c>
       <c r="G1582" s="1" t="s">
-        <v>5074</v>
+        <v>5071</v>
       </c>
       <c r="I1582" s="1" t="s">
         <v>5055</v>
       </c>
       <c r="J1582" s="1" t="s">
-        <v>5075</v>
+        <v>5072</v>
       </c>
       <c r="K1582" s="1" t="s">
         <v>44</v>
@@ -63189,13 +63553,13 @@
     </row>
     <row r="1583" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1583" s="1" t="s">
-        <v>5066</v>
-      </c>
-      <c r="B1583" s="1" t="s">
+        <v>5063</v>
+      </c>
+      <c r="B1583" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1583" s="1" t="s">
-        <v>5086</v>
+        <v>5083</v>
       </c>
       <c r="D1583" s="1" t="s">
         <v>4754</v>
@@ -63207,13 +63571,13 @@
         <v>5053</v>
       </c>
       <c r="G1583" s="1" t="s">
-        <v>5083</v>
+        <v>5080</v>
       </c>
       <c r="I1583" s="1" t="s">
         <v>5055</v>
       </c>
       <c r="J1583" s="1" t="s">
-        <v>5076</v>
+        <v>5073</v>
       </c>
       <c r="K1583" s="1" t="s">
         <v>44</v>
@@ -63221,13 +63585,13 @@
     </row>
     <row r="1584" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1584" s="1" t="s">
-        <v>5067</v>
-      </c>
-      <c r="B1584" s="1" t="s">
+        <v>5064</v>
+      </c>
+      <c r="B1584" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1584" s="1" t="s">
-        <v>5087</v>
+        <v>5084</v>
       </c>
       <c r="D1584" s="1" t="s">
         <v>4754</v>
@@ -63239,13 +63603,13 @@
         <v>5053</v>
       </c>
       <c r="G1584" s="1" t="s">
-        <v>5084</v>
+        <v>5081</v>
       </c>
       <c r="I1584" s="1" t="s">
         <v>5055</v>
       </c>
       <c r="J1584" s="1" t="s">
-        <v>5077</v>
+        <v>5074</v>
       </c>
       <c r="K1584" s="1" t="s">
         <v>44</v>
@@ -63253,13 +63617,13 @@
     </row>
     <row r="1585" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1585" s="1" t="s">
-        <v>5068</v>
-      </c>
-      <c r="B1585" s="1" t="s">
+        <v>5065</v>
+      </c>
+      <c r="B1585" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1585" s="1" t="s">
-        <v>5088</v>
+        <v>5085</v>
       </c>
       <c r="D1585" s="1" t="s">
         <v>4754</v>
@@ -63271,13 +63635,13 @@
         <v>5053</v>
       </c>
       <c r="G1585" s="1" t="s">
-        <v>5085</v>
+        <v>5082</v>
       </c>
       <c r="I1585" s="1" t="s">
         <v>5055</v>
       </c>
       <c r="J1585" s="1" t="s">
-        <v>5078</v>
+        <v>5075</v>
       </c>
       <c r="K1585" s="1" t="s">
         <v>44</v>
@@ -63285,13 +63649,13 @@
     </row>
     <row r="1586" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1586" s="1" t="s">
-        <v>5069</v>
-      </c>
-      <c r="B1586" s="1" t="s">
+        <v>5066</v>
+      </c>
+      <c r="B1586" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1586" s="1" t="s">
-        <v>5089</v>
+        <v>5086</v>
       </c>
       <c r="D1586" s="1" t="s">
         <v>4754</v>
@@ -63303,13 +63667,13 @@
         <v>5053</v>
       </c>
       <c r="G1586" s="1" t="s">
-        <v>5090</v>
+        <v>5087</v>
       </c>
       <c r="I1586" s="1" t="s">
         <v>5055</v>
       </c>
       <c r="J1586" s="1" t="s">
-        <v>5079</v>
+        <v>5076</v>
       </c>
       <c r="K1586" s="1" t="s">
         <v>44</v>
@@ -63317,13 +63681,13 @@
     </row>
     <row r="1587" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1587" s="1" t="s">
-        <v>5071</v>
-      </c>
-      <c r="B1587" s="1" t="s">
+        <v>5068</v>
+      </c>
+      <c r="B1587" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1587" s="1" t="s">
-        <v>5091</v>
+        <v>5088</v>
       </c>
       <c r="D1587" s="1" t="s">
         <v>4754</v>
@@ -63335,13 +63699,13 @@
         <v>5053</v>
       </c>
       <c r="G1587" s="1" t="s">
-        <v>5103</v>
+        <v>5100</v>
       </c>
       <c r="I1587" s="1" t="s">
-        <v>5092</v>
+        <v>5089</v>
       </c>
       <c r="J1587" s="1" t="s">
-        <v>5080</v>
+        <v>5077</v>
       </c>
       <c r="K1587" s="1" t="s">
         <v>44</v>
@@ -63349,13 +63713,13 @@
     </row>
     <row r="1588" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1588" s="1" t="s">
-        <v>5072</v>
-      </c>
-      <c r="B1588" s="1" t="s">
+        <v>5069</v>
+      </c>
+      <c r="B1588" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1588" s="1" t="s">
-        <v>5093</v>
+        <v>5090</v>
       </c>
       <c r="D1588" s="1" t="s">
         <v>4754</v>
@@ -63364,16 +63728,16 @@
         <v>5052</v>
       </c>
       <c r="F1588" s="1" t="s">
-        <v>5095</v>
+        <v>5092</v>
       </c>
       <c r="G1588" s="1" t="s">
-        <v>5094</v>
+        <v>5091</v>
       </c>
       <c r="I1588" s="1" t="s">
-        <v>5096</v>
+        <v>5093</v>
       </c>
       <c r="J1588" s="1" t="s">
-        <v>5081</v>
+        <v>5078</v>
       </c>
       <c r="K1588" s="1" t="s">
         <v>44</v>
@@ -63381,13 +63745,13 @@
     </row>
     <row r="1589" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1589" s="1" t="s">
-        <v>5073</v>
-      </c>
-      <c r="B1589" s="1" t="s">
+        <v>5070</v>
+      </c>
+      <c r="B1589" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1589" s="1" t="s">
-        <v>5097</v>
+        <v>5094</v>
       </c>
       <c r="D1589" s="1" t="s">
         <v>4754</v>
@@ -63396,16 +63760,16 @@
         <v>5052</v>
       </c>
       <c r="F1589" s="1" t="s">
+        <v>5092</v>
+      </c>
+      <c r="G1589" s="1" t="s">
         <v>5095</v>
-      </c>
-      <c r="G1589" s="1" t="s">
-        <v>5098</v>
       </c>
       <c r="I1589" s="1" t="s">
         <v>5055</v>
       </c>
       <c r="J1589" s="1" t="s">
-        <v>5082</v>
+        <v>5079</v>
       </c>
       <c r="K1589" s="1" t="s">
         <v>44</v>
@@ -63413,13 +63777,13 @@
     </row>
     <row r="1590" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1590" s="1" t="s">
-        <v>5099</v>
-      </c>
-      <c r="B1590" s="1" t="s">
+        <v>5096</v>
+      </c>
+      <c r="B1590" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1590" s="1" t="s">
-        <v>5100</v>
+        <v>5097</v>
       </c>
       <c r="D1590" s="1" t="s">
         <v>4754</v>
@@ -63428,16 +63792,16 @@
         <v>5052</v>
       </c>
       <c r="F1590" s="1" t="s">
-        <v>5095</v>
+        <v>5092</v>
       </c>
       <c r="G1590" s="1" t="s">
-        <v>5101</v>
+        <v>5098</v>
       </c>
       <c r="I1590" s="1" t="s">
         <v>5055</v>
       </c>
       <c r="J1590" s="1" t="s">
-        <v>5102</v>
+        <v>5099</v>
       </c>
       <c r="K1590" s="1" t="s">
         <v>44</v>
@@ -63445,13 +63809,13 @@
     </row>
     <row r="1591" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1591" s="1" t="s">
-        <v>5104</v>
-      </c>
-      <c r="B1591" s="1" t="s">
+        <v>5101</v>
+      </c>
+      <c r="B1591" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1591" s="1" t="s">
-        <v>5105</v>
+        <v>5102</v>
       </c>
       <c r="D1591" s="1" t="s">
         <v>4754</v>
@@ -63460,16 +63824,16 @@
         <v>5052</v>
       </c>
       <c r="F1591" s="1" t="s">
-        <v>5106</v>
+        <v>5103</v>
       </c>
       <c r="G1591" s="1" t="s">
-        <v>5107</v>
+        <v>5104</v>
       </c>
       <c r="I1591" s="1" t="s">
-        <v>5112</v>
+        <v>5109</v>
       </c>
       <c r="J1591" s="1" t="s">
-        <v>5108</v>
+        <v>5105</v>
       </c>
       <c r="K1591" s="1" t="s">
         <v>44</v>
@@ -63477,13 +63841,13 @@
     </row>
     <row r="1592" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1592" s="1" t="s">
-        <v>5109</v>
-      </c>
-      <c r="B1592" s="1" t="s">
+        <v>5106</v>
+      </c>
+      <c r="B1592" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1592" s="1" t="s">
-        <v>5110</v>
+        <v>5107</v>
       </c>
       <c r="D1592" s="1" t="s">
         <v>4754</v>
@@ -63492,16 +63856,16 @@
         <v>5052</v>
       </c>
       <c r="F1592" s="1" t="s">
-        <v>5106</v>
+        <v>5103</v>
       </c>
       <c r="G1592" s="1" t="s">
+        <v>5108</v>
+      </c>
+      <c r="I1592" s="1" t="s">
+        <v>5110</v>
+      </c>
+      <c r="J1592" s="1" t="s">
         <v>5111</v>
-      </c>
-      <c r="I1592" s="1" t="s">
-        <v>5113</v>
-      </c>
-      <c r="J1592" s="1" t="s">
-        <v>5114</v>
       </c>
       <c r="K1592" s="1" t="s">
         <v>44</v>
@@ -63509,13 +63873,13 @@
     </row>
     <row r="1593" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1593" s="1" t="s">
-        <v>5121</v>
-      </c>
-      <c r="B1593" s="1" t="s">
+        <v>5118</v>
+      </c>
+      <c r="B1593" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1593" s="1" t="s">
-        <v>5115</v>
+        <v>5112</v>
       </c>
       <c r="D1593" s="1" t="s">
         <v>4754</v>
@@ -63524,16 +63888,16 @@
         <v>5052</v>
       </c>
       <c r="F1593" s="1" t="s">
+        <v>5113</v>
+      </c>
+      <c r="G1593" s="1" t="s">
+        <v>5114</v>
+      </c>
+      <c r="I1593" s="1" t="s">
+        <v>5115</v>
+      </c>
+      <c r="J1593" s="1" t="s">
         <v>5116</v>
-      </c>
-      <c r="G1593" s="1" t="s">
-        <v>5117</v>
-      </c>
-      <c r="I1593" s="1" t="s">
-        <v>5118</v>
-      </c>
-      <c r="J1593" s="1" t="s">
-        <v>5119</v>
       </c>
       <c r="K1593" s="1" t="s">
         <v>44</v>
@@ -63541,13 +63905,13 @@
     </row>
     <row r="1594" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1594" s="1" t="s">
-        <v>5120</v>
-      </c>
-      <c r="B1594" s="1" t="s">
+        <v>5117</v>
+      </c>
+      <c r="B1594" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1594" s="1" t="s">
-        <v>5115</v>
+        <v>5112</v>
       </c>
       <c r="D1594" s="1" t="s">
         <v>4754</v>
@@ -63556,400 +63920,400 @@
         <v>5052</v>
       </c>
       <c r="F1594" s="1" t="s">
-        <v>5116</v>
+        <v>5113</v>
       </c>
       <c r="H1594" s="1" t="s">
-        <v>5121</v>
+        <v>5118</v>
       </c>
       <c r="I1594" s="1" t="s">
-        <v>5122</v>
+        <v>5119</v>
       </c>
       <c r="J1594" s="1" t="s">
-        <v>5123</v>
+        <v>5120</v>
       </c>
       <c r="K1594" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="1595" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1595" s="1" t="s">
-        <v>5124</v>
-      </c>
-      <c r="B1595" s="1" t="s">
-        <v>5136</v>
+      <c r="A1595" s="7" t="s">
+        <v>5121</v>
+      </c>
+      <c r="B1595" s="4" t="s">
+        <v>5133</v>
       </c>
       <c r="C1595" s="1" t="s">
-        <v>5131</v>
+        <v>5128</v>
       </c>
       <c r="D1595" s="1" t="s">
         <v>4754</v>
       </c>
       <c r="E1595" s="1" t="s">
-        <v>5133</v>
+        <v>5130</v>
       </c>
       <c r="F1595" s="1" t="s">
-        <v>5146</v>
+        <v>5143</v>
       </c>
       <c r="G1595" s="1" t="s">
-        <v>5156</v>
+        <v>5153</v>
       </c>
       <c r="I1595" s="1" t="s">
-        <v>5157</v>
+        <v>5154</v>
       </c>
       <c r="J1595" s="1" t="s">
-        <v>5158</v>
+        <v>5155</v>
       </c>
       <c r="K1595" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="1596" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1596" s="1" t="s">
-        <v>5125</v>
-      </c>
-      <c r="B1596" s="1" t="s">
-        <v>5136</v>
+      <c r="A1596" s="7" t="s">
+        <v>5122</v>
+      </c>
+      <c r="B1596" s="4" t="s">
+        <v>5133</v>
       </c>
       <c r="C1596" s="1" t="s">
-        <v>5132</v>
+        <v>5129</v>
       </c>
       <c r="D1596" s="1" t="s">
         <v>4754</v>
       </c>
       <c r="E1596" s="1" t="s">
-        <v>5133</v>
+        <v>5130</v>
       </c>
       <c r="F1596" s="1" t="s">
-        <v>5147</v>
+        <v>5144</v>
       </c>
       <c r="G1596" s="1" t="s">
-        <v>5168</v>
+        <v>5165</v>
       </c>
       <c r="I1596" s="1" t="s">
-        <v>5177</v>
+        <v>5174</v>
       </c>
       <c r="J1596" s="1" t="s">
-        <v>5159</v>
+        <v>5156</v>
       </c>
       <c r="K1596" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="1597" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1597" s="1" t="s">
-        <v>5126</v>
-      </c>
-      <c r="B1597" s="1" t="s">
-        <v>5136</v>
+      <c r="A1597" s="7" t="s">
+        <v>5123</v>
+      </c>
+      <c r="B1597" s="4" t="s">
+        <v>5133</v>
       </c>
       <c r="C1597" s="1" t="s">
-        <v>5135</v>
+        <v>5132</v>
       </c>
       <c r="D1597" s="1" t="s">
         <v>4754</v>
       </c>
       <c r="E1597" s="1" t="s">
-        <v>5133</v>
+        <v>5130</v>
       </c>
       <c r="F1597" s="1" t="s">
-        <v>5148</v>
+        <v>5145</v>
       </c>
       <c r="G1597" s="1" t="s">
-        <v>5169</v>
+        <v>5166</v>
       </c>
       <c r="I1597" s="1" t="s">
-        <v>5178</v>
+        <v>5175</v>
       </c>
       <c r="J1597" s="1" t="s">
-        <v>5160</v>
+        <v>5157</v>
       </c>
       <c r="K1597" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="1598" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1598" s="1" t="s">
-        <v>5127</v>
-      </c>
-      <c r="B1598" s="1" t="s">
-        <v>5136</v>
+      <c r="A1598" s="7" t="s">
+        <v>5124</v>
+      </c>
+      <c r="B1598" s="4" t="s">
+        <v>5133</v>
       </c>
       <c r="C1598" s="1" t="s">
-        <v>5137</v>
+        <v>5134</v>
       </c>
       <c r="D1598" s="1" t="s">
         <v>4754</v>
       </c>
       <c r="E1598" s="1" t="s">
-        <v>5133</v>
+        <v>5130</v>
       </c>
       <c r="F1598" s="1" t="s">
-        <v>5149</v>
+        <v>5146</v>
       </c>
       <c r="G1598" s="1" t="s">
-        <v>5170</v>
+        <v>5167</v>
       </c>
       <c r="I1598" s="1" t="s">
-        <v>5179</v>
+        <v>5176</v>
       </c>
       <c r="J1598" s="1" t="s">
-        <v>5161</v>
+        <v>5158</v>
       </c>
       <c r="K1598" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="1599" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1599" s="1" t="s">
-        <v>5128</v>
-      </c>
-      <c r="B1599" s="1" t="s">
-        <v>5136</v>
+      <c r="A1599" s="7" t="s">
+        <v>5125</v>
+      </c>
+      <c r="B1599" s="4" t="s">
+        <v>5133</v>
       </c>
       <c r="C1599" s="1" t="s">
-        <v>5138</v>
+        <v>5135</v>
       </c>
       <c r="D1599" s="1" t="s">
         <v>4754</v>
       </c>
       <c r="E1599" s="1" t="s">
-        <v>5133</v>
+        <v>5130</v>
       </c>
       <c r="F1599" s="1" t="s">
-        <v>5150</v>
+        <v>5147</v>
       </c>
       <c r="G1599" s="1" t="s">
-        <v>5171</v>
+        <v>5168</v>
       </c>
       <c r="I1599" s="1" t="s">
-        <v>5180</v>
+        <v>5177</v>
       </c>
       <c r="J1599" s="1" t="s">
-        <v>5162</v>
+        <v>5159</v>
       </c>
       <c r="K1599" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="1600" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1600" s="1" t="s">
-        <v>5129</v>
-      </c>
-      <c r="B1600" s="1" t="s">
+      <c r="A1600" s="7" t="s">
+        <v>5126</v>
+      </c>
+      <c r="B1600" s="4" t="s">
+        <v>5133</v>
+      </c>
+      <c r="C1600" s="1" t="s">
         <v>5136</v>
-      </c>
-      <c r="C1600" s="1" t="s">
-        <v>5139</v>
       </c>
       <c r="D1600" s="1" t="s">
         <v>4754</v>
       </c>
       <c r="E1600" s="1" t="s">
-        <v>5133</v>
+        <v>5130</v>
       </c>
       <c r="F1600" s="1" t="s">
-        <v>5151</v>
+        <v>5148</v>
       </c>
       <c r="G1600" s="1" t="s">
-        <v>5172</v>
+        <v>5169</v>
       </c>
       <c r="I1600" s="1" t="s">
-        <v>5181</v>
+        <v>5178</v>
       </c>
       <c r="J1600" s="1" t="s">
-        <v>5163</v>
+        <v>5160</v>
       </c>
       <c r="K1600" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="1601" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1601" s="1" t="s">
-        <v>5130</v>
-      </c>
-      <c r="B1601" s="1" t="s">
-        <v>5136</v>
+      <c r="A1601" s="7" t="s">
+        <v>5127</v>
+      </c>
+      <c r="B1601" s="4" t="s">
+        <v>5133</v>
       </c>
       <c r="C1601" s="1" t="s">
-        <v>5140</v>
+        <v>5137</v>
       </c>
       <c r="D1601" s="1" t="s">
         <v>4754</v>
       </c>
       <c r="E1601" s="1" t="s">
-        <v>5133</v>
+        <v>5130</v>
       </c>
       <c r="F1601" s="1" t="s">
-        <v>5152</v>
+        <v>5149</v>
       </c>
       <c r="G1601" s="1" t="s">
-        <v>5173</v>
+        <v>5170</v>
       </c>
       <c r="I1601" s="1" t="s">
-        <v>5182</v>
+        <v>5179</v>
       </c>
       <c r="J1601" s="1" t="s">
-        <v>5164</v>
+        <v>5161</v>
       </c>
       <c r="K1601" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="1602" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1602" s="1" t="s">
-        <v>5134</v>
-      </c>
-      <c r="B1602" s="1" t="s">
-        <v>5136</v>
+      <c r="A1602" s="7" t="s">
+        <v>5131</v>
+      </c>
+      <c r="B1602" s="4" t="s">
+        <v>5133</v>
       </c>
       <c r="C1602" s="1" t="s">
-        <v>5141</v>
+        <v>5138</v>
       </c>
       <c r="D1602" s="1" t="s">
         <v>4754</v>
       </c>
       <c r="E1602" s="1" t="s">
-        <v>5133</v>
+        <v>5130</v>
       </c>
       <c r="F1602" s="1" t="s">
-        <v>5153</v>
+        <v>5150</v>
       </c>
       <c r="G1602" s="1" t="s">
-        <v>5174</v>
+        <v>5171</v>
       </c>
       <c r="I1602" s="1" t="s">
-        <v>5183</v>
+        <v>5180</v>
       </c>
       <c r="J1602" s="1" t="s">
-        <v>5165</v>
+        <v>5162</v>
       </c>
       <c r="K1602" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="1603" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1603" s="1" t="s">
-        <v>5142</v>
-      </c>
-      <c r="B1603" s="1" t="s">
-        <v>5136</v>
+      <c r="A1603" s="7" t="s">
+        <v>5139</v>
+      </c>
+      <c r="B1603" s="4" t="s">
+        <v>5133</v>
       </c>
       <c r="C1603" s="1" t="s">
-        <v>5144</v>
+        <v>5141</v>
       </c>
       <c r="D1603" s="1" t="s">
         <v>4754</v>
       </c>
       <c r="E1603" s="1" t="s">
-        <v>5133</v>
+        <v>5130</v>
       </c>
       <c r="F1603" s="1" t="s">
-        <v>5154</v>
+        <v>5151</v>
       </c>
       <c r="G1603" s="1" t="s">
-        <v>5175</v>
+        <v>5172</v>
       </c>
       <c r="I1603" s="1" t="s">
-        <v>5184</v>
+        <v>5181</v>
       </c>
       <c r="J1603" s="1" t="s">
-        <v>5166</v>
+        <v>5163</v>
       </c>
       <c r="K1603" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="1604" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1604" s="1" t="s">
-        <v>5143</v>
-      </c>
-      <c r="B1604" s="1" t="s">
-        <v>5136</v>
+      <c r="A1604" s="7" t="s">
+        <v>5140</v>
+      </c>
+      <c r="B1604" s="4" t="s">
+        <v>5133</v>
       </c>
       <c r="C1604" s="1" t="s">
-        <v>5145</v>
+        <v>5142</v>
       </c>
       <c r="D1604" s="1" t="s">
         <v>4754</v>
       </c>
       <c r="E1604" s="1" t="s">
-        <v>5133</v>
+        <v>5130</v>
       </c>
       <c r="F1604" s="1" t="s">
-        <v>5155</v>
+        <v>5152</v>
       </c>
       <c r="G1604" s="1" t="s">
-        <v>5176</v>
+        <v>5173</v>
       </c>
       <c r="I1604" s="1" t="s">
-        <v>5185</v>
+        <v>5182</v>
       </c>
       <c r="J1604" s="1" t="s">
-        <v>5167</v>
+        <v>5164</v>
       </c>
       <c r="K1604" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="1605" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1605" s="1" t="s">
-        <v>5190</v>
-      </c>
-      <c r="B1605" s="1" t="s">
-        <v>5136</v>
+      <c r="A1605" s="7" t="s">
+        <v>5187</v>
+      </c>
+      <c r="B1605" s="4" t="s">
+        <v>5133</v>
       </c>
       <c r="C1605" s="1" t="s">
-        <v>5188</v>
+        <v>5185</v>
       </c>
       <c r="D1605" s="1" t="s">
         <v>4754</v>
       </c>
       <c r="E1605" s="1" t="s">
-        <v>5133</v>
+        <v>5130</v>
       </c>
       <c r="F1605" s="1" t="s">
-        <v>5148</v>
+        <v>5145</v>
       </c>
       <c r="G1605" s="1" t="s">
-        <v>5187</v>
+        <v>5184</v>
       </c>
       <c r="I1605" s="1" t="s">
-        <v>5192</v>
+        <v>5189</v>
       </c>
       <c r="J1605" s="1" t="s">
-        <v>5193</v>
+        <v>5190</v>
       </c>
       <c r="K1605" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="1606" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A1606" s="1" t="s">
+      <c r="A1606" s="7" t="s">
+        <v>5183</v>
+      </c>
+      <c r="B1606" s="4" t="s">
+        <v>5133</v>
+      </c>
+      <c r="C1606" s="1" t="s">
         <v>5186</v>
-      </c>
-      <c r="B1606" s="1" t="s">
-        <v>5136</v>
-      </c>
-      <c r="C1606" s="1" t="s">
-        <v>5189</v>
       </c>
       <c r="D1606" s="1" t="s">
         <v>4754</v>
       </c>
       <c r="E1606" s="1" t="s">
-        <v>5133</v>
+        <v>5130</v>
       </c>
       <c r="F1606" s="1" t="s">
-        <v>5148</v>
+        <v>5145</v>
       </c>
       <c r="H1606" s="1" t="s">
+        <v>5188</v>
+      </c>
+      <c r="I1606" s="1" t="s">
+        <v>5119</v>
+      </c>
+      <c r="J1606" s="1" t="s">
         <v>5191</v>
-      </c>
-      <c r="I1606" s="1" t="s">
-        <v>5122</v>
-      </c>
-      <c r="J1606" s="1" t="s">
-        <v>5194</v>
       </c>
       <c r="K1606" s="1" t="s">
         <v>44</v>
@@ -63957,28 +64321,28 @@
     </row>
     <row r="1607" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1607" s="1" t="s">
-        <v>5254</v>
-      </c>
-      <c r="B1607" s="1" t="s">
+        <v>5248</v>
+      </c>
+      <c r="B1607" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1607" s="1" t="s">
-        <v>5249</v>
+        <v>5243</v>
       </c>
       <c r="D1607" s="1" t="s">
-        <v>5251</v>
+        <v>5245</v>
       </c>
       <c r="F1607" s="1" t="s">
+        <v>5247</v>
+      </c>
+      <c r="G1607" s="1" t="s">
+        <v>5246</v>
+      </c>
+      <c r="I1607" s="1" t="s">
         <v>5253</v>
       </c>
-      <c r="G1607" s="1" t="s">
-        <v>5252</v>
-      </c>
-      <c r="I1607" s="1" t="s">
-        <v>5259</v>
-      </c>
       <c r="J1607" s="1" t="s">
-        <v>5256</v>
+        <v>5250</v>
       </c>
       <c r="K1607" s="1" t="s">
         <v>44</v>
@@ -63986,28 +64350,28 @@
     </row>
     <row r="1608" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1608" s="1" t="s">
-        <v>5248</v>
-      </c>
-      <c r="B1608" s="1" t="s">
+        <v>5242</v>
+      </c>
+      <c r="B1608" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1608" s="1" t="s">
-        <v>5250</v>
+        <v>5244</v>
       </c>
       <c r="D1608" s="1" t="s">
+        <v>5245</v>
+      </c>
+      <c r="F1608" s="1" t="s">
+        <v>5247</v>
+      </c>
+      <c r="H1608" s="1" t="s">
+        <v>5249</v>
+      </c>
+      <c r="I1608" s="1" t="s">
         <v>5251</v>
       </c>
-      <c r="F1608" s="1" t="s">
-        <v>5253</v>
-      </c>
-      <c r="H1608" s="1" t="s">
-        <v>5255</v>
-      </c>
-      <c r="I1608" s="1" t="s">
-        <v>5257</v>
-      </c>
       <c r="J1608" s="1" t="s">
-        <v>5258</v>
+        <v>5252</v>
       </c>
       <c r="K1608" s="1" t="s">
         <v>44</v>
@@ -64015,31 +64379,1047 @@
     </row>
     <row r="1609" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1609" s="1" t="s">
-        <v>5260</v>
-      </c>
-      <c r="B1609" s="1" t="s">
+        <v>5254</v>
+      </c>
+      <c r="B1609" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1609" s="1" t="s">
-        <v>5261</v>
+        <v>5255</v>
       </c>
       <c r="D1609" s="1" t="s">
-        <v>5262</v>
+        <v>5256</v>
       </c>
       <c r="F1609" s="1" t="s">
         <v>2413</v>
       </c>
       <c r="G1609" s="1" t="s">
+        <v>5258</v>
+      </c>
+      <c r="I1609" s="1" t="s">
+        <v>5259</v>
+      </c>
+      <c r="K1609" s="1" t="s">
+        <v>5260</v>
+      </c>
+    </row>
+    <row r="1610" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1610" s="1" t="s">
+        <v>5292</v>
+      </c>
+      <c r="B1610" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1610" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1610" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1610" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="G1610" s="1" t="s">
+        <v>5289</v>
+      </c>
+      <c r="I1610" s="1" t="s">
+        <v>5359</v>
+      </c>
+      <c r="J1610" s="1" t="s">
+        <v>5290</v>
+      </c>
+      <c r="K1610" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1611" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1611" s="1" t="s">
+        <v>5263</v>
+      </c>
+      <c r="B1611" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1611" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1611" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1611" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1611" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1611" s="1" t="s">
+        <v>5294</v>
+      </c>
+      <c r="J1611" s="1" t="s">
+        <v>5295</v>
+      </c>
+      <c r="K1611" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1612" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1612" s="1" t="s">
         <v>5264</v>
       </c>
-      <c r="I1609" s="1" t="s">
+      <c r="B1612" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1612" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1612" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1612" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1612" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1612" s="1" t="s">
+        <v>5306</v>
+      </c>
+      <c r="J1612" s="1" t="s">
+        <v>5296</v>
+      </c>
+      <c r="K1612" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1613" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1613" s="1" t="s">
         <v>5265</v>
       </c>
-      <c r="K1609" s="1" t="s">
+      <c r="B1613" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1613" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1613" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1613" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1613" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1613" s="1" t="s">
+        <v>5307</v>
+      </c>
+      <c r="J1613" s="1" t="s">
+        <v>5297</v>
+      </c>
+      <c r="K1613" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1614" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1614" s="1" t="s">
         <v>5266</v>
       </c>
+      <c r="B1614" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1614" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1614" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1614" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1614" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1614" s="1" t="s">
+        <v>5321</v>
+      </c>
+      <c r="J1614" s="1" t="s">
+        <v>5298</v>
+      </c>
+      <c r="K1614" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1615" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1615" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="B1615" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1615" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1615" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1615" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1615" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1615" s="1" t="s">
+        <v>5322</v>
+      </c>
+      <c r="J1615" s="1" t="s">
+        <v>5299</v>
+      </c>
+      <c r="K1615" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1616" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1616" s="1" t="s">
+        <v>5268</v>
+      </c>
+      <c r="B1616" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1616" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1616" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1616" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1616" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1616" s="1" t="s">
+        <v>5323</v>
+      </c>
+      <c r="J1616" s="1" t="s">
+        <v>5300</v>
+      </c>
+      <c r="K1616" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1617" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1617" s="1" t="s">
+        <v>5269</v>
+      </c>
+      <c r="B1617" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1617" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1617" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1617" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1617" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1617" s="1" t="s">
+        <v>5324</v>
+      </c>
+      <c r="J1617" s="1" t="s">
+        <v>5301</v>
+      </c>
+      <c r="K1617" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1618" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1618" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="B1618" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1618" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1618" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1618" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1618" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1618" s="1" t="s">
+        <v>5325</v>
+      </c>
+      <c r="J1618" s="1" t="s">
+        <v>5302</v>
+      </c>
+      <c r="K1618" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1619" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1619" s="1" t="s">
+        <v>5271</v>
+      </c>
+      <c r="B1619" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1619" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1619" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1619" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1619" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1619" s="1" t="s">
+        <v>5326</v>
+      </c>
+      <c r="J1619" s="1" t="s">
+        <v>5303</v>
+      </c>
+      <c r="K1619" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1620" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1620" s="1" t="s">
+        <v>5272</v>
+      </c>
+      <c r="B1620" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1620" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1620" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1620" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1620" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1620" s="1" t="s">
+        <v>5327</v>
+      </c>
+      <c r="J1620" s="1" t="s">
+        <v>5304</v>
+      </c>
+      <c r="K1620" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1621" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1621" s="1" t="s">
+        <v>5273</v>
+      </c>
+      <c r="B1621" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1621" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1621" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1621" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1621" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1621" s="1" t="s">
+        <v>5328</v>
+      </c>
+      <c r="J1621" s="1" t="s">
+        <v>5305</v>
+      </c>
+      <c r="K1621" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1622" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1622" s="1" t="s">
+        <v>5274</v>
+      </c>
+      <c r="B1622" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1622" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1622" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1622" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1622" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1622" s="1" t="s">
+        <v>5341</v>
+      </c>
+      <c r="J1622" s="1" t="s">
+        <v>5308</v>
+      </c>
+      <c r="K1622" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1623" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1623" s="1" t="s">
+        <v>5275</v>
+      </c>
+      <c r="B1623" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1623" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1623" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1623" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1623" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1623" s="1" t="s">
+        <v>5342</v>
+      </c>
+      <c r="J1623" s="1" t="s">
+        <v>5309</v>
+      </c>
+      <c r="K1623" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1624" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1624" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="B1624" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1624" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1624" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1624" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1624" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1624" s="1" t="s">
+        <v>5343</v>
+      </c>
+      <c r="J1624" s="1" t="s">
+        <v>5310</v>
+      </c>
+      <c r="K1624" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1625" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1625" s="1" t="s">
+        <v>5277</v>
+      </c>
+      <c r="B1625" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1625" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1625" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1625" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1625" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1625" s="1" t="s">
+        <v>5344</v>
+      </c>
+      <c r="J1625" s="1" t="s">
+        <v>5311</v>
+      </c>
+      <c r="K1625" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1626" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1626" s="1" t="s">
+        <v>5278</v>
+      </c>
+      <c r="B1626" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1626" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1626" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1626" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1626" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1626" s="1" t="s">
+        <v>5345</v>
+      </c>
+      <c r="J1626" s="1" t="s">
+        <v>5312</v>
+      </c>
+      <c r="K1626" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1627" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1627" s="1" t="s">
+        <v>5279</v>
+      </c>
+      <c r="B1627" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1627" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1627" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1627" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1627" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1627" s="1" t="s">
+        <v>5346</v>
+      </c>
+      <c r="J1627" s="1" t="s">
+        <v>5313</v>
+      </c>
+      <c r="K1627" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1628" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1628" s="1" t="s">
+        <v>5280</v>
+      </c>
+      <c r="B1628" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1628" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1628" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1628" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1628" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1628" s="1" t="s">
+        <v>5347</v>
+      </c>
+      <c r="J1628" s="1" t="s">
+        <v>5314</v>
+      </c>
+      <c r="K1628" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1629" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1629" s="1" t="s">
+        <v>5281</v>
+      </c>
+      <c r="B1629" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1629" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1629" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1629" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1629" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1629" s="1" t="s">
+        <v>5348</v>
+      </c>
+      <c r="J1629" s="1" t="s">
+        <v>5315</v>
+      </c>
+      <c r="K1629" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1630" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1630" s="1" t="s">
+        <v>5282</v>
+      </c>
+      <c r="B1630" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1630" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1630" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1630" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1630" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1630" s="1" t="s">
+        <v>5349</v>
+      </c>
+      <c r="J1630" s="1" t="s">
+        <v>5316</v>
+      </c>
+      <c r="K1630" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1631" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1631" s="1" t="s">
+        <v>5283</v>
+      </c>
+      <c r="B1631" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1631" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1631" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1631" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1631" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1631" s="1" t="s">
+        <v>5350</v>
+      </c>
+      <c r="J1631" s="1" t="s">
+        <v>5317</v>
+      </c>
+      <c r="K1631" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1632" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1632" s="1" t="s">
+        <v>5284</v>
+      </c>
+      <c r="B1632" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1632" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1632" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1632" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1632" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1632" s="1" t="s">
+        <v>5351</v>
+      </c>
+      <c r="J1632" s="1" t="s">
+        <v>5318</v>
+      </c>
+      <c r="K1632" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1633" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1633" s="1" t="s">
+        <v>5285</v>
+      </c>
+      <c r="B1633" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1633" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1633" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1633" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1633" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1633" s="1" t="s">
+        <v>5352</v>
+      </c>
+      <c r="J1633" s="1" t="s">
+        <v>5319</v>
+      </c>
+      <c r="K1633" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1634" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1634" s="1" t="s">
+        <v>5286</v>
+      </c>
+      <c r="B1634" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1634" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1634" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1634" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1634" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1634" s="1" t="s">
+        <v>5353</v>
+      </c>
+      <c r="J1634" s="1" t="s">
+        <v>5320</v>
+      </c>
+      <c r="K1634" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1635" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1635" s="1" t="s">
+        <v>5329</v>
+      </c>
+      <c r="B1635" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1635" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1635" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1635" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1635" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1635" s="1" t="s">
+        <v>5354</v>
+      </c>
+      <c r="J1635" s="1" t="s">
+        <v>5332</v>
+      </c>
+      <c r="K1635" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1636" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1636" s="1" t="s">
+        <v>5330</v>
+      </c>
+      <c r="B1636" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1636" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1636" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1636" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1636" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1636" s="1" t="s">
+        <v>5355</v>
+      </c>
+      <c r="J1636" s="1" t="s">
+        <v>5333</v>
+      </c>
+      <c r="K1636" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1637" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1637" s="1" t="s">
+        <v>5331</v>
+      </c>
+      <c r="B1637" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1637" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1637" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1637" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1637" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1637" s="1" t="s">
+        <v>5356</v>
+      </c>
+      <c r="J1637" s="1" t="s">
+        <v>5334</v>
+      </c>
+      <c r="K1637" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1638" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1638" s="1" t="s">
+        <v>5335</v>
+      </c>
+      <c r="B1638" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1638" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1638" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1638" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1638" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1638" s="1" t="s">
+        <v>5357</v>
+      </c>
+      <c r="J1638" s="1" t="s">
+        <v>5338</v>
+      </c>
+      <c r="K1638" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1639" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1639" s="1" t="s">
+        <v>5336</v>
+      </c>
+      <c r="B1639" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1639" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1639" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1639" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1639" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1639" s="1" t="s">
+        <v>5358</v>
+      </c>
+      <c r="J1639" s="1" t="s">
+        <v>5339</v>
+      </c>
+      <c r="K1639" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1640" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1640" s="1" t="s">
+        <v>5337</v>
+      </c>
+      <c r="B1640" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1640" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1640" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1640" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1640" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1640" s="1" t="s">
+        <v>5370</v>
+      </c>
+      <c r="J1640" s="1" t="s">
+        <v>5340</v>
+      </c>
+      <c r="K1640" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1641" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1641" s="1" t="s">
+        <v>5360</v>
+      </c>
+      <c r="B1641" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1641" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1641" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1641" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1641" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1641" s="1" t="s">
+        <v>5371</v>
+      </c>
+      <c r="J1641" s="1" t="s">
+        <v>5364</v>
+      </c>
+      <c r="K1641" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1642" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1642" s="1" t="s">
+        <v>5361</v>
+      </c>
+      <c r="B1642" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1642" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1642" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1642" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1642" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1642" s="1" t="s">
+        <v>5372</v>
+      </c>
+      <c r="J1642" s="1" t="s">
+        <v>5365</v>
+      </c>
+      <c r="K1642" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1643" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1643" s="1" t="s">
+        <v>5362</v>
+      </c>
+      <c r="B1643" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1643" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1643" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1643" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1643" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1643" s="1" t="s">
+        <v>5373</v>
+      </c>
+      <c r="J1643" s="1" t="s">
+        <v>5366</v>
+      </c>
+      <c r="K1643" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1644" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1644" s="1" t="s">
+        <v>5363</v>
+      </c>
+      <c r="B1644" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1644" s="1" t="s">
+        <v>5287</v>
+      </c>
+      <c r="D1644" s="1" t="s">
+        <v>5288</v>
+      </c>
+      <c r="F1644" s="1" t="s">
+        <v>5291</v>
+      </c>
+      <c r="H1644" s="1" t="s">
+        <v>5293</v>
+      </c>
+      <c r="I1644" s="1" t="s">
+        <v>5374</v>
+      </c>
+      <c r="J1644" s="1" t="s">
+        <v>5367</v>
+      </c>
+      <c r="K1644" s="1" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K1644"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">

--- a/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
@@ -19374,8 +19374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1644"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A1591" workbookViewId="0">
+      <selection activeCell="C1610" sqref="C1610"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -64382,7 +64382,7 @@
         <v>5254</v>
       </c>
       <c r="B1609" s="4" t="s">
-        <v>34</v>
+        <v>5133</v>
       </c>
       <c r="C1609" s="1" t="s">
         <v>5255</v>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14243" uniqueCount="5377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14296" uniqueCount="5410">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -18984,6 +18984,128 @@
   </si>
   <si>
     <t>abc~!@#$%^&amp;*()_+=-|][}{;:/.,?&gt;&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc1_value11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from scan($schema7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scan表函数-查询全表数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/TableFunction/queryc1_1644.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1645</t>
+  </si>
+  <si>
+    <t>dqlc1_1646</t>
+  </si>
+  <si>
+    <t>TableFunc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1644</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1644</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,name,phone from scan($schema7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/TableFunction/queryc1_1645.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/TableFunction/queryc1_1646.csv</t>
+  </si>
+  <si>
+    <t>dqlc1_1647</t>
+  </si>
+  <si>
+    <t>schema1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scan表函数-查询指定多个字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from scan($schema7) where id &gt;5 and id &lt; 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1648</t>
+  </si>
+  <si>
+    <t>scan表函数-表为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc1_value01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scan表函数-范围条件过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scan表函数-like过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select amount from scan($schema1) where address like '%beijing%'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/TableFunction/queryc1_1647.csv</t>
+  </si>
+  <si>
+    <t>dqlc1_1649</t>
+  </si>
+  <si>
+    <t>scan多分区表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from scan($schema1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/TableFunction/queryc1_1648.csv</t>
+  </si>
+  <si>
+    <t>schema10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc1_value13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/TableFunction/queryc1_1649.csv</t>
+  </si>
+  <si>
+    <t>select id,name,age,amount from scan($schema10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -19372,10 +19494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1644"/>
+  <dimension ref="A1:K1650"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1591" workbookViewId="0">
-      <selection activeCell="C1610" sqref="C1610"/>
+    <sheetView tabSelected="1" topLeftCell="A1627" workbookViewId="0">
+      <selection activeCell="J1650" sqref="J1650"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -65415,6 +65537,177 @@
         <v>5367</v>
       </c>
       <c r="K1644" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1645" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1645" s="1" t="s">
+        <v>5385</v>
+      </c>
+      <c r="B1645" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1645" s="1" t="s">
+        <v>5380</v>
+      </c>
+      <c r="D1645" s="1" t="s">
+        <v>5384</v>
+      </c>
+      <c r="F1645" s="1" t="s">
+        <v>5377</v>
+      </c>
+      <c r="G1645" s="1" t="s">
+        <v>5378</v>
+      </c>
+      <c r="I1645" s="1" t="s">
+        <v>5379</v>
+      </c>
+      <c r="J1645" s="1" t="s">
+        <v>5381</v>
+      </c>
+      <c r="K1645" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1646" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1646" s="1" t="s">
+        <v>5382</v>
+      </c>
+      <c r="B1646" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1646" s="1" t="s">
+        <v>5392</v>
+      </c>
+      <c r="D1646" s="1" t="s">
+        <v>5384</v>
+      </c>
+      <c r="F1646" s="1" t="s">
+        <v>5377</v>
+      </c>
+      <c r="H1646" s="1" t="s">
+        <v>5386</v>
+      </c>
+      <c r="I1646" s="1" t="s">
+        <v>5387</v>
+      </c>
+      <c r="J1646" s="1" t="s">
+        <v>5388</v>
+      </c>
+      <c r="K1646" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1647" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1647" s="1" t="s">
+        <v>5383</v>
+      </c>
+      <c r="B1647" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1647" s="1" t="s">
+        <v>5397</v>
+      </c>
+      <c r="D1647" s="1" t="s">
+        <v>5384</v>
+      </c>
+      <c r="F1647" s="1" t="s">
+        <v>5377</v>
+      </c>
+      <c r="H1647" s="1" t="s">
+        <v>5386</v>
+      </c>
+      <c r="I1647" s="1" t="s">
+        <v>5393</v>
+      </c>
+      <c r="J1647" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="K1647" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1648" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1648" s="1" t="s">
+        <v>5390</v>
+      </c>
+      <c r="B1648" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1648" s="1" t="s">
+        <v>5398</v>
+      </c>
+      <c r="D1648" s="1" t="s">
+        <v>5384</v>
+      </c>
+      <c r="F1648" s="1" t="s">
+        <v>5391</v>
+      </c>
+      <c r="G1648" s="1" t="s">
+        <v>5396</v>
+      </c>
+      <c r="I1648" s="1" t="s">
+        <v>5399</v>
+      </c>
+      <c r="J1648" s="1" t="s">
+        <v>5400</v>
+      </c>
+      <c r="K1648" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1649" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1649" s="1" t="s">
+        <v>5394</v>
+      </c>
+      <c r="B1649" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1649" s="1" t="s">
+        <v>5395</v>
+      </c>
+      <c r="D1649" s="1" t="s">
+        <v>5384</v>
+      </c>
+      <c r="F1649" s="1" t="s">
+        <v>5403</v>
+      </c>
+      <c r="I1649" s="1" t="s">
+        <v>5404</v>
+      </c>
+      <c r="J1649" s="1" t="s">
+        <v>5405</v>
+      </c>
+      <c r="K1649" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1650" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1650" s="1" t="s">
+        <v>5401</v>
+      </c>
+      <c r="B1650" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1650" s="1" t="s">
+        <v>5402</v>
+      </c>
+      <c r="D1650" s="1" t="s">
+        <v>5384</v>
+      </c>
+      <c r="F1650" s="1" t="s">
+        <v>5406</v>
+      </c>
+      <c r="G1650" s="1" t="s">
+        <v>5407</v>
+      </c>
+      <c r="I1650" s="1" t="s">
+        <v>5409</v>
+      </c>
+      <c r="J1650" s="1" t="s">
+        <v>5408</v>
+      </c>
+      <c r="K1650" s="1" t="s">
         <v>44</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14296" uniqueCount="5410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14556" uniqueCount="5521">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -18967,145 +18967,543 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>select * from $schema27 where name like 'test[~@\*=\]/ "\?]%'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema27 where address like '__ [!#\%&amp;-\.]%'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select 'abc'||'~!@#$%^&amp;*()_+=-|][}{;:/.,?&gt;&lt;'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc~!@#$%^&amp;*()_+=-|][}{;:/.,?&gt;&lt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc1_value11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from scan($schema7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scan表函数-查询全表数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/TableFunction/queryc1_1644.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1645</t>
+  </si>
+  <si>
+    <t>dqlc1_1646</t>
+  </si>
+  <si>
+    <t>TableFunc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1644</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1644</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,name,phone from scan($schema7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/TableFunction/queryc1_1645.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/TableFunction/queryc1_1646.csv</t>
+  </si>
+  <si>
+    <t>dqlc1_1647</t>
+  </si>
+  <si>
+    <t>schema1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scan表函数-查询指定多个字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from scan($schema7) where id &gt;5 and id &lt; 10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1648</t>
+  </si>
+  <si>
+    <t>scan表函数-表为空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc1_value01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scan表函数-范围条件过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scan表函数-like过滤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select amount from scan($schema1) where address like '%beijing%'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/TableFunction/queryc1_1647.csv</t>
+  </si>
+  <si>
+    <t>scan多分区表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from scan($schema1)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/TableFunction/queryc1_1648.csv</t>
+  </si>
+  <si>
+    <t>schema10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/TableFunction/queryc1_1649.csv</t>
+  </si>
+  <si>
+    <t>select id,name,age,amount from scan($schema10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1651</t>
+  </si>
+  <si>
+    <t>dqlc1_1652</t>
+  </si>
+  <si>
+    <t>dqlc1_1653</t>
+  </si>
+  <si>
+    <t>dqlc1_1655</t>
+  </si>
+  <si>
+    <t>dqlc1_1656</t>
+  </si>
+  <si>
+    <t>dqlc1_1657</t>
+  </si>
+  <si>
+    <t>dqlc1_1658</t>
+  </si>
+  <si>
+    <t>dqlc1_1659</t>
+  </si>
+  <si>
+    <t>dqlc1_1660</t>
+  </si>
+  <si>
+    <t>dqlc1_1662</t>
+  </si>
+  <si>
+    <t>单分区单主键，查询单个主键字段，通过非主键值排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区单主键，查询单个非主键字段，通过非主键值排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多分区单主键，查询单个主键字段，通过非主键值排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多分区单主键，查询单个非主键字段，通过主键值排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多分区单主键，查询单个非主键字段，通过非主键值排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区单主键，查询单个非主键字段，通过主键值排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1663</t>
+  </si>
+  <si>
+    <t>dqlc1_1664</t>
+  </si>
+  <si>
+    <t>dqlc1_1665</t>
+  </si>
+  <si>
+    <t>dqlc1_1666</t>
+  </si>
+  <si>
+    <t>dqlc1_1668</t>
+  </si>
+  <si>
+    <t>dqlc1_1669</t>
+  </si>
+  <si>
+    <t>dqlc1_1670</t>
+  </si>
+  <si>
+    <t>单分区多主键，查询单个非主键字段，通过单个主键值排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区多主键，查询单个非主键字段，通过多个主键值排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区多主键，查询单个非主键字段，通过多个非主键值排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区多主键，查询单个主键字段，通过单个非主键值排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多分区多主键，查询多个主键字段，通过多个主键值排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多分区多主键，查询单个非主键字段，通过单个非主键值排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多分区多主键，查询单个非主键字段，通过单个主键值排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多分区多主键，查询多个非主键字段，通过多个主键值排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc1_value09</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select name from $schema6 order by age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1650.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select age from $schema6 order by name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1651.csv</t>
+  </si>
+  <si>
+    <t>select age from $schema6 order by age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1671</t>
+  </si>
+  <si>
+    <t>单分区单主键，查询单个主键字段，通过主键值排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select name from $schema6 order by name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多分区多主键，查询单个主键字段，通过多个非主键值排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区多主键，查询单个主键字段，通过多个主键值排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1652.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1653.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1654.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1655.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1656.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1657.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1658.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1659.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1660.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1661.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1662.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1663.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1664.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1665.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1666.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1667.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1668.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1669.csv</t>
+  </si>
+  <si>
+    <t>schema9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc1_value13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1654</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多分区单主键，查询单个主键字段，通过主键值排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多分区单主键，查询主键和非主键字段，排序字段和查询字段相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1672</t>
+  </si>
+  <si>
+    <t>dqlc1_1673</t>
+  </si>
+  <si>
+    <t>多分区单主键，查询主键和非主键字段，排序字段和查询字段不相同</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1674</t>
+  </si>
+  <si>
+    <t>多分区单主键，查询单个主键字段，通过主键和非主键排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id from $schema9 order by id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id from $schema9 order by id,name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,name from $schema9 order by id,name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id,name from $schema9 order by id,age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id from $schema9 order by name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select name from $schema9 order by id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1670.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1671.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1672.csv</t>
+  </si>
+  <si>
+    <t>select amount from $schema9 order by name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc1_value07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1661</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区多主键，查询单个主键字段，通过同主键值排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select update_time from $schema4 order by update_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多分区多主键，查询单个主键字段，通过单个不同主键值排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select name from $schema4 order by birthday</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select address from $schema4 order by amount desc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select address from $schema4 order by age,create_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id from $schema4 order by id,name,update_time</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select create_time from $schema4 order by id,name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1649</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc1_value24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1667</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select DIMENSION from $schema32 where metric_id&gt;=5 order by metric_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select metric_id from $schema32 order by gmt,phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select phone from $schema32 order by DIMENSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select byte_array from $schema32 order by gmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select dimension,metric_id from $schema32 order by metric_id,dimension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select gmt,phone from $schema32 order by dimension,metric_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多分区多主键，查询主键和非主键，通过其他主键和非主键排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多分区多主键，查询主键和非主键，通过多个非主键排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1675</t>
+  </si>
+  <si>
+    <t>多分区多主键，查询主键和非主键，通过非主键绝对值排序</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select dimension,phone from $schema32 order by metric_id,gmt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select metric_id,gmt,phone from $schema32 order by abs(gmt),phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select metric_id,gmt,phone from $schema32 order by gmt,phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1673.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1674.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1675.csv</t>
+  </si>
+  <si>
     <t>select * from $schema27 where name like binary 'test__'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from $schema27 where name like 'test[~@\*=\]/ "\?]%'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from $schema27 where address like '__ [!#\%&amp;-\.]%'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select 'abc'||'~!@#$%^&amp;*()_+=-|][}{;:/.,?&gt;&lt;'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abc~!@#$%^&amp;*()_+=-|][}{;:/.,?&gt;&lt;</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>schema7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qc1_value11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from scan($schema7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scan表函数-查询全表数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/TableFunction/queryc1_1644.csv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dqlc1_1645</t>
-  </si>
-  <si>
-    <t>dqlc1_1646</t>
-  </si>
-  <si>
-    <t>TableFunc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dqlc1_1644</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dqlc1_1644</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select id,name,phone from scan($schema7)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/TableFunction/queryc1_1645.csv</t>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/TableFunction/queryc1_1646.csv</t>
-  </si>
-  <si>
-    <t>dqlc1_1647</t>
-  </si>
-  <si>
-    <t>schema1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scan表函数-查询指定多个字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from scan($schema7) where id &gt;5 and id &lt; 10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dqlc1_1648</t>
-  </si>
-  <si>
-    <t>scan表函数-表为空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qc1_value01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scan表函数-范围条件过滤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>scan表函数-like过滤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select amount from scan($schema1) where address like '%beijing%'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/TableFunction/queryc1_1647.csv</t>
-  </si>
-  <si>
-    <t>dqlc1_1649</t>
-  </si>
-  <si>
-    <t>scan多分区表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>schema1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select * from scan($schema1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/TableFunction/queryc1_1648.csv</t>
-  </si>
-  <si>
-    <t>schema10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>qc1_value13</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/TableFunction/queryc1_1649.csv</t>
-  </si>
-  <si>
-    <t>select id,name,age,amount from scan($schema10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -19494,23 +19892,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1650"/>
+  <dimension ref="A1:K1676"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1627" workbookViewId="0">
-      <selection activeCell="J1650" sqref="J1650"/>
+    <sheetView tabSelected="1" topLeftCell="A1636" workbookViewId="0">
+      <selection activeCell="G1651" sqref="G1651"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="8.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="53.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="72.5" style="1" customWidth="1"/>
     <col min="10" max="10" width="30.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
@@ -20051,10 +20449,10 @@
         <v>136</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>5374</v>
+      </c>
+      <c r="J21" t="s">
         <v>5375</v>
-      </c>
-      <c r="J21" t="s">
-        <v>5376</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>9</v>
@@ -65473,7 +65871,7 @@
         <v>5293</v>
       </c>
       <c r="I1642" s="1" t="s">
-        <v>5372</v>
+        <v>5520</v>
       </c>
       <c r="J1642" s="1" t="s">
         <v>5365</v>
@@ -65502,7 +65900,7 @@
         <v>5293</v>
       </c>
       <c r="I1643" s="1" t="s">
-        <v>5373</v>
+        <v>5372</v>
       </c>
       <c r="J1643" s="1" t="s">
         <v>5366</v>
@@ -65531,7 +65929,7 @@
         <v>5293</v>
       </c>
       <c r="I1644" s="1" t="s">
-        <v>5374</v>
+        <v>5373</v>
       </c>
       <c r="J1644" s="1" t="s">
         <v>5367</v>
@@ -65542,28 +65940,28 @@
     </row>
     <row r="1645" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1645" s="1" t="s">
-        <v>5385</v>
+        <v>5384</v>
       </c>
       <c r="B1645" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1645" s="1" t="s">
+        <v>5379</v>
+      </c>
+      <c r="D1645" s="1" t="s">
+        <v>5383</v>
+      </c>
+      <c r="F1645" s="1" t="s">
+        <v>5376</v>
+      </c>
+      <c r="G1645" s="1" t="s">
+        <v>5377</v>
+      </c>
+      <c r="I1645" s="1" t="s">
+        <v>5378</v>
+      </c>
+      <c r="J1645" s="1" t="s">
         <v>5380</v>
-      </c>
-      <c r="D1645" s="1" t="s">
-        <v>5384</v>
-      </c>
-      <c r="F1645" s="1" t="s">
-        <v>5377</v>
-      </c>
-      <c r="G1645" s="1" t="s">
-        <v>5378</v>
-      </c>
-      <c r="I1645" s="1" t="s">
-        <v>5379</v>
-      </c>
-      <c r="J1645" s="1" t="s">
-        <v>5381</v>
       </c>
       <c r="K1645" s="1" t="s">
         <v>44</v>
@@ -65571,28 +65969,28 @@
     </row>
     <row r="1646" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1646" s="1" t="s">
-        <v>5382</v>
+        <v>5381</v>
       </c>
       <c r="B1646" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1646" s="1" t="s">
-        <v>5392</v>
+        <v>5391</v>
       </c>
       <c r="D1646" s="1" t="s">
-        <v>5384</v>
+        <v>5383</v>
       </c>
       <c r="F1646" s="1" t="s">
-        <v>5377</v>
+        <v>5376</v>
       </c>
       <c r="H1646" s="1" t="s">
+        <v>5385</v>
+      </c>
+      <c r="I1646" s="1" t="s">
         <v>5386</v>
       </c>
-      <c r="I1646" s="1" t="s">
+      <c r="J1646" s="1" t="s">
         <v>5387</v>
-      </c>
-      <c r="J1646" s="1" t="s">
-        <v>5388</v>
       </c>
       <c r="K1646" s="1" t="s">
         <v>44</v>
@@ -65600,28 +65998,28 @@
     </row>
     <row r="1647" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1647" s="1" t="s">
+        <v>5382</v>
+      </c>
+      <c r="B1647" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1647" s="1" t="s">
+        <v>5396</v>
+      </c>
+      <c r="D1647" s="1" t="s">
         <v>5383</v>
       </c>
-      <c r="B1647" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1647" s="1" t="s">
-        <v>5397</v>
-      </c>
-      <c r="D1647" s="1" t="s">
-        <v>5384</v>
-      </c>
       <c r="F1647" s="1" t="s">
-        <v>5377</v>
+        <v>5376</v>
       </c>
       <c r="H1647" s="1" t="s">
-        <v>5386</v>
+        <v>5385</v>
       </c>
       <c r="I1647" s="1" t="s">
-        <v>5393</v>
+        <v>5392</v>
       </c>
       <c r="J1647" s="1" t="s">
-        <v>5389</v>
+        <v>5388</v>
       </c>
       <c r="K1647" s="1" t="s">
         <v>44</v>
@@ -65629,28 +66027,28 @@
     </row>
     <row r="1648" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1648" s="1" t="s">
+        <v>5389</v>
+      </c>
+      <c r="B1648" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1648" s="1" t="s">
+        <v>5397</v>
+      </c>
+      <c r="D1648" s="1" t="s">
+        <v>5383</v>
+      </c>
+      <c r="F1648" s="1" t="s">
         <v>5390</v>
       </c>
-      <c r="B1648" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1648" s="1" t="s">
+      <c r="G1648" s="1" t="s">
+        <v>5395</v>
+      </c>
+      <c r="I1648" s="1" t="s">
         <v>5398</v>
       </c>
-      <c r="D1648" s="1" t="s">
-        <v>5384</v>
-      </c>
-      <c r="F1648" s="1" t="s">
-        <v>5391</v>
-      </c>
-      <c r="G1648" s="1" t="s">
-        <v>5396</v>
-      </c>
-      <c r="I1648" s="1" t="s">
+      <c r="J1648" s="1" t="s">
         <v>5399</v>
-      </c>
-      <c r="J1648" s="1" t="s">
-        <v>5400</v>
       </c>
       <c r="K1648" s="1" t="s">
         <v>44</v>
@@ -65658,25 +66056,25 @@
     </row>
     <row r="1649" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1649" s="1" t="s">
+        <v>5393</v>
+      </c>
+      <c r="B1649" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1649" s="1" t="s">
         <v>5394</v>
       </c>
-      <c r="B1649" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1649" s="1" t="s">
-        <v>5395</v>
-      </c>
       <c r="D1649" s="1" t="s">
-        <v>5384</v>
+        <v>5383</v>
       </c>
       <c r="F1649" s="1" t="s">
+        <v>5401</v>
+      </c>
+      <c r="I1649" s="1" t="s">
+        <v>5402</v>
+      </c>
+      <c r="J1649" s="1" t="s">
         <v>5403</v>
-      </c>
-      <c r="I1649" s="1" t="s">
-        <v>5404</v>
-      </c>
-      <c r="J1649" s="1" t="s">
-        <v>5405</v>
       </c>
       <c r="K1649" s="1" t="s">
         <v>44</v>
@@ -65684,31 +66082,863 @@
     </row>
     <row r="1650" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1650" s="1" t="s">
-        <v>5401</v>
+        <v>5500</v>
       </c>
       <c r="B1650" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1650" s="1" t="s">
-        <v>5402</v>
+        <v>5400</v>
       </c>
       <c r="D1650" s="1" t="s">
-        <v>5384</v>
+        <v>5383</v>
       </c>
       <c r="F1650" s="1" t="s">
+        <v>5404</v>
+      </c>
+      <c r="G1650" s="1" t="s">
+        <v>2173</v>
+      </c>
+      <c r="I1650" s="1" t="s">
         <v>5406</v>
       </c>
-      <c r="G1650" s="1" t="s">
-        <v>5407</v>
-      </c>
-      <c r="I1650" s="1" t="s">
-        <v>5409</v>
-      </c>
       <c r="J1650" s="1" t="s">
-        <v>5408</v>
+        <v>5405</v>
       </c>
       <c r="K1650" s="1" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="1651" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1651" s="1" t="s">
+        <v>5442</v>
+      </c>
+      <c r="B1651" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1651" s="1" t="s">
+        <v>5417</v>
+      </c>
+      <c r="D1651" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1651" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="F1651" s="1" t="s">
+        <v>5438</v>
+      </c>
+      <c r="G1651" s="1" t="s">
+        <v>5439</v>
+      </c>
+      <c r="I1651" s="1" t="s">
+        <v>5440</v>
+      </c>
+      <c r="J1651" s="1" t="s">
+        <v>5441</v>
+      </c>
+      <c r="K1651" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1652" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1652" s="1" t="s">
+        <v>5407</v>
+      </c>
+      <c r="B1652" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1652" s="1" t="s">
+        <v>5422</v>
+      </c>
+      <c r="D1652" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1652" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="F1652" s="1" t="s">
+        <v>5438</v>
+      </c>
+      <c r="H1652" s="1" t="s">
+        <v>5442</v>
+      </c>
+      <c r="I1652" s="1" t="s">
+        <v>5443</v>
+      </c>
+      <c r="J1652" s="1" t="s">
+        <v>5444</v>
+      </c>
+      <c r="K1652" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1653" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1653" s="1" t="s">
+        <v>5408</v>
+      </c>
+      <c r="B1653" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1653" s="1" t="s">
+        <v>5418</v>
+      </c>
+      <c r="D1653" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1653" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="F1653" s="1" t="s">
+        <v>5438</v>
+      </c>
+      <c r="H1653" s="1" t="s">
+        <v>5442</v>
+      </c>
+      <c r="I1653" s="1" t="s">
+        <v>5445</v>
+      </c>
+      <c r="J1653" s="1" t="s">
+        <v>5451</v>
+      </c>
+      <c r="K1653" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1654" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1654" s="1" t="s">
+        <v>5409</v>
+      </c>
+      <c r="B1654" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1654" s="1" t="s">
+        <v>5447</v>
+      </c>
+      <c r="D1654" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1654" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="F1654" s="1" t="s">
+        <v>5438</v>
+      </c>
+      <c r="H1654" s="1" t="s">
+        <v>5442</v>
+      </c>
+      <c r="I1654" s="1" t="s">
+        <v>5448</v>
+      </c>
+      <c r="J1654" s="1" t="s">
+        <v>5452</v>
+      </c>
+      <c r="K1654" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1655" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1655" s="1" t="s">
+        <v>5471</v>
+      </c>
+      <c r="B1655" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1655" s="1" t="s">
+        <v>5472</v>
+      </c>
+      <c r="D1655" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1655" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="F1655" s="1" t="s">
+        <v>5469</v>
+      </c>
+      <c r="G1655" s="1" t="s">
+        <v>5470</v>
+      </c>
+      <c r="I1655" s="1" t="s">
+        <v>5479</v>
+      </c>
+      <c r="J1655" s="1" t="s">
+        <v>5453</v>
+      </c>
+      <c r="K1655" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1656" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1656" s="1" t="s">
+        <v>5410</v>
+      </c>
+      <c r="B1656" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1656" s="1" t="s">
+        <v>5478</v>
+      </c>
+      <c r="D1656" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1656" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="F1656" s="1" t="s">
+        <v>5469</v>
+      </c>
+      <c r="H1656" s="1" t="s">
+        <v>5471</v>
+      </c>
+      <c r="I1656" s="1" t="s">
+        <v>5480</v>
+      </c>
+      <c r="J1656" s="1" t="s">
+        <v>5454</v>
+      </c>
+      <c r="K1656" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1657" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1657" s="1" t="s">
+        <v>5411</v>
+      </c>
+      <c r="B1657" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1657" s="1" t="s">
+        <v>5473</v>
+      </c>
+      <c r="D1657" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1657" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="F1657" s="1" t="s">
+        <v>5469</v>
+      </c>
+      <c r="H1657" s="1" t="s">
+        <v>5471</v>
+      </c>
+      <c r="I1657" s="1" t="s">
+        <v>5481</v>
+      </c>
+      <c r="J1657" s="1" t="s">
+        <v>5455</v>
+      </c>
+      <c r="K1657" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1658" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1658" s="1" t="s">
+        <v>5412</v>
+      </c>
+      <c r="B1658" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1658" s="1" t="s">
+        <v>5476</v>
+      </c>
+      <c r="D1658" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1658" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="F1658" s="1" t="s">
+        <v>5469</v>
+      </c>
+      <c r="H1658" s="1" t="s">
+        <v>5471</v>
+      </c>
+      <c r="I1658" s="1" t="s">
+        <v>5482</v>
+      </c>
+      <c r="J1658" s="1" t="s">
+        <v>5456</v>
+      </c>
+      <c r="K1658" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1659" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1659" s="1" t="s">
+        <v>5413</v>
+      </c>
+      <c r="B1659" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1659" s="1" t="s">
+        <v>5419</v>
+      </c>
+      <c r="D1659" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1659" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="F1659" s="1" t="s">
+        <v>5469</v>
+      </c>
+      <c r="H1659" s="1" t="s">
+        <v>5471</v>
+      </c>
+      <c r="I1659" s="1" t="s">
+        <v>5483</v>
+      </c>
+      <c r="J1659" s="1" t="s">
+        <v>5457</v>
+      </c>
+      <c r="K1659" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1660" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1660" s="1" t="s">
+        <v>5414</v>
+      </c>
+      <c r="B1660" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1660" s="1" t="s">
+        <v>5420</v>
+      </c>
+      <c r="D1660" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1660" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="F1660" s="1" t="s">
+        <v>5469</v>
+      </c>
+      <c r="H1660" s="1" t="s">
+        <v>5471</v>
+      </c>
+      <c r="I1660" s="1" t="s">
+        <v>5484</v>
+      </c>
+      <c r="J1660" s="1" t="s">
+        <v>5458</v>
+      </c>
+      <c r="K1660" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1661" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1661" s="1" t="s">
+        <v>5415</v>
+      </c>
+      <c r="B1661" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1661" s="1" t="s">
+        <v>5421</v>
+      </c>
+      <c r="D1661" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1661" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="F1661" s="1" t="s">
+        <v>5469</v>
+      </c>
+      <c r="H1661" s="1" t="s">
+        <v>5471</v>
+      </c>
+      <c r="I1661" s="1" t="s">
+        <v>5488</v>
+      </c>
+      <c r="J1661" s="1" t="s">
+        <v>5459</v>
+      </c>
+      <c r="K1661" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1662" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1662" s="1" t="s">
+        <v>5491</v>
+      </c>
+      <c r="B1662" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1662" s="1" t="s">
+        <v>5492</v>
+      </c>
+      <c r="D1662" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1662" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="F1662" s="1" t="s">
+        <v>5489</v>
+      </c>
+      <c r="G1662" s="1" t="s">
+        <v>5490</v>
+      </c>
+      <c r="I1662" s="1" t="s">
+        <v>5493</v>
+      </c>
+      <c r="J1662" s="1" t="s">
+        <v>5460</v>
+      </c>
+      <c r="K1662" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1663" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1663" s="1" t="s">
+        <v>5416</v>
+      </c>
+      <c r="B1663" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1663" s="1" t="s">
+        <v>5433</v>
+      </c>
+      <c r="D1663" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1663" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="F1663" s="1" t="s">
+        <v>5489</v>
+      </c>
+      <c r="H1663" s="1" t="s">
+        <v>5491</v>
+      </c>
+      <c r="I1663" s="1" t="s">
+        <v>5495</v>
+      </c>
+      <c r="J1663" s="1" t="s">
+        <v>5461</v>
+      </c>
+      <c r="K1663" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1664" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1664" s="1" t="s">
+        <v>5423</v>
+      </c>
+      <c r="B1664" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1664" s="1" t="s">
+        <v>5430</v>
+      </c>
+      <c r="D1664" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1664" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="F1664" s="1" t="s">
+        <v>5489</v>
+      </c>
+      <c r="H1664" s="1" t="s">
+        <v>5491</v>
+      </c>
+      <c r="I1664" s="1" t="s">
+        <v>5496</v>
+      </c>
+      <c r="J1664" s="1" t="s">
+        <v>5462</v>
+      </c>
+      <c r="K1664" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1665" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1665" s="1" t="s">
+        <v>5424</v>
+      </c>
+      <c r="B1665" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1665" s="1" t="s">
+        <v>5432</v>
+      </c>
+      <c r="D1665" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1665" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="F1665" s="1" t="s">
+        <v>5489</v>
+      </c>
+      <c r="H1665" s="1" t="s">
+        <v>5491</v>
+      </c>
+      <c r="I1665" s="1" t="s">
+        <v>5497</v>
+      </c>
+      <c r="J1665" s="1" t="s">
+        <v>5463</v>
+      </c>
+      <c r="K1665" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1666" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1666" s="1" t="s">
+        <v>5425</v>
+      </c>
+      <c r="B1666" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1666" s="1" t="s">
+        <v>5450</v>
+      </c>
+      <c r="D1666" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1666" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="F1666" s="1" t="s">
+        <v>5489</v>
+      </c>
+      <c r="H1666" s="1" t="s">
+        <v>5491</v>
+      </c>
+      <c r="I1666" s="1" t="s">
+        <v>5498</v>
+      </c>
+      <c r="J1666" s="1" t="s">
+        <v>5464</v>
+      </c>
+      <c r="K1666" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1667" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1667" s="1" t="s">
+        <v>5426</v>
+      </c>
+      <c r="B1667" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1667" s="1" t="s">
+        <v>5431</v>
+      </c>
+      <c r="D1667" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1667" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="F1667" s="1" t="s">
+        <v>5489</v>
+      </c>
+      <c r="H1667" s="1" t="s">
+        <v>5491</v>
+      </c>
+      <c r="I1667" s="1" t="s">
+        <v>5499</v>
+      </c>
+      <c r="J1667" s="1" t="s">
+        <v>5465</v>
+      </c>
+      <c r="K1667" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1668" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1668" s="1" t="s">
+        <v>5502</v>
+      </c>
+      <c r="B1668" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1668" s="1" t="s">
+        <v>5494</v>
+      </c>
+      <c r="D1668" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1668" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="F1668" s="1" t="s">
+        <v>5503</v>
+      </c>
+      <c r="G1668" s="1" t="s">
+        <v>5501</v>
+      </c>
+      <c r="I1668" s="1" t="s">
+        <v>5504</v>
+      </c>
+      <c r="J1668" s="1" t="s">
+        <v>5466</v>
+      </c>
+      <c r="K1668" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1669" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1669" s="1" t="s">
+        <v>5427</v>
+      </c>
+      <c r="B1669" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1669" s="1" t="s">
+        <v>5449</v>
+      </c>
+      <c r="D1669" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1669" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="F1669" s="1" t="s">
+        <v>5503</v>
+      </c>
+      <c r="H1669" s="1" t="s">
+        <v>5502</v>
+      </c>
+      <c r="I1669" s="1" t="s">
+        <v>5505</v>
+      </c>
+      <c r="J1669" s="1" t="s">
+        <v>5467</v>
+      </c>
+      <c r="K1669" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1670" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1670" s="1" t="s">
+        <v>5428</v>
+      </c>
+      <c r="B1670" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1670" s="1" t="s">
+        <v>5436</v>
+      </c>
+      <c r="D1670" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1670" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="F1670" s="1" t="s">
+        <v>5503</v>
+      </c>
+      <c r="H1670" s="1" t="s">
+        <v>5502</v>
+      </c>
+      <c r="I1670" s="1" t="s">
+        <v>5506</v>
+      </c>
+      <c r="J1670" s="1" t="s">
+        <v>5468</v>
+      </c>
+      <c r="K1670" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1671" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1671" s="1" t="s">
+        <v>5429</v>
+      </c>
+      <c r="B1671" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1671" s="1" t="s">
+        <v>5435</v>
+      </c>
+      <c r="D1671" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1671" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="F1671" s="1" t="s">
+        <v>5503</v>
+      </c>
+      <c r="H1671" s="1" t="s">
+        <v>5502</v>
+      </c>
+      <c r="I1671" s="1" t="s">
+        <v>5507</v>
+      </c>
+      <c r="J1671" s="1" t="s">
+        <v>5485</v>
+      </c>
+      <c r="K1671" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1672" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1672" s="1" t="s">
+        <v>5446</v>
+      </c>
+      <c r="B1672" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1672" s="1" t="s">
+        <v>5434</v>
+      </c>
+      <c r="D1672" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1672" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="F1672" s="1" t="s">
+        <v>5503</v>
+      </c>
+      <c r="H1672" s="1" t="s">
+        <v>5502</v>
+      </c>
+      <c r="I1672" s="1" t="s">
+        <v>5508</v>
+      </c>
+      <c r="J1672" s="1" t="s">
+        <v>5486</v>
+      </c>
+      <c r="K1672" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1673" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1673" s="1" t="s">
+        <v>5474</v>
+      </c>
+      <c r="B1673" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1673" s="1" t="s">
+        <v>5437</v>
+      </c>
+      <c r="D1673" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1673" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="F1673" s="1" t="s">
+        <v>5503</v>
+      </c>
+      <c r="H1673" s="1" t="s">
+        <v>5502</v>
+      </c>
+      <c r="I1673" s="1" t="s">
+        <v>5509</v>
+      </c>
+      <c r="J1673" s="1" t="s">
+        <v>5487</v>
+      </c>
+      <c r="K1673" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1674" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1674" s="1" t="s">
+        <v>5475</v>
+      </c>
+      <c r="B1674" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1674" s="1" t="s">
+        <v>5511</v>
+      </c>
+      <c r="D1674" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1674" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="F1674" s="1" t="s">
+        <v>5503</v>
+      </c>
+      <c r="H1674" s="1" t="s">
+        <v>5502</v>
+      </c>
+      <c r="I1674" s="1" t="s">
+        <v>5516</v>
+      </c>
+      <c r="J1674" s="1" t="s">
+        <v>5517</v>
+      </c>
+      <c r="K1674" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1675" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1675" s="1" t="s">
+        <v>5477</v>
+      </c>
+      <c r="B1675" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1675" s="1" t="s">
+        <v>5510</v>
+      </c>
+      <c r="D1675" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1675" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="F1675" s="1" t="s">
+        <v>5503</v>
+      </c>
+      <c r="H1675" s="1" t="s">
+        <v>5502</v>
+      </c>
+      <c r="I1675" s="1" t="s">
+        <v>5514</v>
+      </c>
+      <c r="J1675" s="1" t="s">
+        <v>5518</v>
+      </c>
+      <c r="K1675" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1676" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1676" s="1" t="s">
+        <v>5512</v>
+      </c>
+      <c r="B1676" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1676" s="1" t="s">
+        <v>5513</v>
+      </c>
+      <c r="D1676" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1676" s="1" t="s">
+        <v>2473</v>
+      </c>
+      <c r="F1676" s="1" t="s">
+        <v>5503</v>
+      </c>
+      <c r="H1676" s="1" t="s">
+        <v>5502</v>
+      </c>
+      <c r="I1676" s="1" t="s">
+        <v>5515</v>
+      </c>
+      <c r="J1676" s="1" t="s">
+        <v>5519</v>
+      </c>
+      <c r="K1676" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14556" uniqueCount="5521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14556" uniqueCount="5523">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -19504,6 +19504,14 @@
   </si>
   <si>
     <t>select * from $schema27 where name like binary 'test__'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComplexDataType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>byte_array</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -19894,8 +19902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1676"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1636" workbookViewId="0">
-      <selection activeCell="G1651" sqref="G1651"/>
+    <sheetView tabSelected="1" topLeftCell="A1642" workbookViewId="0">
+      <selection activeCell="F1674" sqref="F1674"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -66760,10 +66768,10 @@
         <v>5435</v>
       </c>
       <c r="D1671" s="1" t="s">
-        <v>2411</v>
+        <v>5521</v>
       </c>
       <c r="E1671" s="1" t="s">
-        <v>2473</v>
+        <v>5522</v>
       </c>
       <c r="F1671" s="1" t="s">
         <v>5503</v>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
@@ -19903,7 +19903,7 @@
   <dimension ref="A1:K1676"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A1642" workbookViewId="0">
-      <selection activeCell="F1674" sqref="F1674"/>
+      <selection activeCell="C1648" sqref="C1648"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -65951,7 +65951,7 @@
         <v>5384</v>
       </c>
       <c r="B1645" s="1" t="s">
-        <v>34</v>
+        <v>5133</v>
       </c>
       <c r="C1645" s="1" t="s">
         <v>5379</v>
@@ -65980,7 +65980,7 @@
         <v>5381</v>
       </c>
       <c r="B1646" s="1" t="s">
-        <v>34</v>
+        <v>5133</v>
       </c>
       <c r="C1646" s="1" t="s">
         <v>5391</v>
@@ -66009,7 +66009,7 @@
         <v>5382</v>
       </c>
       <c r="B1647" s="1" t="s">
-        <v>34</v>
+        <v>5133</v>
       </c>
       <c r="C1647" s="1" t="s">
         <v>5396</v>
@@ -66038,7 +66038,7 @@
         <v>5389</v>
       </c>
       <c r="B1648" s="1" t="s">
-        <v>34</v>
+        <v>5133</v>
       </c>
       <c r="C1648" s="1" t="s">
         <v>5397</v>
@@ -66067,7 +66067,7 @@
         <v>5393</v>
       </c>
       <c r="B1649" s="1" t="s">
-        <v>34</v>
+        <v>5133</v>
       </c>
       <c r="C1649" s="1" t="s">
         <v>5394</v>
@@ -66093,7 +66093,7 @@
         <v>5500</v>
       </c>
       <c r="B1650" s="1" t="s">
-        <v>34</v>
+        <v>5133</v>
       </c>
       <c r="C1650" s="1" t="s">
         <v>5400</v>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
@@ -19902,8 +19902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1676"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1642" workbookViewId="0">
-      <selection activeCell="C1648" sqref="C1648"/>
+    <sheetView tabSelected="1" topLeftCell="A1607" workbookViewId="0">
+      <selection activeCell="C1568" sqref="C1568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -62214,7 +62214,7 @@
         <v>4753</v>
       </c>
       <c r="B1527" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1527" s="1" t="s">
         <v>4756</v>
@@ -62246,7 +62246,7 @@
         <v>4762</v>
       </c>
       <c r="B1528" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1528" s="1" t="s">
         <v>4778</v>
@@ -62278,7 +62278,7 @@
         <v>4763</v>
       </c>
       <c r="B1529" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1529" s="1" t="s">
         <v>4784</v>
@@ -62310,7 +62310,7 @@
         <v>4764</v>
       </c>
       <c r="B1530" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1530" s="1" t="s">
         <v>4788</v>
@@ -62342,7 +62342,7 @@
         <v>4765</v>
       </c>
       <c r="B1531" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1531" s="1" t="s">
         <v>4793</v>
@@ -62374,7 +62374,7 @@
         <v>4766</v>
       </c>
       <c r="B1532" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1532" s="1" t="s">
         <v>4799</v>
@@ -62406,7 +62406,7 @@
         <v>4767</v>
       </c>
       <c r="B1533" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1533" s="1" t="s">
         <v>4803</v>
@@ -62438,7 +62438,7 @@
         <v>4768</v>
       </c>
       <c r="B1534" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1534" s="1" t="s">
         <v>4808</v>
@@ -62470,7 +62470,7 @@
         <v>4769</v>
       </c>
       <c r="B1535" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1535" s="1" t="s">
         <v>4813</v>
@@ -62502,7 +62502,7 @@
         <v>4770</v>
       </c>
       <c r="B1536" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1536" s="1" t="s">
         <v>4820</v>
@@ -62534,7 +62534,7 @@
         <v>4771</v>
       </c>
       <c r="B1537" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1537" s="1" t="s">
         <v>4818</v>
@@ -62566,7 +62566,7 @@
         <v>4772</v>
       </c>
       <c r="B1538" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1538" s="1" t="s">
         <v>4852</v>
@@ -62598,7 +62598,7 @@
         <v>4773</v>
       </c>
       <c r="B1539" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1539" s="1" t="s">
         <v>4853</v>
@@ -62630,7 +62630,7 @@
         <v>4774</v>
       </c>
       <c r="B1540" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1540" s="1" t="s">
         <v>4854</v>
@@ -62662,7 +62662,7 @@
         <v>4775</v>
       </c>
       <c r="B1541" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1541" s="1" t="s">
         <v>4855</v>
@@ -62694,7 +62694,7 @@
         <v>4776</v>
       </c>
       <c r="B1542" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1542" s="1" t="s">
         <v>4856</v>
@@ -62726,7 +62726,7 @@
         <v>4777</v>
       </c>
       <c r="B1543" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1543" s="1" t="s">
         <v>4857</v>
@@ -62758,7 +62758,7 @@
         <v>4858</v>
       </c>
       <c r="B1544" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1544" s="1" t="s">
         <v>4864</v>
@@ -62790,7 +62790,7 @@
         <v>4929</v>
       </c>
       <c r="B1545" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1545" s="1" t="s">
         <v>4922</v>
@@ -62822,7 +62822,7 @@
         <v>4859</v>
       </c>
       <c r="B1546" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1546" s="1" t="s">
         <v>4924</v>
@@ -62857,7 +62857,7 @@
         <v>4860</v>
       </c>
       <c r="B1547" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1547" s="1" t="s">
         <v>4923</v>
@@ -62892,7 +62892,7 @@
         <v>4964</v>
       </c>
       <c r="B1548" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1548" s="1" t="s">
         <v>4933</v>
@@ -62924,7 +62924,7 @@
         <v>4861</v>
       </c>
       <c r="B1549" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1549" s="1" t="s">
         <v>4931</v>
@@ -62959,7 +62959,7 @@
         <v>4862</v>
       </c>
       <c r="B1550" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1550" s="1" t="s">
         <v>4932</v>
@@ -62994,7 +62994,7 @@
         <v>5019</v>
       </c>
       <c r="B1551" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1551" s="1" t="s">
         <v>4941</v>
@@ -63026,7 +63026,7 @@
         <v>4863</v>
       </c>
       <c r="B1552" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1552" s="1" t="s">
         <v>4945</v>
@@ -63058,7 +63058,7 @@
         <v>4966</v>
       </c>
       <c r="B1553" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1553" s="1" t="s">
         <v>4946</v>
@@ -63093,7 +63093,7 @@
         <v>4868</v>
       </c>
       <c r="B1554" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1554" s="1" t="s">
         <v>4947</v>
@@ -63128,7 +63128,7 @@
         <v>4869</v>
       </c>
       <c r="B1555" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1555" s="1" t="s">
         <v>4948</v>
@@ -63163,7 +63163,7 @@
         <v>4870</v>
       </c>
       <c r="B1556" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1556" s="1" t="s">
         <v>4949</v>
@@ -63198,7 +63198,7 @@
         <v>4871</v>
       </c>
       <c r="B1557" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1557" s="1" t="s">
         <v>4950</v>
@@ -63233,7 +63233,7 @@
         <v>4872</v>
       </c>
       <c r="B1558" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1558" s="1" t="s">
         <v>4968</v>
@@ -63265,7 +63265,7 @@
         <v>4873</v>
       </c>
       <c r="B1559" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1559" s="1" t="s">
         <v>4968</v>
@@ -63300,7 +63300,7 @@
         <v>4874</v>
       </c>
       <c r="B1560" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1560" s="1" t="s">
         <v>4968</v>
@@ -63335,7 +63335,7 @@
         <v>4875</v>
       </c>
       <c r="B1561" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1561" s="1" t="s">
         <v>4968</v>
@@ -63370,7 +63370,7 @@
         <v>4876</v>
       </c>
       <c r="B1562" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1562" s="1" t="s">
         <v>4968</v>
@@ -63405,7 +63405,7 @@
         <v>4877</v>
       </c>
       <c r="B1563" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1563" s="1" t="s">
         <v>4981</v>
@@ -63437,7 +63437,7 @@
         <v>4878</v>
       </c>
       <c r="B1564" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1564" s="1" t="s">
         <v>4981</v>
@@ -63472,7 +63472,7 @@
         <v>4879</v>
       </c>
       <c r="B1565" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1565" s="1" t="s">
         <v>4981</v>
@@ -63507,7 +63507,7 @@
         <v>4880</v>
       </c>
       <c r="B1566" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1566" s="1" t="s">
         <v>4990</v>
@@ -63539,7 +63539,7 @@
         <v>4881</v>
       </c>
       <c r="B1567" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1567" s="1" t="s">
         <v>4995</v>
@@ -63574,7 +63574,7 @@
         <v>4882</v>
       </c>
       <c r="B1568" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1568" s="1" t="s">
         <v>4998</v>
@@ -63609,7 +63609,7 @@
         <v>4883</v>
       </c>
       <c r="B1569" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1569" s="1" t="s">
         <v>5005</v>
@@ -63644,7 +63644,7 @@
         <v>4884</v>
       </c>
       <c r="B1570" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1570" s="1" t="s">
         <v>5006</v>
@@ -63679,7 +63679,7 @@
         <v>4885</v>
       </c>
       <c r="B1571" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1571" s="1" t="s">
         <v>5007</v>
@@ -63714,7 +63714,7 @@
         <v>4991</v>
       </c>
       <c r="B1572" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1572" s="1" t="s">
         <v>5008</v>
@@ -63749,7 +63749,7 @@
         <v>5001</v>
       </c>
       <c r="B1573" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1573" s="1" t="s">
         <v>5009</v>
@@ -63784,7 +63784,7 @@
         <v>5002</v>
       </c>
       <c r="B1574" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1574" s="1" t="s">
         <v>5010</v>
@@ -63819,7 +63819,7 @@
         <v>5003</v>
       </c>
       <c r="B1575" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1575" s="1" t="s">
         <v>5011</v>
@@ -63854,7 +63854,7 @@
         <v>5004</v>
       </c>
       <c r="B1576" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1576" s="1" t="s">
         <v>5028</v>
@@ -63889,7 +63889,7 @@
         <v>5027</v>
       </c>
       <c r="B1577" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1577" s="1" t="s">
         <v>5029</v>
@@ -63924,7 +63924,7 @@
         <v>5048</v>
       </c>
       <c r="B1578" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1578" s="1" t="s">
         <v>5042</v>
@@ -63956,7 +63956,7 @@
         <v>5034</v>
       </c>
       <c r="B1579" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1579" s="1" t="s">
         <v>5043</v>
@@ -63988,7 +63988,7 @@
         <v>5035</v>
       </c>
       <c r="B1580" s="4" t="s">
-        <v>5133</v>
+        <v>34</v>
       </c>
       <c r="C1580" s="1" t="s">
         <v>5043</v>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14556" uniqueCount="5523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14666" uniqueCount="5572">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -19512,6 +19512,182 @@
   </si>
   <si>
     <t>byte_array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1676</t>
+  </si>
+  <si>
+    <t>count</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mixindex016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mix_common_value1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1676.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1677</t>
+  </si>
+  <si>
+    <t>dqlc1_1678</t>
+  </si>
+  <si>
+    <t>dqlc1_1679</t>
+  </si>
+  <si>
+    <t>dqlc1_1676</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1677.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1678.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1679.csv</t>
+  </si>
+  <si>
+    <t>select count(*) cn from $mixindex016</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(*) cn from $mixindex016 where id between 200 and 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(*) cn from $mixindex016 where id not between 200 and 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(*) cn from $mixindex016 where id between 200 and 500 and birthday between '2010-01-01' and '2020-12-31'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1680</t>
+  </si>
+  <si>
+    <t>dqlc1_1681</t>
+  </si>
+  <si>
+    <t>dqlc1_1682</t>
+  </si>
+  <si>
+    <t>dqlc1_1683</t>
+  </si>
+  <si>
+    <t>表hash分区向量索引count查询全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表hash分区向量索引count查询主键区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表hash分区向量索引count查询联合主键区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表hash分区向量索引count查询not between</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表hash分区向量索引count查询索引字段hash分区区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表hash分区向量索引count查询索引字段range分区区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表hash分区向量索引count查询普通字段区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表hash分区向量索引count主键字段区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1685</t>
+  </si>
+  <si>
+    <t>表range分区向量索引count查询全部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1686</t>
+  </si>
+  <si>
+    <t>表range分区向量索引count查询主键区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表range分区向量索引count查询主键区间（not between)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mixindex017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1684</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(name) cn from $mixindex016 where name between 'A' and 'Z'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1680.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1681.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1682.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1683.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1684.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1685.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1686.csv</t>
+  </si>
+  <si>
+    <t>select count(age) cn from $mixindex016 where age between 22 and 40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(price) cn from $mixindex016 where price between 1 and 100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(id) cn from $mixindex016 where id between 200 and 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(*) cn from $mixindex017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(*) cn from $mixindex017 where id between 199 and 600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(*) cn from $mixindex017 where id not between 199 and 600</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -19900,10 +20076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1676"/>
+  <dimension ref="A1:K1687"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1607" workbookViewId="0">
-      <selection activeCell="C1568" sqref="C1568"/>
+    <sheetView tabSelected="1" topLeftCell="A1655" workbookViewId="0">
+      <selection activeCell="C1695" sqref="C1695"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -66946,6 +67122,358 @@
         <v>5519</v>
       </c>
       <c r="K1676" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1677" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1677" s="1" t="s">
+        <v>5531</v>
+      </c>
+      <c r="B1677" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1677" s="1" t="s">
+        <v>5543</v>
+      </c>
+      <c r="D1677" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1677" s="1" t="s">
+        <v>5524</v>
+      </c>
+      <c r="F1677" s="1" t="s">
+        <v>5525</v>
+      </c>
+      <c r="G1677" s="1" t="s">
+        <v>5526</v>
+      </c>
+      <c r="I1677" s="1" t="s">
+        <v>5535</v>
+      </c>
+      <c r="J1677" s="1" t="s">
+        <v>5527</v>
+      </c>
+      <c r="K1677" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1678" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1678" s="1" t="s">
+        <v>5528</v>
+      </c>
+      <c r="B1678" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1678" s="1" t="s">
+        <v>5544</v>
+      </c>
+      <c r="D1678" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1678" s="1" t="s">
+        <v>5524</v>
+      </c>
+      <c r="F1678" s="1" t="s">
+        <v>5525</v>
+      </c>
+      <c r="H1678" s="1" t="s">
+        <v>5523</v>
+      </c>
+      <c r="I1678" s="1" t="s">
+        <v>5536</v>
+      </c>
+      <c r="J1678" s="1" t="s">
+        <v>5532</v>
+      </c>
+      <c r="K1678" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1679" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1679" s="1" t="s">
+        <v>5529</v>
+      </c>
+      <c r="B1679" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1679" s="1" t="s">
+        <v>5545</v>
+      </c>
+      <c r="D1679" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1679" s="1" t="s">
+        <v>5524</v>
+      </c>
+      <c r="F1679" s="1" t="s">
+        <v>5525</v>
+      </c>
+      <c r="H1679" s="1" t="s">
+        <v>5523</v>
+      </c>
+      <c r="I1679" s="1" t="s">
+        <v>5538</v>
+      </c>
+      <c r="J1679" s="1" t="s">
+        <v>5533</v>
+      </c>
+      <c r="K1679" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1680" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1680" s="1" t="s">
+        <v>5530</v>
+      </c>
+      <c r="B1680" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1680" s="1" t="s">
+        <v>5546</v>
+      </c>
+      <c r="D1680" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1680" s="1" t="s">
+        <v>5524</v>
+      </c>
+      <c r="F1680" s="1" t="s">
+        <v>5525</v>
+      </c>
+      <c r="H1680" s="1" t="s">
+        <v>5523</v>
+      </c>
+      <c r="I1680" s="1" t="s">
+        <v>5537</v>
+      </c>
+      <c r="J1680" s="1" t="s">
+        <v>5534</v>
+      </c>
+      <c r="K1680" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1681" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1681" s="1" t="s">
+        <v>5539</v>
+      </c>
+      <c r="B1681" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1681" s="1" t="s">
+        <v>5547</v>
+      </c>
+      <c r="D1681" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1681" s="1" t="s">
+        <v>5524</v>
+      </c>
+      <c r="F1681" s="1" t="s">
+        <v>5525</v>
+      </c>
+      <c r="H1681" s="1" t="s">
+        <v>5523</v>
+      </c>
+      <c r="I1681" s="1" t="s">
+        <v>5558</v>
+      </c>
+      <c r="J1681" s="1" t="s">
+        <v>5559</v>
+      </c>
+      <c r="K1681" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1682" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1682" s="1" t="s">
+        <v>5540</v>
+      </c>
+      <c r="B1682" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1682" s="1" t="s">
+        <v>5548</v>
+      </c>
+      <c r="D1682" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1682" s="1" t="s">
+        <v>5524</v>
+      </c>
+      <c r="F1682" s="1" t="s">
+        <v>5525</v>
+      </c>
+      <c r="H1682" s="1" t="s">
+        <v>5523</v>
+      </c>
+      <c r="I1682" s="1" t="s">
+        <v>5566</v>
+      </c>
+      <c r="J1682" s="1" t="s">
+        <v>5560</v>
+      </c>
+      <c r="K1682" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1683" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1683" s="1" t="s">
+        <v>5541</v>
+      </c>
+      <c r="B1683" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1683" s="1" t="s">
+        <v>5549</v>
+      </c>
+      <c r="D1683" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1683" s="1" t="s">
+        <v>5524</v>
+      </c>
+      <c r="F1683" s="1" t="s">
+        <v>5525</v>
+      </c>
+      <c r="H1683" s="1" t="s">
+        <v>5523</v>
+      </c>
+      <c r="I1683" s="1" t="s">
+        <v>5567</v>
+      </c>
+      <c r="J1683" s="1" t="s">
+        <v>5561</v>
+      </c>
+      <c r="K1683" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1684" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1684" s="1" t="s">
+        <v>5542</v>
+      </c>
+      <c r="B1684" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1684" s="1" t="s">
+        <v>5550</v>
+      </c>
+      <c r="D1684" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1684" s="1" t="s">
+        <v>5524</v>
+      </c>
+      <c r="F1684" s="1" t="s">
+        <v>5525</v>
+      </c>
+      <c r="H1684" s="1" t="s">
+        <v>5523</v>
+      </c>
+      <c r="I1684" s="1" t="s">
+        <v>5568</v>
+      </c>
+      <c r="J1684" s="1" t="s">
+        <v>5562</v>
+      </c>
+      <c r="K1684" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1685" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1685" s="1" t="s">
+        <v>5557</v>
+      </c>
+      <c r="B1685" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1685" s="1" t="s">
+        <v>5552</v>
+      </c>
+      <c r="D1685" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1685" s="1" t="s">
+        <v>5524</v>
+      </c>
+      <c r="F1685" s="1" t="s">
+        <v>5556</v>
+      </c>
+      <c r="G1685" s="1" t="s">
+        <v>5526</v>
+      </c>
+      <c r="I1685" s="1" t="s">
+        <v>5569</v>
+      </c>
+      <c r="J1685" s="1" t="s">
+        <v>5563</v>
+      </c>
+      <c r="K1685" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1686" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1686" s="1" t="s">
+        <v>5551</v>
+      </c>
+      <c r="B1686" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1686" s="1" t="s">
+        <v>5554</v>
+      </c>
+      <c r="D1686" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1686" s="1" t="s">
+        <v>5524</v>
+      </c>
+      <c r="F1686" s="1" t="s">
+        <v>5556</v>
+      </c>
+      <c r="H1686" s="1" t="s">
+        <v>5557</v>
+      </c>
+      <c r="I1686" s="1" t="s">
+        <v>5570</v>
+      </c>
+      <c r="J1686" s="1" t="s">
+        <v>5564</v>
+      </c>
+      <c r="K1686" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1687" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1687" s="1" t="s">
+        <v>5553</v>
+      </c>
+      <c r="B1687" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1687" s="1" t="s">
+        <v>5555</v>
+      </c>
+      <c r="D1687" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="E1687" s="1" t="s">
+        <v>5524</v>
+      </c>
+      <c r="F1687" s="1" t="s">
+        <v>5556</v>
+      </c>
+      <c r="H1687" s="1" t="s">
+        <v>5557</v>
+      </c>
+      <c r="I1687" s="1" t="s">
+        <v>5571</v>
+      </c>
+      <c r="J1687" s="1" t="s">
+        <v>5565</v>
+      </c>
+      <c r="K1687" s="1" t="s">
         <v>155</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14666" uniqueCount="5572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15224" uniqueCount="5851">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -19688,6 +19688,993 @@
   </si>
   <si>
     <t>select count(*) cn from $mixindex017 where id not between 199 and 600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1688</t>
+  </si>
+  <si>
+    <t>dqlc1_1689</t>
+  </si>
+  <si>
+    <t>dqlc1_1691</t>
+  </si>
+  <si>
+    <t>dqlc1_1692</t>
+  </si>
+  <si>
+    <t>dqlc1_1694</t>
+  </si>
+  <si>
+    <t>dqlc1_1695</t>
+  </si>
+  <si>
+    <t>dqlc1_1697</t>
+  </si>
+  <si>
+    <t>dqlc1_1698</t>
+  </si>
+  <si>
+    <t>dqlc1_1700</t>
+  </si>
+  <si>
+    <t>dqlc1_1701</t>
+  </si>
+  <si>
+    <t>dqlc1_1702</t>
+  </si>
+  <si>
+    <t>dqlc1_1704</t>
+  </si>
+  <si>
+    <t>dqlc1_1706</t>
+  </si>
+  <si>
+    <t>dqlc1_1707</t>
+  </si>
+  <si>
+    <t>dqlc1_1709</t>
+  </si>
+  <si>
+    <t>dqlc1_1710</t>
+  </si>
+  <si>
+    <t>单分区-bigint型主键等值查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区-bigint型主键大于范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区-bigint型主键小于范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区-float型主键等值查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区-float型主键大于范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区-float型主键小于范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区-double型主键等值查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区-double型主键大于范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区-double型主键小于范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区-date型主键等值查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区-date型主键大于范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区-date型主键小于范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区-time型主键等值查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区-time型主键大于范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区-time型主键小于范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区-timestamp型主键等值查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区-timestamp型主键大于范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区-timestamp型主键小于范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区-boolean型主键等值查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1712</t>
+  </si>
+  <si>
+    <t>dqlc1_1713</t>
+  </si>
+  <si>
+    <t>dqlc1_1715</t>
+  </si>
+  <si>
+    <t>dqlc1_1716</t>
+  </si>
+  <si>
+    <t>dqlc1_1718</t>
+  </si>
+  <si>
+    <t>dqlc1_1719</t>
+  </si>
+  <si>
+    <t>dqlc1_1720</t>
+  </si>
+  <si>
+    <t>dqlc1_1721</t>
+  </si>
+  <si>
+    <t>dqlc1_1722</t>
+  </si>
+  <si>
+    <t>dqlc1_1723</t>
+  </si>
+  <si>
+    <t>dqlc1_1724</t>
+  </si>
+  <si>
+    <t>dqlc1_1725</t>
+  </si>
+  <si>
+    <t>dqlc1_1726</t>
+  </si>
+  <si>
+    <t>dqlc1_1727</t>
+  </si>
+  <si>
+    <t>dqlc1_1728</t>
+  </si>
+  <si>
+    <t>dqlc1_1729</t>
+  </si>
+  <si>
+    <t>dqlc1_1730</t>
+  </si>
+  <si>
+    <t>schema34</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc1_value25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1687.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1688.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1689.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1690.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1691.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1692.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1693.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1694.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1695.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1696.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1697.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1698.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1699.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1700.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1701.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1702.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1703.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1704.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1705.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1706.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1707.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1708.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1709.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1710.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1711.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1712.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1713.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1714.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1715.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1716.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1717.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1718.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1719.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1720.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1721.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1722.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1723.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1724.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1725.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1726.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1727.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1728.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1729.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1730.csv</t>
+  </si>
+  <si>
+    <t>select uuid from $schema34 where uuid='jboYh0AF-U4kq-ElLx-KePC-E9XK14LtRyWS'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1687</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from $schema34 where uuid&lt;'Zero'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from $schema34 where uuid&gt;'Zero'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select gmt from $schema35 where gmt=58150934</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1690</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select gmt from $schema35 where gmt&gt;58150934</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select gmt from $schema35 where gmt&lt;58150934</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1693</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select price from $schema36 where price=605.77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select price from $schema36 where price&gt;605.77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select price from $schema36 where price&lt;605.77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema37</t>
+  </si>
+  <si>
+    <t>dqlc1_1696</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1731</t>
+  </si>
+  <si>
+    <t>dqlc1_1732</t>
+  </si>
+  <si>
+    <t>dqlc1_1733</t>
+  </si>
+  <si>
+    <t>dqlc1_1734</t>
+  </si>
+  <si>
+    <t>dqlc1_1735</t>
+  </si>
+  <si>
+    <t>dqlc1_1736</t>
+  </si>
+  <si>
+    <t>单分区-int型主键等值查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区-int型主键大于范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区-int型主键小于范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1731.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1732.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1733.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1734.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1735.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1736.csv</t>
+  </si>
+  <si>
+    <t>select amount from $schema37 where amount=122076.4086</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select amount from $schema37 where amount&gt;122076.4086</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select amount from $schema37 where amount&lt;122076.4086</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema38</t>
+  </si>
+  <si>
+    <t>dqlc1_1699</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select birthday from $schema38 where birthday='2000-07-27'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select birthday from $schema38 where birthday&gt;'2000-07-27'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select birthday from $schema38 where birthday&lt;'2000-07-27'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema39</t>
+  </si>
+  <si>
+    <t>dqlc1_1703</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select create_time from $schema39 where create_time='12:07:47'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select create_time from $schema39 where create_time&gt;'12:07:47'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select create_time from $schema39 where create_time&lt;'12:07:47'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema40</t>
+  </si>
+  <si>
+    <t>dqlc1_1705</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema41</t>
+  </si>
+  <si>
+    <t>dqlc1_1708</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select age from $schema41 where age=50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select update_time from $schema40 where update_time='2002-09-09 11:05:38'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select update_time from $schema40 where update_time&gt;'2002-09-09 11:05:38'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select update_time from $schema40 where update_time&lt;'2002-09-09 11:05:38'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select age from $schema41 where age&gt;50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select age from $schema41 where age&lt;50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1737</t>
+  </si>
+  <si>
+    <t>dqlc1_1738</t>
+  </si>
+  <si>
+    <t>dqlc1_1739</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1737.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1738.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1739.csv</t>
+  </si>
+  <si>
+    <t>单分区-字符型主键等值查询 - 非首列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区-字符型主键大于范围查询 - 非首列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区-字符型主键小于范围查询 - 非首列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区-字符型主键等值查询 - 首列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区-字符型主键大于范围查询 - 首列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区-字符型主键小于范围查询 - 首列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema42</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1740</t>
+  </si>
+  <si>
+    <t>dqlc1_1741</t>
+  </si>
+  <si>
+    <t>单分区-boolean型主键大于范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单分区-boolean型主键小于范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema43</t>
+  </si>
+  <si>
+    <t>dqlc1_1711</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1714</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1714</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select is_delete from $schema42 where is_delete=true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select is_delete from $schema42 where is_delete&gt;true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select is_delete from $schema42 where is_delete&lt;true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1740.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1741.csv</t>
+  </si>
+  <si>
+    <t>select name from $schema43 where name='ME50'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select name from $schema43 where name&gt;'ME50'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select name from $schema43 where name&lt;'ME50'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash分区-字符型主键等值查询 - 首列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash分区-字符型主键大于范围查询 - 首列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash分区-字符型主键小于范围查询 - 首列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash分区-bigint型主键等值查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash分区-bigint型主键大于范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash分区-bigint型主键小于范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash分区-float型主键等值查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash分区-float型主键大于范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash分区-float型主键小于范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash分区-double型主键等值查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash分区-double型主键大于范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash分区-double型主键小于范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash分区-date型主键等值查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash分区-date型主键大于范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash分区-date型主键小于范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash分区-time型主键等值查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash分区-time型主键大于范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash分区-time型主键小于范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash分区-timestamp型主键等值查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash分区-timestamp型主键大于范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1742</t>
+  </si>
+  <si>
+    <t>dqlc1_1743</t>
+  </si>
+  <si>
+    <t>dqlc1_1744</t>
+  </si>
+  <si>
+    <t>dqlc1_1745</t>
+  </si>
+  <si>
+    <t>dqlc1_1746</t>
+  </si>
+  <si>
+    <t>hash分区-timestamp型主键小于范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash分区-int型主键等值查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash分区-int型主键大于范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash分区-int型主键小于范围查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash分区-字符型主键等值查询 - 非首列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash分区-字符型主键大于范围查询 - 非首列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hash分区-字符型主键小于范围查询 - 非首列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1742.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1743.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1744.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1745.csv</t>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1746.csv</t>
+  </si>
+  <si>
+    <t>schema44</t>
+  </si>
+  <si>
+    <t>schema45</t>
+  </si>
+  <si>
+    <t>schema46</t>
+  </si>
+  <si>
+    <t>schema47</t>
+  </si>
+  <si>
+    <t>schema48</t>
+  </si>
+  <si>
+    <t>schema49</t>
+  </si>
+  <si>
+    <t>schema50</t>
+  </si>
+  <si>
+    <t>schema51</t>
+  </si>
+  <si>
+    <t>schema52</t>
+  </si>
+  <si>
+    <t>schema53</t>
+  </si>
+  <si>
+    <t>dqlc1_1717</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1720</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1723</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1726</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1729</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1732</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1735</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1738</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1741</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过主键字段等值查询非主键字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过主键字段大于查询非主键字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过主键字段小于查询非主键字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qc1_value26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid,gmt from $schema44 where uuid='jboYh0AF-U4kq-ElLx-KePC-E9XK14LtRyWS'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid,gmt from $schema44 where uuid&gt;'jboYh0AF-U4kq-ElLx-KePC-E9XK14LtRyWS'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema44 where uuid&lt;'jboYh0AF-U4kq-ElLx-KePC-E9XK14LtRyWS'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select gmt,name from $schema45 where gmt=58150934</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select gmt,name from $schema45 where gmt&gt;58150934</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema45 where gmt&lt;58150934</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select price,age from $schema46 where price=605.77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select price,age from $schema46 where price&gt;605.77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema46 where price&lt;605.77</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select amount,birthday from $schema47 where amount=122076.4086</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select amount,birthday from $schema47 where amount&gt;122076.4086</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema47 where amount&lt;122076.4086</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select birthday,address from $schema48 where birthday='2000-07-27'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select birthday,address from $schema48 where birthday&gt;'2000-07-27'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema48 where birthday&lt;'2000-07-27'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select create_time,zip_code from $schema49 where create_time='12:07:47'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select create_time,zip_code from $schema49 where create_time&gt;'12:07:47'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema49 where create_time&lt;'12:07:47'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select update_time,price from $schema50 where update_time='2002-09-09 11:05:38'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select update_time,price from $schema50 where update_time&gt;'2002-09-09 11:05:38'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema50 where update_time&lt;'2002-09-09 11:05:38'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select age,name from $schema51 where age=50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select age,name from $schema51 where age&gt;50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema51 where age&lt;50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select name,amount from $schema52 where name='ME50'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select name,amount from $schema52 where name&gt;'ME50'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema52 where name&lt;'ME50'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select age from $schema52 where name='ME50'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select uuid from $schema52 where name&gt;'ME50' order by uuid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select birthday,amount from $schema52 where name&lt;'ME50' order by name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1747</t>
+  </si>
+  <si>
+    <t>hash分区-boolean型主键count查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select count(is_delete) ci from $schema53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1747.csv</t>
+  </si>
+  <si>
+    <t>dqlc1_1748</t>
+  </si>
+  <si>
+    <t>通过主键字段like查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1748.csv</t>
+  </si>
+  <si>
+    <t>select name from $schema52 where name like 'c6%'</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -20076,10 +21063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1687"/>
+  <dimension ref="A1:K1749"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1655" workbookViewId="0">
-      <selection activeCell="C1695" sqref="C1695"/>
+    <sheetView tabSelected="1" topLeftCell="A888" workbookViewId="0">
+      <selection activeCell="G1749" sqref="G1749"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -67475,6 +68462,1804 @@
       </c>
       <c r="K1687" s="1" t="s">
         <v>155</v>
+      </c>
+    </row>
+    <row r="1688" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1688" s="1" t="s">
+        <v>5671</v>
+      </c>
+      <c r="B1688" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1688" s="1" t="s">
+        <v>5733</v>
+      </c>
+      <c r="D1688" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1688" s="1" t="s">
+        <v>5624</v>
+      </c>
+      <c r="G1688" s="1" t="s">
+        <v>5625</v>
+      </c>
+      <c r="I1688" s="1" t="s">
+        <v>5670</v>
+      </c>
+      <c r="J1688" s="1" t="s">
+        <v>5626</v>
+      </c>
+      <c r="K1688" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1689" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1689" s="1" t="s">
+        <v>5572</v>
+      </c>
+      <c r="B1689" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1689" s="1" t="s">
+        <v>5734</v>
+      </c>
+      <c r="D1689" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1689" s="1" t="s">
+        <v>5624</v>
+      </c>
+      <c r="H1689" s="1" t="s">
+        <v>5671</v>
+      </c>
+      <c r="I1689" s="1" t="s">
+        <v>5672</v>
+      </c>
+      <c r="J1689" s="1" t="s">
+        <v>5627</v>
+      </c>
+      <c r="K1689" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1690" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1690" s="1" t="s">
+        <v>5573</v>
+      </c>
+      <c r="B1690" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1690" s="1" t="s">
+        <v>5735</v>
+      </c>
+      <c r="D1690" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1690" s="1" t="s">
+        <v>5624</v>
+      </c>
+      <c r="H1690" s="1" t="s">
+        <v>5671</v>
+      </c>
+      <c r="I1690" s="1" t="s">
+        <v>5673</v>
+      </c>
+      <c r="J1690" s="1" t="s">
+        <v>5628</v>
+      </c>
+      <c r="K1690" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1691" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1691" s="1" t="s">
+        <v>5676</v>
+      </c>
+      <c r="B1691" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1691" s="1" t="s">
+        <v>5588</v>
+      </c>
+      <c r="D1691" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1691" s="1" t="s">
+        <v>5674</v>
+      </c>
+      <c r="G1691" s="1" t="s">
+        <v>5625</v>
+      </c>
+      <c r="I1691" s="1" t="s">
+        <v>5675</v>
+      </c>
+      <c r="J1691" s="1" t="s">
+        <v>5629</v>
+      </c>
+      <c r="K1691" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1692" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1692" s="1" t="s">
+        <v>5574</v>
+      </c>
+      <c r="B1692" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1692" s="1" t="s">
+        <v>5589</v>
+      </c>
+      <c r="D1692" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1692" s="1" t="s">
+        <v>5674</v>
+      </c>
+      <c r="H1692" s="1" t="s">
+        <v>5676</v>
+      </c>
+      <c r="I1692" s="1" t="s">
+        <v>5677</v>
+      </c>
+      <c r="J1692" s="1" t="s">
+        <v>5630</v>
+      </c>
+      <c r="K1692" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1693" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1693" s="1" t="s">
+        <v>5575</v>
+      </c>
+      <c r="B1693" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1693" s="1" t="s">
+        <v>5590</v>
+      </c>
+      <c r="D1693" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1693" s="1" t="s">
+        <v>5674</v>
+      </c>
+      <c r="H1693" s="1" t="s">
+        <v>5676</v>
+      </c>
+      <c r="I1693" s="1" t="s">
+        <v>5678</v>
+      </c>
+      <c r="J1693" s="1" t="s">
+        <v>5631</v>
+      </c>
+      <c r="K1693" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1694" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1694" s="1" t="s">
+        <v>5680</v>
+      </c>
+      <c r="B1694" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1694" s="1" t="s">
+        <v>5591</v>
+      </c>
+      <c r="D1694" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1694" s="1" t="s">
+        <v>5679</v>
+      </c>
+      <c r="G1694" s="1" t="s">
+        <v>5625</v>
+      </c>
+      <c r="I1694" s="1" t="s">
+        <v>5681</v>
+      </c>
+      <c r="J1694" s="1" t="s">
+        <v>5632</v>
+      </c>
+      <c r="K1694" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1695" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1695" s="1" t="s">
+        <v>5576</v>
+      </c>
+      <c r="B1695" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1695" s="1" t="s">
+        <v>5592</v>
+      </c>
+      <c r="D1695" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1695" s="1" t="s">
+        <v>5679</v>
+      </c>
+      <c r="H1695" s="1" t="s">
+        <v>5680</v>
+      </c>
+      <c r="I1695" s="1" t="s">
+        <v>5682</v>
+      </c>
+      <c r="J1695" s="1" t="s">
+        <v>5633</v>
+      </c>
+      <c r="K1695" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1696" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1696" s="1" t="s">
+        <v>5577</v>
+      </c>
+      <c r="B1696" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1696" s="1" t="s">
+        <v>5593</v>
+      </c>
+      <c r="D1696" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1696" s="1" t="s">
+        <v>5679</v>
+      </c>
+      <c r="H1696" s="1" t="s">
+        <v>5680</v>
+      </c>
+      <c r="I1696" s="1" t="s">
+        <v>5683</v>
+      </c>
+      <c r="J1696" s="1" t="s">
+        <v>5634</v>
+      </c>
+      <c r="K1696" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1697" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1697" s="1" t="s">
+        <v>5685</v>
+      </c>
+      <c r="B1697" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1697" s="1" t="s">
+        <v>5594</v>
+      </c>
+      <c r="D1697" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1697" s="1" t="s">
+        <v>5684</v>
+      </c>
+      <c r="G1697" s="1" t="s">
+        <v>5625</v>
+      </c>
+      <c r="I1697" s="1" t="s">
+        <v>5701</v>
+      </c>
+      <c r="J1697" s="1" t="s">
+        <v>5635</v>
+      </c>
+      <c r="K1697" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1698" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1698" s="1" t="s">
+        <v>5578</v>
+      </c>
+      <c r="B1698" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1698" s="1" t="s">
+        <v>5595</v>
+      </c>
+      <c r="D1698" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1698" s="1" t="s">
+        <v>5684</v>
+      </c>
+      <c r="H1698" s="1" t="s">
+        <v>5685</v>
+      </c>
+      <c r="I1698" s="1" t="s">
+        <v>5702</v>
+      </c>
+      <c r="J1698" s="1" t="s">
+        <v>5636</v>
+      </c>
+      <c r="K1698" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1699" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1699" s="1" t="s">
+        <v>5579</v>
+      </c>
+      <c r="B1699" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1699" s="1" t="s">
+        <v>5596</v>
+      </c>
+      <c r="D1699" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1699" s="1" t="s">
+        <v>5684</v>
+      </c>
+      <c r="H1699" s="1" t="s">
+        <v>5685</v>
+      </c>
+      <c r="I1699" s="1" t="s">
+        <v>5703</v>
+      </c>
+      <c r="J1699" s="1" t="s">
+        <v>5637</v>
+      </c>
+      <c r="K1699" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1700" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1700" s="1" t="s">
+        <v>5705</v>
+      </c>
+      <c r="B1700" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1700" s="1" t="s">
+        <v>5597</v>
+      </c>
+      <c r="D1700" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1700" s="1" t="s">
+        <v>5704</v>
+      </c>
+      <c r="G1700" s="1" t="s">
+        <v>5625</v>
+      </c>
+      <c r="I1700" s="1" t="s">
+        <v>5706</v>
+      </c>
+      <c r="J1700" s="1" t="s">
+        <v>5638</v>
+      </c>
+      <c r="K1700" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1701" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1701" s="1" t="s">
+        <v>5580</v>
+      </c>
+      <c r="B1701" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1701" s="1" t="s">
+        <v>5598</v>
+      </c>
+      <c r="D1701" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1701" s="1" t="s">
+        <v>5704</v>
+      </c>
+      <c r="H1701" s="1" t="s">
+        <v>5705</v>
+      </c>
+      <c r="I1701" s="1" t="s">
+        <v>5707</v>
+      </c>
+      <c r="J1701" s="1" t="s">
+        <v>5639</v>
+      </c>
+      <c r="K1701" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1702" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1702" s="1" t="s">
+        <v>5581</v>
+      </c>
+      <c r="B1702" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1702" s="1" t="s">
+        <v>5599</v>
+      </c>
+      <c r="D1702" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1702" s="1" t="s">
+        <v>5704</v>
+      </c>
+      <c r="H1702" s="1" t="s">
+        <v>5705</v>
+      </c>
+      <c r="I1702" s="1" t="s">
+        <v>5708</v>
+      </c>
+      <c r="J1702" s="1" t="s">
+        <v>5640</v>
+      </c>
+      <c r="K1702" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1703" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1703" s="1" t="s">
+        <v>5582</v>
+      </c>
+      <c r="B1703" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1703" s="1" t="s">
+        <v>5600</v>
+      </c>
+      <c r="D1703" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1703" s="1" t="s">
+        <v>5709</v>
+      </c>
+      <c r="G1703" s="1" t="s">
+        <v>5625</v>
+      </c>
+      <c r="I1703" s="1" t="s">
+        <v>5711</v>
+      </c>
+      <c r="J1703" s="1" t="s">
+        <v>5641</v>
+      </c>
+      <c r="K1703" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1704" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1704" s="1" t="s">
+        <v>5710</v>
+      </c>
+      <c r="B1704" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1704" s="1" t="s">
+        <v>5601</v>
+      </c>
+      <c r="D1704" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1704" s="1" t="s">
+        <v>5709</v>
+      </c>
+      <c r="H1704" s="1" t="s">
+        <v>5710</v>
+      </c>
+      <c r="I1704" s="1" t="s">
+        <v>5712</v>
+      </c>
+      <c r="J1704" s="1" t="s">
+        <v>5642</v>
+      </c>
+      <c r="K1704" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1705" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1705" s="1" t="s">
+        <v>5583</v>
+      </c>
+      <c r="B1705" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1705" s="1" t="s">
+        <v>5602</v>
+      </c>
+      <c r="D1705" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1705" s="1" t="s">
+        <v>5709</v>
+      </c>
+      <c r="H1705" s="1" t="s">
+        <v>5710</v>
+      </c>
+      <c r="I1705" s="1" t="s">
+        <v>5713</v>
+      </c>
+      <c r="J1705" s="1" t="s">
+        <v>5643</v>
+      </c>
+      <c r="K1705" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1706" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1706" s="1" t="s">
+        <v>5715</v>
+      </c>
+      <c r="B1706" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1706" s="1" t="s">
+        <v>5603</v>
+      </c>
+      <c r="D1706" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1706" s="1" t="s">
+        <v>5714</v>
+      </c>
+      <c r="G1706" s="1" t="s">
+        <v>5625</v>
+      </c>
+      <c r="I1706" s="1" t="s">
+        <v>5719</v>
+      </c>
+      <c r="J1706" s="1" t="s">
+        <v>5644</v>
+      </c>
+      <c r="K1706" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1707" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1707" s="1" t="s">
+        <v>5584</v>
+      </c>
+      <c r="B1707" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1707" s="1" t="s">
+        <v>5604</v>
+      </c>
+      <c r="D1707" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1707" s="1" t="s">
+        <v>5714</v>
+      </c>
+      <c r="H1707" s="1" t="s">
+        <v>5715</v>
+      </c>
+      <c r="I1707" s="1" t="s">
+        <v>5720</v>
+      </c>
+      <c r="J1707" s="1" t="s">
+        <v>5645</v>
+      </c>
+      <c r="K1707" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1708" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1708" s="1" t="s">
+        <v>5585</v>
+      </c>
+      <c r="B1708" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1708" s="1" t="s">
+        <v>5605</v>
+      </c>
+      <c r="D1708" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1708" s="1" t="s">
+        <v>5714</v>
+      </c>
+      <c r="H1708" s="1" t="s">
+        <v>5715</v>
+      </c>
+      <c r="I1708" s="1" t="s">
+        <v>5721</v>
+      </c>
+      <c r="J1708" s="1" t="s">
+        <v>5646</v>
+      </c>
+      <c r="K1708" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1709" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1709" s="1" t="s">
+        <v>5717</v>
+      </c>
+      <c r="B1709" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1709" s="1" t="s">
+        <v>5692</v>
+      </c>
+      <c r="D1709" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1709" s="1" t="s">
+        <v>5716</v>
+      </c>
+      <c r="G1709" s="1" t="s">
+        <v>5625</v>
+      </c>
+      <c r="I1709" s="1" t="s">
+        <v>5718</v>
+      </c>
+      <c r="J1709" s="1" t="s">
+        <v>5647</v>
+      </c>
+      <c r="K1709" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1710" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1710" s="1" t="s">
+        <v>5586</v>
+      </c>
+      <c r="B1710" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1710" s="1" t="s">
+        <v>5693</v>
+      </c>
+      <c r="D1710" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1710" s="1" t="s">
+        <v>5716</v>
+      </c>
+      <c r="H1710" s="1" t="s">
+        <v>5717</v>
+      </c>
+      <c r="I1710" s="1" t="s">
+        <v>5722</v>
+      </c>
+      <c r="J1710" s="1" t="s">
+        <v>5648</v>
+      </c>
+      <c r="K1710" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1711" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1711" s="1" t="s">
+        <v>5587</v>
+      </c>
+      <c r="B1711" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1711" s="1" t="s">
+        <v>5694</v>
+      </c>
+      <c r="D1711" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1711" s="1" t="s">
+        <v>5716</v>
+      </c>
+      <c r="H1711" s="1" t="s">
+        <v>5717</v>
+      </c>
+      <c r="I1711" s="1" t="s">
+        <v>5723</v>
+      </c>
+      <c r="J1711" s="1" t="s">
+        <v>5649</v>
+      </c>
+      <c r="K1711" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1712" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1712" s="1" t="s">
+        <v>5742</v>
+      </c>
+      <c r="B1712" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1712" s="1" t="s">
+        <v>5606</v>
+      </c>
+      <c r="D1712" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1712" s="1" t="s">
+        <v>5736</v>
+      </c>
+      <c r="G1712" s="1" t="s">
+        <v>5625</v>
+      </c>
+      <c r="I1712" s="1" t="s">
+        <v>5745</v>
+      </c>
+      <c r="J1712" s="1" t="s">
+        <v>5650</v>
+      </c>
+      <c r="K1712" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1713" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1713" s="1" t="s">
+        <v>5607</v>
+      </c>
+      <c r="B1713" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1713" s="1" t="s">
+        <v>5739</v>
+      </c>
+      <c r="D1713" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1713" s="1" t="s">
+        <v>5736</v>
+      </c>
+      <c r="H1713" s="1" t="s">
+        <v>5742</v>
+      </c>
+      <c r="I1713" s="1" t="s">
+        <v>5746</v>
+      </c>
+      <c r="J1713" s="1" t="s">
+        <v>5651</v>
+      </c>
+      <c r="K1713" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1714" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1714" s="1" t="s">
+        <v>5608</v>
+      </c>
+      <c r="B1714" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1714" s="1" t="s">
+        <v>5740</v>
+      </c>
+      <c r="D1714" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1714" s="1" t="s">
+        <v>5736</v>
+      </c>
+      <c r="H1714" s="1" t="s">
+        <v>5742</v>
+      </c>
+      <c r="I1714" s="1" t="s">
+        <v>5747</v>
+      </c>
+      <c r="J1714" s="1" t="s">
+        <v>5652</v>
+      </c>
+      <c r="K1714" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1715" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1715" s="1" t="s">
+        <v>5743</v>
+      </c>
+      <c r="B1715" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1715" s="1" t="s">
+        <v>5730</v>
+      </c>
+      <c r="D1715" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1715" s="1" t="s">
+        <v>5741</v>
+      </c>
+      <c r="G1715" s="1" t="s">
+        <v>5625</v>
+      </c>
+      <c r="I1715" s="1" t="s">
+        <v>5750</v>
+      </c>
+      <c r="J1715" s="1" t="s">
+        <v>5653</v>
+      </c>
+      <c r="K1715" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1716" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1716" s="1" t="s">
+        <v>5609</v>
+      </c>
+      <c r="B1716" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1716" s="1" t="s">
+        <v>5731</v>
+      </c>
+      <c r="D1716" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1716" s="1" t="s">
+        <v>5741</v>
+      </c>
+      <c r="H1716" s="1" t="s">
+        <v>5744</v>
+      </c>
+      <c r="I1716" s="1" t="s">
+        <v>5751</v>
+      </c>
+      <c r="J1716" s="1" t="s">
+        <v>5654</v>
+      </c>
+      <c r="K1716" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1717" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1717" s="1" t="s">
+        <v>5610</v>
+      </c>
+      <c r="B1717" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1717" s="1" t="s">
+        <v>5732</v>
+      </c>
+      <c r="D1717" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1717" s="1" t="s">
+        <v>5741</v>
+      </c>
+      <c r="H1717" s="1" t="s">
+        <v>5744</v>
+      </c>
+      <c r="I1717" s="1" t="s">
+        <v>5752</v>
+      </c>
+      <c r="J1717" s="1" t="s">
+        <v>5655</v>
+      </c>
+      <c r="K1717" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1718" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1718" s="1" t="s">
+        <v>5800</v>
+      </c>
+      <c r="B1718" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1718" s="1" t="s">
+        <v>5753</v>
+      </c>
+      <c r="D1718" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1718" s="1" t="s">
+        <v>5790</v>
+      </c>
+      <c r="G1718" s="1" t="s">
+        <v>5812</v>
+      </c>
+      <c r="I1718" s="1" t="s">
+        <v>5813</v>
+      </c>
+      <c r="J1718" s="1" t="s">
+        <v>5656</v>
+      </c>
+      <c r="K1718" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1719" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1719" s="1" t="s">
+        <v>5611</v>
+      </c>
+      <c r="B1719" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1719" s="1" t="s">
+        <v>5754</v>
+      </c>
+      <c r="D1719" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1719" s="1" t="s">
+        <v>5790</v>
+      </c>
+      <c r="H1719" s="1" t="s">
+        <v>5800</v>
+      </c>
+      <c r="I1719" s="1" t="s">
+        <v>5814</v>
+      </c>
+      <c r="J1719" s="1" t="s">
+        <v>5657</v>
+      </c>
+      <c r="K1719" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1720" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1720" s="1" t="s">
+        <v>5612</v>
+      </c>
+      <c r="B1720" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1720" s="1" t="s">
+        <v>5755</v>
+      </c>
+      <c r="D1720" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1720" s="1" t="s">
+        <v>5790</v>
+      </c>
+      <c r="H1720" s="1" t="s">
+        <v>5800</v>
+      </c>
+      <c r="I1720" s="1" t="s">
+        <v>5815</v>
+      </c>
+      <c r="J1720" s="1" t="s">
+        <v>5658</v>
+      </c>
+      <c r="K1720" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1721" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1721" s="1" t="s">
+        <v>5613</v>
+      </c>
+      <c r="B1721" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1721" s="1" t="s">
+        <v>5756</v>
+      </c>
+      <c r="D1721" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1721" s="1" t="s">
+        <v>5791</v>
+      </c>
+      <c r="G1721" s="1" t="s">
+        <v>5812</v>
+      </c>
+      <c r="I1721" s="1" t="s">
+        <v>5816</v>
+      </c>
+      <c r="J1721" s="1" t="s">
+        <v>5659</v>
+      </c>
+      <c r="K1721" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1722" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1722" s="1" t="s">
+        <v>5614</v>
+      </c>
+      <c r="B1722" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1722" s="1" t="s">
+        <v>5757</v>
+      </c>
+      <c r="D1722" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1722" s="1" t="s">
+        <v>5791</v>
+      </c>
+      <c r="H1722" s="1" t="s">
+        <v>5801</v>
+      </c>
+      <c r="I1722" s="1" t="s">
+        <v>5817</v>
+      </c>
+      <c r="J1722" s="1" t="s">
+        <v>5660</v>
+      </c>
+      <c r="K1722" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1723" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1723" s="1" t="s">
+        <v>5615</v>
+      </c>
+      <c r="B1723" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1723" s="1" t="s">
+        <v>5758</v>
+      </c>
+      <c r="D1723" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1723" s="1" t="s">
+        <v>5791</v>
+      </c>
+      <c r="H1723" s="1" t="s">
+        <v>5801</v>
+      </c>
+      <c r="I1723" s="1" t="s">
+        <v>5818</v>
+      </c>
+      <c r="J1723" s="1" t="s">
+        <v>5661</v>
+      </c>
+      <c r="K1723" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1724" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1724" s="1" t="s">
+        <v>5616</v>
+      </c>
+      <c r="B1724" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1724" s="1" t="s">
+        <v>5759</v>
+      </c>
+      <c r="D1724" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1724" s="1" t="s">
+        <v>5792</v>
+      </c>
+      <c r="G1724" s="1" t="s">
+        <v>5812</v>
+      </c>
+      <c r="I1724" s="1" t="s">
+        <v>5819</v>
+      </c>
+      <c r="J1724" s="1" t="s">
+        <v>5662</v>
+      </c>
+      <c r="K1724" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1725" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1725" s="1" t="s">
+        <v>5617</v>
+      </c>
+      <c r="B1725" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1725" s="1" t="s">
+        <v>5760</v>
+      </c>
+      <c r="D1725" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1725" s="1" t="s">
+        <v>5792</v>
+      </c>
+      <c r="H1725" s="1" t="s">
+        <v>5802</v>
+      </c>
+      <c r="I1725" s="1" t="s">
+        <v>5820</v>
+      </c>
+      <c r="J1725" s="1" t="s">
+        <v>5663</v>
+      </c>
+      <c r="K1725" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1726" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1726" s="1" t="s">
+        <v>5618</v>
+      </c>
+      <c r="B1726" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1726" s="1" t="s">
+        <v>5761</v>
+      </c>
+      <c r="D1726" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1726" s="1" t="s">
+        <v>5792</v>
+      </c>
+      <c r="H1726" s="1" t="s">
+        <v>5802</v>
+      </c>
+      <c r="I1726" s="1" t="s">
+        <v>5821</v>
+      </c>
+      <c r="J1726" s="1" t="s">
+        <v>5664</v>
+      </c>
+      <c r="K1726" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1727" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1727" s="1" t="s">
+        <v>5619</v>
+      </c>
+      <c r="B1727" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1727" s="1" t="s">
+        <v>5762</v>
+      </c>
+      <c r="D1727" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1727" s="1" t="s">
+        <v>5793</v>
+      </c>
+      <c r="G1727" s="1" t="s">
+        <v>5812</v>
+      </c>
+      <c r="I1727" s="1" t="s">
+        <v>5822</v>
+      </c>
+      <c r="J1727" s="1" t="s">
+        <v>5665</v>
+      </c>
+      <c r="K1727" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1728" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1728" s="1" t="s">
+        <v>5620</v>
+      </c>
+      <c r="B1728" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1728" s="1" t="s">
+        <v>5763</v>
+      </c>
+      <c r="D1728" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1728" s="1" t="s">
+        <v>5793</v>
+      </c>
+      <c r="H1728" s="1" t="s">
+        <v>5803</v>
+      </c>
+      <c r="I1728" s="1" t="s">
+        <v>5823</v>
+      </c>
+      <c r="J1728" s="1" t="s">
+        <v>5666</v>
+      </c>
+      <c r="K1728" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1729" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1729" s="1" t="s">
+        <v>5621</v>
+      </c>
+      <c r="B1729" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1729" s="1" t="s">
+        <v>5764</v>
+      </c>
+      <c r="D1729" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1729" s="1" t="s">
+        <v>5793</v>
+      </c>
+      <c r="H1729" s="1" t="s">
+        <v>5803</v>
+      </c>
+      <c r="I1729" s="1" t="s">
+        <v>5824</v>
+      </c>
+      <c r="J1729" s="1" t="s">
+        <v>5667</v>
+      </c>
+      <c r="K1729" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1730" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1730" s="1" t="s">
+        <v>5622</v>
+      </c>
+      <c r="B1730" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1730" s="1" t="s">
+        <v>5765</v>
+      </c>
+      <c r="D1730" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1730" s="1" t="s">
+        <v>5794</v>
+      </c>
+      <c r="G1730" s="1" t="s">
+        <v>5812</v>
+      </c>
+      <c r="I1730" s="1" t="s">
+        <v>5825</v>
+      </c>
+      <c r="J1730" s="1" t="s">
+        <v>5668</v>
+      </c>
+      <c r="K1730" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1731" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1731" s="1" t="s">
+        <v>5623</v>
+      </c>
+      <c r="B1731" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1731" s="1" t="s">
+        <v>5766</v>
+      </c>
+      <c r="D1731" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1731" s="1" t="s">
+        <v>5794</v>
+      </c>
+      <c r="H1731" s="1" t="s">
+        <v>5804</v>
+      </c>
+      <c r="I1731" s="1" t="s">
+        <v>5826</v>
+      </c>
+      <c r="J1731" s="1" t="s">
+        <v>5669</v>
+      </c>
+      <c r="K1731" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1732" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1732" s="1" t="s">
+        <v>5686</v>
+      </c>
+      <c r="B1732" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1732" s="1" t="s">
+        <v>5767</v>
+      </c>
+      <c r="D1732" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1732" s="1" t="s">
+        <v>5794</v>
+      </c>
+      <c r="H1732" s="1" t="s">
+        <v>5804</v>
+      </c>
+      <c r="I1732" s="1" t="s">
+        <v>5827</v>
+      </c>
+      <c r="J1732" s="1" t="s">
+        <v>5695</v>
+      </c>
+      <c r="K1732" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1733" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1733" s="1" t="s">
+        <v>5687</v>
+      </c>
+      <c r="B1733" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1733" s="1" t="s">
+        <v>5768</v>
+      </c>
+      <c r="D1733" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1733" s="1" t="s">
+        <v>5795</v>
+      </c>
+      <c r="G1733" s="1" t="s">
+        <v>5812</v>
+      </c>
+      <c r="I1733" s="1" t="s">
+        <v>5828</v>
+      </c>
+      <c r="J1733" s="1" t="s">
+        <v>5696</v>
+      </c>
+      <c r="K1733" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1734" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="B1734" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1734" s="1" t="s">
+        <v>5769</v>
+      </c>
+      <c r="D1734" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1734" s="1" t="s">
+        <v>5795</v>
+      </c>
+      <c r="H1734" s="1" t="s">
+        <v>5805</v>
+      </c>
+      <c r="I1734" s="1" t="s">
+        <v>5829</v>
+      </c>
+      <c r="J1734" s="1" t="s">
+        <v>5697</v>
+      </c>
+      <c r="K1734" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1735" s="1" t="s">
+        <v>5689</v>
+      </c>
+      <c r="B1735" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1735" s="1" t="s">
+        <v>5770</v>
+      </c>
+      <c r="D1735" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1735" s="1" t="s">
+        <v>5795</v>
+      </c>
+      <c r="H1735" s="1" t="s">
+        <v>5805</v>
+      </c>
+      <c r="I1735" s="1" t="s">
+        <v>5830</v>
+      </c>
+      <c r="J1735" s="1" t="s">
+        <v>5698</v>
+      </c>
+      <c r="K1735" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1736" s="1" t="s">
+        <v>5690</v>
+      </c>
+      <c r="B1736" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1736" s="1" t="s">
+        <v>5771</v>
+      </c>
+      <c r="D1736" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1736" s="1" t="s">
+        <v>5796</v>
+      </c>
+      <c r="G1736" s="1" t="s">
+        <v>5812</v>
+      </c>
+      <c r="I1736" s="1" t="s">
+        <v>5831</v>
+      </c>
+      <c r="J1736" s="1" t="s">
+        <v>5699</v>
+      </c>
+      <c r="K1736" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1737" s="1" t="s">
+        <v>5691</v>
+      </c>
+      <c r="B1737" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1737" s="1" t="s">
+        <v>5772</v>
+      </c>
+      <c r="D1737" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1737" s="1" t="s">
+        <v>5796</v>
+      </c>
+      <c r="H1737" s="1" t="s">
+        <v>5806</v>
+      </c>
+      <c r="I1737" s="1" t="s">
+        <v>5832</v>
+      </c>
+      <c r="J1737" s="1" t="s">
+        <v>5700</v>
+      </c>
+      <c r="K1737" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1738" s="1" t="s">
+        <v>5724</v>
+      </c>
+      <c r="B1738" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1738" s="1" t="s">
+        <v>5778</v>
+      </c>
+      <c r="D1738" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1738" s="1" t="s">
+        <v>5796</v>
+      </c>
+      <c r="H1738" s="1" t="s">
+        <v>5806</v>
+      </c>
+      <c r="I1738" s="1" t="s">
+        <v>5833</v>
+      </c>
+      <c r="J1738" s="1" t="s">
+        <v>5727</v>
+      </c>
+      <c r="K1738" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1739" s="1" t="s">
+        <v>5725</v>
+      </c>
+      <c r="B1739" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1739" s="1" t="s">
+        <v>5779</v>
+      </c>
+      <c r="D1739" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1739" s="1" t="s">
+        <v>5797</v>
+      </c>
+      <c r="G1739" s="1" t="s">
+        <v>5812</v>
+      </c>
+      <c r="I1739" s="1" t="s">
+        <v>5834</v>
+      </c>
+      <c r="J1739" s="1" t="s">
+        <v>5728</v>
+      </c>
+      <c r="K1739" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1740" s="1" t="s">
+        <v>5726</v>
+      </c>
+      <c r="B1740" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1740" s="1" t="s">
+        <v>5780</v>
+      </c>
+      <c r="D1740" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1740" s="1" t="s">
+        <v>5797</v>
+      </c>
+      <c r="H1740" s="1" t="s">
+        <v>5807</v>
+      </c>
+      <c r="I1740" s="1" t="s">
+        <v>5835</v>
+      </c>
+      <c r="J1740" s="1" t="s">
+        <v>5729</v>
+      </c>
+      <c r="K1740" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1741" s="1" t="s">
+        <v>5737</v>
+      </c>
+      <c r="B1741" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1741" s="1" t="s">
+        <v>5781</v>
+      </c>
+      <c r="D1741" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1741" s="1" t="s">
+        <v>5797</v>
+      </c>
+      <c r="H1741" s="1" t="s">
+        <v>5807</v>
+      </c>
+      <c r="I1741" s="1" t="s">
+        <v>5836</v>
+      </c>
+      <c r="J1741" s="1" t="s">
+        <v>5748</v>
+      </c>
+      <c r="K1741" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1742" s="1" t="s">
+        <v>5738</v>
+      </c>
+      <c r="B1742" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1742" s="1" t="s">
+        <v>5782</v>
+      </c>
+      <c r="D1742" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1742" s="1" t="s">
+        <v>5798</v>
+      </c>
+      <c r="G1742" s="1" t="s">
+        <v>5812</v>
+      </c>
+      <c r="I1742" s="1" t="s">
+        <v>5837</v>
+      </c>
+      <c r="J1742" s="1" t="s">
+        <v>5749</v>
+      </c>
+      <c r="K1742" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1743" s="1" t="s">
+        <v>5773</v>
+      </c>
+      <c r="B1743" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1743" s="1" t="s">
+        <v>5783</v>
+      </c>
+      <c r="D1743" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1743" s="1" t="s">
+        <v>5798</v>
+      </c>
+      <c r="H1743" s="1" t="s">
+        <v>5808</v>
+      </c>
+      <c r="I1743" s="1" t="s">
+        <v>5838</v>
+      </c>
+      <c r="J1743" s="1" t="s">
+        <v>5785</v>
+      </c>
+      <c r="K1743" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1744" s="1" t="s">
+        <v>5774</v>
+      </c>
+      <c r="B1744" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1744" s="1" t="s">
+        <v>5784</v>
+      </c>
+      <c r="D1744" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1744" s="1" t="s">
+        <v>5798</v>
+      </c>
+      <c r="H1744" s="1" t="s">
+        <v>5808</v>
+      </c>
+      <c r="I1744" s="1" t="s">
+        <v>5839</v>
+      </c>
+      <c r="J1744" s="1" t="s">
+        <v>5786</v>
+      </c>
+      <c r="K1744" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1745" s="1" t="s">
+        <v>5775</v>
+      </c>
+      <c r="B1745" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1745" s="1" t="s">
+        <v>5809</v>
+      </c>
+      <c r="D1745" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1745" s="1" t="s">
+        <v>5798</v>
+      </c>
+      <c r="H1745" s="1" t="s">
+        <v>5808</v>
+      </c>
+      <c r="I1745" s="1" t="s">
+        <v>5840</v>
+      </c>
+      <c r="J1745" s="1" t="s">
+        <v>5787</v>
+      </c>
+      <c r="K1745" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1746" s="1" t="s">
+        <v>5776</v>
+      </c>
+      <c r="B1746" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1746" s="1" t="s">
+        <v>5810</v>
+      </c>
+      <c r="D1746" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1746" s="1" t="s">
+        <v>5798</v>
+      </c>
+      <c r="H1746" s="1" t="s">
+        <v>5808</v>
+      </c>
+      <c r="I1746" s="1" t="s">
+        <v>5841</v>
+      </c>
+      <c r="J1746" s="1" t="s">
+        <v>5788</v>
+      </c>
+      <c r="K1746" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1747" s="1" t="s">
+        <v>5777</v>
+      </c>
+      <c r="B1747" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1747" s="1" t="s">
+        <v>5811</v>
+      </c>
+      <c r="D1747" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1747" s="1" t="s">
+        <v>5798</v>
+      </c>
+      <c r="H1747" s="1" t="s">
+        <v>5808</v>
+      </c>
+      <c r="I1747" s="1" t="s">
+        <v>5842</v>
+      </c>
+      <c r="J1747" s="1" t="s">
+        <v>5789</v>
+      </c>
+      <c r="K1747" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1748" s="1" t="s">
+        <v>5843</v>
+      </c>
+      <c r="B1748" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1748" s="1" t="s">
+        <v>5844</v>
+      </c>
+      <c r="D1748" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1748" s="1" t="s">
+        <v>5799</v>
+      </c>
+      <c r="G1748" s="1" t="s">
+        <v>5812</v>
+      </c>
+      <c r="I1748" s="1" t="s">
+        <v>5845</v>
+      </c>
+      <c r="J1748" s="1" t="s">
+        <v>5846</v>
+      </c>
+      <c r="K1748" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1749" s="1" t="s">
+        <v>5847</v>
+      </c>
+      <c r="B1749" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1749" s="1" t="s">
+        <v>5848</v>
+      </c>
+      <c r="D1749" s="1" t="s">
+        <v>2411</v>
+      </c>
+      <c r="F1749" s="1" t="s">
+        <v>5798</v>
+      </c>
+      <c r="H1749" s="1" t="s">
+        <v>5808</v>
+      </c>
+      <c r="I1749" s="1" t="s">
+        <v>5850</v>
+      </c>
+      <c r="J1749" s="1" t="s">
+        <v>5849</v>
+      </c>
+      <c r="K1749" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15224" uniqueCount="5851">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15224" uniqueCount="5852">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -20675,6 +20675,10 @@
   </si>
   <si>
     <t>select name from $schema52 where name like 'c6%'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1702</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -21065,8 +21069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1749"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A888" workbookViewId="0">
-      <selection activeCell="G1749" sqref="G1749"/>
+    <sheetView tabSelected="1" topLeftCell="A1554" workbookViewId="0">
+      <selection activeCell="H1577" sqref="H1577"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -68945,7 +68949,7 @@
         <v>5709</v>
       </c>
       <c r="H1704" s="1" t="s">
-        <v>5710</v>
+        <v>5851</v>
       </c>
       <c r="I1704" s="1" t="s">
         <v>5712</v>
@@ -68974,7 +68978,7 @@
         <v>5709</v>
       </c>
       <c r="H1705" s="1" t="s">
-        <v>5710</v>
+        <v>5851</v>
       </c>
       <c r="I1705" s="1" t="s">
         <v>5713</v>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
@@ -21175,8 +21175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1755"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1724" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="A1604" workbookViewId="0">
+      <selection activeCell="G1622" sqref="G1622"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
@@ -20050,10 +20050,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select price from $schema36 where price&gt;605.77</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select price from $schema36 where price&lt;605.77</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -20554,10 +20550,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select price,age from $schema46 where price&gt;605.77</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select * from $schema46 where price&lt;605.77</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -20798,6 +20790,14 @@
   </si>
   <si>
     <t>select $mixindex010_1.id,$mixindex010_1.age from $mixindex010_0 right join $mixindex010_1 on $mixindex010_0.age=$mixindex010_1.age where $mixindex010_1.age=35 and $mixindex010_0.name='p'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select price from $schema36 where price&gt;605.771</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select price,age from $schema46 where price&gt;605.771</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -21175,8 +21175,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1755"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1604" workbookViewId="0">
-      <selection activeCell="G1622" sqref="G1622"/>
+    <sheetView tabSelected="1" topLeftCell="E1703" workbookViewId="0">
+      <selection activeCell="I1726" sqref="I1726"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -58692,7 +58692,7 @@
         <v>4734</v>
       </c>
       <c r="I1375" s="1" t="s">
-        <v>5876</v>
+        <v>5874</v>
       </c>
       <c r="J1375" s="1" t="s">
         <v>4562</v>
@@ -68582,7 +68582,7 @@
         <v>34</v>
       </c>
       <c r="C1688" s="1" t="s">
-        <v>5732</v>
+        <v>5731</v>
       </c>
       <c r="D1688" s="1" t="s">
         <v>2410</v>
@@ -68611,7 +68611,7 @@
         <v>34</v>
       </c>
       <c r="C1689" s="1" t="s">
-        <v>5733</v>
+        <v>5732</v>
       </c>
       <c r="D1689" s="1" t="s">
         <v>2410</v>
@@ -68640,7 +68640,7 @@
         <v>34</v>
       </c>
       <c r="C1690" s="1" t="s">
-        <v>5734</v>
+        <v>5733</v>
       </c>
       <c r="D1690" s="1" t="s">
         <v>2410</v>
@@ -68797,7 +68797,7 @@
         <v>5679</v>
       </c>
       <c r="I1695" s="1" t="s">
-        <v>5681</v>
+        <v>5882</v>
       </c>
       <c r="J1695" s="1" t="s">
         <v>5632</v>
@@ -68826,7 +68826,7 @@
         <v>5679</v>
       </c>
       <c r="I1696" s="1" t="s">
-        <v>5682</v>
+        <v>5681</v>
       </c>
       <c r="J1696" s="1" t="s">
         <v>5633</v>
@@ -68837,7 +68837,7 @@
     </row>
     <row r="1697" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1697" s="1" t="s">
-        <v>5684</v>
+        <v>5683</v>
       </c>
       <c r="B1697" s="1" t="s">
         <v>34</v>
@@ -68849,13 +68849,13 @@
         <v>2410</v>
       </c>
       <c r="F1697" s="1" t="s">
-        <v>5683</v>
+        <v>5682</v>
       </c>
       <c r="G1697" s="1" t="s">
         <v>5624</v>
       </c>
       <c r="I1697" s="1" t="s">
-        <v>5700</v>
+        <v>5699</v>
       </c>
       <c r="J1697" s="1" t="s">
         <v>5634</v>
@@ -68878,13 +68878,13 @@
         <v>2410</v>
       </c>
       <c r="F1698" s="1" t="s">
+        <v>5682</v>
+      </c>
+      <c r="H1698" s="1" t="s">
         <v>5683</v>
       </c>
-      <c r="H1698" s="1" t="s">
-        <v>5684</v>
-      </c>
       <c r="I1698" s="1" t="s">
-        <v>5701</v>
+        <v>5700</v>
       </c>
       <c r="J1698" s="1" t="s">
         <v>5635</v>
@@ -68907,13 +68907,13 @@
         <v>2410</v>
       </c>
       <c r="F1699" s="1" t="s">
+        <v>5682</v>
+      </c>
+      <c r="H1699" s="1" t="s">
         <v>5683</v>
       </c>
-      <c r="H1699" s="1" t="s">
-        <v>5684</v>
-      </c>
       <c r="I1699" s="1" t="s">
-        <v>5702</v>
+        <v>5701</v>
       </c>
       <c r="J1699" s="1" t="s">
         <v>5636</v>
@@ -68924,7 +68924,7 @@
     </row>
     <row r="1700" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1700" s="1" t="s">
-        <v>5704</v>
+        <v>5703</v>
       </c>
       <c r="B1700" s="1" t="s">
         <v>34</v>
@@ -68936,13 +68936,13 @@
         <v>2410</v>
       </c>
       <c r="F1700" s="1" t="s">
-        <v>5703</v>
+        <v>5702</v>
       </c>
       <c r="G1700" s="1" t="s">
         <v>5624</v>
       </c>
       <c r="I1700" s="1" t="s">
-        <v>5705</v>
+        <v>5704</v>
       </c>
       <c r="J1700" s="1" t="s">
         <v>5637</v>
@@ -68965,13 +68965,13 @@
         <v>2410</v>
       </c>
       <c r="F1701" s="1" t="s">
+        <v>5702</v>
+      </c>
+      <c r="H1701" s="1" t="s">
         <v>5703</v>
       </c>
-      <c r="H1701" s="1" t="s">
-        <v>5704</v>
-      </c>
       <c r="I1701" s="1" t="s">
-        <v>5706</v>
+        <v>5705</v>
       </c>
       <c r="J1701" s="1" t="s">
         <v>5638</v>
@@ -68994,13 +68994,13 @@
         <v>2410</v>
       </c>
       <c r="F1702" s="1" t="s">
+        <v>5702</v>
+      </c>
+      <c r="H1702" s="1" t="s">
         <v>5703</v>
       </c>
-      <c r="H1702" s="1" t="s">
-        <v>5704</v>
-      </c>
       <c r="I1702" s="1" t="s">
-        <v>5707</v>
+        <v>5706</v>
       </c>
       <c r="J1702" s="1" t="s">
         <v>5639</v>
@@ -69023,13 +69023,13 @@
         <v>2410</v>
       </c>
       <c r="F1703" s="1" t="s">
-        <v>5708</v>
+        <v>5707</v>
       </c>
       <c r="G1703" s="1" t="s">
         <v>5624</v>
       </c>
       <c r="I1703" s="1" t="s">
-        <v>5710</v>
+        <v>5709</v>
       </c>
       <c r="J1703" s="1" t="s">
         <v>5640</v>
@@ -69040,7 +69040,7 @@
     </row>
     <row r="1704" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1704" s="1" t="s">
-        <v>5709</v>
+        <v>5708</v>
       </c>
       <c r="B1704" s="1" t="s">
         <v>34</v>
@@ -69052,13 +69052,13 @@
         <v>2410</v>
       </c>
       <c r="F1704" s="1" t="s">
-        <v>5708</v>
+        <v>5707</v>
       </c>
       <c r="H1704" s="1" t="s">
-        <v>5850</v>
+        <v>5848</v>
       </c>
       <c r="I1704" s="1" t="s">
-        <v>5711</v>
+        <v>5710</v>
       </c>
       <c r="J1704" s="1" t="s">
         <v>5641</v>
@@ -69081,13 +69081,13 @@
         <v>2410</v>
       </c>
       <c r="F1705" s="1" t="s">
-        <v>5708</v>
+        <v>5707</v>
       </c>
       <c r="H1705" s="1" t="s">
-        <v>5850</v>
+        <v>5848</v>
       </c>
       <c r="I1705" s="1" t="s">
-        <v>5712</v>
+        <v>5711</v>
       </c>
       <c r="J1705" s="1" t="s">
         <v>5642</v>
@@ -69098,7 +69098,7 @@
     </row>
     <row r="1706" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1706" s="1" t="s">
-        <v>5714</v>
+        <v>5713</v>
       </c>
       <c r="B1706" s="1" t="s">
         <v>34</v>
@@ -69110,13 +69110,13 @@
         <v>2410</v>
       </c>
       <c r="F1706" s="1" t="s">
-        <v>5713</v>
+        <v>5712</v>
       </c>
       <c r="G1706" s="1" t="s">
         <v>5624</v>
       </c>
       <c r="I1706" s="1" t="s">
-        <v>5718</v>
+        <v>5717</v>
       </c>
       <c r="J1706" s="1" t="s">
         <v>5643</v>
@@ -69139,13 +69139,13 @@
         <v>2410</v>
       </c>
       <c r="F1707" s="1" t="s">
+        <v>5712</v>
+      </c>
+      <c r="H1707" s="1" t="s">
         <v>5713</v>
       </c>
-      <c r="H1707" s="1" t="s">
-        <v>5714</v>
-      </c>
       <c r="I1707" s="1" t="s">
-        <v>5719</v>
+        <v>5718</v>
       </c>
       <c r="J1707" s="1" t="s">
         <v>5644</v>
@@ -69168,13 +69168,13 @@
         <v>2410</v>
       </c>
       <c r="F1708" s="1" t="s">
+        <v>5712</v>
+      </c>
+      <c r="H1708" s="1" t="s">
         <v>5713</v>
       </c>
-      <c r="H1708" s="1" t="s">
-        <v>5714</v>
-      </c>
       <c r="I1708" s="1" t="s">
-        <v>5720</v>
+        <v>5719</v>
       </c>
       <c r="J1708" s="1" t="s">
         <v>5645</v>
@@ -69185,25 +69185,25 @@
     </row>
     <row r="1709" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1709" s="1" t="s">
-        <v>5716</v>
+        <v>5715</v>
       </c>
       <c r="B1709" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1709" s="1" t="s">
-        <v>5691</v>
+        <v>5690</v>
       </c>
       <c r="D1709" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1709" s="1" t="s">
-        <v>5715</v>
+        <v>5714</v>
       </c>
       <c r="G1709" s="1" t="s">
         <v>5624</v>
       </c>
       <c r="I1709" s="1" t="s">
-        <v>5717</v>
+        <v>5716</v>
       </c>
       <c r="J1709" s="1" t="s">
         <v>5646</v>
@@ -69220,19 +69220,19 @@
         <v>34</v>
       </c>
       <c r="C1710" s="1" t="s">
-        <v>5692</v>
+        <v>5691</v>
       </c>
       <c r="D1710" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1710" s="1" t="s">
+        <v>5714</v>
+      </c>
+      <c r="H1710" s="1" t="s">
         <v>5715</v>
       </c>
-      <c r="H1710" s="1" t="s">
-        <v>5716</v>
-      </c>
       <c r="I1710" s="1" t="s">
-        <v>5721</v>
+        <v>5720</v>
       </c>
       <c r="J1710" s="1" t="s">
         <v>5647</v>
@@ -69249,19 +69249,19 @@
         <v>34</v>
       </c>
       <c r="C1711" s="1" t="s">
-        <v>5693</v>
+        <v>5692</v>
       </c>
       <c r="D1711" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1711" s="1" t="s">
+        <v>5714</v>
+      </c>
+      <c r="H1711" s="1" t="s">
         <v>5715</v>
       </c>
-      <c r="H1711" s="1" t="s">
-        <v>5716</v>
-      </c>
       <c r="I1711" s="1" t="s">
-        <v>5722</v>
+        <v>5721</v>
       </c>
       <c r="J1711" s="1" t="s">
         <v>5648</v>
@@ -69272,7 +69272,7 @@
     </row>
     <row r="1712" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1712" s="1" t="s">
-        <v>5741</v>
+        <v>5740</v>
       </c>
       <c r="B1712" s="1" t="s">
         <v>34</v>
@@ -69284,13 +69284,13 @@
         <v>2410</v>
       </c>
       <c r="F1712" s="1" t="s">
-        <v>5735</v>
+        <v>5734</v>
       </c>
       <c r="G1712" s="1" t="s">
         <v>5624</v>
       </c>
       <c r="I1712" s="1" t="s">
-        <v>5744</v>
+        <v>5743</v>
       </c>
       <c r="J1712" s="1" t="s">
         <v>5649</v>
@@ -69307,19 +69307,19 @@
         <v>34</v>
       </c>
       <c r="C1713" s="1" t="s">
-        <v>5738</v>
+        <v>5737</v>
       </c>
       <c r="D1713" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1713" s="1" t="s">
-        <v>5735</v>
+        <v>5734</v>
       </c>
       <c r="H1713" s="1" t="s">
-        <v>5741</v>
+        <v>5740</v>
       </c>
       <c r="I1713" s="1" t="s">
-        <v>5745</v>
+        <v>5744</v>
       </c>
       <c r="J1713" s="1" t="s">
         <v>5650</v>
@@ -69336,19 +69336,19 @@
         <v>34</v>
       </c>
       <c r="C1714" s="1" t="s">
-        <v>5739</v>
+        <v>5738</v>
       </c>
       <c r="D1714" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1714" s="1" t="s">
-        <v>5735</v>
+        <v>5734</v>
       </c>
       <c r="H1714" s="1" t="s">
-        <v>5741</v>
+        <v>5740</v>
       </c>
       <c r="I1714" s="1" t="s">
-        <v>5746</v>
+        <v>5745</v>
       </c>
       <c r="J1714" s="1" t="s">
         <v>5651</v>
@@ -69359,25 +69359,25 @@
     </row>
     <row r="1715" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1715" s="1" t="s">
-        <v>5742</v>
+        <v>5741</v>
       </c>
       <c r="B1715" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1715" s="1" t="s">
-        <v>5729</v>
+        <v>5728</v>
       </c>
       <c r="D1715" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1715" s="1" t="s">
-        <v>5740</v>
+        <v>5739</v>
       </c>
       <c r="G1715" s="1" t="s">
         <v>5624</v>
       </c>
       <c r="I1715" s="1" t="s">
-        <v>5749</v>
+        <v>5748</v>
       </c>
       <c r="J1715" s="1" t="s">
         <v>5652</v>
@@ -69394,19 +69394,19 @@
         <v>34</v>
       </c>
       <c r="C1716" s="1" t="s">
-        <v>5730</v>
+        <v>5729</v>
       </c>
       <c r="D1716" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1716" s="1" t="s">
-        <v>5740</v>
+        <v>5739</v>
       </c>
       <c r="H1716" s="1" t="s">
-        <v>5743</v>
+        <v>5742</v>
       </c>
       <c r="I1716" s="1" t="s">
-        <v>5750</v>
+        <v>5749</v>
       </c>
       <c r="J1716" s="1" t="s">
         <v>5653</v>
@@ -69423,19 +69423,19 @@
         <v>34</v>
       </c>
       <c r="C1717" s="1" t="s">
-        <v>5731</v>
+        <v>5730</v>
       </c>
       <c r="D1717" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1717" s="1" t="s">
-        <v>5740</v>
+        <v>5739</v>
       </c>
       <c r="H1717" s="1" t="s">
-        <v>5743</v>
+        <v>5742</v>
       </c>
       <c r="I1717" s="1" t="s">
-        <v>5751</v>
+        <v>5750</v>
       </c>
       <c r="J1717" s="1" t="s">
         <v>5654</v>
@@ -69446,25 +69446,25 @@
     </row>
     <row r="1718" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1718" s="1" t="s">
-        <v>5799</v>
+        <v>5798</v>
       </c>
       <c r="B1718" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1718" s="1" t="s">
-        <v>5752</v>
+        <v>5751</v>
       </c>
       <c r="D1718" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1718" s="1" t="s">
-        <v>5789</v>
+        <v>5788</v>
       </c>
       <c r="G1718" s="1" t="s">
+        <v>5810</v>
+      </c>
+      <c r="I1718" s="1" t="s">
         <v>5811</v>
-      </c>
-      <c r="I1718" s="1" t="s">
-        <v>5812</v>
       </c>
       <c r="J1718" s="1" t="s">
         <v>5655</v>
@@ -69481,19 +69481,19 @@
         <v>34</v>
       </c>
       <c r="C1719" s="1" t="s">
-        <v>5753</v>
+        <v>5752</v>
       </c>
       <c r="D1719" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1719" s="1" t="s">
-        <v>5789</v>
+        <v>5788</v>
       </c>
       <c r="H1719" s="1" t="s">
-        <v>5799</v>
+        <v>5798</v>
       </c>
       <c r="I1719" s="1" t="s">
-        <v>5813</v>
+        <v>5812</v>
       </c>
       <c r="J1719" s="1" t="s">
         <v>5656</v>
@@ -69510,19 +69510,19 @@
         <v>34</v>
       </c>
       <c r="C1720" s="1" t="s">
-        <v>5754</v>
+        <v>5753</v>
       </c>
       <c r="D1720" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1720" s="1" t="s">
-        <v>5789</v>
+        <v>5788</v>
       </c>
       <c r="H1720" s="1" t="s">
-        <v>5799</v>
+        <v>5798</v>
       </c>
       <c r="I1720" s="1" t="s">
-        <v>5814</v>
+        <v>5813</v>
       </c>
       <c r="J1720" s="1" t="s">
         <v>5657</v>
@@ -69539,19 +69539,19 @@
         <v>34</v>
       </c>
       <c r="C1721" s="1" t="s">
-        <v>5755</v>
+        <v>5754</v>
       </c>
       <c r="D1721" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1721" s="1" t="s">
-        <v>5790</v>
+        <v>5789</v>
       </c>
       <c r="G1721" s="1" t="s">
-        <v>5811</v>
+        <v>5810</v>
       </c>
       <c r="I1721" s="1" t="s">
-        <v>5815</v>
+        <v>5814</v>
       </c>
       <c r="J1721" s="1" t="s">
         <v>5658</v>
@@ -69568,19 +69568,19 @@
         <v>34</v>
       </c>
       <c r="C1722" s="1" t="s">
-        <v>5756</v>
+        <v>5755</v>
       </c>
       <c r="D1722" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1722" s="1" t="s">
-        <v>5790</v>
+        <v>5789</v>
       </c>
       <c r="H1722" s="1" t="s">
-        <v>5800</v>
+        <v>5799</v>
       </c>
       <c r="I1722" s="1" t="s">
-        <v>5816</v>
+        <v>5815</v>
       </c>
       <c r="J1722" s="1" t="s">
         <v>5659</v>
@@ -69597,19 +69597,19 @@
         <v>34</v>
       </c>
       <c r="C1723" s="1" t="s">
-        <v>5757</v>
+        <v>5756</v>
       </c>
       <c r="D1723" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1723" s="1" t="s">
-        <v>5790</v>
+        <v>5789</v>
       </c>
       <c r="H1723" s="1" t="s">
-        <v>5800</v>
+        <v>5799</v>
       </c>
       <c r="I1723" s="1" t="s">
-        <v>5817</v>
+        <v>5816</v>
       </c>
       <c r="J1723" s="1" t="s">
         <v>5660</v>
@@ -69626,19 +69626,19 @@
         <v>34</v>
       </c>
       <c r="C1724" s="1" t="s">
-        <v>5758</v>
+        <v>5757</v>
       </c>
       <c r="D1724" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1724" s="1" t="s">
-        <v>5791</v>
+        <v>5790</v>
       </c>
       <c r="G1724" s="1" t="s">
-        <v>5811</v>
+        <v>5810</v>
       </c>
       <c r="I1724" s="1" t="s">
-        <v>5818</v>
+        <v>5817</v>
       </c>
       <c r="J1724" s="1" t="s">
         <v>5661</v>
@@ -69655,19 +69655,19 @@
         <v>34</v>
       </c>
       <c r="C1725" s="1" t="s">
-        <v>5759</v>
+        <v>5758</v>
       </c>
       <c r="D1725" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1725" s="1" t="s">
-        <v>5791</v>
+        <v>5790</v>
       </c>
       <c r="H1725" s="1" t="s">
-        <v>5801</v>
+        <v>5800</v>
       </c>
       <c r="I1725" s="1" t="s">
-        <v>5819</v>
+        <v>5883</v>
       </c>
       <c r="J1725" s="1" t="s">
         <v>5662</v>
@@ -69684,19 +69684,19 @@
         <v>34</v>
       </c>
       <c r="C1726" s="1" t="s">
-        <v>5760</v>
+        <v>5759</v>
       </c>
       <c r="D1726" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1726" s="1" t="s">
-        <v>5791</v>
+        <v>5790</v>
       </c>
       <c r="H1726" s="1" t="s">
-        <v>5801</v>
+        <v>5800</v>
       </c>
       <c r="I1726" s="1" t="s">
-        <v>5820</v>
+        <v>5818</v>
       </c>
       <c r="J1726" s="1" t="s">
         <v>5663</v>
@@ -69713,19 +69713,19 @@
         <v>34</v>
       </c>
       <c r="C1727" s="1" t="s">
-        <v>5761</v>
+        <v>5760</v>
       </c>
       <c r="D1727" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1727" s="1" t="s">
-        <v>5792</v>
+        <v>5791</v>
       </c>
       <c r="G1727" s="1" t="s">
-        <v>5811</v>
+        <v>5810</v>
       </c>
       <c r="I1727" s="1" t="s">
-        <v>5821</v>
+        <v>5819</v>
       </c>
       <c r="J1727" s="1" t="s">
         <v>5664</v>
@@ -69742,19 +69742,19 @@
         <v>34</v>
       </c>
       <c r="C1728" s="1" t="s">
-        <v>5762</v>
+        <v>5761</v>
       </c>
       <c r="D1728" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1728" s="1" t="s">
-        <v>5792</v>
+        <v>5791</v>
       </c>
       <c r="H1728" s="1" t="s">
-        <v>5802</v>
+        <v>5801</v>
       </c>
       <c r="I1728" s="1" t="s">
-        <v>5822</v>
+        <v>5820</v>
       </c>
       <c r="J1728" s="1" t="s">
         <v>5665</v>
@@ -69771,19 +69771,19 @@
         <v>34</v>
       </c>
       <c r="C1729" s="1" t="s">
-        <v>5763</v>
+        <v>5762</v>
       </c>
       <c r="D1729" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1729" s="1" t="s">
-        <v>5792</v>
+        <v>5791</v>
       </c>
       <c r="H1729" s="1" t="s">
-        <v>5802</v>
+        <v>5801</v>
       </c>
       <c r="I1729" s="1" t="s">
-        <v>5823</v>
+        <v>5821</v>
       </c>
       <c r="J1729" s="1" t="s">
         <v>5666</v>
@@ -69800,19 +69800,19 @@
         <v>34</v>
       </c>
       <c r="C1730" s="1" t="s">
-        <v>5764</v>
+        <v>5763</v>
       </c>
       <c r="D1730" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1730" s="1" t="s">
-        <v>5793</v>
+        <v>5792</v>
       </c>
       <c r="G1730" s="1" t="s">
-        <v>5811</v>
+        <v>5810</v>
       </c>
       <c r="I1730" s="1" t="s">
-        <v>5824</v>
+        <v>5822</v>
       </c>
       <c r="J1730" s="1" t="s">
         <v>5667</v>
@@ -69829,19 +69829,19 @@
         <v>34</v>
       </c>
       <c r="C1731" s="1" t="s">
-        <v>5765</v>
+        <v>5764</v>
       </c>
       <c r="D1731" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1731" s="1" t="s">
-        <v>5793</v>
+        <v>5792</v>
       </c>
       <c r="H1731" s="1" t="s">
-        <v>5803</v>
+        <v>5802</v>
       </c>
       <c r="I1731" s="1" t="s">
-        <v>5825</v>
+        <v>5823</v>
       </c>
       <c r="J1731" s="1" t="s">
         <v>5668</v>
@@ -69852,28 +69852,28 @@
     </row>
     <row r="1732" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1732" s="1" t="s">
-        <v>5685</v>
+        <v>5684</v>
       </c>
       <c r="B1732" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1732" s="1" t="s">
-        <v>5766</v>
+        <v>5765</v>
       </c>
       <c r="D1732" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1732" s="1" t="s">
-        <v>5793</v>
+        <v>5792</v>
       </c>
       <c r="H1732" s="1" t="s">
-        <v>5803</v>
+        <v>5802</v>
       </c>
       <c r="I1732" s="1" t="s">
-        <v>5826</v>
+        <v>5824</v>
       </c>
       <c r="J1732" s="1" t="s">
-        <v>5694</v>
+        <v>5693</v>
       </c>
       <c r="K1732" s="1" t="s">
         <v>44</v>
@@ -69881,28 +69881,28 @@
     </row>
     <row r="1733" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1733" s="1" t="s">
-        <v>5686</v>
+        <v>5685</v>
       </c>
       <c r="B1733" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1733" s="1" t="s">
-        <v>5767</v>
+        <v>5766</v>
       </c>
       <c r="D1733" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1733" s="1" t="s">
-        <v>5794</v>
+        <v>5793</v>
       </c>
       <c r="G1733" s="1" t="s">
-        <v>5811</v>
+        <v>5810</v>
       </c>
       <c r="I1733" s="1" t="s">
-        <v>5827</v>
+        <v>5825</v>
       </c>
       <c r="J1733" s="1" t="s">
-        <v>5695</v>
+        <v>5694</v>
       </c>
       <c r="K1733" s="1" t="s">
         <v>44</v>
@@ -69910,28 +69910,28 @@
     </row>
     <row r="1734" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1734" s="1" t="s">
-        <v>5687</v>
+        <v>5686</v>
       </c>
       <c r="B1734" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1734" s="1" t="s">
-        <v>5768</v>
+        <v>5767</v>
       </c>
       <c r="D1734" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1734" s="1" t="s">
-        <v>5794</v>
+        <v>5793</v>
       </c>
       <c r="H1734" s="1" t="s">
-        <v>5804</v>
+        <v>5803</v>
       </c>
       <c r="I1734" s="1" t="s">
-        <v>5828</v>
+        <v>5826</v>
       </c>
       <c r="J1734" s="1" t="s">
-        <v>5696</v>
+        <v>5695</v>
       </c>
       <c r="K1734" s="1" t="s">
         <v>44</v>
@@ -69939,28 +69939,28 @@
     </row>
     <row r="1735" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1735" s="1" t="s">
-        <v>5688</v>
+        <v>5687</v>
       </c>
       <c r="B1735" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1735" s="1" t="s">
-        <v>5769</v>
+        <v>5768</v>
       </c>
       <c r="D1735" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1735" s="1" t="s">
-        <v>5794</v>
+        <v>5793</v>
       </c>
       <c r="H1735" s="1" t="s">
-        <v>5804</v>
+        <v>5803</v>
       </c>
       <c r="I1735" s="1" t="s">
-        <v>5829</v>
+        <v>5827</v>
       </c>
       <c r="J1735" s="1" t="s">
-        <v>5697</v>
+        <v>5696</v>
       </c>
       <c r="K1735" s="1" t="s">
         <v>44</v>
@@ -69968,28 +69968,28 @@
     </row>
     <row r="1736" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1736" s="1" t="s">
-        <v>5689</v>
+        <v>5688</v>
       </c>
       <c r="B1736" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1736" s="1" t="s">
-        <v>5770</v>
+        <v>5769</v>
       </c>
       <c r="D1736" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1736" s="1" t="s">
-        <v>5795</v>
+        <v>5794</v>
       </c>
       <c r="G1736" s="1" t="s">
-        <v>5811</v>
+        <v>5810</v>
       </c>
       <c r="I1736" s="1" t="s">
-        <v>5830</v>
+        <v>5828</v>
       </c>
       <c r="J1736" s="1" t="s">
-        <v>5698</v>
+        <v>5697</v>
       </c>
       <c r="K1736" s="1" t="s">
         <v>44</v>
@@ -69997,28 +69997,28 @@
     </row>
     <row r="1737" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1737" s="1" t="s">
-        <v>5690</v>
+        <v>5689</v>
       </c>
       <c r="B1737" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1737" s="1" t="s">
-        <v>5771</v>
+        <v>5770</v>
       </c>
       <c r="D1737" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1737" s="1" t="s">
-        <v>5795</v>
+        <v>5794</v>
       </c>
       <c r="H1737" s="1" t="s">
-        <v>5805</v>
+        <v>5804</v>
       </c>
       <c r="I1737" s="1" t="s">
-        <v>5831</v>
+        <v>5829</v>
       </c>
       <c r="J1737" s="1" t="s">
-        <v>5699</v>
+        <v>5698</v>
       </c>
       <c r="K1737" s="1" t="s">
         <v>44</v>
@@ -70026,28 +70026,28 @@
     </row>
     <row r="1738" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1738" s="1" t="s">
-        <v>5723</v>
+        <v>5722</v>
       </c>
       <c r="B1738" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1738" s="1" t="s">
-        <v>5777</v>
+        <v>5776</v>
       </c>
       <c r="D1738" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1738" s="1" t="s">
-        <v>5795</v>
+        <v>5794</v>
       </c>
       <c r="H1738" s="1" t="s">
-        <v>5805</v>
+        <v>5804</v>
       </c>
       <c r="I1738" s="1" t="s">
-        <v>5832</v>
+        <v>5830</v>
       </c>
       <c r="J1738" s="1" t="s">
-        <v>5726</v>
+        <v>5725</v>
       </c>
       <c r="K1738" s="1" t="s">
         <v>44</v>
@@ -70055,28 +70055,28 @@
     </row>
     <row r="1739" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1739" s="1" t="s">
-        <v>5724</v>
+        <v>5723</v>
       </c>
       <c r="B1739" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1739" s="1" t="s">
-        <v>5778</v>
+        <v>5777</v>
       </c>
       <c r="D1739" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1739" s="1" t="s">
-        <v>5796</v>
+        <v>5795</v>
       </c>
       <c r="G1739" s="1" t="s">
-        <v>5811</v>
+        <v>5810</v>
       </c>
       <c r="I1739" s="1" t="s">
-        <v>5833</v>
+        <v>5831</v>
       </c>
       <c r="J1739" s="1" t="s">
-        <v>5727</v>
+        <v>5726</v>
       </c>
       <c r="K1739" s="1" t="s">
         <v>44</v>
@@ -70084,28 +70084,28 @@
     </row>
     <row r="1740" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1740" s="1" t="s">
-        <v>5725</v>
+        <v>5724</v>
       </c>
       <c r="B1740" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1740" s="1" t="s">
-        <v>5779</v>
+        <v>5778</v>
       </c>
       <c r="D1740" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1740" s="1" t="s">
-        <v>5796</v>
+        <v>5795</v>
       </c>
       <c r="H1740" s="1" t="s">
-        <v>5806</v>
+        <v>5805</v>
       </c>
       <c r="I1740" s="1" t="s">
-        <v>5834</v>
+        <v>5832</v>
       </c>
       <c r="J1740" s="1" t="s">
-        <v>5728</v>
+        <v>5727</v>
       </c>
       <c r="K1740" s="1" t="s">
         <v>44</v>
@@ -70113,28 +70113,28 @@
     </row>
     <row r="1741" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1741" s="1" t="s">
-        <v>5736</v>
+        <v>5735</v>
       </c>
       <c r="B1741" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1741" s="1" t="s">
-        <v>5780</v>
+        <v>5779</v>
       </c>
       <c r="D1741" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1741" s="1" t="s">
-        <v>5796</v>
+        <v>5795</v>
       </c>
       <c r="H1741" s="1" t="s">
-        <v>5806</v>
+        <v>5805</v>
       </c>
       <c r="I1741" s="1" t="s">
-        <v>5835</v>
+        <v>5833</v>
       </c>
       <c r="J1741" s="1" t="s">
-        <v>5747</v>
+        <v>5746</v>
       </c>
       <c r="K1741" s="1" t="s">
         <v>44</v>
@@ -70142,28 +70142,28 @@
     </row>
     <row r="1742" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1742" s="1" t="s">
-        <v>5737</v>
+        <v>5736</v>
       </c>
       <c r="B1742" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1742" s="1" t="s">
-        <v>5781</v>
+        <v>5780</v>
       </c>
       <c r="D1742" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1742" s="1" t="s">
-        <v>5797</v>
+        <v>5796</v>
       </c>
       <c r="G1742" s="1" t="s">
-        <v>5811</v>
+        <v>5810</v>
       </c>
       <c r="I1742" s="1" t="s">
-        <v>5836</v>
+        <v>5834</v>
       </c>
       <c r="J1742" s="1" t="s">
-        <v>5748</v>
+        <v>5747</v>
       </c>
       <c r="K1742" s="1" t="s">
         <v>44</v>
@@ -70171,28 +70171,28 @@
     </row>
     <row r="1743" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1743" s="1" t="s">
-        <v>5772</v>
+        <v>5771</v>
       </c>
       <c r="B1743" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1743" s="1" t="s">
-        <v>5782</v>
+        <v>5781</v>
       </c>
       <c r="D1743" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1743" s="1" t="s">
-        <v>5797</v>
+        <v>5796</v>
       </c>
       <c r="H1743" s="1" t="s">
-        <v>5807</v>
+        <v>5806</v>
       </c>
       <c r="I1743" s="1" t="s">
-        <v>5837</v>
+        <v>5835</v>
       </c>
       <c r="J1743" s="1" t="s">
-        <v>5784</v>
+        <v>5783</v>
       </c>
       <c r="K1743" s="1" t="s">
         <v>44</v>
@@ -70200,28 +70200,28 @@
     </row>
     <row r="1744" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1744" s="1" t="s">
-        <v>5773</v>
+        <v>5772</v>
       </c>
       <c r="B1744" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1744" s="1" t="s">
-        <v>5783</v>
+        <v>5782</v>
       </c>
       <c r="D1744" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1744" s="1" t="s">
-        <v>5797</v>
+        <v>5796</v>
       </c>
       <c r="H1744" s="1" t="s">
-        <v>5807</v>
+        <v>5806</v>
       </c>
       <c r="I1744" s="1" t="s">
-        <v>5838</v>
+        <v>5836</v>
       </c>
       <c r="J1744" s="1" t="s">
-        <v>5785</v>
+        <v>5784</v>
       </c>
       <c r="K1744" s="1" t="s">
         <v>44</v>
@@ -70229,28 +70229,28 @@
     </row>
     <row r="1745" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1745" s="1" t="s">
-        <v>5774</v>
+        <v>5773</v>
       </c>
       <c r="B1745" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1745" s="1" t="s">
-        <v>5808</v>
+        <v>5807</v>
       </c>
       <c r="D1745" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1745" s="1" t="s">
-        <v>5797</v>
+        <v>5796</v>
       </c>
       <c r="H1745" s="1" t="s">
-        <v>5807</v>
+        <v>5806</v>
       </c>
       <c r="I1745" s="1" t="s">
-        <v>5839</v>
+        <v>5837</v>
       </c>
       <c r="J1745" s="1" t="s">
-        <v>5786</v>
+        <v>5785</v>
       </c>
       <c r="K1745" s="1" t="s">
         <v>44</v>
@@ -70258,28 +70258,28 @@
     </row>
     <row r="1746" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1746" s="1" t="s">
-        <v>5775</v>
+        <v>5774</v>
       </c>
       <c r="B1746" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1746" s="1" t="s">
-        <v>5809</v>
+        <v>5808</v>
       </c>
       <c r="D1746" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1746" s="1" t="s">
-        <v>5797</v>
+        <v>5796</v>
       </c>
       <c r="H1746" s="1" t="s">
-        <v>5807</v>
+        <v>5806</v>
       </c>
       <c r="I1746" s="1" t="s">
-        <v>5840</v>
+        <v>5838</v>
       </c>
       <c r="J1746" s="1" t="s">
-        <v>5787</v>
+        <v>5786</v>
       </c>
       <c r="K1746" s="1" t="s">
         <v>155</v>
@@ -70287,28 +70287,28 @@
     </row>
     <row r="1747" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1747" s="1" t="s">
-        <v>5776</v>
+        <v>5775</v>
       </c>
       <c r="B1747" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1747" s="1" t="s">
-        <v>5810</v>
+        <v>5809</v>
       </c>
       <c r="D1747" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1747" s="1" t="s">
-        <v>5797</v>
+        <v>5796</v>
       </c>
       <c r="H1747" s="1" t="s">
-        <v>5807</v>
+        <v>5806</v>
       </c>
       <c r="I1747" s="1" t="s">
-        <v>5841</v>
+        <v>5839</v>
       </c>
       <c r="J1747" s="1" t="s">
-        <v>5788</v>
+        <v>5787</v>
       </c>
       <c r="K1747" s="1" t="s">
         <v>155</v>
@@ -70316,28 +70316,28 @@
     </row>
     <row r="1748" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1748" s="1" t="s">
-        <v>5842</v>
+        <v>5840</v>
       </c>
       <c r="B1748" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1748" s="1" t="s">
-        <v>5843</v>
+        <v>5841</v>
       </c>
       <c r="D1748" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1748" s="1" t="s">
-        <v>5798</v>
+        <v>5797</v>
       </c>
       <c r="G1748" s="1" t="s">
-        <v>5811</v>
+        <v>5810</v>
       </c>
       <c r="I1748" s="1" t="s">
-        <v>5844</v>
+        <v>5842</v>
       </c>
       <c r="J1748" s="1" t="s">
-        <v>5845</v>
+        <v>5843</v>
       </c>
       <c r="K1748" s="1" t="s">
         <v>155</v>
@@ -70345,28 +70345,28 @@
     </row>
     <row r="1749" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1749" s="1" t="s">
-        <v>5846</v>
+        <v>5844</v>
       </c>
       <c r="B1749" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1749" s="1" t="s">
-        <v>5847</v>
+        <v>5845</v>
       </c>
       <c r="D1749" s="1" t="s">
         <v>2410</v>
       </c>
       <c r="F1749" s="1" t="s">
-        <v>5797</v>
+        <v>5796</v>
       </c>
       <c r="H1749" s="1" t="s">
-        <v>5807</v>
+        <v>5806</v>
       </c>
       <c r="I1749" s="1" t="s">
-        <v>5849</v>
+        <v>5847</v>
       </c>
       <c r="J1749" s="1" t="s">
-        <v>5848</v>
+        <v>5846</v>
       </c>
       <c r="K1749" s="1" t="s">
         <v>44</v>
@@ -70374,31 +70374,31 @@
     </row>
     <row r="1750" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1750" s="1" t="s">
-        <v>5861</v>
+        <v>5859</v>
       </c>
       <c r="B1750" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1750" s="1" t="s">
-        <v>5852</v>
+        <v>5850</v>
       </c>
       <c r="D1750" s="1" t="s">
-        <v>5856</v>
+        <v>5854</v>
       </c>
       <c r="E1750" s="1" t="s">
-        <v>5857</v>
+        <v>5855</v>
       </c>
       <c r="F1750" s="1" t="s">
-        <v>5860</v>
+        <v>5858</v>
       </c>
       <c r="G1750" s="1" t="s">
         <v>2135</v>
       </c>
       <c r="I1750" s="1" t="s">
-        <v>5862</v>
+        <v>5860</v>
       </c>
       <c r="J1750" s="1" t="s">
-        <v>5863</v>
+        <v>5861</v>
       </c>
       <c r="K1750" s="1" t="s">
         <v>44</v>
@@ -70406,31 +70406,31 @@
     </row>
     <row r="1751" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1751" s="1" t="s">
+        <v>5849</v>
+      </c>
+      <c r="B1751" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1751" s="1" t="s">
         <v>5851</v>
       </c>
-      <c r="B1751" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1751" s="1" t="s">
-        <v>5853</v>
-      </c>
       <c r="D1751" s="1" t="s">
+        <v>5854</v>
+      </c>
+      <c r="E1751" s="1" t="s">
         <v>5856</v>
       </c>
-      <c r="E1751" s="1" t="s">
+      <c r="F1751" s="1" t="s">
         <v>5858</v>
       </c>
-      <c r="F1751" s="1" t="s">
-        <v>5860</v>
-      </c>
       <c r="H1751" s="1" t="s">
-        <v>5861</v>
+        <v>5859</v>
       </c>
       <c r="I1751" s="1" t="s">
-        <v>5864</v>
+        <v>5862</v>
       </c>
       <c r="J1751" s="1" t="s">
-        <v>5865</v>
+        <v>5863</v>
       </c>
       <c r="K1751" s="1" t="s">
         <v>44</v>
@@ -70438,31 +70438,31 @@
     </row>
     <row r="1752" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1752" s="1" t="s">
+        <v>5852</v>
+      </c>
+      <c r="B1752" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1752" s="1" t="s">
+        <v>5853</v>
+      </c>
+      <c r="D1752" s="1" t="s">
         <v>5854</v>
       </c>
-      <c r="B1752" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1752" s="1" t="s">
-        <v>5855</v>
-      </c>
-      <c r="D1752" s="1" t="s">
-        <v>5856</v>
-      </c>
       <c r="E1752" s="1" t="s">
+        <v>5857</v>
+      </c>
+      <c r="F1752" s="1" t="s">
+        <v>5858</v>
+      </c>
+      <c r="H1752" s="1" t="s">
         <v>5859</v>
       </c>
-      <c r="F1752" s="1" t="s">
-        <v>5860</v>
-      </c>
-      <c r="H1752" s="1" t="s">
-        <v>5861</v>
-      </c>
       <c r="I1752" s="1" t="s">
-        <v>5867</v>
+        <v>5865</v>
       </c>
       <c r="J1752" s="1" t="s">
-        <v>5866</v>
+        <v>5864</v>
       </c>
       <c r="K1752" s="1" t="s">
         <v>44</v>
@@ -70470,13 +70470,13 @@
     </row>
     <row r="1753" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1753" s="1" t="s">
-        <v>5875</v>
+        <v>5873</v>
       </c>
       <c r="B1753" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1753" s="1" t="s">
-        <v>5870</v>
+        <v>5868</v>
       </c>
       <c r="D1753" s="1" t="s">
         <v>2202</v>
@@ -70485,16 +70485,16 @@
         <v>2204</v>
       </c>
       <c r="F1753" s="1" t="s">
-        <v>5877</v>
+        <v>5875</v>
       </c>
       <c r="G1753" s="1" t="s">
-        <v>5874</v>
+        <v>5872</v>
       </c>
       <c r="I1753" s="1" t="s">
+        <v>5876</v>
+      </c>
+      <c r="J1753" s="1" t="s">
         <v>5878</v>
-      </c>
-      <c r="J1753" s="1" t="s">
-        <v>5880</v>
       </c>
       <c r="K1753" s="1" t="s">
         <v>44</v>
@@ -70502,13 +70502,13 @@
     </row>
     <row r="1754" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1754" s="1" t="s">
-        <v>5868</v>
+        <v>5866</v>
       </c>
       <c r="B1754" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1754" s="1" t="s">
-        <v>5871</v>
+        <v>5869</v>
       </c>
       <c r="D1754" s="1" t="s">
         <v>2202</v>
@@ -70517,16 +70517,16 @@
         <v>2294</v>
       </c>
       <c r="F1754" s="1" t="s">
+        <v>5871</v>
+      </c>
+      <c r="H1754" s="1" t="s">
         <v>5873</v>
       </c>
-      <c r="H1754" s="1" t="s">
-        <v>5875</v>
-      </c>
       <c r="I1754" s="1" t="s">
+        <v>5877</v>
+      </c>
+      <c r="J1754" s="1" t="s">
         <v>5879</v>
-      </c>
-      <c r="J1754" s="1" t="s">
-        <v>5881</v>
       </c>
       <c r="K1754" s="1" t="s">
         <v>44</v>
@@ -70534,13 +70534,13 @@
     </row>
     <row r="1755" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1755" s="1" t="s">
-        <v>5869</v>
+        <v>5867</v>
       </c>
       <c r="B1755" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C1755" s="1" t="s">
-        <v>5872</v>
+        <v>5870</v>
       </c>
       <c r="D1755" s="1" t="s">
         <v>2202</v>
@@ -70549,16 +70549,16 @@
         <v>2324</v>
       </c>
       <c r="F1755" s="1" t="s">
-        <v>5877</v>
+        <v>5875</v>
       </c>
       <c r="H1755" s="1" t="s">
-        <v>5875</v>
+        <v>5873</v>
       </c>
       <c r="I1755" s="1" t="s">
-        <v>5883</v>
+        <v>5881</v>
       </c>
       <c r="J1755" s="1" t="s">
-        <v>5882</v>
+        <v>5880</v>
       </c>
       <c r="K1755" s="1" t="s">
         <v>44</v>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15284" uniqueCount="5884">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15293" uniqueCount="5888">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -20798,6 +20798,21 @@
   </si>
   <si>
     <t>select price,age from $schema46 where price&gt;605.771</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1755</t>
+  </si>
+  <si>
+    <t>从数据表中查询常量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select 1 from $schema52 limit 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1755.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -21173,10 +21188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1755"/>
+  <dimension ref="A1:K1756"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1703" workbookViewId="0">
-      <selection activeCell="I1726" sqref="I1726"/>
+    <sheetView tabSelected="1" topLeftCell="A1706" workbookViewId="0">
+      <selection activeCell="F1728" sqref="F1728"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -70562,6 +70577,35 @@
       </c>
       <c r="K1755" s="1" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1756" s="1" t="s">
+        <v>5884</v>
+      </c>
+      <c r="B1756" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1756" s="1" t="s">
+        <v>5885</v>
+      </c>
+      <c r="D1756" s="1" t="s">
+        <v>2410</v>
+      </c>
+      <c r="F1756" s="1" t="s">
+        <v>5796</v>
+      </c>
+      <c r="H1756" s="1" t="s">
+        <v>5806</v>
+      </c>
+      <c r="I1756" s="1" t="s">
+        <v>5886</v>
+      </c>
+      <c r="J1756" s="1" t="s">
+        <v>5887</v>
+      </c>
+      <c r="K1756" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
@@ -21443,8 +21443,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1785"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1747" workbookViewId="0">
-      <selection activeCell="C1787" sqref="C1787"/>
+    <sheetView tabSelected="1" topLeftCell="B538" workbookViewId="0">
+      <selection activeCell="H545" sqref="H545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15500" uniqueCount="5958">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15508" uniqueCount="5964">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -21062,6 +21062,28 @@
   </si>
   <si>
     <t>0.000011973036721303624</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1785</t>
+  </si>
+  <si>
+    <t>查询建表后information_schema.tables保存表信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLFunctions</t>
+  </si>
+  <si>
+    <t>schema56</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select `TABLE_CATALOG`,`TABLE_SCHEMA`,`TABLE_NAME`,`TABLE_TYPE`,`ENGINE`,`VERSION`,`ROW_FORMAT`,`TABLE_ROWS`,`AVG_ROW_LENGTH`,`DATA_LENGTH`,`MAX_DATA_LENGTH`,`INDEX_LENGTH`,`DATA_FREE`,`AUTO_INCREMENT`,`UPDATE_TIME`,`CHECK_TIME`,`TABLE_COLLATION`,`CHECKSUM`,`CREATE_OPTIONS`,`TABLE_COMMENT` from information_schema.tables where `TABLE_NAME`='$table' or `TABLE_SCHEMA` in ('MYSQL', 'INFORMATION_SCHEMA')</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1785.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -21443,10 +21465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1785"/>
+  <dimension ref="A1:K1786"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C790" workbookViewId="0">
-      <selection activeCell="F808" sqref="F808"/>
+    <sheetView tabSelected="1" topLeftCell="C1754" workbookViewId="0">
+      <selection activeCell="J1774" sqref="J1774"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -71540,6 +71562,35 @@
       </c>
       <c r="K1785" s="12" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1786" s="12" t="s">
+        <v>5958</v>
+      </c>
+      <c r="B1786" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1786" s="12" t="s">
+        <v>5959</v>
+      </c>
+      <c r="D1786" s="12" t="s">
+        <v>5960</v>
+      </c>
+      <c r="E1786" s="12"/>
+      <c r="F1786" s="12" t="s">
+        <v>5961</v>
+      </c>
+      <c r="G1786" s="12"/>
+      <c r="H1786" s="12"/>
+      <c r="I1786" s="12" t="s">
+        <v>5962</v>
+      </c>
+      <c r="J1786" s="12" t="s">
+        <v>5963</v>
+      </c>
+      <c r="K1786" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
@@ -12,14 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$1788</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$A$1791</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15535" uniqueCount="5977">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15554" uniqueCount="5988">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -21132,6 +21132,47 @@
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Subquery/queryc1_1788.csv</t>
+  </si>
+  <si>
+    <t>dqlc1_1789</t>
+  </si>
+  <si>
+    <t>子查询带有条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $schema8 where id in (select id from $schema7 where id&gt;6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/Subquery/queryc1_1789.csv</t>
+  </si>
+  <si>
+    <t>dqlc1_1790</t>
+  </si>
+  <si>
+    <t>换行符转换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>schema57_com_value01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select content from $schema57</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/SQLFuncs/queryc1_1790.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -21512,10 +21553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1789"/>
+  <dimension ref="A1:K1791"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1757" workbookViewId="0">
-      <selection activeCell="H1793" sqref="H1793"/>
+    <sheetView tabSelected="1" topLeftCell="A1630" workbookViewId="0">
+      <selection activeCell="F1760" sqref="F1760"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21528,7 +21569,7 @@
     <col min="6" max="6" width="22.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.25" style="1" customWidth="1"/>
     <col min="8" max="8" width="18.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="72.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="97.25" style="1" customWidth="1"/>
     <col min="10" max="10" width="30.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="9" style="1"/>
@@ -71615,7 +71656,7 @@
       <c r="A1786" s="12" t="s">
         <v>5956</v>
       </c>
-      <c r="B1786" s="12" t="s">
+      <c r="B1786" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1786" s="12" t="s">
@@ -71644,7 +71685,7 @@
       <c r="A1787" s="12" t="s">
         <v>5964</v>
       </c>
-      <c r="B1787" s="12" t="s">
+      <c r="B1787" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1787" s="1" t="s">
@@ -71674,7 +71715,7 @@
       <c r="A1788" s="12" t="s">
         <v>5965</v>
       </c>
-      <c r="B1788" s="12" t="s">
+      <c r="B1788" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1788" s="12" t="s">
@@ -71704,7 +71745,7 @@
       <c r="A1789" s="12" t="s">
         <v>5973</v>
       </c>
-      <c r="B1789" s="12" t="s">
+      <c r="B1789" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1789" s="12" t="s">
@@ -71731,8 +71772,70 @@
         <v>44</v>
       </c>
     </row>
+    <row r="1790" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1790" s="12" t="s">
+        <v>5977</v>
+      </c>
+      <c r="B1790" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1790" s="1" t="s">
+        <v>5978</v>
+      </c>
+      <c r="D1790" s="12" t="s">
+        <v>5968</v>
+      </c>
+      <c r="F1790" s="12" t="s">
+        <v>2126</v>
+      </c>
+      <c r="G1790" s="12"/>
+      <c r="H1790" s="12" t="s">
+        <v>4717</v>
+      </c>
+      <c r="I1790" s="1" t="s">
+        <v>5979</v>
+      </c>
+      <c r="J1790" s="12" t="s">
+        <v>5980</v>
+      </c>
+      <c r="K1790" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1791" s="12" t="s">
+        <v>5981</v>
+      </c>
+      <c r="B1791" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1791" s="1" t="s">
+        <v>5982</v>
+      </c>
+      <c r="D1791" s="12" t="s">
+        <v>5957</v>
+      </c>
+      <c r="E1791" s="1" t="s">
+        <v>5987</v>
+      </c>
+      <c r="F1791" s="1" t="s">
+        <v>5983</v>
+      </c>
+      <c r="G1791" s="1" t="s">
+        <v>5984</v>
+      </c>
+      <c r="I1791" s="1" t="s">
+        <v>5985</v>
+      </c>
+      <c r="J1791" s="1" t="s">
+        <v>5986</v>
+      </c>
+      <c r="K1791" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A1788"/>
+  <autoFilter ref="A1:A1791"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">

--- a/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15554" uniqueCount="5988">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15584" uniqueCount="6006">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -21071,10 +21071,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>select `TABLE_CATALOG`,`TABLE_SCHEMA`,`TABLE_NAME`,`TABLE_TYPE`,`ENGINE`,`VERSION`,`ROW_FORMAT`,`TABLE_ROWS`,`AVG_ROW_LENGTH`,`DATA_LENGTH`,`MAX_DATA_LENGTH`,`INDEX_LENGTH`,`DATA_FREE`,`AUTO_INCREMENT`,`UPDATE_TIME`,`CHECK_TIME`,`TABLE_COLLATION`,`CHECKSUM`,`CREATE_OPTIONS`,`TABLE_COMMENT` from information_schema.tables where `TABLE_NAME`='$schema56' or `TABLE_SCHEMA` in ('MYSQL', 'INFORMATION_SCHEMA')</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select abs(9223372036854775807.345)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -21173,6 +21169,77 @@
   <si>
     <t>Json</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select `TABLE_CATALOG`,`TABLE_SCHEMA`,`TABLE_NAME`,`TABLE_TYPE`,`ENGINE`,`VERSION`,`ROW_FORMAT`,`TABLE_ROWS`,`AVG_ROW_LENGTH`,`DATA_LENGTH`,`MAX_DATA_LENGTH`,`INDEX_LENGTH`,`DATA_FREE`,`AUTO_INCREMENT`,`UPDATE_TIME`,`CHECK_TIME`,`TABLE_COLLATION`,`CHECKSUM`,`CREATE_OPTIONS`,`TABLE_COMMENT` from information_schema.tables where `TABLE_NAME`='$schema56'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1791</t>
+  </si>
+  <si>
+    <t>ComplexDataType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array22_value59</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/ComplexDataType/array/queryc1_1791.csv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar array字段在中间，通过array后字段条件查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float array字段在中间，通过array后字段条件查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>array23</t>
+  </si>
+  <si>
+    <t>array23_value60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select * from $array22 where name='lala'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/ComplexDataType/array/queryc1_1792.csv</t>
+  </si>
+  <si>
+    <t>select user_data,id from $array23 where id&gt;2 or age&gt;20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1793</t>
+  </si>
+  <si>
+    <t>float array字段在中间，通过array后字段条件仅查询主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1792</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1792</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select id from $array23 where id&gt;1 and age&gt;20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/ComplexDataType/array/queryc1_1793.csv</t>
   </si>
 </sst>
 </file>
@@ -21553,10 +21620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1791"/>
+  <dimension ref="A1:K1794"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1630" workbookViewId="0">
-      <selection activeCell="F1760" sqref="F1760"/>
+    <sheetView tabSelected="1" topLeftCell="E1766" workbookViewId="0">
+      <selection activeCell="I1802" sqref="I1802"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21568,7 +21635,7 @@
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
     <col min="6" max="6" width="22.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.25" style="1" customWidth="1"/>
-    <col min="8" max="8" width="18.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="97.25" style="1" customWidth="1"/>
     <col min="10" max="10" width="30.125" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.5" style="1" bestFit="1" customWidth="1"/>
@@ -22084,7 +22151,7 @@
         <v>136</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>5963</v>
+        <v>5962</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>150</v>
@@ -46884,7 +46951,7 @@
         <v>1680</v>
       </c>
       <c r="I972" s="1" t="s">
-        <v>5961</v>
+        <v>5960</v>
       </c>
       <c r="J972" s="1" t="s">
         <v>1722</v>
@@ -71660,7 +71727,7 @@
         <v>34</v>
       </c>
       <c r="C1786" s="12" t="s">
-        <v>5962</v>
+        <v>5961</v>
       </c>
       <c r="D1786" s="12" t="s">
         <v>5957</v>
@@ -71672,7 +71739,7 @@
       <c r="G1786" s="12"/>
       <c r="H1786" s="12"/>
       <c r="I1786" s="12" t="s">
-        <v>5960</v>
+        <v>5987</v>
       </c>
       <c r="J1786" s="12" t="s">
         <v>5959</v>
@@ -71683,16 +71750,16 @@
     </row>
     <row r="1787" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1787" s="12" t="s">
-        <v>5964</v>
+        <v>5963</v>
       </c>
       <c r="B1787" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1787" s="1" t="s">
-        <v>5966</v>
+        <v>5965</v>
       </c>
       <c r="D1787" s="1" t="s">
-        <v>5968</v>
+        <v>5967</v>
       </c>
       <c r="F1787" s="12" t="s">
         <v>2126</v>
@@ -71702,10 +71769,10 @@
         <v>4717</v>
       </c>
       <c r="I1787" s="1" t="s">
-        <v>5969</v>
+        <v>5968</v>
       </c>
       <c r="J1787" s="1" t="s">
-        <v>5971</v>
+        <v>5970</v>
       </c>
       <c r="K1787" s="12" t="s">
         <v>44</v>
@@ -71713,16 +71780,16 @@
     </row>
     <row r="1788" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1788" s="12" t="s">
-        <v>5965</v>
+        <v>5964</v>
       </c>
       <c r="B1788" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1788" s="12" t="s">
+        <v>5966</v>
+      </c>
+      <c r="D1788" s="12" t="s">
         <v>5967</v>
-      </c>
-      <c r="D1788" s="12" t="s">
-        <v>5968</v>
       </c>
       <c r="F1788" s="12" t="s">
         <v>2126</v>
@@ -71732,10 +71799,10 @@
         <v>4717</v>
       </c>
       <c r="I1788" s="1" t="s">
-        <v>5970</v>
+        <v>5969</v>
       </c>
       <c r="J1788" s="12" t="s">
-        <v>5972</v>
+        <v>5971</v>
       </c>
       <c r="K1788" s="12" t="s">
         <v>44</v>
@@ -71743,16 +71810,16 @@
     </row>
     <row r="1789" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1789" s="12" t="s">
+        <v>5972</v>
+      </c>
+      <c r="B1789" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1789" s="12" t="s">
         <v>5973</v>
       </c>
-      <c r="B1789" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1789" s="12" t="s">
-        <v>5974</v>
-      </c>
       <c r="D1789" s="12" t="s">
-        <v>5968</v>
+        <v>5967</v>
       </c>
       <c r="E1789" s="12"/>
       <c r="F1789" s="12" t="s">
@@ -71763,10 +71830,10 @@
         <v>4717</v>
       </c>
       <c r="I1789" s="1" t="s">
+        <v>5974</v>
+      </c>
+      <c r="J1789" s="12" t="s">
         <v>5975</v>
-      </c>
-      <c r="J1789" s="12" t="s">
-        <v>5976</v>
       </c>
       <c r="K1789" s="12" t="s">
         <v>44</v>
@@ -71774,16 +71841,16 @@
     </row>
     <row r="1790" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1790" s="12" t="s">
+        <v>5976</v>
+      </c>
+      <c r="B1790" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1790" s="1" t="s">
         <v>5977</v>
       </c>
-      <c r="B1790" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1790" s="1" t="s">
-        <v>5978</v>
-      </c>
       <c r="D1790" s="12" t="s">
-        <v>5968</v>
+        <v>5967</v>
       </c>
       <c r="F1790" s="12" t="s">
         <v>2126</v>
@@ -71793,10 +71860,10 @@
         <v>4717</v>
       </c>
       <c r="I1790" s="1" t="s">
+        <v>5978</v>
+      </c>
+      <c r="J1790" s="12" t="s">
         <v>5979</v>
-      </c>
-      <c r="J1790" s="12" t="s">
-        <v>5980</v>
       </c>
       <c r="K1790" s="1" t="s">
         <v>154</v>
@@ -71804,33 +71871,129 @@
     </row>
     <row r="1791" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1791" s="12" t="s">
+        <v>5980</v>
+      </c>
+      <c r="B1791" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1791" s="1" t="s">
         <v>5981</v>
-      </c>
-      <c r="B1791" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1791" s="1" t="s">
-        <v>5982</v>
       </c>
       <c r="D1791" s="12" t="s">
         <v>5957</v>
       </c>
       <c r="E1791" s="1" t="s">
-        <v>5987</v>
+        <v>5986</v>
       </c>
       <c r="F1791" s="1" t="s">
+        <v>5982</v>
+      </c>
+      <c r="G1791" s="1" t="s">
         <v>5983</v>
       </c>
-      <c r="G1791" s="1" t="s">
+      <c r="I1791" s="1" t="s">
         <v>5984</v>
       </c>
-      <c r="I1791" s="1" t="s">
+      <c r="J1791" s="1" t="s">
         <v>5985</v>
       </c>
-      <c r="J1791" s="1" t="s">
-        <v>5986</v>
-      </c>
       <c r="K1791" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1792" s="12" t="s">
+        <v>5988</v>
+      </c>
+      <c r="B1792" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1792" s="1" t="s">
+        <v>5993</v>
+      </c>
+      <c r="D1792" s="1" t="s">
+        <v>5989</v>
+      </c>
+      <c r="E1792" s="1" t="s">
+        <v>4744</v>
+      </c>
+      <c r="F1792" s="1" t="s">
+        <v>5990</v>
+      </c>
+      <c r="G1792" s="1" t="s">
+        <v>5991</v>
+      </c>
+      <c r="I1792" s="1" t="s">
+        <v>5997</v>
+      </c>
+      <c r="J1792" s="1" t="s">
+        <v>5992</v>
+      </c>
+      <c r="K1792" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1793" s="12" t="s">
+        <v>6002</v>
+      </c>
+      <c r="B1793" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1793" s="12" t="s">
+        <v>5994</v>
+      </c>
+      <c r="D1793" s="12" t="s">
+        <v>5989</v>
+      </c>
+      <c r="E1793" s="12" t="s">
+        <v>4744</v>
+      </c>
+      <c r="F1793" s="12" t="s">
+        <v>5995</v>
+      </c>
+      <c r="G1793" s="12" t="s">
+        <v>5996</v>
+      </c>
+      <c r="I1793" s="1" t="s">
+        <v>5999</v>
+      </c>
+      <c r="J1793" s="12" t="s">
+        <v>5998</v>
+      </c>
+      <c r="K1793" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1794" s="12" t="s">
+        <v>6000</v>
+      </c>
+      <c r="B1794" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1794" s="12" t="s">
+        <v>6001</v>
+      </c>
+      <c r="D1794" s="12" t="s">
+        <v>5989</v>
+      </c>
+      <c r="E1794" s="12" t="s">
+        <v>4744</v>
+      </c>
+      <c r="F1794" s="12" t="s">
+        <v>5995</v>
+      </c>
+      <c r="H1794" s="1" t="s">
+        <v>6003</v>
+      </c>
+      <c r="I1794" s="12" t="s">
+        <v>6004</v>
+      </c>
+      <c r="J1794" s="12" t="s">
+        <v>6005</v>
+      </c>
+      <c r="K1794" s="1" t="s">
         <v>44</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15584" uniqueCount="6006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15594" uniqueCount="6013">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -21240,6 +21240,32 @@
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/ComplexDataType/array/queryc1_1793.csv</t>
+  </si>
+  <si>
+    <t>dqlc1_1794</t>
+  </si>
+  <si>
+    <t>float array字段在中间，通过array后字段条件仅查询array字段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ComplexDataType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>select user_data from $array23 where amount&lt;1000 and age&lt;10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dqlc1_1792</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/ComplexDataType/array/queryc1_1794.csv</t>
   </si>
 </sst>
 </file>
@@ -21620,10 +21646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K1794"/>
+  <dimension ref="A1:K1795"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1766" workbookViewId="0">
-      <selection activeCell="I1802" sqref="I1802"/>
+    <sheetView tabSelected="1" topLeftCell="D1766" workbookViewId="0">
+      <selection activeCell="J1795" sqref="J1795"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -71994,6 +72020,39 @@
         <v>6005</v>
       </c>
       <c r="K1794" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A1795" s="12" t="s">
+        <v>6006</v>
+      </c>
+      <c r="B1795" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1795" s="12" t="s">
+        <v>6007</v>
+      </c>
+      <c r="D1795" s="12" t="s">
+        <v>6008</v>
+      </c>
+      <c r="E1795" s="12" t="s">
+        <v>6009</v>
+      </c>
+      <c r="F1795" s="12" t="s">
+        <v>5995</v>
+      </c>
+      <c r="G1795" s="12"/>
+      <c r="H1795" s="12" t="s">
+        <v>6011</v>
+      </c>
+      <c r="I1795" s="12" t="s">
+        <v>6010</v>
+      </c>
+      <c r="J1795" s="12" t="s">
+        <v>6012</v>
+      </c>
+      <c r="K1795" s="12" t="s">
         <v>44</v>
       </c>
     </row>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
@@ -21648,8 +21648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1795"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1766" workbookViewId="0">
-      <selection activeCell="J1795" sqref="J1795"/>
+    <sheetView tabSelected="1" topLeftCell="A1766" workbookViewId="0">
+      <selection activeCell="C1798" sqref="C1798"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -71932,7 +71932,7 @@
         <v>5988</v>
       </c>
       <c r="B1792" s="12" t="s">
-        <v>34</v>
+        <v>5122</v>
       </c>
       <c r="C1792" s="1" t="s">
         <v>5993</v>
@@ -71964,7 +71964,7 @@
         <v>6002</v>
       </c>
       <c r="B1793" s="12" t="s">
-        <v>34</v>
+        <v>5122</v>
       </c>
       <c r="C1793" s="12" t="s">
         <v>5994</v>
@@ -71996,7 +71996,7 @@
         <v>6000</v>
       </c>
       <c r="B1794" s="12" t="s">
-        <v>34</v>
+        <v>5122</v>
       </c>
       <c r="C1794" s="12" t="s">
         <v>6001</v>
@@ -72028,7 +72028,7 @@
         <v>6006</v>
       </c>
       <c r="B1795" s="12" t="s">
-        <v>34</v>
+        <v>5122</v>
       </c>
       <c r="C1795" s="12" t="s">
         <v>6007</v>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
@@ -18559,14 +18559,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>abcdefghijklmnopqrstuvwsyz0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZ`~!@#$%^&amp;*()-_=+[]\;,./{}|:"&lt;&gt;?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>select 'abcdefghijklmnopqrstuvwsyz0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZ`~!@#$%^&amp;*()-_=+[]\;,./{}|:"&lt;&gt;?'</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dqlc1_1610</t>
   </si>
   <si>
@@ -21266,6 +21258,14 @@
   </si>
   <si>
     <t>src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/expectedresult/ComplexDataType/array/queryc1_1794.csv</t>
+  </si>
+  <si>
+    <t>select 'abcdefghijklmnopqrstuvwsyz0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZ`~!@#$%^&amp;*()-_=+[]\;,./{}|:''"&lt;&gt;?'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwsyz0123456789ABCDEFGHIJKLMNOPQRSTUVWXYZ`~!@#$%^&amp;*()-_=+[]\;,./{}|:'"&lt;&gt;?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -21648,8 +21648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1795"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1766" workbookViewId="0">
-      <selection activeCell="C1798" sqref="C1798"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21735,10 +21735,10 @@
       </c>
       <c r="G3" s="4"/>
       <c r="I3" s="3" t="s">
-        <v>5249</v>
+        <v>6011</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>5248</v>
+        <v>6012</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>9</v>
@@ -22177,7 +22177,7 @@
         <v>136</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>5962</v>
+        <v>5960</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>150</v>
@@ -22203,10 +22203,10 @@
         <v>136</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>5361</v>
+        <v>5359</v>
       </c>
       <c r="J21" t="s">
-        <v>5362</v>
+        <v>5360</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>9</v>
@@ -26671,10 +26671,10 @@
         <v>414</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>5355</v>
+        <v>5353</v>
       </c>
       <c r="J191" t="s">
-        <v>5356</v>
+        <v>5354</v>
       </c>
       <c r="K191" s="1" t="s">
         <v>9</v>
@@ -36358,10 +36358,10 @@
         <v>981</v>
       </c>
       <c r="I566" s="1" t="s">
-        <v>5874</v>
+        <v>5872</v>
       </c>
       <c r="J566" s="1" t="s">
-        <v>5875</v>
+        <v>5873</v>
       </c>
       <c r="K566" s="1" t="s">
         <v>9</v>
@@ -36384,10 +36384,10 @@
         <v>981</v>
       </c>
       <c r="I567" s="1" t="s">
-        <v>5876</v>
+        <v>5874</v>
       </c>
       <c r="J567" s="1" t="s">
-        <v>5877</v>
+        <v>5875</v>
       </c>
       <c r="K567" s="1" t="s">
         <v>9</v>
@@ -36410,7 +36410,7 @@
         <v>981</v>
       </c>
       <c r="I568" s="1" t="s">
-        <v>5878</v>
+        <v>5876</v>
       </c>
       <c r="J568" s="1" t="s">
         <v>5216</v>
@@ -36462,7 +36462,7 @@
         <v>981</v>
       </c>
       <c r="I570" s="1" t="s">
-        <v>5879</v>
+        <v>5877</v>
       </c>
       <c r="J570" s="1" t="s">
         <v>1041</v>
@@ -42492,7 +42492,7 @@
         <v>1445</v>
       </c>
       <c r="J801" s="1" t="s">
-        <v>5954</v>
+        <v>5952</v>
       </c>
       <c r="K801" s="1" t="s">
         <v>9</v>
@@ -42518,7 +42518,7 @@
         <v>1446</v>
       </c>
       <c r="J802" s="1" t="s">
-        <v>5955</v>
+        <v>5953</v>
       </c>
       <c r="K802" s="1" t="s">
         <v>9</v>
@@ -46977,7 +46977,7 @@
         <v>1680</v>
       </c>
       <c r="I972" s="1" t="s">
-        <v>5960</v>
+        <v>5958</v>
       </c>
       <c r="J972" s="1" t="s">
         <v>1722</v>
@@ -59165,7 +59165,7 @@
         <v>4724</v>
       </c>
       <c r="I1375" s="1" t="s">
-        <v>5860</v>
+        <v>5858</v>
       </c>
       <c r="J1375" s="1" t="s">
         <v>4552</v>
@@ -63562,7 +63562,7 @@
         <v>4046</v>
       </c>
       <c r="I1514" s="1" t="s">
-        <v>5952</v>
+        <v>5950</v>
       </c>
       <c r="J1514" s="1" t="s">
         <v>4691</v>
@@ -63754,7 +63754,7 @@
         <v>4046</v>
       </c>
       <c r="I1520" s="1" t="s">
-        <v>5949</v>
+        <v>5947</v>
       </c>
       <c r="J1520" s="1" t="s">
         <v>4697</v>
@@ -66679,28 +66679,28 @@
     </row>
     <row r="1610" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1610" s="1" t="s">
-        <v>5279</v>
+        <v>5277</v>
       </c>
       <c r="B1610" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1610" s="1" t="s">
+        <v>5272</v>
+      </c>
+      <c r="D1610" s="1" t="s">
+        <v>5273</v>
+      </c>
+      <c r="F1610" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="G1610" s="1" t="s">
         <v>5274</v>
       </c>
-      <c r="D1610" s="1" t="s">
+      <c r="I1610" s="1" t="s">
+        <v>5344</v>
+      </c>
+      <c r="J1610" s="1" t="s">
         <v>5275</v>
-      </c>
-      <c r="F1610" s="1" t="s">
-        <v>5278</v>
-      </c>
-      <c r="G1610" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="I1610" s="1" t="s">
-        <v>5346</v>
-      </c>
-      <c r="J1610" s="1" t="s">
-        <v>5277</v>
       </c>
       <c r="K1610" s="1" t="s">
         <v>44</v>
@@ -66708,28 +66708,28 @@
     </row>
     <row r="1611" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1611" s="1" t="s">
-        <v>5250</v>
+        <v>5248</v>
       </c>
       <c r="B1611" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1611" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1611" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1611" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1611" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1611" s="1" t="s">
+      <c r="I1611" s="1" t="s">
+        <v>5279</v>
+      </c>
+      <c r="J1611" s="1" t="s">
         <v>5280</v>
-      </c>
-      <c r="I1611" s="1" t="s">
-        <v>5281</v>
-      </c>
-      <c r="J1611" s="1" t="s">
-        <v>5282</v>
       </c>
       <c r="K1611" s="1" t="s">
         <v>44</v>
@@ -66737,28 +66737,28 @@
     </row>
     <row r="1612" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1612" s="1" t="s">
-        <v>5251</v>
+        <v>5249</v>
       </c>
       <c r="B1612" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1612" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1612" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1612" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1612" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1612" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1612" s="1" t="s">
-        <v>5293</v>
+        <v>5291</v>
       </c>
       <c r="J1612" s="1" t="s">
-        <v>5283</v>
+        <v>5281</v>
       </c>
       <c r="K1612" s="1" t="s">
         <v>44</v>
@@ -66766,28 +66766,28 @@
     </row>
     <row r="1613" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1613" s="1" t="s">
-        <v>5252</v>
+        <v>5250</v>
       </c>
       <c r="B1613" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1613" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1613" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1613" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1613" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1613" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1613" s="1" t="s">
-        <v>5294</v>
+        <v>5292</v>
       </c>
       <c r="J1613" s="1" t="s">
-        <v>5284</v>
+        <v>5282</v>
       </c>
       <c r="K1613" s="1" t="s">
         <v>44</v>
@@ -66795,28 +66795,28 @@
     </row>
     <row r="1614" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1614" s="1" t="s">
-        <v>5253</v>
+        <v>5251</v>
       </c>
       <c r="B1614" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1614" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1614" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1614" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1614" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1614" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1614" s="1" t="s">
-        <v>5308</v>
+        <v>5306</v>
       </c>
       <c r="J1614" s="1" t="s">
-        <v>5285</v>
+        <v>5283</v>
       </c>
       <c r="K1614" s="1" t="s">
         <v>44</v>
@@ -66824,28 +66824,28 @@
     </row>
     <row r="1615" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1615" s="1" t="s">
-        <v>5254</v>
+        <v>5252</v>
       </c>
       <c r="B1615" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1615" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1615" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1615" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1615" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1615" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1615" s="1" t="s">
-        <v>5309</v>
+        <v>5307</v>
       </c>
       <c r="J1615" s="1" t="s">
-        <v>5286</v>
+        <v>5284</v>
       </c>
       <c r="K1615" s="1" t="s">
         <v>44</v>
@@ -66853,28 +66853,28 @@
     </row>
     <row r="1616" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1616" s="1" t="s">
-        <v>5255</v>
+        <v>5253</v>
       </c>
       <c r="B1616" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1616" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1616" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1616" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1616" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1616" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1616" s="1" t="s">
-        <v>5310</v>
+        <v>5308</v>
       </c>
       <c r="J1616" s="1" t="s">
-        <v>5287</v>
+        <v>5285</v>
       </c>
       <c r="K1616" s="1" t="s">
         <v>44</v>
@@ -66882,28 +66882,28 @@
     </row>
     <row r="1617" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1617" s="1" t="s">
-        <v>5256</v>
+        <v>5254</v>
       </c>
       <c r="B1617" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1617" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1617" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1617" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1617" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1617" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1617" s="1" t="s">
-        <v>5311</v>
+        <v>5309</v>
       </c>
       <c r="J1617" s="1" t="s">
-        <v>5288</v>
+        <v>5286</v>
       </c>
       <c r="K1617" s="1" t="s">
         <v>44</v>
@@ -66911,28 +66911,28 @@
     </row>
     <row r="1618" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1618" s="1" t="s">
-        <v>5257</v>
+        <v>5255</v>
       </c>
       <c r="B1618" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1618" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1618" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1618" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1618" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1618" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1618" s="1" t="s">
-        <v>5312</v>
+        <v>5310</v>
       </c>
       <c r="J1618" s="1" t="s">
-        <v>5289</v>
+        <v>5287</v>
       </c>
       <c r="K1618" s="1" t="s">
         <v>44</v>
@@ -66940,28 +66940,28 @@
     </row>
     <row r="1619" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1619" s="1" t="s">
-        <v>5258</v>
+        <v>5256</v>
       </c>
       <c r="B1619" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1619" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1619" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1619" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1619" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1619" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1619" s="1" t="s">
-        <v>5313</v>
+        <v>5311</v>
       </c>
       <c r="J1619" s="1" t="s">
-        <v>5290</v>
+        <v>5288</v>
       </c>
       <c r="K1619" s="1" t="s">
         <v>44</v>
@@ -66969,28 +66969,28 @@
     </row>
     <row r="1620" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1620" s="1" t="s">
-        <v>5259</v>
+        <v>5257</v>
       </c>
       <c r="B1620" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1620" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1620" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1620" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1620" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1620" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1620" s="1" t="s">
-        <v>5314</v>
+        <v>5312</v>
       </c>
       <c r="J1620" s="1" t="s">
-        <v>5291</v>
+        <v>5289</v>
       </c>
       <c r="K1620" s="1" t="s">
         <v>44</v>
@@ -66998,28 +66998,28 @@
     </row>
     <row r="1621" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1621" s="1" t="s">
-        <v>5260</v>
+        <v>5258</v>
       </c>
       <c r="B1621" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1621" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1621" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1621" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1621" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1621" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1621" s="1" t="s">
-        <v>5315</v>
+        <v>5313</v>
       </c>
       <c r="J1621" s="1" t="s">
-        <v>5292</v>
+        <v>5290</v>
       </c>
       <c r="K1621" s="1" t="s">
         <v>44</v>
@@ -67027,28 +67027,28 @@
     </row>
     <row r="1622" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1622" s="1" t="s">
-        <v>5261</v>
+        <v>5259</v>
       </c>
       <c r="B1622" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1622" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1622" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1622" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1622" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1622" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1622" s="1" t="s">
-        <v>5328</v>
+        <v>5326</v>
       </c>
       <c r="J1622" s="1" t="s">
-        <v>5295</v>
+        <v>5293</v>
       </c>
       <c r="K1622" s="1" t="s">
         <v>44</v>
@@ -67056,28 +67056,28 @@
     </row>
     <row r="1623" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1623" s="1" t="s">
-        <v>5262</v>
+        <v>5260</v>
       </c>
       <c r="B1623" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1623" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1623" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1623" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1623" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1623" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1623" s="1" t="s">
-        <v>5329</v>
+        <v>5327</v>
       </c>
       <c r="J1623" s="1" t="s">
-        <v>5296</v>
+        <v>5294</v>
       </c>
       <c r="K1623" s="1" t="s">
         <v>44</v>
@@ -67085,28 +67085,28 @@
     </row>
     <row r="1624" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1624" s="1" t="s">
-        <v>5263</v>
+        <v>5261</v>
       </c>
       <c r="B1624" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1624" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1624" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1624" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1624" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1624" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1624" s="1" t="s">
-        <v>5330</v>
+        <v>5328</v>
       </c>
       <c r="J1624" s="1" t="s">
-        <v>5297</v>
+        <v>5295</v>
       </c>
       <c r="K1624" s="1" t="s">
         <v>44</v>
@@ -67114,28 +67114,28 @@
     </row>
     <row r="1625" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1625" s="1" t="s">
-        <v>5264</v>
+        <v>5262</v>
       </c>
       <c r="B1625" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1625" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1625" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1625" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1625" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1625" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1625" s="1" t="s">
-        <v>5331</v>
+        <v>5329</v>
       </c>
       <c r="J1625" s="1" t="s">
-        <v>5298</v>
+        <v>5296</v>
       </c>
       <c r="K1625" s="1" t="s">
         <v>44</v>
@@ -67143,28 +67143,28 @@
     </row>
     <row r="1626" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1626" s="1" t="s">
-        <v>5265</v>
+        <v>5263</v>
       </c>
       <c r="B1626" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1626" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1626" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1626" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1626" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1626" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1626" s="1" t="s">
-        <v>5332</v>
+        <v>5330</v>
       </c>
       <c r="J1626" s="1" t="s">
-        <v>5299</v>
+        <v>5297</v>
       </c>
       <c r="K1626" s="1" t="s">
         <v>44</v>
@@ -67172,28 +67172,28 @@
     </row>
     <row r="1627" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1627" s="1" t="s">
-        <v>5266</v>
+        <v>5264</v>
       </c>
       <c r="B1627" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1627" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1627" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1627" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1627" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1627" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1627" s="1" t="s">
-        <v>5333</v>
+        <v>5331</v>
       </c>
       <c r="J1627" s="1" t="s">
-        <v>5300</v>
+        <v>5298</v>
       </c>
       <c r="K1627" s="1" t="s">
         <v>44</v>
@@ -67201,28 +67201,28 @@
     </row>
     <row r="1628" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1628" s="1" t="s">
-        <v>5267</v>
+        <v>5265</v>
       </c>
       <c r="B1628" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1628" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1628" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1628" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1628" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1628" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1628" s="1" t="s">
-        <v>5334</v>
+        <v>5332</v>
       </c>
       <c r="J1628" s="1" t="s">
-        <v>5301</v>
+        <v>5299</v>
       </c>
       <c r="K1628" s="1" t="s">
         <v>44</v>
@@ -67230,28 +67230,28 @@
     </row>
     <row r="1629" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1629" s="1" t="s">
-        <v>5268</v>
+        <v>5266</v>
       </c>
       <c r="B1629" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1629" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1629" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1629" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1629" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1629" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1629" s="1" t="s">
-        <v>5335</v>
+        <v>5333</v>
       </c>
       <c r="J1629" s="1" t="s">
-        <v>5302</v>
+        <v>5300</v>
       </c>
       <c r="K1629" s="1" t="s">
         <v>44</v>
@@ -67259,28 +67259,28 @@
     </row>
     <row r="1630" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1630" s="1" t="s">
-        <v>5269</v>
+        <v>5267</v>
       </c>
       <c r="B1630" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1630" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1630" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1630" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1630" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1630" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1630" s="1" t="s">
-        <v>5336</v>
+        <v>5334</v>
       </c>
       <c r="J1630" s="1" t="s">
-        <v>5303</v>
+        <v>5301</v>
       </c>
       <c r="K1630" s="1" t="s">
         <v>44</v>
@@ -67288,28 +67288,28 @@
     </row>
     <row r="1631" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1631" s="1" t="s">
-        <v>5270</v>
+        <v>5268</v>
       </c>
       <c r="B1631" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1631" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1631" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1631" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1631" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1631" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1631" s="1" t="s">
-        <v>5337</v>
+        <v>5335</v>
       </c>
       <c r="J1631" s="1" t="s">
-        <v>5304</v>
+        <v>5302</v>
       </c>
       <c r="K1631" s="1" t="s">
         <v>44</v>
@@ -67317,28 +67317,28 @@
     </row>
     <row r="1632" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1632" s="1" t="s">
-        <v>5271</v>
+        <v>5269</v>
       </c>
       <c r="B1632" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1632" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1632" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1632" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1632" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1632" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1632" s="1" t="s">
-        <v>5338</v>
+        <v>5336</v>
       </c>
       <c r="J1632" s="1" t="s">
-        <v>5305</v>
+        <v>5303</v>
       </c>
       <c r="K1632" s="1" t="s">
         <v>44</v>
@@ -67346,28 +67346,28 @@
     </row>
     <row r="1633" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1633" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="B1633" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1633" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="B1633" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1633" s="1" t="s">
-        <v>5274</v>
-      </c>
       <c r="D1633" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1633" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1633" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1633" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1633" s="1" t="s">
-        <v>5339</v>
+        <v>5337</v>
       </c>
       <c r="J1633" s="1" t="s">
-        <v>5306</v>
+        <v>5304</v>
       </c>
       <c r="K1633" s="1" t="s">
         <v>44</v>
@@ -67375,28 +67375,28 @@
     </row>
     <row r="1634" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1634" s="1" t="s">
+        <v>5271</v>
+      </c>
+      <c r="B1634" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1634" s="1" t="s">
+        <v>5272</v>
+      </c>
+      <c r="D1634" s="1" t="s">
         <v>5273</v>
       </c>
-      <c r="B1634" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1634" s="1" t="s">
-        <v>5274</v>
-      </c>
-      <c r="D1634" s="1" t="s">
-        <v>5275</v>
-      </c>
       <c r="F1634" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1634" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1634" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1634" s="1" t="s">
-        <v>5340</v>
+        <v>5338</v>
       </c>
       <c r="J1634" s="1" t="s">
-        <v>5307</v>
+        <v>5305</v>
       </c>
       <c r="K1634" s="1" t="s">
         <v>44</v>
@@ -67404,28 +67404,28 @@
     </row>
     <row r="1635" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1635" s="1" t="s">
-        <v>5316</v>
+        <v>5314</v>
       </c>
       <c r="B1635" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1635" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1635" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1635" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1635" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1635" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1635" s="1" t="s">
-        <v>5341</v>
+        <v>5339</v>
       </c>
       <c r="J1635" s="1" t="s">
-        <v>5319</v>
+        <v>5317</v>
       </c>
       <c r="K1635" s="1" t="s">
         <v>44</v>
@@ -67433,28 +67433,28 @@
     </row>
     <row r="1636" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1636" s="1" t="s">
-        <v>5317</v>
+        <v>5315</v>
       </c>
       <c r="B1636" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1636" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1636" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1636" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1636" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1636" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1636" s="1" t="s">
-        <v>5342</v>
+        <v>5340</v>
       </c>
       <c r="J1636" s="1" t="s">
-        <v>5320</v>
+        <v>5318</v>
       </c>
       <c r="K1636" s="1" t="s">
         <v>44</v>
@@ -67462,28 +67462,28 @@
     </row>
     <row r="1637" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1637" s="1" t="s">
-        <v>5318</v>
+        <v>5316</v>
       </c>
       <c r="B1637" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1637" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1637" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1637" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1637" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1637" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1637" s="1" t="s">
-        <v>5343</v>
+        <v>5341</v>
       </c>
       <c r="J1637" s="1" t="s">
-        <v>5321</v>
+        <v>5319</v>
       </c>
       <c r="K1637" s="1" t="s">
         <v>44</v>
@@ -67491,28 +67491,28 @@
     </row>
     <row r="1638" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1638" s="1" t="s">
-        <v>5322</v>
+        <v>5320</v>
       </c>
       <c r="B1638" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1638" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1638" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1638" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1638" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1638" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1638" s="1" t="s">
-        <v>5344</v>
+        <v>5342</v>
       </c>
       <c r="J1638" s="1" t="s">
-        <v>5325</v>
+        <v>5323</v>
       </c>
       <c r="K1638" s="1" t="s">
         <v>44</v>
@@ -67520,28 +67520,28 @@
     </row>
     <row r="1639" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1639" s="1" t="s">
-        <v>5323</v>
+        <v>5321</v>
       </c>
       <c r="B1639" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1639" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1639" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1639" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1639" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1639" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1639" s="1" t="s">
-        <v>5345</v>
+        <v>5343</v>
       </c>
       <c r="J1639" s="1" t="s">
-        <v>5326</v>
+        <v>5324</v>
       </c>
       <c r="K1639" s="1" t="s">
         <v>44</v>
@@ -67549,28 +67549,28 @@
     </row>
     <row r="1640" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1640" s="1" t="s">
-        <v>5324</v>
+        <v>5322</v>
       </c>
       <c r="B1640" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1640" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1640" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1640" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1640" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1640" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1640" s="1" t="s">
-        <v>5357</v>
+        <v>5355</v>
       </c>
       <c r="J1640" s="1" t="s">
-        <v>5327</v>
+        <v>5325</v>
       </c>
       <c r="K1640" s="1" t="s">
         <v>44</v>
@@ -67578,28 +67578,28 @@
     </row>
     <row r="1641" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1641" s="1" t="s">
-        <v>5347</v>
+        <v>5345</v>
       </c>
       <c r="B1641" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1641" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1641" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1641" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1641" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1641" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1641" s="1" t="s">
-        <v>5358</v>
+        <v>5356</v>
       </c>
       <c r="J1641" s="1" t="s">
-        <v>5351</v>
+        <v>5349</v>
       </c>
       <c r="K1641" s="1" t="s">
         <v>44</v>
@@ -67607,28 +67607,28 @@
     </row>
     <row r="1642" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1642" s="1" t="s">
-        <v>5348</v>
+        <v>5346</v>
       </c>
       <c r="B1642" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1642" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1642" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1642" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1642" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1642" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1642" s="1" t="s">
-        <v>5507</v>
+        <v>5505</v>
       </c>
       <c r="J1642" s="1" t="s">
-        <v>5352</v>
+        <v>5350</v>
       </c>
       <c r="K1642" s="1" t="s">
         <v>44</v>
@@ -67636,28 +67636,28 @@
     </row>
     <row r="1643" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1643" s="1" t="s">
-        <v>5349</v>
+        <v>5347</v>
       </c>
       <c r="B1643" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1643" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1643" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1643" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1643" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1643" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1643" s="1" t="s">
-        <v>5359</v>
+        <v>5357</v>
       </c>
       <c r="J1643" s="1" t="s">
-        <v>5353</v>
+        <v>5351</v>
       </c>
       <c r="K1643" s="1" t="s">
         <v>44</v>
@@ -67665,28 +67665,28 @@
     </row>
     <row r="1644" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1644" s="1" t="s">
-        <v>5350</v>
+        <v>5348</v>
       </c>
       <c r="B1644" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1644" s="1" t="s">
-        <v>5274</v>
+        <v>5272</v>
       </c>
       <c r="D1644" s="1" t="s">
-        <v>5275</v>
+        <v>5273</v>
       </c>
       <c r="F1644" s="1" t="s">
+        <v>5276</v>
+      </c>
+      <c r="H1644" s="1" t="s">
         <v>5278</v>
       </c>
-      <c r="H1644" s="1" t="s">
-        <v>5280</v>
-      </c>
       <c r="I1644" s="1" t="s">
-        <v>5360</v>
+        <v>5358</v>
       </c>
       <c r="J1644" s="1" t="s">
-        <v>5354</v>
+        <v>5352</v>
       </c>
       <c r="K1644" s="1" t="s">
         <v>44</v>
@@ -67694,28 +67694,28 @@
     </row>
     <row r="1645" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1645" s="5" t="s">
-        <v>5371</v>
+        <v>5369</v>
       </c>
       <c r="B1645" s="4" t="s">
         <v>5122</v>
       </c>
       <c r="C1645" s="1" t="s">
-        <v>5366</v>
+        <v>5364</v>
       </c>
       <c r="D1645" s="1" t="s">
-        <v>5370</v>
+        <v>5368</v>
       </c>
       <c r="F1645" s="1" t="s">
+        <v>5361</v>
+      </c>
+      <c r="G1645" s="1" t="s">
+        <v>5362</v>
+      </c>
+      <c r="I1645" s="1" t="s">
         <v>5363</v>
       </c>
-      <c r="G1645" s="1" t="s">
-        <v>5364</v>
-      </c>
-      <c r="I1645" s="1" t="s">
+      <c r="J1645" s="1" t="s">
         <v>5365</v>
-      </c>
-      <c r="J1645" s="1" t="s">
-        <v>5367</v>
       </c>
       <c r="K1645" s="1" t="s">
         <v>44</v>
@@ -67723,28 +67723,28 @@
     </row>
     <row r="1646" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1646" s="5" t="s">
-        <v>5368</v>
+        <v>5366</v>
       </c>
       <c r="B1646" s="4" t="s">
         <v>5122</v>
       </c>
       <c r="C1646" s="1" t="s">
-        <v>5378</v>
+        <v>5376</v>
       </c>
       <c r="D1646" s="1" t="s">
+        <v>5368</v>
+      </c>
+      <c r="F1646" s="1" t="s">
+        <v>5361</v>
+      </c>
+      <c r="H1646" s="1" t="s">
         <v>5370</v>
       </c>
-      <c r="F1646" s="1" t="s">
-        <v>5363</v>
-      </c>
-      <c r="H1646" s="1" t="s">
+      <c r="I1646" s="1" t="s">
+        <v>5371</v>
+      </c>
+      <c r="J1646" s="1" t="s">
         <v>5372</v>
-      </c>
-      <c r="I1646" s="1" t="s">
-        <v>5373</v>
-      </c>
-      <c r="J1646" s="1" t="s">
-        <v>5374</v>
       </c>
       <c r="K1646" s="1" t="s">
         <v>44</v>
@@ -67752,28 +67752,28 @@
     </row>
     <row r="1647" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1647" s="5" t="s">
-        <v>5369</v>
+        <v>5367</v>
       </c>
       <c r="B1647" s="4" t="s">
         <v>5122</v>
       </c>
       <c r="C1647" s="1" t="s">
-        <v>5383</v>
+        <v>5381</v>
       </c>
       <c r="D1647" s="1" t="s">
+        <v>5368</v>
+      </c>
+      <c r="F1647" s="1" t="s">
+        <v>5361</v>
+      </c>
+      <c r="H1647" s="1" t="s">
         <v>5370</v>
       </c>
-      <c r="F1647" s="1" t="s">
-        <v>5363</v>
-      </c>
-      <c r="H1647" s="1" t="s">
-        <v>5372</v>
-      </c>
       <c r="I1647" s="1" t="s">
-        <v>5379</v>
+        <v>5377</v>
       </c>
       <c r="J1647" s="1" t="s">
-        <v>5375</v>
+        <v>5373</v>
       </c>
       <c r="K1647" s="1" t="s">
         <v>44</v>
@@ -67781,28 +67781,28 @@
     </row>
     <row r="1648" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1648" s="5" t="s">
-        <v>5376</v>
+        <v>5374</v>
       </c>
       <c r="B1648" s="4" t="s">
         <v>5122</v>
       </c>
       <c r="C1648" s="1" t="s">
+        <v>5382</v>
+      </c>
+      <c r="D1648" s="1" t="s">
+        <v>5368</v>
+      </c>
+      <c r="F1648" s="1" t="s">
+        <v>5375</v>
+      </c>
+      <c r="G1648" s="1" t="s">
+        <v>5380</v>
+      </c>
+      <c r="I1648" s="1" t="s">
+        <v>5383</v>
+      </c>
+      <c r="J1648" s="1" t="s">
         <v>5384</v>
-      </c>
-      <c r="D1648" s="1" t="s">
-        <v>5370</v>
-      </c>
-      <c r="F1648" s="1" t="s">
-        <v>5377</v>
-      </c>
-      <c r="G1648" s="1" t="s">
-        <v>5382</v>
-      </c>
-      <c r="I1648" s="1" t="s">
-        <v>5385</v>
-      </c>
-      <c r="J1648" s="1" t="s">
-        <v>5386</v>
       </c>
       <c r="K1648" s="1" t="s">
         <v>44</v>
@@ -67810,25 +67810,25 @@
     </row>
     <row r="1649" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1649" s="5" t="s">
-        <v>5380</v>
+        <v>5378</v>
       </c>
       <c r="B1649" s="4" t="s">
         <v>5122</v>
       </c>
       <c r="C1649" s="1" t="s">
-        <v>5381</v>
+        <v>5379</v>
       </c>
       <c r="D1649" s="1" t="s">
-        <v>5370</v>
+        <v>5368</v>
       </c>
       <c r="F1649" s="1" t="s">
+        <v>5386</v>
+      </c>
+      <c r="I1649" s="1" t="s">
+        <v>5387</v>
+      </c>
+      <c r="J1649" s="1" t="s">
         <v>5388</v>
-      </c>
-      <c r="I1649" s="1" t="s">
-        <v>5389</v>
-      </c>
-      <c r="J1649" s="1" t="s">
-        <v>5390</v>
       </c>
       <c r="K1649" s="1" t="s">
         <v>44</v>
@@ -67836,28 +67836,28 @@
     </row>
     <row r="1650" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1650" s="5" t="s">
-        <v>5487</v>
+        <v>5485</v>
       </c>
       <c r="B1650" s="4" t="s">
         <v>5122</v>
       </c>
       <c r="C1650" s="1" t="s">
-        <v>5387</v>
+        <v>5385</v>
       </c>
       <c r="D1650" s="1" t="s">
-        <v>5370</v>
+        <v>5368</v>
       </c>
       <c r="F1650" s="1" t="s">
-        <v>5391</v>
+        <v>5389</v>
       </c>
       <c r="G1650" s="1" t="s">
         <v>2165</v>
       </c>
       <c r="I1650" s="1" t="s">
-        <v>5393</v>
+        <v>5391</v>
       </c>
       <c r="J1650" s="1" t="s">
-        <v>5392</v>
+        <v>5390</v>
       </c>
       <c r="K1650" s="1" t="s">
         <v>44</v>
@@ -67865,13 +67865,13 @@
     </row>
     <row r="1651" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1651" s="1" t="s">
-        <v>5429</v>
+        <v>5427</v>
       </c>
       <c r="B1651" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1651" s="1" t="s">
-        <v>5404</v>
+        <v>5402</v>
       </c>
       <c r="D1651" s="1" t="s">
         <v>2402</v>
@@ -67880,16 +67880,16 @@
         <v>2464</v>
       </c>
       <c r="F1651" s="1" t="s">
+        <v>5423</v>
+      </c>
+      <c r="G1651" s="1" t="s">
+        <v>5424</v>
+      </c>
+      <c r="I1651" s="1" t="s">
         <v>5425</v>
       </c>
-      <c r="G1651" s="1" t="s">
+      <c r="J1651" s="1" t="s">
         <v>5426</v>
-      </c>
-      <c r="I1651" s="1" t="s">
-        <v>5427</v>
-      </c>
-      <c r="J1651" s="1" t="s">
-        <v>5428</v>
       </c>
       <c r="K1651" s="1" t="s">
         <v>44</v>
@@ -67897,13 +67897,13 @@
     </row>
     <row r="1652" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1652" s="1" t="s">
-        <v>5394</v>
+        <v>5392</v>
       </c>
       <c r="B1652" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1652" s="1" t="s">
-        <v>5409</v>
+        <v>5407</v>
       </c>
       <c r="D1652" s="1" t="s">
         <v>2402</v>
@@ -67912,16 +67912,16 @@
         <v>2464</v>
       </c>
       <c r="F1652" s="1" t="s">
-        <v>5425</v>
+        <v>5423</v>
       </c>
       <c r="H1652" s="1" t="s">
+        <v>5427</v>
+      </c>
+      <c r="I1652" s="1" t="s">
+        <v>5428</v>
+      </c>
+      <c r="J1652" s="1" t="s">
         <v>5429</v>
-      </c>
-      <c r="I1652" s="1" t="s">
-        <v>5430</v>
-      </c>
-      <c r="J1652" s="1" t="s">
-        <v>5431</v>
       </c>
       <c r="K1652" s="1" t="s">
         <v>154</v>
@@ -67929,13 +67929,13 @@
     </row>
     <row r="1653" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1653" s="1" t="s">
-        <v>5395</v>
+        <v>5393</v>
       </c>
       <c r="B1653" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1653" s="1" t="s">
-        <v>5405</v>
+        <v>5403</v>
       </c>
       <c r="D1653" s="1" t="s">
         <v>2402</v>
@@ -67944,16 +67944,16 @@
         <v>2464</v>
       </c>
       <c r="F1653" s="1" t="s">
-        <v>5425</v>
+        <v>5423</v>
       </c>
       <c r="H1653" s="1" t="s">
-        <v>5429</v>
+        <v>5427</v>
       </c>
       <c r="I1653" s="1" t="s">
-        <v>5432</v>
+        <v>5430</v>
       </c>
       <c r="J1653" s="1" t="s">
-        <v>5438</v>
+        <v>5436</v>
       </c>
       <c r="K1653" s="1" t="s">
         <v>44</v>
@@ -67961,13 +67961,13 @@
     </row>
     <row r="1654" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1654" s="1" t="s">
-        <v>5396</v>
+        <v>5394</v>
       </c>
       <c r="B1654" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1654" s="1" t="s">
-        <v>5434</v>
+        <v>5432</v>
       </c>
       <c r="D1654" s="1" t="s">
         <v>2402</v>
@@ -67976,16 +67976,16 @@
         <v>2464</v>
       </c>
       <c r="F1654" s="1" t="s">
-        <v>5425</v>
+        <v>5423</v>
       </c>
       <c r="H1654" s="1" t="s">
-        <v>5429</v>
+        <v>5427</v>
       </c>
       <c r="I1654" s="1" t="s">
-        <v>5435</v>
+        <v>5433</v>
       </c>
       <c r="J1654" s="1" t="s">
-        <v>5439</v>
+        <v>5437</v>
       </c>
       <c r="K1654" s="1" t="s">
         <v>154</v>
@@ -67993,13 +67993,13 @@
     </row>
     <row r="1655" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1655" s="1" t="s">
-        <v>5458</v>
+        <v>5456</v>
       </c>
       <c r="B1655" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1655" s="1" t="s">
-        <v>5459</v>
+        <v>5457</v>
       </c>
       <c r="D1655" s="1" t="s">
         <v>2402</v>
@@ -68008,16 +68008,16 @@
         <v>2464</v>
       </c>
       <c r="F1655" s="1" t="s">
-        <v>5456</v>
+        <v>5454</v>
       </c>
       <c r="G1655" s="1" t="s">
-        <v>5457</v>
+        <v>5455</v>
       </c>
       <c r="I1655" s="1" t="s">
-        <v>5466</v>
+        <v>5464</v>
       </c>
       <c r="J1655" s="1" t="s">
-        <v>5440</v>
+        <v>5438</v>
       </c>
       <c r="K1655" s="1" t="s">
         <v>154</v>
@@ -68025,13 +68025,13 @@
     </row>
     <row r="1656" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1656" s="1" t="s">
-        <v>5397</v>
+        <v>5395</v>
       </c>
       <c r="B1656" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1656" s="1" t="s">
-        <v>5465</v>
+        <v>5463</v>
       </c>
       <c r="D1656" s="1" t="s">
         <v>2402</v>
@@ -68040,16 +68040,16 @@
         <v>2464</v>
       </c>
       <c r="F1656" s="1" t="s">
+        <v>5454</v>
+      </c>
+      <c r="H1656" s="1" t="s">
         <v>5456</v>
       </c>
-      <c r="H1656" s="1" t="s">
-        <v>5458</v>
-      </c>
       <c r="I1656" s="1" t="s">
-        <v>5467</v>
+        <v>5465</v>
       </c>
       <c r="J1656" s="1" t="s">
-        <v>5441</v>
+        <v>5439</v>
       </c>
       <c r="K1656" s="1" t="s">
         <v>154</v>
@@ -68057,13 +68057,13 @@
     </row>
     <row r="1657" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1657" s="1" t="s">
-        <v>5398</v>
+        <v>5396</v>
       </c>
       <c r="B1657" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1657" s="1" t="s">
-        <v>5460</v>
+        <v>5458</v>
       </c>
       <c r="D1657" s="1" t="s">
         <v>2402</v>
@@ -68072,16 +68072,16 @@
         <v>2464</v>
       </c>
       <c r="F1657" s="1" t="s">
+        <v>5454</v>
+      </c>
+      <c r="H1657" s="1" t="s">
         <v>5456</v>
       </c>
-      <c r="H1657" s="1" t="s">
-        <v>5458</v>
-      </c>
       <c r="I1657" s="1" t="s">
-        <v>5468</v>
+        <v>5466</v>
       </c>
       <c r="J1657" s="1" t="s">
-        <v>5442</v>
+        <v>5440</v>
       </c>
       <c r="K1657" s="1" t="s">
         <v>154</v>
@@ -68089,13 +68089,13 @@
     </row>
     <row r="1658" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1658" s="1" t="s">
-        <v>5399</v>
+        <v>5397</v>
       </c>
       <c r="B1658" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1658" s="1" t="s">
-        <v>5463</v>
+        <v>5461</v>
       </c>
       <c r="D1658" s="1" t="s">
         <v>2402</v>
@@ -68104,16 +68104,16 @@
         <v>2464</v>
       </c>
       <c r="F1658" s="1" t="s">
+        <v>5454</v>
+      </c>
+      <c r="H1658" s="1" t="s">
         <v>5456</v>
       </c>
-      <c r="H1658" s="1" t="s">
-        <v>5458</v>
-      </c>
       <c r="I1658" s="1" t="s">
-        <v>5469</v>
+        <v>5467</v>
       </c>
       <c r="J1658" s="1" t="s">
-        <v>5443</v>
+        <v>5441</v>
       </c>
       <c r="K1658" s="1" t="s">
         <v>154</v>
@@ -68121,13 +68121,13 @@
     </row>
     <row r="1659" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1659" s="1" t="s">
-        <v>5400</v>
+        <v>5398</v>
       </c>
       <c r="B1659" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1659" s="1" t="s">
-        <v>5406</v>
+        <v>5404</v>
       </c>
       <c r="D1659" s="1" t="s">
         <v>2402</v>
@@ -68136,16 +68136,16 @@
         <v>2464</v>
       </c>
       <c r="F1659" s="1" t="s">
+        <v>5454</v>
+      </c>
+      <c r="H1659" s="1" t="s">
         <v>5456</v>
       </c>
-      <c r="H1659" s="1" t="s">
-        <v>5458</v>
-      </c>
       <c r="I1659" s="1" t="s">
-        <v>5470</v>
+        <v>5468</v>
       </c>
       <c r="J1659" s="1" t="s">
-        <v>5444</v>
+        <v>5442</v>
       </c>
       <c r="K1659" s="1" t="s">
         <v>44</v>
@@ -68153,13 +68153,13 @@
     </row>
     <row r="1660" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1660" s="1" t="s">
-        <v>5401</v>
+        <v>5399</v>
       </c>
       <c r="B1660" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1660" s="1" t="s">
-        <v>5407</v>
+        <v>5405</v>
       </c>
       <c r="D1660" s="1" t="s">
         <v>2402</v>
@@ -68168,16 +68168,16 @@
         <v>2464</v>
       </c>
       <c r="F1660" s="1" t="s">
+        <v>5454</v>
+      </c>
+      <c r="H1660" s="1" t="s">
         <v>5456</v>
       </c>
-      <c r="H1660" s="1" t="s">
-        <v>5458</v>
-      </c>
       <c r="I1660" s="1" t="s">
-        <v>5471</v>
+        <v>5469</v>
       </c>
       <c r="J1660" s="1" t="s">
-        <v>5445</v>
+        <v>5443</v>
       </c>
       <c r="K1660" s="1" t="s">
         <v>154</v>
@@ -68185,13 +68185,13 @@
     </row>
     <row r="1661" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1661" s="1" t="s">
-        <v>5402</v>
+        <v>5400</v>
       </c>
       <c r="B1661" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1661" s="1" t="s">
-        <v>5408</v>
+        <v>5406</v>
       </c>
       <c r="D1661" s="1" t="s">
         <v>2402</v>
@@ -68200,16 +68200,16 @@
         <v>2464</v>
       </c>
       <c r="F1661" s="1" t="s">
+        <v>5454</v>
+      </c>
+      <c r="H1661" s="1" t="s">
         <v>5456</v>
       </c>
-      <c r="H1661" s="1" t="s">
-        <v>5458</v>
-      </c>
       <c r="I1661" s="1" t="s">
-        <v>5475</v>
+        <v>5473</v>
       </c>
       <c r="J1661" s="1" t="s">
-        <v>5446</v>
+        <v>5444</v>
       </c>
       <c r="K1661" s="1" t="s">
         <v>44</v>
@@ -68217,13 +68217,13 @@
     </row>
     <row r="1662" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1662" s="1" t="s">
-        <v>5478</v>
+        <v>5476</v>
       </c>
       <c r="B1662" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1662" s="1" t="s">
-        <v>5479</v>
+        <v>5477</v>
       </c>
       <c r="D1662" s="1" t="s">
         <v>2402</v>
@@ -68232,16 +68232,16 @@
         <v>2464</v>
       </c>
       <c r="F1662" s="1" t="s">
-        <v>5476</v>
+        <v>5474</v>
       </c>
       <c r="G1662" s="1" t="s">
-        <v>5477</v>
+        <v>5475</v>
       </c>
       <c r="I1662" s="1" t="s">
-        <v>5480</v>
+        <v>5478</v>
       </c>
       <c r="J1662" s="1" t="s">
-        <v>5447</v>
+        <v>5445</v>
       </c>
       <c r="K1662" s="1" t="s">
         <v>154</v>
@@ -68249,13 +68249,13 @@
     </row>
     <row r="1663" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1663" s="1" t="s">
-        <v>5403</v>
+        <v>5401</v>
       </c>
       <c r="B1663" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1663" s="1" t="s">
-        <v>5420</v>
+        <v>5418</v>
       </c>
       <c r="D1663" s="1" t="s">
         <v>2402</v>
@@ -68264,16 +68264,16 @@
         <v>2464</v>
       </c>
       <c r="F1663" s="1" t="s">
+        <v>5474</v>
+      </c>
+      <c r="H1663" s="1" t="s">
         <v>5476</v>
       </c>
-      <c r="H1663" s="1" t="s">
-        <v>5478</v>
-      </c>
       <c r="I1663" s="1" t="s">
-        <v>5482</v>
+        <v>5480</v>
       </c>
       <c r="J1663" s="1" t="s">
-        <v>5448</v>
+        <v>5446</v>
       </c>
       <c r="K1663" s="1" t="s">
         <v>44</v>
@@ -68281,13 +68281,13 @@
     </row>
     <row r="1664" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1664" s="1" t="s">
-        <v>5410</v>
+        <v>5408</v>
       </c>
       <c r="B1664" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1664" s="1" t="s">
-        <v>5417</v>
+        <v>5415</v>
       </c>
       <c r="D1664" s="1" t="s">
         <v>2402</v>
@@ -68296,16 +68296,16 @@
         <v>2464</v>
       </c>
       <c r="F1664" s="1" t="s">
+        <v>5474</v>
+      </c>
+      <c r="H1664" s="1" t="s">
         <v>5476</v>
       </c>
-      <c r="H1664" s="1" t="s">
-        <v>5478</v>
-      </c>
       <c r="I1664" s="1" t="s">
-        <v>5483</v>
+        <v>5481</v>
       </c>
       <c r="J1664" s="1" t="s">
-        <v>5449</v>
+        <v>5447</v>
       </c>
       <c r="K1664" s="1" t="s">
         <v>154</v>
@@ -68313,13 +68313,13 @@
     </row>
     <row r="1665" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1665" s="1" t="s">
-        <v>5411</v>
+        <v>5409</v>
       </c>
       <c r="B1665" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1665" s="1" t="s">
-        <v>5419</v>
+        <v>5417</v>
       </c>
       <c r="D1665" s="1" t="s">
         <v>2402</v>
@@ -68328,16 +68328,16 @@
         <v>2464</v>
       </c>
       <c r="F1665" s="1" t="s">
+        <v>5474</v>
+      </c>
+      <c r="H1665" s="1" t="s">
         <v>5476</v>
       </c>
-      <c r="H1665" s="1" t="s">
-        <v>5478</v>
-      </c>
       <c r="I1665" s="1" t="s">
-        <v>5484</v>
+        <v>5482</v>
       </c>
       <c r="J1665" s="1" t="s">
-        <v>5450</v>
+        <v>5448</v>
       </c>
       <c r="K1665" s="1" t="s">
         <v>154</v>
@@ -68345,13 +68345,13 @@
     </row>
     <row r="1666" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1666" s="1" t="s">
-        <v>5412</v>
+        <v>5410</v>
       </c>
       <c r="B1666" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1666" s="1" t="s">
-        <v>5437</v>
+        <v>5435</v>
       </c>
       <c r="D1666" s="1" t="s">
         <v>2402</v>
@@ -68360,16 +68360,16 @@
         <v>2464</v>
       </c>
       <c r="F1666" s="1" t="s">
+        <v>5474</v>
+      </c>
+      <c r="H1666" s="1" t="s">
         <v>5476</v>
       </c>
-      <c r="H1666" s="1" t="s">
-        <v>5478</v>
-      </c>
       <c r="I1666" s="1" t="s">
-        <v>5485</v>
+        <v>5483</v>
       </c>
       <c r="J1666" s="1" t="s">
-        <v>5451</v>
+        <v>5449</v>
       </c>
       <c r="K1666" s="1" t="s">
         <v>154</v>
@@ -68377,13 +68377,13 @@
     </row>
     <row r="1667" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1667" s="1" t="s">
-        <v>5413</v>
+        <v>5411</v>
       </c>
       <c r="B1667" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1667" s="1" t="s">
-        <v>5418</v>
+        <v>5416</v>
       </c>
       <c r="D1667" s="1" t="s">
         <v>2402</v>
@@ -68392,16 +68392,16 @@
         <v>2464</v>
       </c>
       <c r="F1667" s="1" t="s">
+        <v>5474</v>
+      </c>
+      <c r="H1667" s="1" t="s">
         <v>5476</v>
       </c>
-      <c r="H1667" s="1" t="s">
-        <v>5478</v>
-      </c>
       <c r="I1667" s="1" t="s">
-        <v>5486</v>
+        <v>5484</v>
       </c>
       <c r="J1667" s="1" t="s">
-        <v>5452</v>
+        <v>5450</v>
       </c>
       <c r="K1667" s="1" t="s">
         <v>154</v>
@@ -68409,13 +68409,13 @@
     </row>
     <row r="1668" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1668" s="1" t="s">
-        <v>5489</v>
+        <v>5487</v>
       </c>
       <c r="B1668" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1668" s="1" t="s">
-        <v>5481</v>
+        <v>5479</v>
       </c>
       <c r="D1668" s="1" t="s">
         <v>2402</v>
@@ -68424,16 +68424,16 @@
         <v>2464</v>
       </c>
       <c r="F1668" s="1" t="s">
-        <v>5490</v>
+        <v>5488</v>
       </c>
       <c r="G1668" s="1" t="s">
-        <v>5488</v>
+        <v>5486</v>
       </c>
       <c r="I1668" s="1" t="s">
-        <v>5491</v>
+        <v>5489</v>
       </c>
       <c r="J1668" s="1" t="s">
-        <v>5453</v>
+        <v>5451</v>
       </c>
       <c r="K1668" s="1" t="s">
         <v>154</v>
@@ -68441,13 +68441,13 @@
     </row>
     <row r="1669" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1669" s="1" t="s">
-        <v>5414</v>
+        <v>5412</v>
       </c>
       <c r="B1669" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1669" s="1" t="s">
-        <v>5436</v>
+        <v>5434</v>
       </c>
       <c r="D1669" s="1" t="s">
         <v>2402</v>
@@ -68456,16 +68456,16 @@
         <v>2464</v>
       </c>
       <c r="F1669" s="1" t="s">
+        <v>5488</v>
+      </c>
+      <c r="H1669" s="1" t="s">
+        <v>5487</v>
+      </c>
+      <c r="I1669" s="1" t="s">
         <v>5490</v>
       </c>
-      <c r="H1669" s="1" t="s">
-        <v>5489</v>
-      </c>
-      <c r="I1669" s="1" t="s">
-        <v>5492</v>
-      </c>
       <c r="J1669" s="1" t="s">
-        <v>5454</v>
+        <v>5452</v>
       </c>
       <c r="K1669" s="1" t="s">
         <v>154</v>
@@ -68473,13 +68473,13 @@
     </row>
     <row r="1670" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1670" s="1" t="s">
-        <v>5415</v>
+        <v>5413</v>
       </c>
       <c r="B1670" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1670" s="1" t="s">
-        <v>5423</v>
+        <v>5421</v>
       </c>
       <c r="D1670" s="1" t="s">
         <v>2402</v>
@@ -68488,16 +68488,16 @@
         <v>2464</v>
       </c>
       <c r="F1670" s="1" t="s">
-        <v>5490</v>
+        <v>5488</v>
       </c>
       <c r="H1670" s="1" t="s">
-        <v>5489</v>
+        <v>5487</v>
       </c>
       <c r="I1670" s="1" t="s">
-        <v>5493</v>
+        <v>5491</v>
       </c>
       <c r="J1670" s="1" t="s">
-        <v>5455</v>
+        <v>5453</v>
       </c>
       <c r="K1670" s="1" t="s">
         <v>44</v>
@@ -68505,31 +68505,31 @@
     </row>
     <row r="1671" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1671" s="1" t="s">
-        <v>5416</v>
+        <v>5414</v>
       </c>
       <c r="B1671" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1671" s="1" t="s">
-        <v>5422</v>
+        <v>5420</v>
       </c>
       <c r="D1671" s="1" t="s">
-        <v>5508</v>
+        <v>5506</v>
       </c>
       <c r="E1671" s="1" t="s">
-        <v>5509</v>
+        <v>5507</v>
       </c>
       <c r="F1671" s="1" t="s">
-        <v>5490</v>
+        <v>5488</v>
       </c>
       <c r="H1671" s="1" t="s">
-        <v>5489</v>
+        <v>5487</v>
       </c>
       <c r="I1671" s="1" t="s">
-        <v>5494</v>
+        <v>5492</v>
       </c>
       <c r="J1671" s="1" t="s">
-        <v>5472</v>
+        <v>5470</v>
       </c>
       <c r="K1671" s="1" t="s">
         <v>154</v>
@@ -68537,13 +68537,13 @@
     </row>
     <row r="1672" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1672" s="1" t="s">
-        <v>5433</v>
+        <v>5431</v>
       </c>
       <c r="B1672" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1672" s="1" t="s">
-        <v>5421</v>
+        <v>5419</v>
       </c>
       <c r="D1672" s="1" t="s">
         <v>2402</v>
@@ -68552,16 +68552,16 @@
         <v>2464</v>
       </c>
       <c r="F1672" s="1" t="s">
-        <v>5490</v>
+        <v>5488</v>
       </c>
       <c r="H1672" s="1" t="s">
-        <v>5489</v>
+        <v>5487</v>
       </c>
       <c r="I1672" s="1" t="s">
-        <v>5495</v>
+        <v>5493</v>
       </c>
       <c r="J1672" s="1" t="s">
-        <v>5473</v>
+        <v>5471</v>
       </c>
       <c r="K1672" s="1" t="s">
         <v>154</v>
@@ -68569,13 +68569,13 @@
     </row>
     <row r="1673" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1673" s="1" t="s">
-        <v>5461</v>
+        <v>5459</v>
       </c>
       <c r="B1673" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1673" s="1" t="s">
-        <v>5424</v>
+        <v>5422</v>
       </c>
       <c r="D1673" s="1" t="s">
         <v>2402</v>
@@ -68584,16 +68584,16 @@
         <v>2464</v>
       </c>
       <c r="F1673" s="1" t="s">
-        <v>5490</v>
+        <v>5488</v>
       </c>
       <c r="H1673" s="1" t="s">
-        <v>5489</v>
+        <v>5487</v>
       </c>
       <c r="I1673" s="1" t="s">
-        <v>5496</v>
+        <v>5494</v>
       </c>
       <c r="J1673" s="1" t="s">
-        <v>5474</v>
+        <v>5472</v>
       </c>
       <c r="K1673" s="1" t="s">
         <v>154</v>
@@ -68601,13 +68601,13 @@
     </row>
     <row r="1674" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1674" s="1" t="s">
-        <v>5462</v>
+        <v>5460</v>
       </c>
       <c r="B1674" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1674" s="1" t="s">
-        <v>5498</v>
+        <v>5496</v>
       </c>
       <c r="D1674" s="1" t="s">
         <v>2402</v>
@@ -68616,16 +68616,16 @@
         <v>2464</v>
       </c>
       <c r="F1674" s="1" t="s">
-        <v>5490</v>
+        <v>5488</v>
       </c>
       <c r="H1674" s="1" t="s">
-        <v>5489</v>
+        <v>5487</v>
       </c>
       <c r="I1674" s="1" t="s">
-        <v>5503</v>
+        <v>5501</v>
       </c>
       <c r="J1674" s="1" t="s">
-        <v>5504</v>
+        <v>5502</v>
       </c>
       <c r="K1674" s="1" t="s">
         <v>154</v>
@@ -68633,13 +68633,13 @@
     </row>
     <row r="1675" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1675" s="1" t="s">
-        <v>5464</v>
+        <v>5462</v>
       </c>
       <c r="B1675" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1675" s="1" t="s">
-        <v>5497</v>
+        <v>5495</v>
       </c>
       <c r="D1675" s="1" t="s">
         <v>2402</v>
@@ -68648,16 +68648,16 @@
         <v>2464</v>
       </c>
       <c r="F1675" s="1" t="s">
-        <v>5490</v>
+        <v>5488</v>
       </c>
       <c r="H1675" s="1" t="s">
-        <v>5489</v>
+        <v>5487</v>
       </c>
       <c r="I1675" s="1" t="s">
-        <v>5501</v>
+        <v>5499</v>
       </c>
       <c r="J1675" s="1" t="s">
-        <v>5505</v>
+        <v>5503</v>
       </c>
       <c r="K1675" s="1" t="s">
         <v>154</v>
@@ -68665,13 +68665,13 @@
     </row>
     <row r="1676" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1676" s="1" t="s">
-        <v>5499</v>
+        <v>5497</v>
       </c>
       <c r="B1676" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1676" s="1" t="s">
-        <v>5500</v>
+        <v>5498</v>
       </c>
       <c r="D1676" s="1" t="s">
         <v>2402</v>
@@ -68680,16 +68680,16 @@
         <v>2464</v>
       </c>
       <c r="F1676" s="1" t="s">
-        <v>5490</v>
+        <v>5488</v>
       </c>
       <c r="H1676" s="1" t="s">
-        <v>5489</v>
+        <v>5487</v>
       </c>
       <c r="I1676" s="1" t="s">
-        <v>5502</v>
+        <v>5500</v>
       </c>
       <c r="J1676" s="1" t="s">
-        <v>5506</v>
+        <v>5504</v>
       </c>
       <c r="K1676" s="1" t="s">
         <v>154</v>
@@ -68697,31 +68697,31 @@
     </row>
     <row r="1677" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1677" s="1" t="s">
-        <v>5518</v>
+        <v>5516</v>
       </c>
       <c r="B1677" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1677" s="1" t="s">
-        <v>5530</v>
+        <v>5528</v>
       </c>
       <c r="D1677" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="E1677" s="1" t="s">
+        <v>5509</v>
+      </c>
+      <c r="F1677" s="1" t="s">
+        <v>5510</v>
+      </c>
+      <c r="G1677" s="1" t="s">
         <v>5511</v>
       </c>
-      <c r="F1677" s="1" t="s">
+      <c r="I1677" s="1" t="s">
+        <v>5520</v>
+      </c>
+      <c r="J1677" s="1" t="s">
         <v>5512</v>
-      </c>
-      <c r="G1677" s="1" t="s">
-        <v>5513</v>
-      </c>
-      <c r="I1677" s="1" t="s">
-        <v>5522</v>
-      </c>
-      <c r="J1677" s="1" t="s">
-        <v>5514</v>
       </c>
       <c r="K1677" s="1" t="s">
         <v>154</v>
@@ -68729,31 +68729,31 @@
     </row>
     <row r="1678" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1678" s="1" t="s">
-        <v>5515</v>
+        <v>5513</v>
       </c>
       <c r="B1678" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1678" s="1" t="s">
-        <v>5531</v>
+        <v>5529</v>
       </c>
       <c r="D1678" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="E1678" s="1" t="s">
-        <v>5511</v>
+        <v>5509</v>
       </c>
       <c r="F1678" s="1" t="s">
-        <v>5512</v>
+        <v>5510</v>
       </c>
       <c r="H1678" s="1" t="s">
-        <v>5510</v>
+        <v>5508</v>
       </c>
       <c r="I1678" s="1" t="s">
-        <v>5523</v>
+        <v>5521</v>
       </c>
       <c r="J1678" s="1" t="s">
-        <v>5519</v>
+        <v>5517</v>
       </c>
       <c r="K1678" s="1" t="s">
         <v>154</v>
@@ -68761,31 +68761,31 @@
     </row>
     <row r="1679" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1679" s="1" t="s">
-        <v>5516</v>
+        <v>5514</v>
       </c>
       <c r="B1679" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1679" s="1" t="s">
-        <v>5532</v>
+        <v>5530</v>
       </c>
       <c r="D1679" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="E1679" s="1" t="s">
-        <v>5511</v>
+        <v>5509</v>
       </c>
       <c r="F1679" s="1" t="s">
-        <v>5512</v>
+        <v>5510</v>
       </c>
       <c r="H1679" s="1" t="s">
-        <v>5510</v>
+        <v>5508</v>
       </c>
       <c r="I1679" s="1" t="s">
-        <v>5525</v>
+        <v>5523</v>
       </c>
       <c r="J1679" s="1" t="s">
-        <v>5520</v>
+        <v>5518</v>
       </c>
       <c r="K1679" s="1" t="s">
         <v>154</v>
@@ -68793,31 +68793,31 @@
     </row>
     <row r="1680" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1680" s="1" t="s">
-        <v>5517</v>
+        <v>5515</v>
       </c>
       <c r="B1680" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1680" s="1" t="s">
-        <v>5533</v>
+        <v>5531</v>
       </c>
       <c r="D1680" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="E1680" s="1" t="s">
-        <v>5511</v>
+        <v>5509</v>
       </c>
       <c r="F1680" s="1" t="s">
-        <v>5512</v>
+        <v>5510</v>
       </c>
       <c r="H1680" s="1" t="s">
-        <v>5510</v>
+        <v>5508</v>
       </c>
       <c r="I1680" s="1" t="s">
-        <v>5524</v>
+        <v>5522</v>
       </c>
       <c r="J1680" s="1" t="s">
-        <v>5521</v>
+        <v>5519</v>
       </c>
       <c r="K1680" s="1" t="s">
         <v>154</v>
@@ -68825,31 +68825,31 @@
     </row>
     <row r="1681" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1681" s="1" t="s">
-        <v>5526</v>
+        <v>5524</v>
       </c>
       <c r="B1681" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1681" s="1" t="s">
-        <v>5534</v>
+        <v>5532</v>
       </c>
       <c r="D1681" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="E1681" s="1" t="s">
-        <v>5511</v>
+        <v>5509</v>
       </c>
       <c r="F1681" s="1" t="s">
-        <v>5512</v>
+        <v>5510</v>
       </c>
       <c r="H1681" s="1" t="s">
-        <v>5510</v>
+        <v>5508</v>
       </c>
       <c r="I1681" s="1" t="s">
-        <v>5545</v>
+        <v>5543</v>
       </c>
       <c r="J1681" s="1" t="s">
-        <v>5546</v>
+        <v>5544</v>
       </c>
       <c r="K1681" s="1" t="s">
         <v>154</v>
@@ -68857,31 +68857,31 @@
     </row>
     <row r="1682" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1682" s="1" t="s">
-        <v>5527</v>
+        <v>5525</v>
       </c>
       <c r="B1682" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1682" s="1" t="s">
-        <v>5535</v>
+        <v>5533</v>
       </c>
       <c r="D1682" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="E1682" s="1" t="s">
-        <v>5511</v>
+        <v>5509</v>
       </c>
       <c r="F1682" s="1" t="s">
-        <v>5512</v>
+        <v>5510</v>
       </c>
       <c r="H1682" s="1" t="s">
-        <v>5510</v>
+        <v>5508</v>
       </c>
       <c r="I1682" s="1" t="s">
-        <v>5553</v>
+        <v>5551</v>
       </c>
       <c r="J1682" s="1" t="s">
-        <v>5547</v>
+        <v>5545</v>
       </c>
       <c r="K1682" s="1" t="s">
         <v>154</v>
@@ -68889,31 +68889,31 @@
     </row>
     <row r="1683" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1683" s="1" t="s">
-        <v>5528</v>
+        <v>5526</v>
       </c>
       <c r="B1683" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1683" s="1" t="s">
-        <v>5536</v>
+        <v>5534</v>
       </c>
       <c r="D1683" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="E1683" s="1" t="s">
-        <v>5511</v>
+        <v>5509</v>
       </c>
       <c r="F1683" s="1" t="s">
-        <v>5512</v>
+        <v>5510</v>
       </c>
       <c r="H1683" s="1" t="s">
-        <v>5510</v>
+        <v>5508</v>
       </c>
       <c r="I1683" s="1" t="s">
-        <v>5554</v>
+        <v>5552</v>
       </c>
       <c r="J1683" s="1" t="s">
-        <v>5548</v>
+        <v>5546</v>
       </c>
       <c r="K1683" s="1" t="s">
         <v>154</v>
@@ -68921,31 +68921,31 @@
     </row>
     <row r="1684" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1684" s="1" t="s">
-        <v>5529</v>
+        <v>5527</v>
       </c>
       <c r="B1684" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1684" s="1" t="s">
-        <v>5537</v>
+        <v>5535</v>
       </c>
       <c r="D1684" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="E1684" s="1" t="s">
-        <v>5511</v>
+        <v>5509</v>
       </c>
       <c r="F1684" s="1" t="s">
-        <v>5512</v>
+        <v>5510</v>
       </c>
       <c r="H1684" s="1" t="s">
-        <v>5510</v>
+        <v>5508</v>
       </c>
       <c r="I1684" s="1" t="s">
-        <v>5555</v>
+        <v>5553</v>
       </c>
       <c r="J1684" s="1" t="s">
-        <v>5549</v>
+        <v>5547</v>
       </c>
       <c r="K1684" s="1" t="s">
         <v>154</v>
@@ -68953,31 +68953,31 @@
     </row>
     <row r="1685" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1685" s="1" t="s">
-        <v>5544</v>
+        <v>5542</v>
       </c>
       <c r="B1685" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1685" s="1" t="s">
-        <v>5539</v>
+        <v>5537</v>
       </c>
       <c r="D1685" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="E1685" s="1" t="s">
+        <v>5509</v>
+      </c>
+      <c r="F1685" s="1" t="s">
+        <v>5541</v>
+      </c>
+      <c r="G1685" s="1" t="s">
         <v>5511</v>
       </c>
-      <c r="F1685" s="1" t="s">
-        <v>5543</v>
-      </c>
-      <c r="G1685" s="1" t="s">
-        <v>5513</v>
-      </c>
       <c r="I1685" s="1" t="s">
-        <v>5556</v>
+        <v>5554</v>
       </c>
       <c r="J1685" s="1" t="s">
-        <v>5550</v>
+        <v>5548</v>
       </c>
       <c r="K1685" s="1" t="s">
         <v>154</v>
@@ -68985,31 +68985,31 @@
     </row>
     <row r="1686" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1686" s="1" t="s">
-        <v>5538</v>
+        <v>5536</v>
       </c>
       <c r="B1686" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1686" s="1" t="s">
-        <v>5541</v>
+        <v>5539</v>
       </c>
       <c r="D1686" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="E1686" s="1" t="s">
-        <v>5511</v>
+        <v>5509</v>
       </c>
       <c r="F1686" s="1" t="s">
-        <v>5543</v>
+        <v>5541</v>
       </c>
       <c r="H1686" s="1" t="s">
-        <v>5544</v>
+        <v>5542</v>
       </c>
       <c r="I1686" s="1" t="s">
-        <v>5557</v>
+        <v>5555</v>
       </c>
       <c r="J1686" s="1" t="s">
-        <v>5551</v>
+        <v>5549</v>
       </c>
       <c r="K1686" s="1" t="s">
         <v>154</v>
@@ -69017,31 +69017,31 @@
     </row>
     <row r="1687" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1687" s="1" t="s">
+        <v>5538</v>
+      </c>
+      <c r="B1687" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1687" s="1" t="s">
         <v>5540</v>
-      </c>
-      <c r="B1687" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1687" s="1" t="s">
-        <v>5542</v>
       </c>
       <c r="D1687" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="E1687" s="1" t="s">
-        <v>5511</v>
+        <v>5509</v>
       </c>
       <c r="F1687" s="1" t="s">
-        <v>5543</v>
+        <v>5541</v>
       </c>
       <c r="H1687" s="1" t="s">
-        <v>5544</v>
+        <v>5542</v>
       </c>
       <c r="I1687" s="1" t="s">
-        <v>5558</v>
+        <v>5556</v>
       </c>
       <c r="J1687" s="1" t="s">
-        <v>5552</v>
+        <v>5550</v>
       </c>
       <c r="K1687" s="1" t="s">
         <v>154</v>
@@ -69049,28 +69049,28 @@
     </row>
     <row r="1688" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1688" s="1" t="s">
-        <v>5658</v>
+        <v>5656</v>
       </c>
       <c r="B1688" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1688" s="1" t="s">
-        <v>5718</v>
+        <v>5716</v>
       </c>
       <c r="D1688" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1688" s="1" t="s">
+        <v>5609</v>
+      </c>
+      <c r="G1688" s="1" t="s">
+        <v>5610</v>
+      </c>
+      <c r="I1688" s="1" t="s">
+        <v>5655</v>
+      </c>
+      <c r="J1688" s="1" t="s">
         <v>5611</v>
-      </c>
-      <c r="G1688" s="1" t="s">
-        <v>5612</v>
-      </c>
-      <c r="I1688" s="1" t="s">
-        <v>5657</v>
-      </c>
-      <c r="J1688" s="1" t="s">
-        <v>5613</v>
       </c>
       <c r="K1688" s="1" t="s">
         <v>44</v>
@@ -69078,28 +69078,28 @@
     </row>
     <row r="1689" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1689" s="1" t="s">
-        <v>5559</v>
+        <v>5557</v>
       </c>
       <c r="B1689" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1689" s="1" t="s">
-        <v>5719</v>
+        <v>5717</v>
       </c>
       <c r="D1689" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1689" s="1" t="s">
-        <v>5611</v>
+        <v>5609</v>
       </c>
       <c r="H1689" s="1" t="s">
-        <v>5658</v>
+        <v>5656</v>
       </c>
       <c r="I1689" s="1" t="s">
-        <v>5659</v>
+        <v>5657</v>
       </c>
       <c r="J1689" s="1" t="s">
-        <v>5614</v>
+        <v>5612</v>
       </c>
       <c r="K1689" s="1" t="s">
         <v>44</v>
@@ -69107,28 +69107,28 @@
     </row>
     <row r="1690" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1690" s="1" t="s">
-        <v>5560</v>
+        <v>5558</v>
       </c>
       <c r="B1690" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1690" s="1" t="s">
-        <v>5720</v>
+        <v>5718</v>
       </c>
       <c r="D1690" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1690" s="1" t="s">
-        <v>5611</v>
+        <v>5609</v>
       </c>
       <c r="H1690" s="1" t="s">
+        <v>5656</v>
+      </c>
+      <c r="I1690" s="1" t="s">
         <v>5658</v>
       </c>
-      <c r="I1690" s="1" t="s">
-        <v>5660</v>
-      </c>
       <c r="J1690" s="1" t="s">
-        <v>5615</v>
+        <v>5613</v>
       </c>
       <c r="K1690" s="1" t="s">
         <v>44</v>
@@ -69136,28 +69136,28 @@
     </row>
     <row r="1691" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1691" s="1" t="s">
-        <v>5663</v>
+        <v>5661</v>
       </c>
       <c r="B1691" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1691" s="1" t="s">
-        <v>5575</v>
+        <v>5573</v>
       </c>
       <c r="D1691" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1691" s="1" t="s">
-        <v>5661</v>
+        <v>5659</v>
       </c>
       <c r="G1691" s="1" t="s">
-        <v>5612</v>
+        <v>5610</v>
       </c>
       <c r="I1691" s="1" t="s">
-        <v>5662</v>
+        <v>5660</v>
       </c>
       <c r="J1691" s="1" t="s">
-        <v>5616</v>
+        <v>5614</v>
       </c>
       <c r="K1691" s="1" t="s">
         <v>44</v>
@@ -69165,28 +69165,28 @@
     </row>
     <row r="1692" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1692" s="1" t="s">
-        <v>5561</v>
+        <v>5559</v>
       </c>
       <c r="B1692" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1692" s="1" t="s">
-        <v>5576</v>
+        <v>5574</v>
       </c>
       <c r="D1692" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1692" s="1" t="s">
+        <v>5659</v>
+      </c>
+      <c r="H1692" s="1" t="s">
         <v>5661</v>
       </c>
-      <c r="H1692" s="1" t="s">
-        <v>5663</v>
-      </c>
       <c r="I1692" s="1" t="s">
-        <v>5664</v>
+        <v>5662</v>
       </c>
       <c r="J1692" s="1" t="s">
-        <v>5617</v>
+        <v>5615</v>
       </c>
       <c r="K1692" s="1" t="s">
         <v>44</v>
@@ -69194,28 +69194,28 @@
     </row>
     <row r="1693" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1693" s="1" t="s">
-        <v>5562</v>
+        <v>5560</v>
       </c>
       <c r="B1693" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1693" s="1" t="s">
-        <v>5577</v>
+        <v>5575</v>
       </c>
       <c r="D1693" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1693" s="1" t="s">
+        <v>5659</v>
+      </c>
+      <c r="H1693" s="1" t="s">
         <v>5661</v>
       </c>
-      <c r="H1693" s="1" t="s">
+      <c r="I1693" s="1" t="s">
         <v>5663</v>
       </c>
-      <c r="I1693" s="1" t="s">
-        <v>5665</v>
-      </c>
       <c r="J1693" s="1" t="s">
-        <v>5618</v>
+        <v>5616</v>
       </c>
       <c r="K1693" s="1" t="s">
         <v>44</v>
@@ -69223,28 +69223,28 @@
     </row>
     <row r="1694" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1694" s="1" t="s">
-        <v>5667</v>
+        <v>5665</v>
       </c>
       <c r="B1694" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1694" s="1" t="s">
-        <v>5578</v>
+        <v>5576</v>
       </c>
       <c r="D1694" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1694" s="1" t="s">
-        <v>5666</v>
+        <v>5664</v>
       </c>
       <c r="G1694" s="1" t="s">
-        <v>5612</v>
+        <v>5610</v>
       </c>
       <c r="I1694" s="1" t="s">
-        <v>5950</v>
+        <v>5948</v>
       </c>
       <c r="J1694" s="1" t="s">
-        <v>5619</v>
+        <v>5617</v>
       </c>
       <c r="K1694" s="1" t="s">
         <v>44</v>
@@ -69252,28 +69252,28 @@
     </row>
     <row r="1695" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1695" s="1" t="s">
-        <v>5563</v>
+        <v>5561</v>
       </c>
       <c r="B1695" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1695" s="1" t="s">
-        <v>5579</v>
+        <v>5577</v>
       </c>
       <c r="D1695" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1695" s="1" t="s">
-        <v>5666</v>
+        <v>5664</v>
       </c>
       <c r="H1695" s="1" t="s">
-        <v>5667</v>
+        <v>5665</v>
       </c>
       <c r="I1695" s="1" t="s">
-        <v>5868</v>
+        <v>5866</v>
       </c>
       <c r="J1695" s="1" t="s">
-        <v>5620</v>
+        <v>5618</v>
       </c>
       <c r="K1695" s="1" t="s">
         <v>44</v>
@@ -69281,28 +69281,28 @@
     </row>
     <row r="1696" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1696" s="1" t="s">
-        <v>5564</v>
+        <v>5562</v>
       </c>
       <c r="B1696" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1696" s="1" t="s">
-        <v>5580</v>
+        <v>5578</v>
       </c>
       <c r="D1696" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1696" s="1" t="s">
+        <v>5664</v>
+      </c>
+      <c r="H1696" s="1" t="s">
+        <v>5665</v>
+      </c>
+      <c r="I1696" s="1" t="s">
         <v>5666</v>
       </c>
-      <c r="H1696" s="1" t="s">
-        <v>5667</v>
-      </c>
-      <c r="I1696" s="1" t="s">
-        <v>5668</v>
-      </c>
       <c r="J1696" s="1" t="s">
-        <v>5621</v>
+        <v>5619</v>
       </c>
       <c r="K1696" s="1" t="s">
         <v>44</v>
@@ -69310,28 +69310,28 @@
     </row>
     <row r="1697" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1697" s="1" t="s">
-        <v>5670</v>
+        <v>5668</v>
       </c>
       <c r="B1697" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1697" s="1" t="s">
-        <v>5581</v>
+        <v>5579</v>
       </c>
       <c r="D1697" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1697" s="1" t="s">
-        <v>5669</v>
+        <v>5667</v>
       </c>
       <c r="G1697" s="1" t="s">
-        <v>5612</v>
+        <v>5610</v>
       </c>
       <c r="I1697" s="1" t="s">
-        <v>5686</v>
+        <v>5684</v>
       </c>
       <c r="J1697" s="1" t="s">
-        <v>5622</v>
+        <v>5620</v>
       </c>
       <c r="K1697" s="1" t="s">
         <v>44</v>
@@ -69339,28 +69339,28 @@
     </row>
     <row r="1698" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1698" s="1" t="s">
-        <v>5565</v>
+        <v>5563</v>
       </c>
       <c r="B1698" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1698" s="1" t="s">
-        <v>5582</v>
+        <v>5580</v>
       </c>
       <c r="D1698" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1698" s="1" t="s">
-        <v>5669</v>
+        <v>5667</v>
       </c>
       <c r="H1698" s="1" t="s">
-        <v>5670</v>
+        <v>5668</v>
       </c>
       <c r="I1698" s="1" t="s">
-        <v>5687</v>
+        <v>5685</v>
       </c>
       <c r="J1698" s="1" t="s">
-        <v>5623</v>
+        <v>5621</v>
       </c>
       <c r="K1698" s="1" t="s">
         <v>44</v>
@@ -69368,28 +69368,28 @@
     </row>
     <row r="1699" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1699" s="1" t="s">
-        <v>5566</v>
+        <v>5564</v>
       </c>
       <c r="B1699" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1699" s="1" t="s">
-        <v>5583</v>
+        <v>5581</v>
       </c>
       <c r="D1699" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1699" s="1" t="s">
-        <v>5669</v>
+        <v>5667</v>
       </c>
       <c r="H1699" s="1" t="s">
-        <v>5670</v>
+        <v>5668</v>
       </c>
       <c r="I1699" s="1" t="s">
-        <v>5688</v>
+        <v>5686</v>
       </c>
       <c r="J1699" s="1" t="s">
-        <v>5624</v>
+        <v>5622</v>
       </c>
       <c r="K1699" s="1" t="s">
         <v>44</v>
@@ -69397,28 +69397,28 @@
     </row>
     <row r="1700" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1700" s="1" t="s">
-        <v>5690</v>
+        <v>5688</v>
       </c>
       <c r="B1700" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1700" s="1" t="s">
-        <v>5584</v>
+        <v>5582</v>
       </c>
       <c r="D1700" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1700" s="1" t="s">
+        <v>5687</v>
+      </c>
+      <c r="G1700" s="1" t="s">
+        <v>5610</v>
+      </c>
+      <c r="I1700" s="1" t="s">
         <v>5689</v>
       </c>
-      <c r="G1700" s="1" t="s">
-        <v>5612</v>
-      </c>
-      <c r="I1700" s="1" t="s">
-        <v>5691</v>
-      </c>
       <c r="J1700" s="1" t="s">
-        <v>5625</v>
+        <v>5623</v>
       </c>
       <c r="K1700" s="1" t="s">
         <v>44</v>
@@ -69426,28 +69426,28 @@
     </row>
     <row r="1701" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1701" s="1" t="s">
-        <v>5567</v>
+        <v>5565</v>
       </c>
       <c r="B1701" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1701" s="1" t="s">
-        <v>5585</v>
+        <v>5583</v>
       </c>
       <c r="D1701" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1701" s="1" t="s">
-        <v>5689</v>
+        <v>5687</v>
       </c>
       <c r="H1701" s="1" t="s">
+        <v>5688</v>
+      </c>
+      <c r="I1701" s="1" t="s">
         <v>5690</v>
       </c>
-      <c r="I1701" s="1" t="s">
-        <v>5692</v>
-      </c>
       <c r="J1701" s="1" t="s">
-        <v>5626</v>
+        <v>5624</v>
       </c>
       <c r="K1701" s="1" t="s">
         <v>44</v>
@@ -69455,28 +69455,28 @@
     </row>
     <row r="1702" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1702" s="1" t="s">
-        <v>5568</v>
+        <v>5566</v>
       </c>
       <c r="B1702" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1702" s="1" t="s">
-        <v>5586</v>
+        <v>5584</v>
       </c>
       <c r="D1702" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1702" s="1" t="s">
-        <v>5689</v>
+        <v>5687</v>
       </c>
       <c r="H1702" s="1" t="s">
-        <v>5690</v>
+        <v>5688</v>
       </c>
       <c r="I1702" s="1" t="s">
-        <v>5693</v>
+        <v>5691</v>
       </c>
       <c r="J1702" s="1" t="s">
-        <v>5627</v>
+        <v>5625</v>
       </c>
       <c r="K1702" s="1" t="s">
         <v>44</v>
@@ -69484,28 +69484,28 @@
     </row>
     <row r="1703" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1703" s="1" t="s">
-        <v>5569</v>
+        <v>5567</v>
       </c>
       <c r="B1703" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1703" s="1" t="s">
-        <v>5587</v>
+        <v>5585</v>
       </c>
       <c r="D1703" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1703" s="1" t="s">
+        <v>5692</v>
+      </c>
+      <c r="G1703" s="1" t="s">
+        <v>5610</v>
+      </c>
+      <c r="I1703" s="1" t="s">
         <v>5694</v>
       </c>
-      <c r="G1703" s="1" t="s">
-        <v>5612</v>
-      </c>
-      <c r="I1703" s="1" t="s">
-        <v>5696</v>
-      </c>
       <c r="J1703" s="1" t="s">
-        <v>5628</v>
+        <v>5626</v>
       </c>
       <c r="K1703" s="1" t="s">
         <v>44</v>
@@ -69513,28 +69513,28 @@
     </row>
     <row r="1704" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1704" s="1" t="s">
-        <v>5695</v>
+        <v>5693</v>
       </c>
       <c r="B1704" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1704" s="1" t="s">
-        <v>5588</v>
+        <v>5586</v>
       </c>
       <c r="D1704" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1704" s="1" t="s">
-        <v>5694</v>
+        <v>5692</v>
       </c>
       <c r="H1704" s="1" t="s">
-        <v>5834</v>
+        <v>5832</v>
       </c>
       <c r="I1704" s="1" t="s">
-        <v>5697</v>
+        <v>5695</v>
       </c>
       <c r="J1704" s="1" t="s">
-        <v>5629</v>
+        <v>5627</v>
       </c>
       <c r="K1704" s="1" t="s">
         <v>44</v>
@@ -69542,28 +69542,28 @@
     </row>
     <row r="1705" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1705" s="1" t="s">
-        <v>5570</v>
+        <v>5568</v>
       </c>
       <c r="B1705" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1705" s="1" t="s">
-        <v>5589</v>
+        <v>5587</v>
       </c>
       <c r="D1705" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1705" s="1" t="s">
-        <v>5694</v>
+        <v>5692</v>
       </c>
       <c r="H1705" s="1" t="s">
-        <v>5834</v>
+        <v>5832</v>
       </c>
       <c r="I1705" s="1" t="s">
-        <v>5698</v>
+        <v>5696</v>
       </c>
       <c r="J1705" s="1" t="s">
-        <v>5630</v>
+        <v>5628</v>
       </c>
       <c r="K1705" s="1" t="s">
         <v>44</v>
@@ -69571,28 +69571,28 @@
     </row>
     <row r="1706" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1706" s="1" t="s">
-        <v>5700</v>
+        <v>5698</v>
       </c>
       <c r="B1706" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1706" s="1" t="s">
-        <v>5590</v>
+        <v>5588</v>
       </c>
       <c r="D1706" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1706" s="1" t="s">
-        <v>5699</v>
+        <v>5697</v>
       </c>
       <c r="G1706" s="1" t="s">
-        <v>5612</v>
+        <v>5610</v>
       </c>
       <c r="I1706" s="1" t="s">
-        <v>5704</v>
+        <v>5702</v>
       </c>
       <c r="J1706" s="1" t="s">
-        <v>5631</v>
+        <v>5629</v>
       </c>
       <c r="K1706" s="1" t="s">
         <v>44</v>
@@ -69600,28 +69600,28 @@
     </row>
     <row r="1707" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1707" s="1" t="s">
-        <v>5571</v>
+        <v>5569</v>
       </c>
       <c r="B1707" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1707" s="1" t="s">
-        <v>5591</v>
+        <v>5589</v>
       </c>
       <c r="D1707" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1707" s="1" t="s">
-        <v>5699</v>
+        <v>5697</v>
       </c>
       <c r="H1707" s="1" t="s">
-        <v>5700</v>
+        <v>5698</v>
       </c>
       <c r="I1707" s="1" t="s">
-        <v>5705</v>
+        <v>5703</v>
       </c>
       <c r="J1707" s="1" t="s">
-        <v>5632</v>
+        <v>5630</v>
       </c>
       <c r="K1707" s="1" t="s">
         <v>44</v>
@@ -69629,28 +69629,28 @@
     </row>
     <row r="1708" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1708" s="1" t="s">
-        <v>5572</v>
+        <v>5570</v>
       </c>
       <c r="B1708" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1708" s="1" t="s">
-        <v>5592</v>
+        <v>5590</v>
       </c>
       <c r="D1708" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1708" s="1" t="s">
-        <v>5699</v>
+        <v>5697</v>
       </c>
       <c r="H1708" s="1" t="s">
-        <v>5700</v>
+        <v>5698</v>
       </c>
       <c r="I1708" s="1" t="s">
-        <v>5706</v>
+        <v>5704</v>
       </c>
       <c r="J1708" s="1" t="s">
-        <v>5633</v>
+        <v>5631</v>
       </c>
       <c r="K1708" s="1" t="s">
         <v>44</v>
@@ -69658,28 +69658,28 @@
     </row>
     <row r="1709" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1709" s="1" t="s">
-        <v>5702</v>
+        <v>5700</v>
       </c>
       <c r="B1709" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1709" s="1" t="s">
-        <v>5677</v>
+        <v>5675</v>
       </c>
       <c r="D1709" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1709" s="1" t="s">
+        <v>5699</v>
+      </c>
+      <c r="G1709" s="1" t="s">
+        <v>5610</v>
+      </c>
+      <c r="I1709" s="1" t="s">
         <v>5701</v>
       </c>
-      <c r="G1709" s="1" t="s">
-        <v>5612</v>
-      </c>
-      <c r="I1709" s="1" t="s">
-        <v>5703</v>
-      </c>
       <c r="J1709" s="1" t="s">
-        <v>5634</v>
+        <v>5632</v>
       </c>
       <c r="K1709" s="1" t="s">
         <v>44</v>
@@ -69687,28 +69687,28 @@
     </row>
     <row r="1710" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1710" s="1" t="s">
-        <v>5573</v>
+        <v>5571</v>
       </c>
       <c r="B1710" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1710" s="1" t="s">
-        <v>5678</v>
+        <v>5676</v>
       </c>
       <c r="D1710" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1710" s="1" t="s">
-        <v>5701</v>
+        <v>5699</v>
       </c>
       <c r="H1710" s="1" t="s">
-        <v>5702</v>
+        <v>5700</v>
       </c>
       <c r="I1710" s="1" t="s">
-        <v>5707</v>
+        <v>5705</v>
       </c>
       <c r="J1710" s="1" t="s">
-        <v>5635</v>
+        <v>5633</v>
       </c>
       <c r="K1710" s="1" t="s">
         <v>44</v>
@@ -69716,28 +69716,28 @@
     </row>
     <row r="1711" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1711" s="1" t="s">
-        <v>5574</v>
+        <v>5572</v>
       </c>
       <c r="B1711" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1711" s="1" t="s">
-        <v>5679</v>
+        <v>5677</v>
       </c>
       <c r="D1711" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1711" s="1" t="s">
-        <v>5701</v>
+        <v>5699</v>
       </c>
       <c r="H1711" s="1" t="s">
-        <v>5702</v>
+        <v>5700</v>
       </c>
       <c r="I1711" s="1" t="s">
-        <v>5708</v>
+        <v>5706</v>
       </c>
       <c r="J1711" s="1" t="s">
-        <v>5636</v>
+        <v>5634</v>
       </c>
       <c r="K1711" s="1" t="s">
         <v>44</v>
@@ -69745,28 +69745,28 @@
     </row>
     <row r="1712" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1712" s="1" t="s">
-        <v>5727</v>
+        <v>5725</v>
       </c>
       <c r="B1712" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1712" s="1" t="s">
-        <v>5593</v>
+        <v>5591</v>
       </c>
       <c r="D1712" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1712" s="1" t="s">
-        <v>5721</v>
+        <v>5719</v>
       </c>
       <c r="G1712" s="1" t="s">
-        <v>5612</v>
+        <v>5610</v>
       </c>
       <c r="I1712" s="1" t="s">
-        <v>5730</v>
+        <v>5728</v>
       </c>
       <c r="J1712" s="1" t="s">
-        <v>5637</v>
+        <v>5635</v>
       </c>
       <c r="K1712" s="1" t="s">
         <v>154</v>
@@ -69774,28 +69774,28 @@
     </row>
     <row r="1713" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1713" s="1" t="s">
-        <v>5594</v>
+        <v>5592</v>
       </c>
       <c r="B1713" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1713" s="1" t="s">
-        <v>5724</v>
+        <v>5722</v>
       </c>
       <c r="D1713" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1713" s="1" t="s">
-        <v>5721</v>
+        <v>5719</v>
       </c>
       <c r="H1713" s="1" t="s">
-        <v>5727</v>
+        <v>5725</v>
       </c>
       <c r="I1713" s="1" t="s">
-        <v>5731</v>
+        <v>5729</v>
       </c>
       <c r="J1713" s="1" t="s">
-        <v>5638</v>
+        <v>5636</v>
       </c>
       <c r="K1713" s="1" t="s">
         <v>154</v>
@@ -69803,28 +69803,28 @@
     </row>
     <row r="1714" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1714" s="1" t="s">
-        <v>5595</v>
+        <v>5593</v>
       </c>
       <c r="B1714" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1714" s="1" t="s">
-        <v>5725</v>
+        <v>5723</v>
       </c>
       <c r="D1714" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1714" s="1" t="s">
-        <v>5721</v>
+        <v>5719</v>
       </c>
       <c r="H1714" s="1" t="s">
-        <v>5727</v>
+        <v>5725</v>
       </c>
       <c r="I1714" s="1" t="s">
-        <v>5732</v>
+        <v>5730</v>
       </c>
       <c r="J1714" s="1" t="s">
-        <v>5639</v>
+        <v>5637</v>
       </c>
       <c r="K1714" s="1" t="s">
         <v>154</v>
@@ -69832,28 +69832,28 @@
     </row>
     <row r="1715" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1715" s="1" t="s">
-        <v>5728</v>
+        <v>5726</v>
       </c>
       <c r="B1715" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1715" s="1" t="s">
-        <v>5715</v>
+        <v>5713</v>
       </c>
       <c r="D1715" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1715" s="1" t="s">
-        <v>5726</v>
+        <v>5724</v>
       </c>
       <c r="G1715" s="1" t="s">
-        <v>5612</v>
+        <v>5610</v>
       </c>
       <c r="I1715" s="1" t="s">
-        <v>5735</v>
+        <v>5733</v>
       </c>
       <c r="J1715" s="1" t="s">
-        <v>5640</v>
+        <v>5638</v>
       </c>
       <c r="K1715" s="1" t="s">
         <v>44</v>
@@ -69861,28 +69861,28 @@
     </row>
     <row r="1716" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1716" s="1" t="s">
-        <v>5596</v>
+        <v>5594</v>
       </c>
       <c r="B1716" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1716" s="1" t="s">
-        <v>5716</v>
+        <v>5714</v>
       </c>
       <c r="D1716" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1716" s="1" t="s">
-        <v>5726</v>
+        <v>5724</v>
       </c>
       <c r="H1716" s="1" t="s">
-        <v>5729</v>
+        <v>5727</v>
       </c>
       <c r="I1716" s="1" t="s">
-        <v>5736</v>
+        <v>5734</v>
       </c>
       <c r="J1716" s="1" t="s">
-        <v>5641</v>
+        <v>5639</v>
       </c>
       <c r="K1716" s="1" t="s">
         <v>44</v>
@@ -69890,28 +69890,28 @@
     </row>
     <row r="1717" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1717" s="1" t="s">
-        <v>5597</v>
+        <v>5595</v>
       </c>
       <c r="B1717" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1717" s="1" t="s">
-        <v>5717</v>
+        <v>5715</v>
       </c>
       <c r="D1717" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1717" s="1" t="s">
-        <v>5726</v>
+        <v>5724</v>
       </c>
       <c r="H1717" s="1" t="s">
-        <v>5729</v>
+        <v>5727</v>
       </c>
       <c r="I1717" s="1" t="s">
-        <v>5737</v>
+        <v>5735</v>
       </c>
       <c r="J1717" s="1" t="s">
-        <v>5642</v>
+        <v>5640</v>
       </c>
       <c r="K1717" s="1" t="s">
         <v>44</v>
@@ -69919,28 +69919,28 @@
     </row>
     <row r="1718" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1718" s="1" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="B1718" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1718" s="1" t="s">
-        <v>5738</v>
+        <v>5736</v>
       </c>
       <c r="D1718" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1718" s="1" t="s">
-        <v>5775</v>
+        <v>5773</v>
       </c>
       <c r="G1718" s="1" t="s">
-        <v>5797</v>
+        <v>5795</v>
       </c>
       <c r="I1718" s="1" t="s">
-        <v>5798</v>
+        <v>5796</v>
       </c>
       <c r="J1718" s="1" t="s">
-        <v>5643</v>
+        <v>5641</v>
       </c>
       <c r="K1718" s="1" t="s">
         <v>44</v>
@@ -69948,28 +69948,28 @@
     </row>
     <row r="1719" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1719" s="1" t="s">
-        <v>5598</v>
+        <v>5596</v>
       </c>
       <c r="B1719" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1719" s="1" t="s">
-        <v>5739</v>
+        <v>5737</v>
       </c>
       <c r="D1719" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1719" s="1" t="s">
-        <v>5775</v>
+        <v>5773</v>
       </c>
       <c r="H1719" s="1" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="I1719" s="1" t="s">
-        <v>5799</v>
+        <v>5797</v>
       </c>
       <c r="J1719" s="1" t="s">
-        <v>5644</v>
+        <v>5642</v>
       </c>
       <c r="K1719" s="1" t="s">
         <v>44</v>
@@ -69977,28 +69977,28 @@
     </row>
     <row r="1720" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1720" s="1" t="s">
-        <v>5599</v>
+        <v>5597</v>
       </c>
       <c r="B1720" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1720" s="1" t="s">
-        <v>5740</v>
+        <v>5738</v>
       </c>
       <c r="D1720" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1720" s="1" t="s">
-        <v>5775</v>
+        <v>5773</v>
       </c>
       <c r="H1720" s="1" t="s">
-        <v>5785</v>
+        <v>5783</v>
       </c>
       <c r="I1720" s="1" t="s">
-        <v>5800</v>
+        <v>5798</v>
       </c>
       <c r="J1720" s="1" t="s">
-        <v>5645</v>
+        <v>5643</v>
       </c>
       <c r="K1720" s="1" t="s">
         <v>44</v>
@@ -70006,28 +70006,28 @@
     </row>
     <row r="1721" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1721" s="1" t="s">
-        <v>5600</v>
+        <v>5598</v>
       </c>
       <c r="B1721" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1721" s="1" t="s">
-        <v>5741</v>
+        <v>5739</v>
       </c>
       <c r="D1721" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1721" s="1" t="s">
-        <v>5776</v>
+        <v>5774</v>
       </c>
       <c r="G1721" s="1" t="s">
-        <v>5797</v>
+        <v>5795</v>
       </c>
       <c r="I1721" s="1" t="s">
-        <v>5801</v>
+        <v>5799</v>
       </c>
       <c r="J1721" s="1" t="s">
-        <v>5646</v>
+        <v>5644</v>
       </c>
       <c r="K1721" s="1" t="s">
         <v>44</v>
@@ -70035,28 +70035,28 @@
     </row>
     <row r="1722" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1722" s="1" t="s">
-        <v>5601</v>
+        <v>5599</v>
       </c>
       <c r="B1722" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1722" s="1" t="s">
-        <v>5742</v>
+        <v>5740</v>
       </c>
       <c r="D1722" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1722" s="1" t="s">
-        <v>5776</v>
+        <v>5774</v>
       </c>
       <c r="H1722" s="1" t="s">
-        <v>5786</v>
+        <v>5784</v>
       </c>
       <c r="I1722" s="1" t="s">
-        <v>5802</v>
+        <v>5800</v>
       </c>
       <c r="J1722" s="1" t="s">
-        <v>5647</v>
+        <v>5645</v>
       </c>
       <c r="K1722" s="1" t="s">
         <v>44</v>
@@ -70064,28 +70064,28 @@
     </row>
     <row r="1723" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1723" s="1" t="s">
-        <v>5602</v>
+        <v>5600</v>
       </c>
       <c r="B1723" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1723" s="1" t="s">
-        <v>5743</v>
+        <v>5741</v>
       </c>
       <c r="D1723" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1723" s="1" t="s">
-        <v>5776</v>
+        <v>5774</v>
       </c>
       <c r="H1723" s="1" t="s">
-        <v>5786</v>
+        <v>5784</v>
       </c>
       <c r="I1723" s="1" t="s">
-        <v>5803</v>
+        <v>5801</v>
       </c>
       <c r="J1723" s="1" t="s">
-        <v>5648</v>
+        <v>5646</v>
       </c>
       <c r="K1723" s="1" t="s">
         <v>44</v>
@@ -70093,28 +70093,28 @@
     </row>
     <row r="1724" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1724" s="1" t="s">
-        <v>5603</v>
+        <v>5601</v>
       </c>
       <c r="B1724" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1724" s="1" t="s">
-        <v>5744</v>
+        <v>5742</v>
       </c>
       <c r="D1724" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1724" s="1" t="s">
-        <v>5777</v>
+        <v>5775</v>
       </c>
       <c r="G1724" s="1" t="s">
-        <v>5797</v>
+        <v>5795</v>
       </c>
       <c r="I1724" s="1" t="s">
-        <v>5951</v>
+        <v>5949</v>
       </c>
       <c r="J1724" s="1" t="s">
-        <v>5649</v>
+        <v>5647</v>
       </c>
       <c r="K1724" s="1" t="s">
         <v>44</v>
@@ -70122,28 +70122,28 @@
     </row>
     <row r="1725" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1725" s="1" t="s">
-        <v>5604</v>
+        <v>5602</v>
       </c>
       <c r="B1725" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1725" s="1" t="s">
-        <v>5745</v>
+        <v>5743</v>
       </c>
       <c r="D1725" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1725" s="1" t="s">
-        <v>5777</v>
+        <v>5775</v>
       </c>
       <c r="H1725" s="1" t="s">
-        <v>5787</v>
+        <v>5785</v>
       </c>
       <c r="I1725" s="1" t="s">
-        <v>5869</v>
+        <v>5867</v>
       </c>
       <c r="J1725" s="1" t="s">
-        <v>5650</v>
+        <v>5648</v>
       </c>
       <c r="K1725" s="1" t="s">
         <v>44</v>
@@ -70151,28 +70151,28 @@
     </row>
     <row r="1726" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1726" s="1" t="s">
-        <v>5605</v>
+        <v>5603</v>
       </c>
       <c r="B1726" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1726" s="1" t="s">
-        <v>5746</v>
+        <v>5744</v>
       </c>
       <c r="D1726" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1726" s="1" t="s">
-        <v>5777</v>
+        <v>5775</v>
       </c>
       <c r="H1726" s="1" t="s">
-        <v>5787</v>
+        <v>5785</v>
       </c>
       <c r="I1726" s="1" t="s">
-        <v>5804</v>
+        <v>5802</v>
       </c>
       <c r="J1726" s="1" t="s">
-        <v>5651</v>
+        <v>5649</v>
       </c>
       <c r="K1726" s="1" t="s">
         <v>44</v>
@@ -70180,28 +70180,28 @@
     </row>
     <row r="1727" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1727" s="1" t="s">
-        <v>5606</v>
+        <v>5604</v>
       </c>
       <c r="B1727" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1727" s="1" t="s">
-        <v>5747</v>
+        <v>5745</v>
       </c>
       <c r="D1727" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1727" s="1" t="s">
-        <v>5778</v>
+        <v>5776</v>
       </c>
       <c r="G1727" s="1" t="s">
-        <v>5797</v>
+        <v>5795</v>
       </c>
       <c r="I1727" s="1" t="s">
-        <v>5805</v>
+        <v>5803</v>
       </c>
       <c r="J1727" s="1" t="s">
-        <v>5652</v>
+        <v>5650</v>
       </c>
       <c r="K1727" s="1" t="s">
         <v>44</v>
@@ -70209,28 +70209,28 @@
     </row>
     <row r="1728" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1728" s="1" t="s">
-        <v>5607</v>
+        <v>5605</v>
       </c>
       <c r="B1728" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1728" s="1" t="s">
-        <v>5748</v>
+        <v>5746</v>
       </c>
       <c r="D1728" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1728" s="1" t="s">
-        <v>5778</v>
+        <v>5776</v>
       </c>
       <c r="H1728" s="1" t="s">
-        <v>5788</v>
+        <v>5786</v>
       </c>
       <c r="I1728" s="1" t="s">
-        <v>5806</v>
+        <v>5804</v>
       </c>
       <c r="J1728" s="1" t="s">
-        <v>5653</v>
+        <v>5651</v>
       </c>
       <c r="K1728" s="1" t="s">
         <v>44</v>
@@ -70238,28 +70238,28 @@
     </row>
     <row r="1729" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1729" s="1" t="s">
-        <v>5608</v>
+        <v>5606</v>
       </c>
       <c r="B1729" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1729" s="1" t="s">
-        <v>5749</v>
+        <v>5747</v>
       </c>
       <c r="D1729" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1729" s="1" t="s">
-        <v>5778</v>
+        <v>5776</v>
       </c>
       <c r="H1729" s="1" t="s">
-        <v>5788</v>
+        <v>5786</v>
       </c>
       <c r="I1729" s="1" t="s">
-        <v>5807</v>
+        <v>5805</v>
       </c>
       <c r="J1729" s="1" t="s">
-        <v>5654</v>
+        <v>5652</v>
       </c>
       <c r="K1729" s="1" t="s">
         <v>44</v>
@@ -70267,28 +70267,28 @@
     </row>
     <row r="1730" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1730" s="1" t="s">
-        <v>5609</v>
+        <v>5607</v>
       </c>
       <c r="B1730" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1730" s="1" t="s">
-        <v>5750</v>
+        <v>5748</v>
       </c>
       <c r="D1730" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1730" s="1" t="s">
-        <v>5779</v>
+        <v>5777</v>
       </c>
       <c r="G1730" s="1" t="s">
-        <v>5797</v>
+        <v>5795</v>
       </c>
       <c r="I1730" s="1" t="s">
-        <v>5808</v>
+        <v>5806</v>
       </c>
       <c r="J1730" s="1" t="s">
-        <v>5655</v>
+        <v>5653</v>
       </c>
       <c r="K1730" s="1" t="s">
         <v>44</v>
@@ -70296,28 +70296,28 @@
     </row>
     <row r="1731" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1731" s="1" t="s">
-        <v>5610</v>
+        <v>5608</v>
       </c>
       <c r="B1731" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1731" s="1" t="s">
-        <v>5751</v>
+        <v>5749</v>
       </c>
       <c r="D1731" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1731" s="1" t="s">
-        <v>5779</v>
+        <v>5777</v>
       </c>
       <c r="H1731" s="1" t="s">
-        <v>5789</v>
+        <v>5787</v>
       </c>
       <c r="I1731" s="1" t="s">
-        <v>5809</v>
+        <v>5807</v>
       </c>
       <c r="J1731" s="1" t="s">
-        <v>5656</v>
+        <v>5654</v>
       </c>
       <c r="K1731" s="1" t="s">
         <v>44</v>
@@ -70325,28 +70325,28 @@
     </row>
     <row r="1732" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1732" s="1" t="s">
-        <v>5671</v>
+        <v>5669</v>
       </c>
       <c r="B1732" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1732" s="1" t="s">
-        <v>5752</v>
+        <v>5750</v>
       </c>
       <c r="D1732" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1732" s="1" t="s">
-        <v>5779</v>
+        <v>5777</v>
       </c>
       <c r="H1732" s="1" t="s">
-        <v>5789</v>
+        <v>5787</v>
       </c>
       <c r="I1732" s="1" t="s">
-        <v>5810</v>
+        <v>5808</v>
       </c>
       <c r="J1732" s="1" t="s">
-        <v>5680</v>
+        <v>5678</v>
       </c>
       <c r="K1732" s="1" t="s">
         <v>44</v>
@@ -70354,28 +70354,28 @@
     </row>
     <row r="1733" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1733" s="1" t="s">
-        <v>5672</v>
+        <v>5670</v>
       </c>
       <c r="B1733" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1733" s="1" t="s">
-        <v>5753</v>
+        <v>5751</v>
       </c>
       <c r="D1733" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1733" s="1" t="s">
-        <v>5780</v>
+        <v>5778</v>
       </c>
       <c r="G1733" s="1" t="s">
-        <v>5797</v>
+        <v>5795</v>
       </c>
       <c r="I1733" s="1" t="s">
-        <v>5811</v>
+        <v>5809</v>
       </c>
       <c r="J1733" s="1" t="s">
-        <v>5681</v>
+        <v>5679</v>
       </c>
       <c r="K1733" s="1" t="s">
         <v>44</v>
@@ -70383,28 +70383,28 @@
     </row>
     <row r="1734" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1734" s="1" t="s">
-        <v>5673</v>
+        <v>5671</v>
       </c>
       <c r="B1734" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1734" s="1" t="s">
-        <v>5754</v>
+        <v>5752</v>
       </c>
       <c r="D1734" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1734" s="1" t="s">
-        <v>5780</v>
+        <v>5778</v>
       </c>
       <c r="H1734" s="1" t="s">
-        <v>5790</v>
+        <v>5788</v>
       </c>
       <c r="I1734" s="1" t="s">
-        <v>5812</v>
+        <v>5810</v>
       </c>
       <c r="J1734" s="1" t="s">
-        <v>5682</v>
+        <v>5680</v>
       </c>
       <c r="K1734" s="1" t="s">
         <v>44</v>
@@ -70412,28 +70412,28 @@
     </row>
     <row r="1735" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1735" s="1" t="s">
-        <v>5674</v>
+        <v>5672</v>
       </c>
       <c r="B1735" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1735" s="1" t="s">
-        <v>5755</v>
+        <v>5753</v>
       </c>
       <c r="D1735" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1735" s="1" t="s">
-        <v>5780</v>
+        <v>5778</v>
       </c>
       <c r="H1735" s="1" t="s">
-        <v>5790</v>
+        <v>5788</v>
       </c>
       <c r="I1735" s="1" t="s">
-        <v>5813</v>
+        <v>5811</v>
       </c>
       <c r="J1735" s="1" t="s">
-        <v>5683</v>
+        <v>5681</v>
       </c>
       <c r="K1735" s="1" t="s">
         <v>44</v>
@@ -70441,28 +70441,28 @@
     </row>
     <row r="1736" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1736" s="1" t="s">
-        <v>5675</v>
+        <v>5673</v>
       </c>
       <c r="B1736" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1736" s="1" t="s">
-        <v>5756</v>
+        <v>5754</v>
       </c>
       <c r="D1736" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1736" s="1" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="G1736" s="1" t="s">
-        <v>5797</v>
+        <v>5795</v>
       </c>
       <c r="I1736" s="1" t="s">
-        <v>5814</v>
+        <v>5812</v>
       </c>
       <c r="J1736" s="1" t="s">
-        <v>5684</v>
+        <v>5682</v>
       </c>
       <c r="K1736" s="1" t="s">
         <v>44</v>
@@ -70470,28 +70470,28 @@
     </row>
     <row r="1737" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1737" s="1" t="s">
-        <v>5676</v>
+        <v>5674</v>
       </c>
       <c r="B1737" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1737" s="1" t="s">
-        <v>5757</v>
+        <v>5755</v>
       </c>
       <c r="D1737" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1737" s="1" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H1737" s="1" t="s">
-        <v>5791</v>
+        <v>5789</v>
       </c>
       <c r="I1737" s="1" t="s">
-        <v>5815</v>
+        <v>5813</v>
       </c>
       <c r="J1737" s="1" t="s">
-        <v>5685</v>
+        <v>5683</v>
       </c>
       <c r="K1737" s="1" t="s">
         <v>44</v>
@@ -70499,28 +70499,28 @@
     </row>
     <row r="1738" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1738" s="1" t="s">
-        <v>5709</v>
+        <v>5707</v>
       </c>
       <c r="B1738" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1738" s="1" t="s">
-        <v>5763</v>
+        <v>5761</v>
       </c>
       <c r="D1738" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1738" s="1" t="s">
-        <v>5781</v>
+        <v>5779</v>
       </c>
       <c r="H1738" s="1" t="s">
-        <v>5791</v>
+        <v>5789</v>
       </c>
       <c r="I1738" s="1" t="s">
-        <v>5816</v>
+        <v>5814</v>
       </c>
       <c r="J1738" s="1" t="s">
-        <v>5712</v>
+        <v>5710</v>
       </c>
       <c r="K1738" s="1" t="s">
         <v>44</v>
@@ -70528,28 +70528,28 @@
     </row>
     <row r="1739" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1739" s="1" t="s">
-        <v>5710</v>
+        <v>5708</v>
       </c>
       <c r="B1739" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1739" s="1" t="s">
-        <v>5764</v>
+        <v>5762</v>
       </c>
       <c r="D1739" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1739" s="1" t="s">
-        <v>5782</v>
+        <v>5780</v>
       </c>
       <c r="G1739" s="1" t="s">
-        <v>5797</v>
+        <v>5795</v>
       </c>
       <c r="I1739" s="1" t="s">
-        <v>5817</v>
+        <v>5815</v>
       </c>
       <c r="J1739" s="1" t="s">
-        <v>5713</v>
+        <v>5711</v>
       </c>
       <c r="K1739" s="1" t="s">
         <v>44</v>
@@ -70557,28 +70557,28 @@
     </row>
     <row r="1740" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1740" s="1" t="s">
-        <v>5711</v>
+        <v>5709</v>
       </c>
       <c r="B1740" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1740" s="1" t="s">
-        <v>5765</v>
+        <v>5763</v>
       </c>
       <c r="D1740" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1740" s="1" t="s">
-        <v>5782</v>
+        <v>5780</v>
       </c>
       <c r="H1740" s="1" t="s">
-        <v>5792</v>
+        <v>5790</v>
       </c>
       <c r="I1740" s="1" t="s">
-        <v>5818</v>
+        <v>5816</v>
       </c>
       <c r="J1740" s="1" t="s">
-        <v>5714</v>
+        <v>5712</v>
       </c>
       <c r="K1740" s="1" t="s">
         <v>44</v>
@@ -70586,28 +70586,28 @@
     </row>
     <row r="1741" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1741" s="1" t="s">
-        <v>5722</v>
+        <v>5720</v>
       </c>
       <c r="B1741" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1741" s="1" t="s">
-        <v>5766</v>
+        <v>5764</v>
       </c>
       <c r="D1741" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1741" s="1" t="s">
-        <v>5782</v>
+        <v>5780</v>
       </c>
       <c r="H1741" s="1" t="s">
-        <v>5792</v>
+        <v>5790</v>
       </c>
       <c r="I1741" s="1" t="s">
-        <v>5819</v>
+        <v>5817</v>
       </c>
       <c r="J1741" s="1" t="s">
-        <v>5733</v>
+        <v>5731</v>
       </c>
       <c r="K1741" s="1" t="s">
         <v>44</v>
@@ -70615,28 +70615,28 @@
     </row>
     <row r="1742" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1742" s="1" t="s">
-        <v>5723</v>
+        <v>5721</v>
       </c>
       <c r="B1742" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1742" s="1" t="s">
-        <v>5767</v>
+        <v>5765</v>
       </c>
       <c r="D1742" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1742" s="1" t="s">
-        <v>5783</v>
+        <v>5781</v>
       </c>
       <c r="G1742" s="1" t="s">
-        <v>5797</v>
+        <v>5795</v>
       </c>
       <c r="I1742" s="1" t="s">
-        <v>5820</v>
+        <v>5818</v>
       </c>
       <c r="J1742" s="1" t="s">
-        <v>5734</v>
+        <v>5732</v>
       </c>
       <c r="K1742" s="1" t="s">
         <v>44</v>
@@ -70644,28 +70644,28 @@
     </row>
     <row r="1743" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1743" s="1" t="s">
-        <v>5758</v>
+        <v>5756</v>
       </c>
       <c r="B1743" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1743" s="1" t="s">
-        <v>5768</v>
+        <v>5766</v>
       </c>
       <c r="D1743" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1743" s="1" t="s">
-        <v>5783</v>
+        <v>5781</v>
       </c>
       <c r="H1743" s="1" t="s">
-        <v>5793</v>
+        <v>5791</v>
       </c>
       <c r="I1743" s="1" t="s">
-        <v>5821</v>
+        <v>5819</v>
       </c>
       <c r="J1743" s="1" t="s">
-        <v>5770</v>
+        <v>5768</v>
       </c>
       <c r="K1743" s="1" t="s">
         <v>44</v>
@@ -70673,28 +70673,28 @@
     </row>
     <row r="1744" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1744" s="1" t="s">
-        <v>5759</v>
+        <v>5757</v>
       </c>
       <c r="B1744" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1744" s="1" t="s">
-        <v>5769</v>
+        <v>5767</v>
       </c>
       <c r="D1744" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1744" s="1" t="s">
-        <v>5783</v>
+        <v>5781</v>
       </c>
       <c r="H1744" s="1" t="s">
-        <v>5793</v>
+        <v>5791</v>
       </c>
       <c r="I1744" s="1" t="s">
-        <v>5822</v>
+        <v>5820</v>
       </c>
       <c r="J1744" s="1" t="s">
-        <v>5771</v>
+        <v>5769</v>
       </c>
       <c r="K1744" s="1" t="s">
         <v>44</v>
@@ -70702,28 +70702,28 @@
     </row>
     <row r="1745" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1745" s="1" t="s">
-        <v>5760</v>
+        <v>5758</v>
       </c>
       <c r="B1745" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1745" s="1" t="s">
-        <v>5794</v>
+        <v>5792</v>
       </c>
       <c r="D1745" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1745" s="1" t="s">
-        <v>5783</v>
+        <v>5781</v>
       </c>
       <c r="H1745" s="1" t="s">
-        <v>5793</v>
+        <v>5791</v>
       </c>
       <c r="I1745" s="1" t="s">
-        <v>5823</v>
+        <v>5821</v>
       </c>
       <c r="J1745" s="1" t="s">
-        <v>5772</v>
+        <v>5770</v>
       </c>
       <c r="K1745" s="1" t="s">
         <v>44</v>
@@ -70731,28 +70731,28 @@
     </row>
     <row r="1746" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1746" s="1" t="s">
-        <v>5761</v>
+        <v>5759</v>
       </c>
       <c r="B1746" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1746" s="1" t="s">
-        <v>5795</v>
+        <v>5793</v>
       </c>
       <c r="D1746" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1746" s="1" t="s">
-        <v>5783</v>
+        <v>5781</v>
       </c>
       <c r="H1746" s="1" t="s">
-        <v>5793</v>
+        <v>5791</v>
       </c>
       <c r="I1746" s="1" t="s">
-        <v>5824</v>
+        <v>5822</v>
       </c>
       <c r="J1746" s="1" t="s">
-        <v>5773</v>
+        <v>5771</v>
       </c>
       <c r="K1746" s="1" t="s">
         <v>154</v>
@@ -70760,28 +70760,28 @@
     </row>
     <row r="1747" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1747" s="1" t="s">
-        <v>5762</v>
+        <v>5760</v>
       </c>
       <c r="B1747" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1747" s="1" t="s">
-        <v>5796</v>
+        <v>5794</v>
       </c>
       <c r="D1747" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1747" s="1" t="s">
-        <v>5783</v>
+        <v>5781</v>
       </c>
       <c r="H1747" s="1" t="s">
-        <v>5793</v>
+        <v>5791</v>
       </c>
       <c r="I1747" s="1" t="s">
-        <v>5825</v>
+        <v>5823</v>
       </c>
       <c r="J1747" s="1" t="s">
-        <v>5774</v>
+        <v>5772</v>
       </c>
       <c r="K1747" s="1" t="s">
         <v>154</v>
@@ -70789,28 +70789,28 @@
     </row>
     <row r="1748" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1748" s="1" t="s">
-        <v>5826</v>
+        <v>5824</v>
       </c>
       <c r="B1748" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1748" s="1" t="s">
-        <v>5827</v>
+        <v>5825</v>
       </c>
       <c r="D1748" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1748" s="1" t="s">
-        <v>5784</v>
+        <v>5782</v>
       </c>
       <c r="G1748" s="1" t="s">
-        <v>5797</v>
+        <v>5795</v>
       </c>
       <c r="I1748" s="1" t="s">
-        <v>5828</v>
+        <v>5826</v>
       </c>
       <c r="J1748" s="1" t="s">
-        <v>5829</v>
+        <v>5827</v>
       </c>
       <c r="K1748" s="1" t="s">
         <v>154</v>
@@ -70818,28 +70818,28 @@
     </row>
     <row r="1749" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1749" s="1" t="s">
-        <v>5830</v>
+        <v>5828</v>
       </c>
       <c r="B1749" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1749" s="1" t="s">
-        <v>5831</v>
+        <v>5829</v>
       </c>
       <c r="D1749" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1749" s="1" t="s">
-        <v>5783</v>
+        <v>5781</v>
       </c>
       <c r="H1749" s="1" t="s">
-        <v>5793</v>
+        <v>5791</v>
       </c>
       <c r="I1749" s="1" t="s">
-        <v>5833</v>
+        <v>5831</v>
       </c>
       <c r="J1749" s="1" t="s">
-        <v>5832</v>
+        <v>5830</v>
       </c>
       <c r="K1749" s="1" t="s">
         <v>44</v>
@@ -70847,31 +70847,31 @@
     </row>
     <row r="1750" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1750" s="1" t="s">
-        <v>5845</v>
+        <v>5843</v>
       </c>
       <c r="B1750" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1750" s="1" t="s">
-        <v>5836</v>
+        <v>5834</v>
       </c>
       <c r="D1750" s="1" t="s">
-        <v>5840</v>
+        <v>5838</v>
       </c>
       <c r="E1750" s="1" t="s">
-        <v>5841</v>
+        <v>5839</v>
       </c>
       <c r="F1750" s="1" t="s">
-        <v>5844</v>
+        <v>5842</v>
       </c>
       <c r="G1750" s="1" t="s">
         <v>2127</v>
       </c>
       <c r="I1750" s="1" t="s">
-        <v>5846</v>
+        <v>5844</v>
       </c>
       <c r="J1750" s="1" t="s">
-        <v>5847</v>
+        <v>5845</v>
       </c>
       <c r="K1750" s="1" t="s">
         <v>44</v>
@@ -70879,31 +70879,31 @@
     </row>
     <row r="1751" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1751" s="1" t="s">
+        <v>5833</v>
+      </c>
+      <c r="B1751" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1751" s="1" t="s">
         <v>5835</v>
       </c>
-      <c r="B1751" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1751" s="1" t="s">
-        <v>5837</v>
-      </c>
       <c r="D1751" s="1" t="s">
+        <v>5838</v>
+      </c>
+      <c r="E1751" s="1" t="s">
         <v>5840</v>
       </c>
-      <c r="E1751" s="1" t="s">
+      <c r="F1751" s="1" t="s">
         <v>5842</v>
       </c>
-      <c r="F1751" s="1" t="s">
-        <v>5844</v>
-      </c>
       <c r="H1751" s="1" t="s">
-        <v>5845</v>
+        <v>5843</v>
       </c>
       <c r="I1751" s="1" t="s">
-        <v>5848</v>
+        <v>5846</v>
       </c>
       <c r="J1751" s="1" t="s">
-        <v>5849</v>
+        <v>5847</v>
       </c>
       <c r="K1751" s="1" t="s">
         <v>44</v>
@@ -70911,31 +70911,31 @@
     </row>
     <row r="1752" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1752" s="1" t="s">
+        <v>5836</v>
+      </c>
+      <c r="B1752" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1752" s="1" t="s">
+        <v>5837</v>
+      </c>
+      <c r="D1752" s="1" t="s">
         <v>5838</v>
       </c>
-      <c r="B1752" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1752" s="1" t="s">
-        <v>5839</v>
-      </c>
-      <c r="D1752" s="1" t="s">
-        <v>5840</v>
-      </c>
       <c r="E1752" s="1" t="s">
+        <v>5841</v>
+      </c>
+      <c r="F1752" s="1" t="s">
+        <v>5842</v>
+      </c>
+      <c r="H1752" s="1" t="s">
         <v>5843</v>
       </c>
-      <c r="F1752" s="1" t="s">
-        <v>5844</v>
-      </c>
-      <c r="H1752" s="1" t="s">
-        <v>5845</v>
-      </c>
       <c r="I1752" s="1" t="s">
-        <v>5851</v>
+        <v>5849</v>
       </c>
       <c r="J1752" s="1" t="s">
-        <v>5850</v>
+        <v>5848</v>
       </c>
       <c r="K1752" s="1" t="s">
         <v>44</v>
@@ -70943,13 +70943,13 @@
     </row>
     <row r="1753" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1753" s="1" t="s">
-        <v>5859</v>
+        <v>5857</v>
       </c>
       <c r="B1753" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1753" s="1" t="s">
-        <v>5854</v>
+        <v>5852</v>
       </c>
       <c r="D1753" s="1" t="s">
         <v>2194</v>
@@ -70958,16 +70958,16 @@
         <v>2196</v>
       </c>
       <c r="F1753" s="1" t="s">
-        <v>5861</v>
+        <v>5859</v>
       </c>
       <c r="G1753" s="1" t="s">
-        <v>5858</v>
+        <v>5856</v>
       </c>
       <c r="I1753" s="1" t="s">
+        <v>5860</v>
+      </c>
+      <c r="J1753" s="1" t="s">
         <v>5862</v>
-      </c>
-      <c r="J1753" s="1" t="s">
-        <v>5864</v>
       </c>
       <c r="K1753" s="1" t="s">
         <v>44</v>
@@ -70975,13 +70975,13 @@
     </row>
     <row r="1754" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1754" s="1" t="s">
-        <v>5852</v>
+        <v>5850</v>
       </c>
       <c r="B1754" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1754" s="1" t="s">
-        <v>5855</v>
+        <v>5853</v>
       </c>
       <c r="D1754" s="1" t="s">
         <v>2194</v>
@@ -70990,16 +70990,16 @@
         <v>2286</v>
       </c>
       <c r="F1754" s="1" t="s">
+        <v>5855</v>
+      </c>
+      <c r="H1754" s="1" t="s">
         <v>5857</v>
       </c>
-      <c r="H1754" s="1" t="s">
-        <v>5859</v>
-      </c>
       <c r="I1754" s="1" t="s">
+        <v>5861</v>
+      </c>
+      <c r="J1754" s="1" t="s">
         <v>5863</v>
-      </c>
-      <c r="J1754" s="1" t="s">
-        <v>5865</v>
       </c>
       <c r="K1754" s="1" t="s">
         <v>44</v>
@@ -71007,13 +71007,13 @@
     </row>
     <row r="1755" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1755" s="1" t="s">
-        <v>5853</v>
+        <v>5851</v>
       </c>
       <c r="B1755" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1755" s="1" t="s">
-        <v>5856</v>
+        <v>5854</v>
       </c>
       <c r="D1755" s="1" t="s">
         <v>2194</v>
@@ -71022,16 +71022,16 @@
         <v>2316</v>
       </c>
       <c r="F1755" s="1" t="s">
-        <v>5861</v>
+        <v>5859</v>
       </c>
       <c r="H1755" s="1" t="s">
-        <v>5859</v>
+        <v>5857</v>
       </c>
       <c r="I1755" s="1" t="s">
-        <v>5867</v>
+        <v>5865</v>
       </c>
       <c r="J1755" s="1" t="s">
-        <v>5866</v>
+        <v>5864</v>
       </c>
       <c r="K1755" s="1" t="s">
         <v>44</v>
@@ -71039,28 +71039,28 @@
     </row>
     <row r="1756" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1756" s="1" t="s">
-        <v>5870</v>
+        <v>5868</v>
       </c>
       <c r="B1756" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1756" s="1" t="s">
-        <v>5871</v>
+        <v>5869</v>
       </c>
       <c r="D1756" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1756" s="1" t="s">
-        <v>5783</v>
+        <v>5781</v>
       </c>
       <c r="H1756" s="1" t="s">
-        <v>5793</v>
+        <v>5791</v>
       </c>
       <c r="I1756" s="1" t="s">
-        <v>5872</v>
+        <v>5870</v>
       </c>
       <c r="J1756" s="1" t="s">
-        <v>5873</v>
+        <v>5871</v>
       </c>
       <c r="K1756" s="1" t="s">
         <v>154</v>
@@ -71068,22 +71068,22 @@
     </row>
     <row r="1757" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1757" s="1" t="s">
-        <v>5880</v>
+        <v>5878</v>
       </c>
       <c r="B1757" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1757" s="1" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D1757" s="7" t="s">
+        <v>5901</v>
+      </c>
+      <c r="E1757" s="1" t="s">
         <v>5902</v>
       </c>
-      <c r="D1757" s="7" t="s">
+      <c r="I1757" s="8" t="s">
         <v>5903</v>
-      </c>
-      <c r="E1757" s="1" t="s">
-        <v>5904</v>
-      </c>
-      <c r="I1757" s="8" t="s">
-        <v>5905</v>
       </c>
       <c r="K1757" s="1" t="s">
         <v>9</v>
@@ -71091,22 +71091,22 @@
     </row>
     <row r="1758" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1758" s="1" t="s">
-        <v>5881</v>
+        <v>5879</v>
       </c>
       <c r="B1758" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1758" s="1" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D1758" s="7" t="s">
+        <v>5901</v>
+      </c>
+      <c r="E1758" s="7" t="s">
         <v>5902</v>
       </c>
-      <c r="D1758" s="7" t="s">
-        <v>5903</v>
-      </c>
-      <c r="E1758" s="7" t="s">
+      <c r="I1758" s="8" t="s">
         <v>5904</v>
-      </c>
-      <c r="I1758" s="8" t="s">
-        <v>5906</v>
       </c>
       <c r="K1758" s="8" t="s">
         <v>9</v>
@@ -71114,22 +71114,22 @@
     </row>
     <row r="1759" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1759" s="1" t="s">
-        <v>5882</v>
+        <v>5880</v>
       </c>
       <c r="B1759" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1759" s="1" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D1759" s="7" t="s">
+        <v>5901</v>
+      </c>
+      <c r="E1759" s="7" t="s">
         <v>5902</v>
       </c>
-      <c r="D1759" s="7" t="s">
-        <v>5903</v>
-      </c>
-      <c r="E1759" s="7" t="s">
-        <v>5904</v>
-      </c>
       <c r="I1759" s="8" t="s">
-        <v>5907</v>
+        <v>5905</v>
       </c>
       <c r="K1759" s="8" t="s">
         <v>9</v>
@@ -71137,22 +71137,22 @@
     </row>
     <row r="1760" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1760" s="1" t="s">
-        <v>5883</v>
+        <v>5881</v>
       </c>
       <c r="B1760" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1760" s="1" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D1760" s="7" t="s">
+        <v>5901</v>
+      </c>
+      <c r="E1760" s="7" t="s">
         <v>5902</v>
       </c>
-      <c r="D1760" s="7" t="s">
-        <v>5903</v>
-      </c>
-      <c r="E1760" s="7" t="s">
-        <v>5904</v>
-      </c>
       <c r="I1760" s="8" t="s">
-        <v>5908</v>
+        <v>5906</v>
       </c>
       <c r="K1760" s="8" t="s">
         <v>9</v>
@@ -71160,22 +71160,22 @@
     </row>
     <row r="1761" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1761" s="1" t="s">
-        <v>5884</v>
+        <v>5882</v>
       </c>
       <c r="B1761" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1761" s="1" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D1761" s="7" t="s">
+        <v>5901</v>
+      </c>
+      <c r="E1761" s="7" t="s">
         <v>5902</v>
       </c>
-      <c r="D1761" s="7" t="s">
-        <v>5903</v>
-      </c>
-      <c r="E1761" s="7" t="s">
-        <v>5904</v>
-      </c>
       <c r="I1761" s="8" t="s">
-        <v>5909</v>
+        <v>5907</v>
       </c>
       <c r="K1761" s="8" t="s">
         <v>9</v>
@@ -71183,22 +71183,22 @@
     </row>
     <row r="1762" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1762" s="1" t="s">
-        <v>5885</v>
+        <v>5883</v>
       </c>
       <c r="B1762" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1762" s="1" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D1762" s="7" t="s">
+        <v>5901</v>
+      </c>
+      <c r="E1762" s="7" t="s">
         <v>5902</v>
       </c>
-      <c r="D1762" s="7" t="s">
-        <v>5903</v>
-      </c>
-      <c r="E1762" s="7" t="s">
-        <v>5904</v>
-      </c>
       <c r="I1762" s="8" t="s">
-        <v>5910</v>
+        <v>5908</v>
       </c>
       <c r="K1762" s="8" t="s">
         <v>9</v>
@@ -71206,22 +71206,22 @@
     </row>
     <row r="1763" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1763" s="1" t="s">
-        <v>5886</v>
+        <v>5884</v>
       </c>
       <c r="B1763" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1763" s="1" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D1763" s="7" t="s">
+        <v>5901</v>
+      </c>
+      <c r="E1763" s="7" t="s">
         <v>5902</v>
       </c>
-      <c r="D1763" s="7" t="s">
-        <v>5903</v>
-      </c>
-      <c r="E1763" s="7" t="s">
-        <v>5904</v>
-      </c>
       <c r="I1763" s="8" t="s">
-        <v>5911</v>
+        <v>5909</v>
       </c>
       <c r="K1763" s="8" t="s">
         <v>9</v>
@@ -71229,22 +71229,22 @@
     </row>
     <row r="1764" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1764" s="1" t="s">
-        <v>5887</v>
+        <v>5885</v>
       </c>
       <c r="B1764" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1764" s="1" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D1764" s="7" t="s">
+        <v>5901</v>
+      </c>
+      <c r="E1764" s="7" t="s">
         <v>5902</v>
       </c>
-      <c r="D1764" s="7" t="s">
-        <v>5903</v>
-      </c>
-      <c r="E1764" s="7" t="s">
-        <v>5904</v>
-      </c>
       <c r="I1764" s="8" t="s">
-        <v>5912</v>
+        <v>5910</v>
       </c>
       <c r="K1764" s="8" t="s">
         <v>9</v>
@@ -71252,22 +71252,22 @@
     </row>
     <row r="1765" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1765" s="1" t="s">
-        <v>5888</v>
+        <v>5886</v>
       </c>
       <c r="B1765" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1765" s="1" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D1765" s="7" t="s">
+        <v>5901</v>
+      </c>
+      <c r="E1765" s="7" t="s">
         <v>5902</v>
       </c>
-      <c r="D1765" s="7" t="s">
-        <v>5903</v>
-      </c>
-      <c r="E1765" s="7" t="s">
-        <v>5904</v>
-      </c>
       <c r="I1765" s="8" t="s">
-        <v>5913</v>
+        <v>5911</v>
       </c>
       <c r="K1765" s="8" t="s">
         <v>9</v>
@@ -71275,22 +71275,22 @@
     </row>
     <row r="1766" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1766" s="1" t="s">
-        <v>5889</v>
+        <v>5887</v>
       </c>
       <c r="B1766" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1766" s="1" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D1766" s="7" t="s">
+        <v>5901</v>
+      </c>
+      <c r="E1766" s="7" t="s">
         <v>5902</v>
       </c>
-      <c r="D1766" s="7" t="s">
-        <v>5903</v>
-      </c>
-      <c r="E1766" s="7" t="s">
-        <v>5904</v>
-      </c>
       <c r="I1766" s="8" t="s">
-        <v>5914</v>
+        <v>5912</v>
       </c>
       <c r="K1766" s="8" t="s">
         <v>9</v>
@@ -71298,22 +71298,22 @@
     </row>
     <row r="1767" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1767" s="1" t="s">
-        <v>5890</v>
+        <v>5888</v>
       </c>
       <c r="B1767" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1767" s="1" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D1767" s="7" t="s">
+        <v>5901</v>
+      </c>
+      <c r="E1767" s="7" t="s">
         <v>5902</v>
       </c>
-      <c r="D1767" s="7" t="s">
-        <v>5903</v>
-      </c>
-      <c r="E1767" s="7" t="s">
-        <v>5904</v>
-      </c>
       <c r="I1767" s="8" t="s">
-        <v>5915</v>
+        <v>5913</v>
       </c>
       <c r="K1767" s="8" t="s">
         <v>9</v>
@@ -71321,22 +71321,22 @@
     </row>
     <row r="1768" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1768" s="1" t="s">
-        <v>5891</v>
+        <v>5889</v>
       </c>
       <c r="B1768" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1768" s="1" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D1768" s="7" t="s">
+        <v>5901</v>
+      </c>
+      <c r="E1768" s="7" t="s">
         <v>5902</v>
       </c>
-      <c r="D1768" s="7" t="s">
-        <v>5903</v>
-      </c>
-      <c r="E1768" s="7" t="s">
-        <v>5904</v>
-      </c>
       <c r="I1768" s="8" t="s">
-        <v>5916</v>
+        <v>5914</v>
       </c>
       <c r="K1768" s="8" t="s">
         <v>9</v>
@@ -71344,22 +71344,22 @@
     </row>
     <row r="1769" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1769" s="1" t="s">
-        <v>5892</v>
+        <v>5890</v>
       </c>
       <c r="B1769" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1769" s="1" t="s">
+        <v>5900</v>
+      </c>
+      <c r="D1769" s="7" t="s">
+        <v>5901</v>
+      </c>
+      <c r="E1769" s="7" t="s">
         <v>5902</v>
       </c>
-      <c r="D1769" s="7" t="s">
-        <v>5903</v>
-      </c>
-      <c r="E1769" s="7" t="s">
-        <v>5904</v>
-      </c>
       <c r="I1769" s="8" t="s">
-        <v>5917</v>
+        <v>5915</v>
       </c>
       <c r="K1769" s="8" t="s">
         <v>9</v>
@@ -71367,22 +71367,22 @@
     </row>
     <row r="1770" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1770" s="1" t="s">
-        <v>5893</v>
+        <v>5891</v>
       </c>
       <c r="B1770" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1770" s="8" t="s">
+        <v>5923</v>
+      </c>
+      <c r="D1770" s="8" t="s">
+        <v>5901</v>
+      </c>
+      <c r="E1770" s="1" t="s">
+        <v>5924</v>
+      </c>
+      <c r="I1770" s="9" t="s">
         <v>5925</v>
-      </c>
-      <c r="D1770" s="8" t="s">
-        <v>5903</v>
-      </c>
-      <c r="E1770" s="1" t="s">
-        <v>5926</v>
-      </c>
-      <c r="I1770" s="9" t="s">
-        <v>5927</v>
       </c>
       <c r="K1770" s="9" t="s">
         <v>9</v>
@@ -71390,22 +71390,22 @@
     </row>
     <row r="1771" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1771" s="1" t="s">
-        <v>5894</v>
+        <v>5892</v>
       </c>
       <c r="B1771" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1771" s="8" t="s">
-        <v>5925</v>
+        <v>5923</v>
       </c>
       <c r="D1771" s="8" t="s">
-        <v>5903</v>
+        <v>5901</v>
       </c>
       <c r="E1771" s="8" t="s">
+        <v>5924</v>
+      </c>
+      <c r="I1771" s="9" t="s">
         <v>5926</v>
-      </c>
-      <c r="I1771" s="9" t="s">
-        <v>5928</v>
       </c>
       <c r="K1771" s="9" t="s">
         <v>9</v>
@@ -71413,22 +71413,22 @@
     </row>
     <row r="1772" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1772" s="1" t="s">
-        <v>5895</v>
+        <v>5893</v>
       </c>
       <c r="B1772" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1772" s="8" t="s">
-        <v>5925</v>
+        <v>5923</v>
       </c>
       <c r="D1772" s="8" t="s">
-        <v>5903</v>
+        <v>5901</v>
       </c>
       <c r="E1772" s="8" t="s">
-        <v>5926</v>
+        <v>5924</v>
       </c>
       <c r="I1772" s="9" t="s">
-        <v>5929</v>
+        <v>5927</v>
       </c>
       <c r="K1772" s="9" t="s">
         <v>9</v>
@@ -71436,22 +71436,22 @@
     </row>
     <row r="1773" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1773" s="1" t="s">
-        <v>5896</v>
+        <v>5894</v>
       </c>
       <c r="B1773" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1773" s="8" t="s">
-        <v>5925</v>
+        <v>5923</v>
       </c>
       <c r="D1773" s="8" t="s">
-        <v>5903</v>
+        <v>5901</v>
       </c>
       <c r="E1773" s="8" t="s">
-        <v>5926</v>
+        <v>5924</v>
       </c>
       <c r="I1773" s="9" t="s">
-        <v>5930</v>
+        <v>5928</v>
       </c>
       <c r="K1773" s="9" t="s">
         <v>9</v>
@@ -71459,22 +71459,22 @@
     </row>
     <row r="1774" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1774" s="1" t="s">
-        <v>5897</v>
+        <v>5895</v>
       </c>
       <c r="B1774" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1774" s="8" t="s">
-        <v>5925</v>
+        <v>5923</v>
       </c>
       <c r="D1774" s="8" t="s">
-        <v>5903</v>
+        <v>5901</v>
       </c>
       <c r="E1774" s="8" t="s">
-        <v>5926</v>
+        <v>5924</v>
       </c>
       <c r="I1774" s="9" t="s">
-        <v>5931</v>
+        <v>5929</v>
       </c>
       <c r="K1774" s="9" t="s">
         <v>9</v>
@@ -71482,22 +71482,22 @@
     </row>
     <row r="1775" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1775" s="1" t="s">
-        <v>5898</v>
+        <v>5896</v>
       </c>
       <c r="B1775" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1775" s="8" t="s">
-        <v>5925</v>
+        <v>5923</v>
       </c>
       <c r="D1775" s="8" t="s">
-        <v>5903</v>
+        <v>5901</v>
       </c>
       <c r="E1775" s="8" t="s">
-        <v>5926</v>
+        <v>5924</v>
       </c>
       <c r="I1775" s="9" t="s">
-        <v>5932</v>
+        <v>5930</v>
       </c>
       <c r="K1775" s="9" t="s">
         <v>9</v>
@@ -71505,22 +71505,22 @@
     </row>
     <row r="1776" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1776" s="1" t="s">
-        <v>5899</v>
+        <v>5897</v>
       </c>
       <c r="B1776" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1776" s="8" t="s">
-        <v>5925</v>
+        <v>5923</v>
       </c>
       <c r="D1776" s="8" t="s">
-        <v>5903</v>
+        <v>5901</v>
       </c>
       <c r="E1776" s="8" t="s">
-        <v>5926</v>
+        <v>5924</v>
       </c>
       <c r="I1776" s="9" t="s">
-        <v>5933</v>
+        <v>5931</v>
       </c>
       <c r="K1776" s="9" t="s">
         <v>9</v>
@@ -71528,22 +71528,22 @@
     </row>
     <row r="1777" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1777" s="1" t="s">
-        <v>5900</v>
+        <v>5898</v>
       </c>
       <c r="B1777" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1777" s="8" t="s">
-        <v>5925</v>
+        <v>5923</v>
       </c>
       <c r="D1777" s="8" t="s">
-        <v>5903</v>
+        <v>5901</v>
       </c>
       <c r="E1777" s="8" t="s">
-        <v>5926</v>
+        <v>5924</v>
       </c>
       <c r="I1777" s="9" t="s">
-        <v>5934</v>
+        <v>5932</v>
       </c>
       <c r="K1777" s="9" t="s">
         <v>9</v>
@@ -71551,22 +71551,22 @@
     </row>
     <row r="1778" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1778" s="1" t="s">
+        <v>5899</v>
+      </c>
+      <c r="B1778" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1778" s="8" t="s">
+        <v>5923</v>
+      </c>
+      <c r="D1778" s="8" t="s">
         <v>5901</v>
       </c>
-      <c r="B1778" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1778" s="8" t="s">
-        <v>5925</v>
-      </c>
-      <c r="D1778" s="8" t="s">
-        <v>5903</v>
-      </c>
       <c r="E1778" s="8" t="s">
-        <v>5926</v>
+        <v>5924</v>
       </c>
       <c r="I1778" s="9" t="s">
-        <v>5935</v>
+        <v>5933</v>
       </c>
       <c r="K1778" s="9" t="s">
         <v>9</v>
@@ -71574,22 +71574,22 @@
     </row>
     <row r="1779" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1779" s="8" t="s">
-        <v>5918</v>
+        <v>5916</v>
       </c>
       <c r="B1779" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1779" s="8" t="s">
-        <v>5925</v>
+        <v>5923</v>
       </c>
       <c r="D1779" s="8" t="s">
-        <v>5903</v>
+        <v>5901</v>
       </c>
       <c r="E1779" s="8" t="s">
-        <v>5926</v>
+        <v>5924</v>
       </c>
       <c r="I1779" s="9" t="s">
-        <v>5936</v>
+        <v>5934</v>
       </c>
       <c r="K1779" s="9" t="s">
         <v>9</v>
@@ -71597,22 +71597,22 @@
     </row>
     <row r="1780" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1780" s="8" t="s">
-        <v>5919</v>
+        <v>5917</v>
       </c>
       <c r="B1780" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1780" s="8" t="s">
-        <v>5925</v>
+        <v>5923</v>
       </c>
       <c r="D1780" s="8" t="s">
-        <v>5903</v>
+        <v>5901</v>
       </c>
       <c r="E1780" s="8" t="s">
-        <v>5926</v>
+        <v>5924</v>
       </c>
       <c r="I1780" s="9" t="s">
-        <v>5937</v>
+        <v>5935</v>
       </c>
       <c r="K1780" s="9" t="s">
         <v>9</v>
@@ -71620,22 +71620,22 @@
     </row>
     <row r="1781" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1781" s="8" t="s">
-        <v>5920</v>
+        <v>5918</v>
       </c>
       <c r="B1781" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1781" s="8" t="s">
-        <v>5925</v>
+        <v>5923</v>
       </c>
       <c r="D1781" s="8" t="s">
-        <v>5903</v>
+        <v>5901</v>
       </c>
       <c r="E1781" s="8" t="s">
-        <v>5926</v>
+        <v>5924</v>
       </c>
       <c r="I1781" s="9" t="s">
-        <v>5938</v>
+        <v>5936</v>
       </c>
       <c r="K1781" s="9" t="s">
         <v>9</v>
@@ -71643,25 +71643,25 @@
     </row>
     <row r="1782" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1782" s="8" t="s">
-        <v>5921</v>
+        <v>5919</v>
       </c>
       <c r="B1782" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1782" s="11" t="s">
+        <v>5938</v>
+      </c>
+      <c r="D1782" s="11" t="s">
+        <v>5901</v>
+      </c>
+      <c r="E1782" s="11" t="s">
+        <v>5924</v>
+      </c>
+      <c r="I1782" s="11" t="s">
+        <v>5939</v>
+      </c>
+      <c r="J1782" s="1" t="s">
         <v>5940</v>
-      </c>
-      <c r="D1782" s="11" t="s">
-        <v>5903</v>
-      </c>
-      <c r="E1782" s="11" t="s">
-        <v>5926</v>
-      </c>
-      <c r="I1782" s="11" t="s">
-        <v>5941</v>
-      </c>
-      <c r="J1782" s="1" t="s">
-        <v>5942</v>
       </c>
       <c r="K1782" s="11" t="s">
         <v>9</v>
@@ -71669,25 +71669,25 @@
     </row>
     <row r="1783" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1783" s="8" t="s">
-        <v>5922</v>
+        <v>5920</v>
       </c>
       <c r="B1783" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1783" s="11" t="s">
+        <v>5938</v>
+      </c>
+      <c r="D1783" s="11" t="s">
+        <v>5901</v>
+      </c>
+      <c r="E1783" s="11" t="s">
+        <v>5924</v>
+      </c>
+      <c r="I1783" s="11" t="s">
+        <v>5937</v>
+      </c>
+      <c r="J1783" s="1" t="s">
         <v>5940</v>
-      </c>
-      <c r="D1783" s="11" t="s">
-        <v>5903</v>
-      </c>
-      <c r="E1783" s="11" t="s">
-        <v>5926</v>
-      </c>
-      <c r="I1783" s="11" t="s">
-        <v>5939</v>
-      </c>
-      <c r="J1783" s="1" t="s">
-        <v>5942</v>
       </c>
       <c r="K1783" s="11" t="s">
         <v>9</v>
@@ -71695,25 +71695,25 @@
     </row>
     <row r="1784" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1784" s="8" t="s">
-        <v>5923</v>
+        <v>5921</v>
       </c>
       <c r="B1784" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1784" s="11" t="s">
-        <v>5940</v>
+        <v>5938</v>
       </c>
       <c r="D1784" s="11" t="s">
-        <v>5903</v>
+        <v>5901</v>
       </c>
       <c r="E1784" s="11" t="s">
-        <v>5926</v>
+        <v>5924</v>
       </c>
       <c r="I1784" s="11" t="s">
-        <v>5943</v>
+        <v>5941</v>
       </c>
       <c r="J1784" s="10" t="s">
-        <v>5944</v>
+        <v>5942</v>
       </c>
       <c r="K1784" s="11" t="s">
         <v>9</v>
@@ -71721,25 +71721,25 @@
     </row>
     <row r="1785" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1785" s="8" t="s">
-        <v>5924</v>
+        <v>5922</v>
       </c>
       <c r="B1785" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1785" s="1" t="s">
+        <v>5943</v>
+      </c>
+      <c r="D1785" s="12" t="s">
+        <v>5944</v>
+      </c>
+      <c r="E1785" s="12" t="s">
         <v>5945</v>
       </c>
-      <c r="D1785" s="12" t="s">
+      <c r="I1785" s="1" t="s">
         <v>5946</v>
       </c>
-      <c r="E1785" s="12" t="s">
-        <v>5947</v>
-      </c>
-      <c r="I1785" s="1" t="s">
-        <v>5948</v>
-      </c>
       <c r="J1785" s="1" t="s">
-        <v>5953</v>
+        <v>5951</v>
       </c>
       <c r="K1785" s="12" t="s">
         <v>9</v>
@@ -71747,28 +71747,28 @@
     </row>
     <row r="1786" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1786" s="12" t="s">
-        <v>5956</v>
+        <v>5954</v>
       </c>
       <c r="B1786" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1786" s="12" t="s">
-        <v>5961</v>
+        <v>5959</v>
       </c>
       <c r="D1786" s="12" t="s">
-        <v>5957</v>
+        <v>5955</v>
       </c>
       <c r="E1786" s="12"/>
       <c r="F1786" s="12" t="s">
-        <v>5958</v>
+        <v>5956</v>
       </c>
       <c r="G1786" s="12"/>
       <c r="H1786" s="12"/>
       <c r="I1786" s="12" t="s">
-        <v>5987</v>
+        <v>5985</v>
       </c>
       <c r="J1786" s="12" t="s">
-        <v>5959</v>
+        <v>5957</v>
       </c>
       <c r="K1786" s="1" t="s">
         <v>44</v>
@@ -71776,16 +71776,16 @@
     </row>
     <row r="1787" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1787" s="12" t="s">
+        <v>5961</v>
+      </c>
+      <c r="B1787" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1787" s="1" t="s">
         <v>5963</v>
       </c>
-      <c r="B1787" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1787" s="1" t="s">
+      <c r="D1787" s="1" t="s">
         <v>5965</v>
-      </c>
-      <c r="D1787" s="1" t="s">
-        <v>5967</v>
       </c>
       <c r="F1787" s="12" t="s">
         <v>2126</v>
@@ -71795,10 +71795,10 @@
         <v>4717</v>
       </c>
       <c r="I1787" s="1" t="s">
+        <v>5966</v>
+      </c>
+      <c r="J1787" s="1" t="s">
         <v>5968</v>
-      </c>
-      <c r="J1787" s="1" t="s">
-        <v>5970</v>
       </c>
       <c r="K1787" s="12" t="s">
         <v>44</v>
@@ -71806,16 +71806,16 @@
     </row>
     <row r="1788" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1788" s="12" t="s">
+        <v>5962</v>
+      </c>
+      <c r="B1788" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1788" s="12" t="s">
         <v>5964</v>
       </c>
-      <c r="B1788" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1788" s="12" t="s">
-        <v>5966</v>
-      </c>
       <c r="D1788" s="12" t="s">
-        <v>5967</v>
+        <v>5965</v>
       </c>
       <c r="F1788" s="12" t="s">
         <v>2126</v>
@@ -71825,10 +71825,10 @@
         <v>4717</v>
       </c>
       <c r="I1788" s="1" t="s">
+        <v>5967</v>
+      </c>
+      <c r="J1788" s="12" t="s">
         <v>5969</v>
-      </c>
-      <c r="J1788" s="12" t="s">
-        <v>5971</v>
       </c>
       <c r="K1788" s="12" t="s">
         <v>44</v>
@@ -71836,16 +71836,16 @@
     </row>
     <row r="1789" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1789" s="12" t="s">
-        <v>5972</v>
+        <v>5970</v>
       </c>
       <c r="B1789" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1789" s="12" t="s">
-        <v>5973</v>
+        <v>5971</v>
       </c>
       <c r="D1789" s="12" t="s">
-        <v>5967</v>
+        <v>5965</v>
       </c>
       <c r="E1789" s="12"/>
       <c r="F1789" s="12" t="s">
@@ -71856,10 +71856,10 @@
         <v>4717</v>
       </c>
       <c r="I1789" s="1" t="s">
-        <v>5974</v>
+        <v>5972</v>
       </c>
       <c r="J1789" s="12" t="s">
-        <v>5975</v>
+        <v>5973</v>
       </c>
       <c r="K1789" s="12" t="s">
         <v>44</v>
@@ -71867,16 +71867,16 @@
     </row>
     <row r="1790" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1790" s="12" t="s">
-        <v>5976</v>
+        <v>5974</v>
       </c>
       <c r="B1790" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1790" s="1" t="s">
-        <v>5977</v>
+        <v>5975</v>
       </c>
       <c r="D1790" s="12" t="s">
-        <v>5967</v>
+        <v>5965</v>
       </c>
       <c r="F1790" s="12" t="s">
         <v>2126</v>
@@ -71886,10 +71886,10 @@
         <v>4717</v>
       </c>
       <c r="I1790" s="1" t="s">
-        <v>5978</v>
+        <v>5976</v>
       </c>
       <c r="J1790" s="12" t="s">
-        <v>5979</v>
+        <v>5977</v>
       </c>
       <c r="K1790" s="1" t="s">
         <v>154</v>
@@ -71897,31 +71897,31 @@
     </row>
     <row r="1791" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1791" s="12" t="s">
+        <v>5978</v>
+      </c>
+      <c r="B1791" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1791" s="1" t="s">
+        <v>5979</v>
+      </c>
+      <c r="D1791" s="12" t="s">
+        <v>5955</v>
+      </c>
+      <c r="E1791" s="1" t="s">
+        <v>5984</v>
+      </c>
+      <c r="F1791" s="1" t="s">
         <v>5980</v>
       </c>
-      <c r="B1791" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1791" s="1" t="s">
+      <c r="G1791" s="1" t="s">
         <v>5981</v>
       </c>
-      <c r="D1791" s="12" t="s">
-        <v>5957</v>
-      </c>
-      <c r="E1791" s="1" t="s">
-        <v>5986</v>
-      </c>
-      <c r="F1791" s="1" t="s">
+      <c r="I1791" s="1" t="s">
         <v>5982</v>
       </c>
-      <c r="G1791" s="1" t="s">
+      <c r="J1791" s="1" t="s">
         <v>5983</v>
-      </c>
-      <c r="I1791" s="1" t="s">
-        <v>5984</v>
-      </c>
-      <c r="J1791" s="1" t="s">
-        <v>5985</v>
       </c>
       <c r="K1791" s="1" t="s">
         <v>44</v>
@@ -71929,31 +71929,31 @@
     </row>
     <row r="1792" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1792" s="12" t="s">
-        <v>5988</v>
+        <v>5986</v>
       </c>
       <c r="B1792" s="12" t="s">
         <v>5122</v>
       </c>
       <c r="C1792" s="1" t="s">
-        <v>5993</v>
+        <v>5991</v>
       </c>
       <c r="D1792" s="1" t="s">
-        <v>5989</v>
+        <v>5987</v>
       </c>
       <c r="E1792" s="1" t="s">
         <v>4744</v>
       </c>
       <c r="F1792" s="1" t="s">
+        <v>5988</v>
+      </c>
+      <c r="G1792" s="1" t="s">
+        <v>5989</v>
+      </c>
+      <c r="I1792" s="1" t="s">
+        <v>5995</v>
+      </c>
+      <c r="J1792" s="1" t="s">
         <v>5990</v>
-      </c>
-      <c r="G1792" s="1" t="s">
-        <v>5991</v>
-      </c>
-      <c r="I1792" s="1" t="s">
-        <v>5997</v>
-      </c>
-      <c r="J1792" s="1" t="s">
-        <v>5992</v>
       </c>
       <c r="K1792" s="1" t="s">
         <v>154</v>
@@ -71961,31 +71961,31 @@
     </row>
     <row r="1793" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1793" s="12" t="s">
-        <v>6002</v>
+        <v>6000</v>
       </c>
       <c r="B1793" s="12" t="s">
         <v>5122</v>
       </c>
       <c r="C1793" s="12" t="s">
-        <v>5994</v>
+        <v>5992</v>
       </c>
       <c r="D1793" s="12" t="s">
-        <v>5989</v>
+        <v>5987</v>
       </c>
       <c r="E1793" s="12" t="s">
         <v>4744</v>
       </c>
       <c r="F1793" s="12" t="s">
-        <v>5995</v>
+        <v>5993</v>
       </c>
       <c r="G1793" s="12" t="s">
+        <v>5994</v>
+      </c>
+      <c r="I1793" s="1" t="s">
+        <v>5997</v>
+      </c>
+      <c r="J1793" s="12" t="s">
         <v>5996</v>
-      </c>
-      <c r="I1793" s="1" t="s">
-        <v>5999</v>
-      </c>
-      <c r="J1793" s="12" t="s">
-        <v>5998</v>
       </c>
       <c r="K1793" s="1" t="s">
         <v>44</v>
@@ -71993,31 +71993,31 @@
     </row>
     <row r="1794" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1794" s="12" t="s">
-        <v>6000</v>
+        <v>5998</v>
       </c>
       <c r="B1794" s="12" t="s">
         <v>5122</v>
       </c>
       <c r="C1794" s="12" t="s">
-        <v>6001</v>
+        <v>5999</v>
       </c>
       <c r="D1794" s="12" t="s">
-        <v>5989</v>
+        <v>5987</v>
       </c>
       <c r="E1794" s="12" t="s">
         <v>4744</v>
       </c>
       <c r="F1794" s="12" t="s">
-        <v>5995</v>
+        <v>5993</v>
       </c>
       <c r="H1794" s="1" t="s">
+        <v>6001</v>
+      </c>
+      <c r="I1794" s="12" t="s">
+        <v>6002</v>
+      </c>
+      <c r="J1794" s="12" t="s">
         <v>6003</v>
-      </c>
-      <c r="I1794" s="12" t="s">
-        <v>6004</v>
-      </c>
-      <c r="J1794" s="12" t="s">
-        <v>6005</v>
       </c>
       <c r="K1794" s="1" t="s">
         <v>44</v>
@@ -72025,32 +72025,32 @@
     </row>
     <row r="1795" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1795" s="12" t="s">
-        <v>6006</v>
+        <v>6004</v>
       </c>
       <c r="B1795" s="12" t="s">
         <v>5122</v>
       </c>
       <c r="C1795" s="12" t="s">
+        <v>6005</v>
+      </c>
+      <c r="D1795" s="12" t="s">
+        <v>6006</v>
+      </c>
+      <c r="E1795" s="12" t="s">
         <v>6007</v>
       </c>
-      <c r="D1795" s="12" t="s">
-        <v>6008</v>
-      </c>
-      <c r="E1795" s="12" t="s">
-        <v>6009</v>
-      </c>
       <c r="F1795" s="12" t="s">
-        <v>5995</v>
+        <v>5993</v>
       </c>
       <c r="G1795" s="12"/>
       <c r="H1795" s="12" t="s">
-        <v>6011</v>
+        <v>6009</v>
       </c>
       <c r="I1795" s="12" t="s">
+        <v>6008</v>
+      </c>
+      <c r="J1795" s="12" t="s">
         <v>6010</v>
-      </c>
-      <c r="J1795" s="12" t="s">
-        <v>6012</v>
       </c>
       <c r="K1795" s="12" t="s">
         <v>44</v>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
@@ -21648,8 +21648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1795"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="A1761" workbookViewId="0">
+      <selection activeCell="C1798" sqref="C1798"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -71932,7 +71932,7 @@
         <v>5986</v>
       </c>
       <c r="B1792" s="12" t="s">
-        <v>5122</v>
+        <v>34</v>
       </c>
       <c r="C1792" s="1" t="s">
         <v>5991</v>
@@ -71964,7 +71964,7 @@
         <v>6000</v>
       </c>
       <c r="B1793" s="12" t="s">
-        <v>5122</v>
+        <v>34</v>
       </c>
       <c r="C1793" s="12" t="s">
         <v>5992</v>
@@ -71996,7 +71996,7 @@
         <v>5998</v>
       </c>
       <c r="B1794" s="12" t="s">
-        <v>5122</v>
+        <v>34</v>
       </c>
       <c r="C1794" s="12" t="s">
         <v>5999</v>
@@ -72028,7 +72028,7 @@
         <v>6004</v>
       </c>
       <c r="B1795" s="12" t="s">
-        <v>5122</v>
+        <v>34</v>
       </c>
       <c r="C1795" s="12" t="s">
         <v>6005</v>

--- a/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/cases/dql/casegroup1/sql_dql_cases1.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15594" uniqueCount="6013">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15568" uniqueCount="6007">
   <si>
     <t>TestID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -17350,10 +17350,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dqlc1_1544</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>double型数组插入单一类型元素-数字字符型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -17483,18 +17479,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dqlc1_1547</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dqlc1_1552</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dqlc1_1551</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>date型数组对其他日期格式的支持</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -17519,10 +17507,6 @@
     <t>array7_value36</t>
   </si>
   <si>
-    <t>dqlc1_1557</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select * from $array7 where id=1558</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -17558,10 +17542,6 @@
     <t>array8_value39</t>
   </si>
   <si>
-    <t>dqlc1_1562</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>select * from $array8 where id=1562</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -17584,10 +17564,6 @@
   </si>
   <si>
     <t>array9_value41</t>
-  </si>
-  <si>
-    <t>dqlc1_1565</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>timestamp型数组对时间戳的支持</t>
@@ -21648,8 +21624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1795"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1761" workbookViewId="0">
-      <selection activeCell="C1798" sqref="C1798"/>
+    <sheetView tabSelected="1" topLeftCell="A1323" workbookViewId="0">
+      <selection activeCell="A1336" sqref="A1336:XFD1336"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -21659,8 +21635,8 @@
     <col min="3" max="3" width="42.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="97.25" style="1" customWidth="1"/>
     <col min="10" max="10" width="30.125" style="1" customWidth="1"/>
@@ -21735,10 +21711,10 @@
       </c>
       <c r="G3" s="4"/>
       <c r="I3" s="3" t="s">
-        <v>6011</v>
+        <v>6005</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>6012</v>
+        <v>6006</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>9</v>
@@ -21833,7 +21809,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>5046</v>
+        <v>5040</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>26</v>
@@ -21856,7 +21832,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>5047</v>
+        <v>5041</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>27</v>
@@ -22177,7 +22153,7 @@
         <v>136</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>5960</v>
+        <v>5954</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>150</v>
@@ -22203,10 +22179,10 @@
         <v>136</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>5359</v>
+        <v>5353</v>
       </c>
       <c r="J21" t="s">
-        <v>5360</v>
+        <v>5354</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>9</v>
@@ -22229,7 +22205,7 @@
         <v>136</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>5048</v>
+        <v>5042</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>151</v>
@@ -22255,7 +22231,7 @@
         <v>136</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>5049</v>
+        <v>5043</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>152</v>
@@ -22281,7 +22257,7 @@
         <v>136</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>5050</v>
+        <v>5044</v>
       </c>
       <c r="J24" t="s">
         <v>149</v>
@@ -22987,7 +22963,7 @@
         <v>194</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>5181</v>
+        <v>5175</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>196</v>
@@ -23013,7 +22989,7 @@
         <v>194</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>5182</v>
+        <v>5176</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>200</v>
@@ -26671,10 +26647,10 @@
         <v>414</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>5353</v>
+        <v>5347</v>
       </c>
       <c r="J191" t="s">
-        <v>5354</v>
+        <v>5348</v>
       </c>
       <c r="K191" s="1" t="s">
         <v>9</v>
@@ -26697,10 +26673,10 @@
         <v>414</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>5183</v>
+        <v>5177</v>
       </c>
       <c r="J192" t="s">
-        <v>5184</v>
+        <v>5178</v>
       </c>
       <c r="K192" s="1" t="s">
         <v>9</v>
@@ -26818,7 +26794,7 @@
         <v>414</v>
       </c>
       <c r="I197" s="1" t="s">
-        <v>5185</v>
+        <v>5179</v>
       </c>
       <c r="K197" s="1" t="s">
         <v>9</v>
@@ -26841,7 +26817,7 @@
         <v>414</v>
       </c>
       <c r="I198" s="1" t="s">
-        <v>5186</v>
+        <v>5180</v>
       </c>
       <c r="K198" s="1" t="s">
         <v>9</v>
@@ -27332,7 +27308,7 @@
         <v>452</v>
       </c>
       <c r="I217" s="1" t="s">
-        <v>5187</v>
+        <v>5181</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>461</v>
@@ -27384,10 +27360,10 @@
         <v>452</v>
       </c>
       <c r="I219" s="1" t="s">
-        <v>5188</v>
+        <v>5182</v>
       </c>
       <c r="J219" t="s">
-        <v>5189</v>
+        <v>5183</v>
       </c>
       <c r="K219" s="1" t="s">
         <v>9</v>
@@ -27514,10 +27490,10 @@
         <v>452</v>
       </c>
       <c r="I224" s="1" t="s">
-        <v>5190</v>
+        <v>5184</v>
       </c>
       <c r="J224" t="s">
-        <v>5191</v>
+        <v>5185</v>
       </c>
       <c r="K224" s="1" t="s">
         <v>9</v>
@@ -28693,10 +28669,10 @@
         <v>538</v>
       </c>
       <c r="I269" s="1" t="s">
-        <v>5192</v>
+        <v>5186</v>
       </c>
       <c r="J269" t="s">
-        <v>5193</v>
+        <v>5187</v>
       </c>
       <c r="K269" s="1" t="s">
         <v>9</v>
@@ -28999,10 +28975,10 @@
         <v>538</v>
       </c>
       <c r="I281" s="1" t="s">
-        <v>5194</v>
+        <v>5188</v>
       </c>
       <c r="J281" t="s">
-        <v>5195</v>
+        <v>5189</v>
       </c>
       <c r="K281" s="1" t="s">
         <v>9</v>
@@ -29305,10 +29281,10 @@
         <v>538</v>
       </c>
       <c r="I293" s="1" t="s">
-        <v>5196</v>
+        <v>5190</v>
       </c>
       <c r="J293" s="1" t="s">
-        <v>5197</v>
+        <v>5191</v>
       </c>
       <c r="K293" s="1" t="s">
         <v>9</v>
@@ -29611,10 +29587,10 @@
         <v>538</v>
       </c>
       <c r="I305" s="1" t="s">
-        <v>5198</v>
+        <v>5192</v>
       </c>
       <c r="J305" t="s">
-        <v>5193</v>
+        <v>5187</v>
       </c>
       <c r="K305" s="1" t="s">
         <v>9</v>
@@ -31335,10 +31311,10 @@
         <v>701</v>
       </c>
       <c r="I372" s="1" t="s">
-        <v>5199</v>
+        <v>5193</v>
       </c>
       <c r="J372" t="s">
-        <v>5195</v>
+        <v>5189</v>
       </c>
       <c r="K372" s="1" t="s">
         <v>9</v>
@@ -31673,10 +31649,10 @@
         <v>713</v>
       </c>
       <c r="I385" s="1" t="s">
-        <v>5200</v>
+        <v>5194</v>
       </c>
       <c r="J385" s="1" t="s">
-        <v>5197</v>
+        <v>5191</v>
       </c>
       <c r="K385" s="1" t="s">
         <v>9</v>
@@ -35176,10 +35152,10 @@
         <v>81</v>
       </c>
       <c r="I521" s="1" t="s">
-        <v>5201</v>
+        <v>5195</v>
       </c>
       <c r="J521" s="1" t="s">
-        <v>5202</v>
+        <v>5196</v>
       </c>
       <c r="K521" s="1" t="s">
         <v>9</v>
@@ -35358,10 +35334,10 @@
         <v>81</v>
       </c>
       <c r="I528" s="1" t="s">
-        <v>5203</v>
+        <v>5197</v>
       </c>
       <c r="J528" s="1" t="s">
-        <v>5204</v>
+        <v>5198</v>
       </c>
       <c r="K528" s="1" t="s">
         <v>9</v>
@@ -35852,7 +35828,7 @@
         <v>81</v>
       </c>
       <c r="I547" s="1" t="s">
-        <v>5228</v>
+        <v>5222</v>
       </c>
       <c r="J547" s="1" t="s">
         <v>99</v>
@@ -35878,7 +35854,7 @@
         <v>81</v>
       </c>
       <c r="I548" s="1" t="s">
-        <v>5226</v>
+        <v>5220</v>
       </c>
       <c r="J548" s="1" t="s">
         <v>89</v>
@@ -35930,7 +35906,7 @@
         <v>81</v>
       </c>
       <c r="I550" s="1" t="s">
-        <v>5227</v>
+        <v>5221</v>
       </c>
       <c r="J550" s="1" t="s">
         <v>99</v>
@@ -36075,7 +36051,7 @@
         <v>982</v>
       </c>
       <c r="J555" s="1" t="s">
-        <v>5205</v>
+        <v>5199</v>
       </c>
       <c r="K555" s="1" t="s">
         <v>9</v>
@@ -36101,7 +36077,7 @@
         <v>984</v>
       </c>
       <c r="J556" s="1" t="s">
-        <v>5206</v>
+        <v>5200</v>
       </c>
       <c r="K556" s="1" t="s">
         <v>9</v>
@@ -36127,7 +36103,7 @@
         <v>985</v>
       </c>
       <c r="J557" s="1" t="s">
-        <v>5207</v>
+        <v>5201</v>
       </c>
       <c r="K557" s="1" t="s">
         <v>9</v>
@@ -36153,7 +36129,7 @@
         <v>986</v>
       </c>
       <c r="J558" s="1" t="s">
-        <v>5208</v>
+        <v>5202</v>
       </c>
       <c r="K558" s="1" t="s">
         <v>9</v>
@@ -36179,7 +36155,7 @@
         <v>987</v>
       </c>
       <c r="J559" s="1" t="s">
-        <v>5209</v>
+        <v>5203</v>
       </c>
       <c r="K559" s="1" t="s">
         <v>9</v>
@@ -36205,7 +36181,7 @@
         <v>988</v>
       </c>
       <c r="J560" s="1" t="s">
-        <v>5210</v>
+        <v>5204</v>
       </c>
       <c r="K560" s="1" t="s">
         <v>9</v>
@@ -36231,7 +36207,7 @@
         <v>989</v>
       </c>
       <c r="J561" s="1" t="s">
-        <v>5211</v>
+        <v>5205</v>
       </c>
       <c r="K561" s="1" t="s">
         <v>9</v>
@@ -36257,7 +36233,7 @@
         <v>990</v>
       </c>
       <c r="J562" s="1" t="s">
-        <v>5212</v>
+        <v>5206</v>
       </c>
       <c r="K562" s="1" t="s">
         <v>9</v>
@@ -36283,7 +36259,7 @@
         <v>991</v>
       </c>
       <c r="J563" s="1" t="s">
-        <v>5213</v>
+        <v>5207</v>
       </c>
       <c r="K563" s="1" t="s">
         <v>9</v>
@@ -36309,7 +36285,7 @@
         <v>993</v>
       </c>
       <c r="J564" s="1" t="s">
-        <v>5214</v>
+        <v>5208</v>
       </c>
       <c r="K564" s="1" t="s">
         <v>9</v>
@@ -36335,7 +36311,7 @@
         <v>994</v>
       </c>
       <c r="J565" s="1" t="s">
-        <v>5215</v>
+        <v>5209</v>
       </c>
       <c r="K565" s="1" t="s">
         <v>9</v>
@@ -36358,10 +36334,10 @@
         <v>981</v>
       </c>
       <c r="I566" s="1" t="s">
-        <v>5872</v>
+        <v>5866</v>
       </c>
       <c r="J566" s="1" t="s">
-        <v>5873</v>
+        <v>5867</v>
       </c>
       <c r="K566" s="1" t="s">
         <v>9</v>
@@ -36384,10 +36360,10 @@
         <v>981</v>
       </c>
       <c r="I567" s="1" t="s">
-        <v>5874</v>
+        <v>5868</v>
       </c>
       <c r="J567" s="1" t="s">
-        <v>5875</v>
+        <v>5869</v>
       </c>
       <c r="K567" s="1" t="s">
         <v>9</v>
@@ -36410,10 +36386,10 @@
         <v>981</v>
       </c>
       <c r="I568" s="1" t="s">
-        <v>5876</v>
+        <v>5870</v>
       </c>
       <c r="J568" s="1" t="s">
-        <v>5216</v>
+        <v>5210</v>
       </c>
       <c r="K568" s="1" t="s">
         <v>9</v>
@@ -36439,7 +36415,7 @@
         <v>998</v>
       </c>
       <c r="J569" s="1" t="s">
-        <v>5206</v>
+        <v>5200</v>
       </c>
       <c r="K569" s="1" t="s">
         <v>9</v>
@@ -36462,7 +36438,7 @@
         <v>981</v>
       </c>
       <c r="I570" s="1" t="s">
-        <v>5877</v>
+        <v>5871</v>
       </c>
       <c r="J570" s="1" t="s">
         <v>1041</v>
@@ -42492,7 +42468,7 @@
         <v>1445</v>
       </c>
       <c r="J801" s="1" t="s">
-        <v>5952</v>
+        <v>5946</v>
       </c>
       <c r="K801" s="1" t="s">
         <v>9</v>
@@ -42518,7 +42494,7 @@
         <v>1446</v>
       </c>
       <c r="J802" s="1" t="s">
-        <v>5953</v>
+        <v>5947</v>
       </c>
       <c r="K802" s="1" t="s">
         <v>9</v>
@@ -43711,7 +43687,7 @@
         <v>3520</v>
       </c>
       <c r="B848" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C848" s="1" t="s">
         <v>1494</v>
@@ -43737,7 +43713,7 @@
         <v>3521</v>
       </c>
       <c r="B849" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C849" s="1" t="s">
         <v>1494</v>
@@ -43763,7 +43739,7 @@
         <v>3522</v>
       </c>
       <c r="B850" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C850" s="1" t="s">
         <v>1494</v>
@@ -44439,7 +44415,7 @@
         <v>3548</v>
       </c>
       <c r="B876" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C876" s="1" t="s">
         <v>1494</v>
@@ -44465,7 +44441,7 @@
         <v>3549</v>
       </c>
       <c r="B877" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C877" s="1" t="s">
         <v>1494</v>
@@ -44491,7 +44467,7 @@
         <v>3550</v>
       </c>
       <c r="B878" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C878" s="1" t="s">
         <v>1494</v>
@@ -44621,7 +44597,7 @@
         <v>3555</v>
       </c>
       <c r="B883" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C883" s="1" t="s">
         <v>1494</v>
@@ -44647,7 +44623,7 @@
         <v>3556</v>
       </c>
       <c r="B884" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C884" s="1" t="s">
         <v>1494</v>
@@ -45393,7 +45369,7 @@
         <v>3584</v>
       </c>
       <c r="B912" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C912" s="1" t="s">
         <v>1601</v>
@@ -45419,7 +45395,7 @@
         <v>3585</v>
       </c>
       <c r="B913" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C913" s="1" t="s">
         <v>1601</v>
@@ -45445,7 +45421,7 @@
         <v>3586</v>
       </c>
       <c r="B914" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C914" s="1" t="s">
         <v>1601</v>
@@ -46127,7 +46103,7 @@
         <v>3612</v>
       </c>
       <c r="B940" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C940" s="1" t="s">
         <v>1648</v>
@@ -46153,7 +46129,7 @@
         <v>3613</v>
       </c>
       <c r="B941" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C941" s="1" t="s">
         <v>1648</v>
@@ -46179,7 +46155,7 @@
         <v>3614</v>
       </c>
       <c r="B942" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C942" s="1" t="s">
         <v>1648</v>
@@ -46205,7 +46181,7 @@
         <v>3615</v>
       </c>
       <c r="B943" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C943" s="1" t="s">
         <v>1648</v>
@@ -46705,7 +46681,7 @@
         <v>3634</v>
       </c>
       <c r="B962" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C962" s="1" t="s">
         <v>1679</v>
@@ -46835,7 +46811,7 @@
         <v>3639</v>
       </c>
       <c r="B967" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C967" s="1" t="s">
         <v>1679</v>
@@ -46965,7 +46941,7 @@
         <v>3644</v>
       </c>
       <c r="B972" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C972" s="1" t="s">
         <v>1679</v>
@@ -46977,7 +46953,7 @@
         <v>1680</v>
       </c>
       <c r="I972" s="1" t="s">
-        <v>5958</v>
+        <v>5952</v>
       </c>
       <c r="J972" s="1" t="s">
         <v>1722</v>
@@ -46991,7 +46967,7 @@
         <v>3645</v>
       </c>
       <c r="B973" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C973" s="1" t="s">
         <v>1679</v>
@@ -47017,7 +46993,7 @@
         <v>3646</v>
       </c>
       <c r="B974" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C974" s="1" t="s">
         <v>1679</v>
@@ -52854,7 +52830,7 @@
     </row>
     <row r="1173" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1173" s="1" t="s">
-        <v>5218</v>
+        <v>5212</v>
       </c>
       <c r="B1173" s="4" t="s">
         <v>34</v>
@@ -52895,7 +52871,7 @@
         <v>1878</v>
       </c>
       <c r="F1174" s="1" t="s">
-        <v>5217</v>
+        <v>5211</v>
       </c>
       <c r="H1174" s="1" t="s">
         <v>4712</v>
@@ -59165,7 +59141,7 @@
         <v>4724</v>
       </c>
       <c r="I1375" s="1" t="s">
-        <v>5858</v>
+        <v>5852</v>
       </c>
       <c r="J1375" s="1" t="s">
         <v>4552</v>
@@ -59534,7 +59510,7 @@
         <v>2375</v>
       </c>
       <c r="I1387" s="1" t="s">
-        <v>5225</v>
+        <v>5219</v>
       </c>
       <c r="J1387" s="1" t="s">
         <v>4564</v>
@@ -59563,7 +59539,7 @@
         <v>2404</v>
       </c>
       <c r="G1388" s="1" t="s">
-        <v>5244</v>
+        <v>5238</v>
       </c>
       <c r="I1388" s="1" t="s">
         <v>2406</v>
@@ -59851,7 +59827,7 @@
         <v>4046</v>
       </c>
       <c r="I1397" s="1" t="s">
-        <v>5222</v>
+        <v>5216</v>
       </c>
       <c r="J1397" s="1" t="s">
         <v>4574</v>
@@ -59883,7 +59859,7 @@
         <v>4046</v>
       </c>
       <c r="I1398" s="1" t="s">
-        <v>5223</v>
+        <v>5217</v>
       </c>
       <c r="J1398" s="1" t="s">
         <v>4575</v>
@@ -61791,7 +61767,7 @@
         <v>4736</v>
       </c>
       <c r="I1458" s="1" t="s">
-        <v>5224</v>
+        <v>5218</v>
       </c>
       <c r="J1458" s="1" t="s">
         <v>4635</v>
@@ -61849,13 +61825,13 @@
         <v>2523</v>
       </c>
       <c r="F1460" s="1" t="s">
-        <v>5219</v>
+        <v>5213</v>
       </c>
       <c r="H1460" s="1" t="s">
         <v>4711</v>
       </c>
       <c r="I1460" s="1" t="s">
-        <v>5220</v>
+        <v>5214</v>
       </c>
       <c r="J1460" s="1" t="s">
         <v>4637</v>
@@ -62207,7 +62183,7 @@
         <v>4722</v>
       </c>
       <c r="I1471" s="1" t="s">
-        <v>5221</v>
+        <v>5215</v>
       </c>
       <c r="J1471" s="1" t="s">
         <v>4648</v>
@@ -63562,7 +63538,7 @@
         <v>4046</v>
       </c>
       <c r="I1514" s="1" t="s">
-        <v>5950</v>
+        <v>5944</v>
       </c>
       <c r="J1514" s="1" t="s">
         <v>4691</v>
@@ -63754,7 +63730,7 @@
         <v>4046</v>
       </c>
       <c r="I1520" s="1" t="s">
-        <v>5947</v>
+        <v>5941</v>
       </c>
       <c r="J1520" s="1" t="s">
         <v>4697</v>
@@ -64585,9 +64561,7 @@
       <c r="G1546" s="1" t="s">
         <v>4914</v>
       </c>
-      <c r="H1546" s="1" t="s">
-        <v>4919</v>
-      </c>
+      <c r="H1546" s="5"/>
       <c r="I1546" s="1" t="s">
         <v>4916</v>
       </c>
@@ -64620,9 +64594,7 @@
       <c r="G1547" s="1" t="s">
         <v>4915</v>
       </c>
-      <c r="H1547" s="1" t="s">
-        <v>4919</v>
-      </c>
+      <c r="H1547" s="5"/>
       <c r="I1547" s="1" t="s">
         <v>4917</v>
       </c>
@@ -64635,13 +64607,13 @@
     </row>
     <row r="1548" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1548" s="6" t="s">
-        <v>4953</v>
+        <v>4952</v>
       </c>
       <c r="B1548" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1548" s="1" t="s">
-        <v>4922</v>
+        <v>4921</v>
       </c>
       <c r="D1548" s="1" t="s">
         <v>4743</v>
@@ -64650,13 +64622,13 @@
         <v>4744</v>
       </c>
       <c r="F1548" s="1" t="s">
+        <v>4922</v>
+      </c>
+      <c r="G1548" s="1" t="s">
         <v>4923</v>
       </c>
-      <c r="G1548" s="1" t="s">
-        <v>4924</v>
-      </c>
       <c r="I1548" s="1" t="s">
-        <v>4927</v>
+        <v>4926</v>
       </c>
       <c r="J1548" s="1" t="s">
         <v>4881</v>
@@ -64673,7 +64645,7 @@
         <v>34</v>
       </c>
       <c r="C1549" s="1" t="s">
-        <v>4920</v>
+        <v>4919</v>
       </c>
       <c r="D1549" s="1" t="s">
         <v>4743</v>
@@ -64682,16 +64654,14 @@
         <v>4744</v>
       </c>
       <c r="F1549" s="1" t="s">
-        <v>4923</v>
+        <v>4922</v>
       </c>
       <c r="G1549" s="1" t="s">
-        <v>4925</v>
-      </c>
-      <c r="H1549" s="1" t="s">
-        <v>4954</v>
-      </c>
+        <v>4924</v>
+      </c>
+      <c r="H1549" s="5"/>
       <c r="I1549" s="1" t="s">
-        <v>4928</v>
+        <v>4927</v>
       </c>
       <c r="J1549" s="1" t="s">
         <v>4882</v>
@@ -64708,7 +64678,7 @@
         <v>34</v>
       </c>
       <c r="C1550" s="1" t="s">
-        <v>4921</v>
+        <v>4920</v>
       </c>
       <c r="D1550" s="1" t="s">
         <v>4743</v>
@@ -64717,16 +64687,14 @@
         <v>4744</v>
       </c>
       <c r="F1550" s="1" t="s">
-        <v>4923</v>
+        <v>4922</v>
       </c>
       <c r="G1550" s="1" t="s">
-        <v>4926</v>
-      </c>
-      <c r="H1550" s="1" t="s">
-        <v>4954</v>
-      </c>
+        <v>4925</v>
+      </c>
+      <c r="H1550" s="5"/>
       <c r="I1550" s="1" t="s">
-        <v>4929</v>
+        <v>4928</v>
       </c>
       <c r="J1550" s="1" t="s">
         <v>4883</v>
@@ -64737,13 +64705,13 @@
     </row>
     <row r="1551" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1551" s="6" t="s">
-        <v>5008</v>
+        <v>5002</v>
       </c>
       <c r="B1551" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1551" s="1" t="s">
-        <v>4930</v>
+        <v>4929</v>
       </c>
       <c r="D1551" s="1" t="s">
         <v>4743</v>
@@ -64752,13 +64720,13 @@
         <v>4744</v>
       </c>
       <c r="F1551" s="1" t="s">
+        <v>4930</v>
+      </c>
+      <c r="G1551" s="1" t="s">
         <v>4931</v>
       </c>
-      <c r="G1551" s="1" t="s">
+      <c r="I1551" s="1" t="s">
         <v>4932</v>
-      </c>
-      <c r="I1551" s="1" t="s">
-        <v>4933</v>
       </c>
       <c r="J1551" s="1" t="s">
         <v>4884</v>
@@ -64775,7 +64743,7 @@
         <v>34</v>
       </c>
       <c r="C1552" s="1" t="s">
-        <v>4934</v>
+        <v>4933</v>
       </c>
       <c r="D1552" s="1" t="s">
         <v>4743</v>
@@ -64784,13 +64752,13 @@
         <v>4744</v>
       </c>
       <c r="F1552" s="1" t="s">
+        <v>4939</v>
+      </c>
+      <c r="G1552" s="1" t="s">
         <v>4940</v>
       </c>
-      <c r="G1552" s="1" t="s">
-        <v>4941</v>
-      </c>
       <c r="I1552" s="1" t="s">
-        <v>4947</v>
+        <v>4946</v>
       </c>
       <c r="J1552" s="1" t="s">
         <v>4885</v>
@@ -64801,13 +64769,13 @@
     </row>
     <row r="1553" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1553" s="6" t="s">
-        <v>4955</v>
+        <v>4953</v>
       </c>
       <c r="B1553" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1553" s="1" t="s">
-        <v>4935</v>
+        <v>4934</v>
       </c>
       <c r="D1553" s="1" t="s">
         <v>4743</v>
@@ -64816,16 +64784,14 @@
         <v>4744</v>
       </c>
       <c r="F1553" s="1" t="s">
-        <v>4940</v>
+        <v>4939</v>
       </c>
       <c r="G1553" s="1" t="s">
-        <v>4942</v>
-      </c>
-      <c r="H1553" s="1" t="s">
-        <v>4956</v>
-      </c>
+        <v>4941</v>
+      </c>
+      <c r="H1553" s="5"/>
       <c r="I1553" s="1" t="s">
-        <v>4948</v>
+        <v>4947</v>
       </c>
       <c r="J1553" s="1" t="s">
         <v>4886</v>
@@ -64842,7 +64808,7 @@
         <v>34</v>
       </c>
       <c r="C1554" s="1" t="s">
-        <v>4936</v>
+        <v>4935</v>
       </c>
       <c r="D1554" s="1" t="s">
         <v>4743</v>
@@ -64851,16 +64817,14 @@
         <v>4744</v>
       </c>
       <c r="F1554" s="1" t="s">
-        <v>4940</v>
+        <v>4939</v>
       </c>
       <c r="G1554" s="1" t="s">
-        <v>4943</v>
-      </c>
-      <c r="H1554" s="1" t="s">
-        <v>4956</v>
-      </c>
+        <v>4942</v>
+      </c>
+      <c r="H1554" s="5"/>
       <c r="I1554" s="1" t="s">
-        <v>4949</v>
+        <v>4948</v>
       </c>
       <c r="J1554" s="1" t="s">
         <v>4887</v>
@@ -64877,7 +64841,7 @@
         <v>34</v>
       </c>
       <c r="C1555" s="1" t="s">
-        <v>4937</v>
+        <v>4936</v>
       </c>
       <c r="D1555" s="1" t="s">
         <v>4743</v>
@@ -64886,16 +64850,14 @@
         <v>4744</v>
       </c>
       <c r="F1555" s="1" t="s">
-        <v>4940</v>
+        <v>4939</v>
       </c>
       <c r="G1555" s="1" t="s">
-        <v>4944</v>
-      </c>
-      <c r="H1555" s="1" t="s">
-        <v>4956</v>
-      </c>
+        <v>4943</v>
+      </c>
+      <c r="H1555" s="5"/>
       <c r="I1555" s="1" t="s">
-        <v>4950</v>
+        <v>4949</v>
       </c>
       <c r="J1555" s="1" t="s">
         <v>4888</v>
@@ -64912,7 +64874,7 @@
         <v>34</v>
       </c>
       <c r="C1556" s="1" t="s">
-        <v>4938</v>
+        <v>4937</v>
       </c>
       <c r="D1556" s="1" t="s">
         <v>4743</v>
@@ -64921,16 +64883,14 @@
         <v>4744</v>
       </c>
       <c r="F1556" s="1" t="s">
-        <v>4940</v>
+        <v>4939</v>
       </c>
       <c r="G1556" s="1" t="s">
-        <v>4945</v>
-      </c>
-      <c r="H1556" s="1" t="s">
-        <v>4956</v>
-      </c>
+        <v>4944</v>
+      </c>
+      <c r="H1556" s="5"/>
       <c r="I1556" s="1" t="s">
-        <v>4951</v>
+        <v>4950</v>
       </c>
       <c r="J1556" s="1" t="s">
         <v>4889</v>
@@ -64947,7 +64907,7 @@
         <v>34</v>
       </c>
       <c r="C1557" s="1" t="s">
-        <v>4939</v>
+        <v>4938</v>
       </c>
       <c r="D1557" s="1" t="s">
         <v>4743</v>
@@ -64956,16 +64916,14 @@
         <v>4744</v>
       </c>
       <c r="F1557" s="1" t="s">
-        <v>4940</v>
+        <v>4939</v>
       </c>
       <c r="G1557" s="1" t="s">
-        <v>4946</v>
-      </c>
-      <c r="H1557" s="1" t="s">
-        <v>4956</v>
-      </c>
+        <v>4945</v>
+      </c>
+      <c r="H1557" s="5"/>
       <c r="I1557" s="1" t="s">
-        <v>4952</v>
+        <v>4951</v>
       </c>
       <c r="J1557" s="1" t="s">
         <v>4890</v>
@@ -64982,7 +64940,7 @@
         <v>34</v>
       </c>
       <c r="C1558" s="1" t="s">
-        <v>4957</v>
+        <v>4954</v>
       </c>
       <c r="D1558" s="1" t="s">
         <v>4743</v>
@@ -64991,13 +64949,13 @@
         <v>4744</v>
       </c>
       <c r="F1558" s="1" t="s">
-        <v>4958</v>
+        <v>4955</v>
       </c>
       <c r="G1558" s="1" t="s">
-        <v>4959</v>
+        <v>4956</v>
       </c>
       <c r="I1558" s="1" t="s">
-        <v>4966</v>
+        <v>4962</v>
       </c>
       <c r="J1558" s="1" t="s">
         <v>4891</v>
@@ -65014,7 +64972,7 @@
         <v>34</v>
       </c>
       <c r="C1559" s="1" t="s">
-        <v>4957</v>
+        <v>4954</v>
       </c>
       <c r="D1559" s="1" t="s">
         <v>4743</v>
@@ -65023,16 +64981,14 @@
         <v>4744</v>
       </c>
       <c r="F1559" s="1" t="s">
-        <v>4958</v>
+        <v>4955</v>
       </c>
       <c r="G1559" s="1" t="s">
-        <v>4960</v>
-      </c>
-      <c r="H1559" s="1" t="s">
-        <v>4964</v>
-      </c>
+        <v>4957</v>
+      </c>
+      <c r="H1559" s="5"/>
       <c r="I1559" s="1" t="s">
-        <v>4965</v>
+        <v>4961</v>
       </c>
       <c r="J1559" s="1" t="s">
         <v>4892</v>
@@ -65049,7 +65005,7 @@
         <v>34</v>
       </c>
       <c r="C1560" s="1" t="s">
-        <v>4957</v>
+        <v>4954</v>
       </c>
       <c r="D1560" s="1" t="s">
         <v>4743</v>
@@ -65058,16 +65014,14 @@
         <v>4744</v>
       </c>
       <c r="F1560" s="1" t="s">
+        <v>4955</v>
+      </c>
+      <c r="G1560" s="1" t="s">
         <v>4958</v>
       </c>
-      <c r="G1560" s="1" t="s">
-        <v>4961</v>
-      </c>
-      <c r="H1560" s="1" t="s">
-        <v>4964</v>
-      </c>
+      <c r="H1560" s="5"/>
       <c r="I1560" s="1" t="s">
-        <v>4967</v>
+        <v>4963</v>
       </c>
       <c r="J1560" s="1" t="s">
         <v>4893</v>
@@ -65084,7 +65038,7 @@
         <v>34</v>
       </c>
       <c r="C1561" s="1" t="s">
-        <v>4957</v>
+        <v>4954</v>
       </c>
       <c r="D1561" s="1" t="s">
         <v>4743</v>
@@ -65093,16 +65047,14 @@
         <v>4744</v>
       </c>
       <c r="F1561" s="1" t="s">
-        <v>4958</v>
+        <v>4955</v>
       </c>
       <c r="G1561" s="1" t="s">
-        <v>4962</v>
-      </c>
-      <c r="H1561" s="1" t="s">
+        <v>4959</v>
+      </c>
+      <c r="H1561" s="5"/>
+      <c r="I1561" s="1" t="s">
         <v>4964</v>
-      </c>
-      <c r="I1561" s="1" t="s">
-        <v>4968</v>
       </c>
       <c r="J1561" s="1" t="s">
         <v>4894</v>
@@ -65119,7 +65071,7 @@
         <v>34</v>
       </c>
       <c r="C1562" s="1" t="s">
-        <v>4957</v>
+        <v>4954</v>
       </c>
       <c r="D1562" s="1" t="s">
         <v>4743</v>
@@ -65128,16 +65080,14 @@
         <v>4744</v>
       </c>
       <c r="F1562" s="1" t="s">
-        <v>4958</v>
+        <v>4955</v>
       </c>
       <c r="G1562" s="1" t="s">
-        <v>4963</v>
-      </c>
-      <c r="H1562" s="1" t="s">
-        <v>4964</v>
-      </c>
+        <v>4960</v>
+      </c>
+      <c r="H1562" s="5"/>
       <c r="I1562" s="1" t="s">
-        <v>4969</v>
+        <v>4965</v>
       </c>
       <c r="J1562" s="1" t="s">
         <v>4895</v>
@@ -65154,7 +65104,7 @@
         <v>34</v>
       </c>
       <c r="C1563" s="1" t="s">
-        <v>4970</v>
+        <v>4966</v>
       </c>
       <c r="D1563" s="1" t="s">
         <v>4743</v>
@@ -65163,13 +65113,13 @@
         <v>4744</v>
       </c>
       <c r="F1563" s="1" t="s">
+        <v>4967</v>
+      </c>
+      <c r="G1563" s="1" t="s">
+        <v>4968</v>
+      </c>
+      <c r="I1563" s="1" t="s">
         <v>4971</v>
-      </c>
-      <c r="G1563" s="1" t="s">
-        <v>4972</v>
-      </c>
-      <c r="I1563" s="1" t="s">
-        <v>4976</v>
       </c>
       <c r="J1563" s="1" t="s">
         <v>4896</v>
@@ -65186,7 +65136,7 @@
         <v>34</v>
       </c>
       <c r="C1564" s="1" t="s">
-        <v>4970</v>
+        <v>4966</v>
       </c>
       <c r="D1564" s="1" t="s">
         <v>4743</v>
@@ -65195,16 +65145,14 @@
         <v>4744</v>
       </c>
       <c r="F1564" s="1" t="s">
-        <v>4971</v>
+        <v>4967</v>
       </c>
       <c r="G1564" s="1" t="s">
-        <v>4973</v>
-      </c>
-      <c r="H1564" s="1" t="s">
-        <v>4975</v>
-      </c>
+        <v>4969</v>
+      </c>
+      <c r="H1564" s="5"/>
       <c r="I1564" s="1" t="s">
-        <v>4977</v>
+        <v>4972</v>
       </c>
       <c r="J1564" s="1" t="s">
         <v>4897</v>
@@ -65221,7 +65169,7 @@
         <v>34</v>
       </c>
       <c r="C1565" s="1" t="s">
-        <v>4970</v>
+        <v>4966</v>
       </c>
       <c r="D1565" s="1" t="s">
         <v>4743</v>
@@ -65230,16 +65178,14 @@
         <v>4744</v>
       </c>
       <c r="F1565" s="1" t="s">
-        <v>4971</v>
+        <v>4967</v>
       </c>
       <c r="G1565" s="1" t="s">
-        <v>4974</v>
-      </c>
-      <c r="H1565" s="1" t="s">
-        <v>4975</v>
-      </c>
+        <v>4970</v>
+      </c>
+      <c r="H1565" s="5"/>
       <c r="I1565" s="1" t="s">
-        <v>4978</v>
+        <v>4973</v>
       </c>
       <c r="J1565" s="1" t="s">
         <v>4898</v>
@@ -65256,7 +65202,7 @@
         <v>34</v>
       </c>
       <c r="C1566" s="1" t="s">
-        <v>4979</v>
+        <v>4974</v>
       </c>
       <c r="D1566" s="1" t="s">
         <v>4743</v>
@@ -65268,10 +65214,10 @@
         <v>4803</v>
       </c>
       <c r="G1566" s="1" t="s">
-        <v>4981</v>
+        <v>4976</v>
       </c>
       <c r="I1566" s="1" t="s">
-        <v>4985</v>
+        <v>4979</v>
       </c>
       <c r="J1566" s="1" t="s">
         <v>4899</v>
@@ -65288,7 +65234,7 @@
         <v>34</v>
       </c>
       <c r="C1567" s="1" t="s">
-        <v>4984</v>
+        <v>4978</v>
       </c>
       <c r="D1567" s="1" t="s">
         <v>4743</v>
@@ -65300,13 +65246,11 @@
         <v>4803</v>
       </c>
       <c r="G1567" s="1" t="s">
-        <v>4982</v>
-      </c>
-      <c r="H1567" s="1" t="s">
-        <v>4983</v>
-      </c>
+        <v>4977</v>
+      </c>
+      <c r="H1567" s="5"/>
       <c r="I1567" s="1" t="s">
-        <v>4986</v>
+        <v>4980</v>
       </c>
       <c r="J1567" s="1" t="s">
         <v>4900</v>
@@ -65323,7 +65267,7 @@
         <v>34</v>
       </c>
       <c r="C1568" s="1" t="s">
-        <v>4987</v>
+        <v>4981</v>
       </c>
       <c r="D1568" s="1" t="s">
         <v>4743</v>
@@ -65332,16 +65276,14 @@
         <v>4744</v>
       </c>
       <c r="F1568" s="1" t="s">
-        <v>4940</v>
+        <v>4939</v>
       </c>
       <c r="G1568" s="1" t="s">
-        <v>4988</v>
-      </c>
-      <c r="H1568" s="1" t="s">
-        <v>4956</v>
-      </c>
+        <v>4982</v>
+      </c>
+      <c r="H1568" s="5"/>
       <c r="I1568" s="1" t="s">
-        <v>4989</v>
+        <v>4983</v>
       </c>
       <c r="J1568" s="1" t="s">
         <v>4901</v>
@@ -65358,7 +65300,7 @@
         <v>34</v>
       </c>
       <c r="C1569" s="1" t="s">
-        <v>4994</v>
+        <v>4988</v>
       </c>
       <c r="D1569" s="1" t="s">
         <v>4743</v>
@@ -65370,13 +65312,11 @@
         <v>4746</v>
       </c>
       <c r="G1569" s="1" t="s">
-        <v>5002</v>
-      </c>
-      <c r="H1569" s="1" t="s">
-        <v>4918</v>
-      </c>
+        <v>4996</v>
+      </c>
+      <c r="H1569" s="5"/>
       <c r="I1569" s="1" t="s">
-        <v>5001</v>
+        <v>4995</v>
       </c>
       <c r="J1569" s="1" t="s">
         <v>4902</v>
@@ -65393,7 +65333,7 @@
         <v>34</v>
       </c>
       <c r="C1570" s="1" t="s">
-        <v>4995</v>
+        <v>4989</v>
       </c>
       <c r="D1570" s="1" t="s">
         <v>4743</v>
@@ -65402,16 +65342,14 @@
         <v>4744</v>
       </c>
       <c r="F1570" s="1" t="s">
-        <v>4923</v>
+        <v>4922</v>
       </c>
       <c r="G1570" s="1" t="s">
-        <v>5003</v>
-      </c>
-      <c r="H1570" s="1" t="s">
-        <v>4953</v>
-      </c>
+        <v>4997</v>
+      </c>
+      <c r="H1570" s="5"/>
       <c r="I1570" s="1" t="s">
-        <v>5004</v>
+        <v>4998</v>
       </c>
       <c r="J1570" s="1" t="s">
         <v>4903</v>
@@ -65428,7 +65366,7 @@
         <v>34</v>
       </c>
       <c r="C1571" s="1" t="s">
-        <v>4996</v>
+        <v>4990</v>
       </c>
       <c r="D1571" s="1" t="s">
         <v>4743</v>
@@ -65437,16 +65375,14 @@
         <v>4744</v>
       </c>
       <c r="F1571" s="1" t="s">
-        <v>4940</v>
+        <v>4939</v>
       </c>
       <c r="G1571" s="1" t="s">
-        <v>5005</v>
-      </c>
-      <c r="H1571" s="1" t="s">
-        <v>4956</v>
-      </c>
+        <v>4999</v>
+      </c>
+      <c r="H1571" s="5"/>
       <c r="I1571" s="1" t="s">
-        <v>5006</v>
+        <v>5000</v>
       </c>
       <c r="J1571" s="1" t="s">
         <v>4904</v>
@@ -65457,13 +65393,13 @@
     </row>
     <row r="1572" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1572" s="6" t="s">
-        <v>4980</v>
+        <v>4975</v>
       </c>
       <c r="B1572" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1572" s="1" t="s">
-        <v>4997</v>
+        <v>4991</v>
       </c>
       <c r="D1572" s="1" t="s">
         <v>4743</v>
@@ -65472,16 +65408,14 @@
         <v>4744</v>
       </c>
       <c r="F1572" s="1" t="s">
-        <v>4931</v>
+        <v>4930</v>
       </c>
       <c r="G1572" s="1" t="s">
-        <v>5007</v>
-      </c>
-      <c r="H1572" s="1" t="s">
-        <v>5008</v>
-      </c>
+        <v>5001</v>
+      </c>
+      <c r="H1572" s="5"/>
       <c r="I1572" s="1" t="s">
-        <v>5009</v>
+        <v>5003</v>
       </c>
       <c r="J1572" s="1" t="s">
         <v>4905</v>
@@ -65492,13 +65426,13 @@
     </row>
     <row r="1573" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1573" s="6" t="s">
-        <v>4990</v>
+        <v>4984</v>
       </c>
       <c r="B1573" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1573" s="1" t="s">
-        <v>4998</v>
+        <v>4992</v>
       </c>
       <c r="D1573" s="1" t="s">
         <v>4743</v>
@@ -65507,16 +65441,14 @@
         <v>4744</v>
       </c>
       <c r="F1573" s="1" t="s">
-        <v>4958</v>
+        <v>4955</v>
       </c>
       <c r="G1573" s="1" t="s">
-        <v>5010</v>
-      </c>
-      <c r="H1573" s="1" t="s">
-        <v>4964</v>
-      </c>
+        <v>5004</v>
+      </c>
+      <c r="H1573" s="5"/>
       <c r="I1573" s="1" t="s">
-        <v>5011</v>
+        <v>5005</v>
       </c>
       <c r="J1573" s="1" t="s">
         <v>4906</v>
@@ -65527,13 +65459,13 @@
     </row>
     <row r="1574" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1574" s="6" t="s">
-        <v>4991</v>
+        <v>4985</v>
       </c>
       <c r="B1574" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1574" s="1" t="s">
-        <v>4999</v>
+        <v>4993</v>
       </c>
       <c r="D1574" s="1" t="s">
         <v>4743</v>
@@ -65542,16 +65474,14 @@
         <v>4744</v>
       </c>
       <c r="F1574" s="1" t="s">
-        <v>4971</v>
+        <v>4967</v>
       </c>
       <c r="G1574" s="1" t="s">
-        <v>5012</v>
-      </c>
-      <c r="H1574" s="1" t="s">
-        <v>4975</v>
-      </c>
+        <v>5006</v>
+      </c>
+      <c r="H1574" s="5"/>
       <c r="I1574" s="1" t="s">
-        <v>5013</v>
+        <v>5007</v>
       </c>
       <c r="J1574" s="1" t="s">
         <v>4907</v>
@@ -65562,13 +65492,13 @@
     </row>
     <row r="1575" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1575" s="6" t="s">
-        <v>4992</v>
+        <v>4986</v>
       </c>
       <c r="B1575" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1575" s="1" t="s">
-        <v>5000</v>
+        <v>4994</v>
       </c>
       <c r="D1575" s="1" t="s">
         <v>4743</v>
@@ -65580,13 +65510,11 @@
         <v>4803</v>
       </c>
       <c r="G1575" s="1" t="s">
-        <v>5014</v>
-      </c>
-      <c r="H1575" s="1" t="s">
-        <v>4983</v>
-      </c>
+        <v>5008</v>
+      </c>
+      <c r="H1575" s="5"/>
       <c r="I1575" s="1" t="s">
-        <v>5015</v>
+        <v>5009</v>
       </c>
       <c r="J1575" s="1" t="s">
         <v>4908</v>
@@ -65597,13 +65525,13 @@
     </row>
     <row r="1576" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1576" s="6" t="s">
-        <v>4993</v>
+        <v>4987</v>
       </c>
       <c r="B1576" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1576" s="1" t="s">
-        <v>5017</v>
+        <v>5011</v>
       </c>
       <c r="D1576" s="1" t="s">
         <v>4743</v>
@@ -65615,13 +65543,11 @@
         <v>4746</v>
       </c>
       <c r="G1576" s="1" t="s">
-        <v>5019</v>
-      </c>
-      <c r="H1576" s="1" t="s">
-        <v>4918</v>
-      </c>
+        <v>5013</v>
+      </c>
+      <c r="H1576" s="5"/>
       <c r="I1576" s="1" t="s">
-        <v>5020</v>
+        <v>5014</v>
       </c>
       <c r="J1576" s="1" t="s">
         <v>4909</v>
@@ -65632,13 +65558,13 @@
     </row>
     <row r="1577" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1577" s="6" t="s">
-        <v>5016</v>
+        <v>5010</v>
       </c>
       <c r="B1577" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1577" s="1" t="s">
-        <v>5018</v>
+        <v>5012</v>
       </c>
       <c r="D1577" s="1" t="s">
         <v>4743</v>
@@ -65647,16 +65573,14 @@
         <v>4744</v>
       </c>
       <c r="F1577" s="1" t="s">
-        <v>4940</v>
+        <v>4939</v>
       </c>
       <c r="G1577" s="1" t="s">
-        <v>5021</v>
-      </c>
-      <c r="H1577" s="1" t="s">
-        <v>4956</v>
-      </c>
+        <v>5015</v>
+      </c>
+      <c r="H1577" s="5"/>
       <c r="I1577" s="1" t="s">
-        <v>5022</v>
+        <v>5016</v>
       </c>
       <c r="J1577" s="1" t="s">
         <v>4910</v>
@@ -65667,13 +65591,13 @@
     </row>
     <row r="1578" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1578" s="6" t="s">
-        <v>5037</v>
+        <v>5031</v>
       </c>
       <c r="B1578" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1578" s="1" t="s">
-        <v>5031</v>
+        <v>5025</v>
       </c>
       <c r="D1578" s="1" t="s">
         <v>4743</v>
@@ -65682,16 +65606,16 @@
         <v>4744</v>
       </c>
       <c r="F1578" s="1" t="s">
-        <v>5025</v>
+        <v>5019</v>
       </c>
       <c r="G1578" s="1" t="s">
-        <v>5026</v>
+        <v>5020</v>
       </c>
       <c r="I1578" s="1" t="s">
-        <v>5027</v>
+        <v>5021</v>
       </c>
       <c r="J1578" s="1" t="s">
-        <v>5028</v>
+        <v>5022</v>
       </c>
       <c r="K1578" s="1" t="s">
         <v>44</v>
@@ -65699,13 +65623,13 @@
     </row>
     <row r="1579" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1579" s="6" t="s">
-        <v>5023</v>
+        <v>5017</v>
       </c>
       <c r="B1579" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1579" s="1" t="s">
-        <v>5032</v>
+        <v>5026</v>
       </c>
       <c r="D1579" s="1" t="s">
         <v>4743</v>
@@ -65714,16 +65638,16 @@
         <v>4744</v>
       </c>
       <c r="F1579" s="1" t="s">
-        <v>5033</v>
+        <v>5027</v>
       </c>
       <c r="G1579" s="1" t="s">
-        <v>5034</v>
+        <v>5028</v>
       </c>
       <c r="I1579" s="1" t="s">
-        <v>5035</v>
+        <v>5029</v>
       </c>
       <c r="J1579" s="1" t="s">
-        <v>5029</v>
+        <v>5023</v>
       </c>
       <c r="K1579" s="1" t="s">
         <v>44</v>
@@ -65731,13 +65655,13 @@
     </row>
     <row r="1580" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1580" s="6" t="s">
-        <v>5024</v>
+        <v>5018</v>
       </c>
       <c r="B1580" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1580" s="1" t="s">
-        <v>5032</v>
+        <v>5026</v>
       </c>
       <c r="D1580" s="1" t="s">
         <v>4743</v>
@@ -65746,16 +65670,16 @@
         <v>4744</v>
       </c>
       <c r="F1580" s="1" t="s">
-        <v>5033</v>
+        <v>5027</v>
       </c>
       <c r="H1580" s="1" t="s">
-        <v>5038</v>
+        <v>5032</v>
       </c>
       <c r="I1580" s="1" t="s">
-        <v>5036</v>
+        <v>5030</v>
       </c>
       <c r="J1580" s="1" t="s">
-        <v>5030</v>
+        <v>5024</v>
       </c>
       <c r="K1580" s="1" t="s">
         <v>44</v>
@@ -65763,31 +65687,31 @@
     </row>
     <row r="1581" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1581" s="1" t="s">
-        <v>5039</v>
+        <v>5033</v>
       </c>
       <c r="B1581" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1581" s="1" t="s">
-        <v>5040</v>
+        <v>5034</v>
       </c>
       <c r="D1581" s="1" t="s">
         <v>4743</v>
       </c>
       <c r="E1581" s="1" t="s">
-        <v>5041</v>
+        <v>5035</v>
       </c>
       <c r="F1581" s="1" t="s">
-        <v>5042</v>
+        <v>5036</v>
       </c>
       <c r="G1581" s="1" t="s">
-        <v>5043</v>
+        <v>5037</v>
       </c>
       <c r="I1581" s="1" t="s">
-        <v>5044</v>
+        <v>5038</v>
       </c>
       <c r="J1581" s="1" t="s">
-        <v>5045</v>
+        <v>5039</v>
       </c>
       <c r="K1581" s="1" t="s">
         <v>44</v>
@@ -65795,31 +65719,31 @@
     </row>
     <row r="1582" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1582" s="1" t="s">
-        <v>5051</v>
+        <v>5045</v>
       </c>
       <c r="B1582" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1582" s="1" t="s">
-        <v>5056</v>
+        <v>5050</v>
       </c>
       <c r="D1582" s="1" t="s">
         <v>4743</v>
       </c>
       <c r="E1582" s="1" t="s">
-        <v>5041</v>
+        <v>5035</v>
       </c>
       <c r="F1582" s="1" t="s">
-        <v>5042</v>
+        <v>5036</v>
       </c>
       <c r="G1582" s="1" t="s">
-        <v>5060</v>
+        <v>5054</v>
       </c>
       <c r="I1582" s="1" t="s">
-        <v>5044</v>
+        <v>5038</v>
       </c>
       <c r="J1582" s="1" t="s">
-        <v>5061</v>
+        <v>5055</v>
       </c>
       <c r="K1582" s="1" t="s">
         <v>44</v>
@@ -65827,31 +65751,31 @@
     </row>
     <row r="1583" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1583" s="1" t="s">
-        <v>5052</v>
+        <v>5046</v>
       </c>
       <c r="B1583" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1583" s="1" t="s">
-        <v>5072</v>
+        <v>5066</v>
       </c>
       <c r="D1583" s="1" t="s">
         <v>4743</v>
       </c>
       <c r="E1583" s="1" t="s">
-        <v>5041</v>
+        <v>5035</v>
       </c>
       <c r="F1583" s="1" t="s">
-        <v>5042</v>
+        <v>5036</v>
       </c>
       <c r="G1583" s="1" t="s">
-        <v>5069</v>
+        <v>5063</v>
       </c>
       <c r="I1583" s="1" t="s">
-        <v>5044</v>
+        <v>5038</v>
       </c>
       <c r="J1583" s="1" t="s">
-        <v>5062</v>
+        <v>5056</v>
       </c>
       <c r="K1583" s="1" t="s">
         <v>44</v>
@@ -65859,31 +65783,31 @@
     </row>
     <row r="1584" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1584" s="1" t="s">
-        <v>5053</v>
+        <v>5047</v>
       </c>
       <c r="B1584" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1584" s="1" t="s">
-        <v>5073</v>
+        <v>5067</v>
       </c>
       <c r="D1584" s="1" t="s">
         <v>4743</v>
       </c>
       <c r="E1584" s="1" t="s">
-        <v>5041</v>
+        <v>5035</v>
       </c>
       <c r="F1584" s="1" t="s">
-        <v>5042</v>
+        <v>5036</v>
       </c>
       <c r="G1584" s="1" t="s">
-        <v>5070</v>
+        <v>5064</v>
       </c>
       <c r="I1584" s="1" t="s">
-        <v>5044</v>
+        <v>5038</v>
       </c>
       <c r="J1584" s="1" t="s">
-        <v>5063</v>
+        <v>5057</v>
       </c>
       <c r="K1584" s="1" t="s">
         <v>44</v>
@@ -65891,31 +65815,31 @@
     </row>
     <row r="1585" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1585" s="1" t="s">
-        <v>5054</v>
+        <v>5048</v>
       </c>
       <c r="B1585" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1585" s="1" t="s">
-        <v>5074</v>
+        <v>5068</v>
       </c>
       <c r="D1585" s="1" t="s">
         <v>4743</v>
       </c>
       <c r="E1585" s="1" t="s">
-        <v>5041</v>
+        <v>5035</v>
       </c>
       <c r="F1585" s="1" t="s">
-        <v>5042</v>
+        <v>5036</v>
       </c>
       <c r="G1585" s="1" t="s">
-        <v>5071</v>
+        <v>5065</v>
       </c>
       <c r="I1585" s="1" t="s">
-        <v>5044</v>
+        <v>5038</v>
       </c>
       <c r="J1585" s="1" t="s">
-        <v>5064</v>
+        <v>5058</v>
       </c>
       <c r="K1585" s="1" t="s">
         <v>44</v>
@@ -65923,31 +65847,31 @@
     </row>
     <row r="1586" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1586" s="1" t="s">
-        <v>5055</v>
+        <v>5049</v>
       </c>
       <c r="B1586" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1586" s="1" t="s">
-        <v>5075</v>
+        <v>5069</v>
       </c>
       <c r="D1586" s="1" t="s">
         <v>4743</v>
       </c>
       <c r="E1586" s="1" t="s">
-        <v>5041</v>
+        <v>5035</v>
       </c>
       <c r="F1586" s="1" t="s">
-        <v>5042</v>
+        <v>5036</v>
       </c>
       <c r="G1586" s="1" t="s">
-        <v>5076</v>
+        <v>5070</v>
       </c>
       <c r="I1586" s="1" t="s">
-        <v>5044</v>
+        <v>5038</v>
       </c>
       <c r="J1586" s="1" t="s">
-        <v>5065</v>
+        <v>5059</v>
       </c>
       <c r="K1586" s="1" t="s">
         <v>44</v>
@@ -65955,31 +65879,31 @@
     </row>
     <row r="1587" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1587" s="1" t="s">
-        <v>5057</v>
+        <v>5051</v>
       </c>
       <c r="B1587" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1587" s="1" t="s">
-        <v>5077</v>
+        <v>5071</v>
       </c>
       <c r="D1587" s="1" t="s">
         <v>4743</v>
       </c>
       <c r="E1587" s="1" t="s">
-        <v>5041</v>
+        <v>5035</v>
       </c>
       <c r="F1587" s="1" t="s">
-        <v>5042</v>
+        <v>5036</v>
       </c>
       <c r="G1587" s="1" t="s">
-        <v>5089</v>
+        <v>5083</v>
       </c>
       <c r="I1587" s="1" t="s">
-        <v>5078</v>
+        <v>5072</v>
       </c>
       <c r="J1587" s="1" t="s">
-        <v>5066</v>
+        <v>5060</v>
       </c>
       <c r="K1587" s="1" t="s">
         <v>44</v>
@@ -65987,31 +65911,31 @@
     </row>
     <row r="1588" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1588" s="1" t="s">
-        <v>5058</v>
+        <v>5052</v>
       </c>
       <c r="B1588" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1588" s="1" t="s">
-        <v>5079</v>
+        <v>5073</v>
       </c>
       <c r="D1588" s="1" t="s">
         <v>4743</v>
       </c>
       <c r="E1588" s="1" t="s">
-        <v>5041</v>
+        <v>5035</v>
       </c>
       <c r="F1588" s="1" t="s">
-        <v>5081</v>
+        <v>5075</v>
       </c>
       <c r="G1588" s="1" t="s">
-        <v>5080</v>
+        <v>5074</v>
       </c>
       <c r="I1588" s="1" t="s">
-        <v>5082</v>
+        <v>5076</v>
       </c>
       <c r="J1588" s="1" t="s">
-        <v>5067</v>
+        <v>5061</v>
       </c>
       <c r="K1588" s="1" t="s">
         <v>44</v>
@@ -66019,31 +65943,31 @@
     </row>
     <row r="1589" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1589" s="1" t="s">
-        <v>5059</v>
+        <v>5053</v>
       </c>
       <c r="B1589" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1589" s="1" t="s">
-        <v>5083</v>
+        <v>5077</v>
       </c>
       <c r="D1589" s="1" t="s">
         <v>4743</v>
       </c>
       <c r="E1589" s="1" t="s">
-        <v>5041</v>
+        <v>5035</v>
       </c>
       <c r="F1589" s="1" t="s">
-        <v>5081</v>
+        <v>5075</v>
       </c>
       <c r="G1589" s="1" t="s">
-        <v>5084</v>
+        <v>5078</v>
       </c>
       <c r="I1589" s="1" t="s">
-        <v>5044</v>
+        <v>5038</v>
       </c>
       <c r="J1589" s="1" t="s">
-        <v>5068</v>
+        <v>5062</v>
       </c>
       <c r="K1589" s="1" t="s">
         <v>44</v>
@@ -66051,31 +65975,31 @@
     </row>
     <row r="1590" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1590" s="1" t="s">
-        <v>5085</v>
+        <v>5079</v>
       </c>
       <c r="B1590" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1590" s="1" t="s">
-        <v>5086</v>
+        <v>5080</v>
       </c>
       <c r="D1590" s="1" t="s">
         <v>4743</v>
       </c>
       <c r="E1590" s="1" t="s">
-        <v>5041</v>
+        <v>5035</v>
       </c>
       <c r="F1590" s="1" t="s">
+        <v>5075</v>
+      </c>
+      <c r="G1590" s="1" t="s">
         <v>5081</v>
       </c>
-      <c r="G1590" s="1" t="s">
-        <v>5087</v>
-      </c>
       <c r="I1590" s="1" t="s">
-        <v>5044</v>
+        <v>5038</v>
       </c>
       <c r="J1590" s="1" t="s">
-        <v>5088</v>
+        <v>5082</v>
       </c>
       <c r="K1590" s="1" t="s">
         <v>44</v>
@@ -66083,31 +66007,31 @@
     </row>
     <row r="1591" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1591" s="1" t="s">
-        <v>5090</v>
+        <v>5084</v>
       </c>
       <c r="B1591" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1591" s="1" t="s">
-        <v>5091</v>
+        <v>5085</v>
       </c>
       <c r="D1591" s="1" t="s">
         <v>4743</v>
       </c>
       <c r="E1591" s="1" t="s">
-        <v>5041</v>
+        <v>5035</v>
       </c>
       <c r="F1591" s="1" t="s">
+        <v>5086</v>
+      </c>
+      <c r="G1591" s="1" t="s">
+        <v>5087</v>
+      </c>
+      <c r="I1591" s="1" t="s">
         <v>5092</v>
       </c>
-      <c r="G1591" s="1" t="s">
-        <v>5093</v>
-      </c>
-      <c r="I1591" s="1" t="s">
-        <v>5098</v>
-      </c>
       <c r="J1591" s="1" t="s">
-        <v>5094</v>
+        <v>5088</v>
       </c>
       <c r="K1591" s="1" t="s">
         <v>44</v>
@@ -66115,31 +66039,31 @@
     </row>
     <row r="1592" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1592" s="1" t="s">
-        <v>5095</v>
+        <v>5089</v>
       </c>
       <c r="B1592" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1592" s="1" t="s">
-        <v>5096</v>
+        <v>5090</v>
       </c>
       <c r="D1592" s="1" t="s">
         <v>4743</v>
       </c>
       <c r="E1592" s="1" t="s">
-        <v>5041</v>
+        <v>5035</v>
       </c>
       <c r="F1592" s="1" t="s">
-        <v>5092</v>
+        <v>5086</v>
       </c>
       <c r="G1592" s="1" t="s">
-        <v>5097</v>
+        <v>5091</v>
       </c>
       <c r="I1592" s="1" t="s">
-        <v>5099</v>
+        <v>5093</v>
       </c>
       <c r="J1592" s="1" t="s">
-        <v>5100</v>
+        <v>5094</v>
       </c>
       <c r="K1592" s="1" t="s">
         <v>44</v>
@@ -66147,31 +66071,31 @@
     </row>
     <row r="1593" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1593" s="1" t="s">
-        <v>5107</v>
+        <v>5101</v>
       </c>
       <c r="B1593" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1593" s="1" t="s">
-        <v>5101</v>
+        <v>5095</v>
       </c>
       <c r="D1593" s="1" t="s">
         <v>4743</v>
       </c>
       <c r="E1593" s="1" t="s">
-        <v>5041</v>
+        <v>5035</v>
       </c>
       <c r="F1593" s="1" t="s">
-        <v>5102</v>
+        <v>5096</v>
       </c>
       <c r="G1593" s="1" t="s">
-        <v>5103</v>
+        <v>5097</v>
       </c>
       <c r="I1593" s="1" t="s">
-        <v>5104</v>
+        <v>5098</v>
       </c>
       <c r="J1593" s="1" t="s">
-        <v>5105</v>
+        <v>5099</v>
       </c>
       <c r="K1593" s="1" t="s">
         <v>44</v>
@@ -66179,31 +66103,31 @@
     </row>
     <row r="1594" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1594" s="1" t="s">
-        <v>5106</v>
+        <v>5100</v>
       </c>
       <c r="B1594" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1594" s="1" t="s">
-        <v>5101</v>
+        <v>5095</v>
       </c>
       <c r="D1594" s="1" t="s">
         <v>4743</v>
       </c>
       <c r="E1594" s="1" t="s">
-        <v>5041</v>
+        <v>5035</v>
       </c>
       <c r="F1594" s="1" t="s">
+        <v>5096</v>
+      </c>
+      <c r="H1594" s="1" t="s">
+        <v>5101</v>
+      </c>
+      <c r="I1594" s="1" t="s">
         <v>5102</v>
       </c>
-      <c r="H1594" s="1" t="s">
-        <v>5107</v>
-      </c>
-      <c r="I1594" s="1" t="s">
-        <v>5108</v>
-      </c>
       <c r="J1594" s="1" t="s">
-        <v>5109</v>
+        <v>5103</v>
       </c>
       <c r="K1594" s="1" t="s">
         <v>44</v>
@@ -66211,31 +66135,31 @@
     </row>
     <row r="1595" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1595" s="5" t="s">
-        <v>5110</v>
+        <v>5104</v>
       </c>
       <c r="B1595" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C1595" s="1" t="s">
-        <v>5117</v>
+        <v>5111</v>
       </c>
       <c r="D1595" s="1" t="s">
         <v>4743</v>
       </c>
       <c r="E1595" s="1" t="s">
-        <v>5119</v>
+        <v>5113</v>
       </c>
       <c r="F1595" s="1" t="s">
-        <v>5132</v>
+        <v>5126</v>
       </c>
       <c r="G1595" s="1" t="s">
-        <v>5142</v>
+        <v>5136</v>
       </c>
       <c r="I1595" s="1" t="s">
-        <v>5143</v>
+        <v>5137</v>
       </c>
       <c r="J1595" s="1" t="s">
-        <v>5144</v>
+        <v>5138</v>
       </c>
       <c r="K1595" s="1" t="s">
         <v>44</v>
@@ -66243,31 +66167,31 @@
     </row>
     <row r="1596" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1596" s="5" t="s">
-        <v>5111</v>
+        <v>5105</v>
       </c>
       <c r="B1596" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C1596" s="1" t="s">
-        <v>5118</v>
+        <v>5112</v>
       </c>
       <c r="D1596" s="1" t="s">
         <v>4743</v>
       </c>
       <c r="E1596" s="1" t="s">
-        <v>5119</v>
+        <v>5113</v>
       </c>
       <c r="F1596" s="1" t="s">
-        <v>5133</v>
+        <v>5127</v>
       </c>
       <c r="G1596" s="1" t="s">
-        <v>5154</v>
+        <v>5148</v>
       </c>
       <c r="I1596" s="1" t="s">
-        <v>5163</v>
+        <v>5157</v>
       </c>
       <c r="J1596" s="1" t="s">
-        <v>5145</v>
+        <v>5139</v>
       </c>
       <c r="K1596" s="1" t="s">
         <v>44</v>
@@ -66275,31 +66199,31 @@
     </row>
     <row r="1597" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1597" s="5" t="s">
-        <v>5112</v>
+        <v>5106</v>
       </c>
       <c r="B1597" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C1597" s="1" t="s">
-        <v>5121</v>
+        <v>5115</v>
       </c>
       <c r="D1597" s="1" t="s">
         <v>4743</v>
       </c>
       <c r="E1597" s="1" t="s">
-        <v>5119</v>
+        <v>5113</v>
       </c>
       <c r="F1597" s="1" t="s">
-        <v>5134</v>
+        <v>5128</v>
       </c>
       <c r="G1597" s="1" t="s">
-        <v>5155</v>
+        <v>5149</v>
       </c>
       <c r="I1597" s="1" t="s">
-        <v>5164</v>
+        <v>5158</v>
       </c>
       <c r="J1597" s="1" t="s">
-        <v>5146</v>
+        <v>5140</v>
       </c>
       <c r="K1597" s="1" t="s">
         <v>44</v>
@@ -66307,31 +66231,31 @@
     </row>
     <row r="1598" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1598" s="5" t="s">
-        <v>5113</v>
+        <v>5107</v>
       </c>
       <c r="B1598" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C1598" s="1" t="s">
-        <v>5123</v>
+        <v>5117</v>
       </c>
       <c r="D1598" s="1" t="s">
         <v>4743</v>
       </c>
       <c r="E1598" s="1" t="s">
-        <v>5119</v>
+        <v>5113</v>
       </c>
       <c r="F1598" s="1" t="s">
-        <v>5135</v>
+        <v>5129</v>
       </c>
       <c r="G1598" s="1" t="s">
-        <v>5156</v>
+        <v>5150</v>
       </c>
       <c r="I1598" s="1" t="s">
-        <v>5165</v>
+        <v>5159</v>
       </c>
       <c r="J1598" s="1" t="s">
-        <v>5147</v>
+        <v>5141</v>
       </c>
       <c r="K1598" s="1" t="s">
         <v>44</v>
@@ -66339,31 +66263,31 @@
     </row>
     <row r="1599" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1599" s="5" t="s">
-        <v>5114</v>
+        <v>5108</v>
       </c>
       <c r="B1599" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C1599" s="1" t="s">
-        <v>5124</v>
+        <v>5118</v>
       </c>
       <c r="D1599" s="1" t="s">
         <v>4743</v>
       </c>
       <c r="E1599" s="1" t="s">
-        <v>5119</v>
+        <v>5113</v>
       </c>
       <c r="F1599" s="1" t="s">
-        <v>5136</v>
+        <v>5130</v>
       </c>
       <c r="G1599" s="1" t="s">
-        <v>5157</v>
+        <v>5151</v>
       </c>
       <c r="I1599" s="1" t="s">
-        <v>5166</v>
+        <v>5160</v>
       </c>
       <c r="J1599" s="1" t="s">
-        <v>5148</v>
+        <v>5142</v>
       </c>
       <c r="K1599" s="1" t="s">
         <v>44</v>
@@ -66371,31 +66295,31 @@
     </row>
     <row r="1600" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1600" s="5" t="s">
-        <v>5115</v>
+        <v>5109</v>
       </c>
       <c r="B1600" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C1600" s="1" t="s">
-        <v>5125</v>
+        <v>5119</v>
       </c>
       <c r="D1600" s="1" t="s">
         <v>4743</v>
       </c>
       <c r="E1600" s="1" t="s">
-        <v>5119</v>
+        <v>5113</v>
       </c>
       <c r="F1600" s="1" t="s">
-        <v>5137</v>
+        <v>5131</v>
       </c>
       <c r="G1600" s="1" t="s">
-        <v>5158</v>
+        <v>5152</v>
       </c>
       <c r="I1600" s="1" t="s">
-        <v>5167</v>
+        <v>5161</v>
       </c>
       <c r="J1600" s="1" t="s">
-        <v>5149</v>
+        <v>5143</v>
       </c>
       <c r="K1600" s="1" t="s">
         <v>44</v>
@@ -66403,31 +66327,31 @@
     </row>
     <row r="1601" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1601" s="5" t="s">
+        <v>5110</v>
+      </c>
+      <c r="B1601" s="4" t="s">
         <v>5116</v>
       </c>
-      <c r="B1601" s="4" t="s">
-        <v>5122</v>
-      </c>
       <c r="C1601" s="1" t="s">
-        <v>5126</v>
+        <v>5120</v>
       </c>
       <c r="D1601" s="1" t="s">
         <v>4743</v>
       </c>
       <c r="E1601" s="1" t="s">
-        <v>5119</v>
+        <v>5113</v>
       </c>
       <c r="F1601" s="1" t="s">
-        <v>5138</v>
+        <v>5132</v>
       </c>
       <c r="G1601" s="1" t="s">
-        <v>5159</v>
+        <v>5153</v>
       </c>
       <c r="I1601" s="1" t="s">
-        <v>5168</v>
+        <v>5162</v>
       </c>
       <c r="J1601" s="1" t="s">
-        <v>5150</v>
+        <v>5144</v>
       </c>
       <c r="K1601" s="1" t="s">
         <v>44</v>
@@ -66435,31 +66359,31 @@
     </row>
     <row r="1602" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1602" s="5" t="s">
-        <v>5120</v>
+        <v>5114</v>
       </c>
       <c r="B1602" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C1602" s="1" t="s">
-        <v>5127</v>
+        <v>5121</v>
       </c>
       <c r="D1602" s="1" t="s">
         <v>4743</v>
       </c>
       <c r="E1602" s="1" t="s">
-        <v>5119</v>
+        <v>5113</v>
       </c>
       <c r="F1602" s="1" t="s">
-        <v>5139</v>
+        <v>5133</v>
       </c>
       <c r="G1602" s="1" t="s">
-        <v>5160</v>
+        <v>5154</v>
       </c>
       <c r="I1602" s="1" t="s">
-        <v>5169</v>
+        <v>5163</v>
       </c>
       <c r="J1602" s="1" t="s">
-        <v>5151</v>
+        <v>5145</v>
       </c>
       <c r="K1602" s="1" t="s">
         <v>44</v>
@@ -66467,31 +66391,31 @@
     </row>
     <row r="1603" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1603" s="5" t="s">
-        <v>5128</v>
+        <v>5122</v>
       </c>
       <c r="B1603" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C1603" s="1" t="s">
-        <v>5130</v>
+        <v>5124</v>
       </c>
       <c r="D1603" s="1" t="s">
         <v>4743</v>
       </c>
       <c r="E1603" s="1" t="s">
-        <v>5119</v>
+        <v>5113</v>
       </c>
       <c r="F1603" s="1" t="s">
-        <v>5140</v>
+        <v>5134</v>
       </c>
       <c r="G1603" s="1" t="s">
-        <v>5161</v>
+        <v>5155</v>
       </c>
       <c r="I1603" s="1" t="s">
-        <v>5170</v>
+        <v>5164</v>
       </c>
       <c r="J1603" s="1" t="s">
-        <v>5152</v>
+        <v>5146</v>
       </c>
       <c r="K1603" s="1" t="s">
         <v>44</v>
@@ -66499,31 +66423,31 @@
     </row>
     <row r="1604" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1604" s="5" t="s">
-        <v>5129</v>
+        <v>5123</v>
       </c>
       <c r="B1604" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C1604" s="1" t="s">
-        <v>5131</v>
+        <v>5125</v>
       </c>
       <c r="D1604" s="1" t="s">
         <v>4743</v>
       </c>
       <c r="E1604" s="1" t="s">
-        <v>5119</v>
+        <v>5113</v>
       </c>
       <c r="F1604" s="1" t="s">
-        <v>5141</v>
+        <v>5135</v>
       </c>
       <c r="G1604" s="1" t="s">
-        <v>5162</v>
+        <v>5156</v>
       </c>
       <c r="I1604" s="1" t="s">
-        <v>5171</v>
+        <v>5165</v>
       </c>
       <c r="J1604" s="1" t="s">
-        <v>5153</v>
+        <v>5147</v>
       </c>
       <c r="K1604" s="1" t="s">
         <v>44</v>
@@ -66531,31 +66455,31 @@
     </row>
     <row r="1605" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1605" s="5" t="s">
-        <v>5176</v>
+        <v>5170</v>
       </c>
       <c r="B1605" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C1605" s="1" t="s">
-        <v>5174</v>
+        <v>5168</v>
       </c>
       <c r="D1605" s="1" t="s">
         <v>4743</v>
       </c>
       <c r="E1605" s="1" t="s">
-        <v>5119</v>
+        <v>5113</v>
       </c>
       <c r="F1605" s="1" t="s">
-        <v>5134</v>
+        <v>5128</v>
       </c>
       <c r="G1605" s="1" t="s">
+        <v>5167</v>
+      </c>
+      <c r="I1605" s="1" t="s">
+        <v>5172</v>
+      </c>
+      <c r="J1605" s="1" t="s">
         <v>5173</v>
-      </c>
-      <c r="I1605" s="1" t="s">
-        <v>5178</v>
-      </c>
-      <c r="J1605" s="1" t="s">
-        <v>5179</v>
       </c>
       <c r="K1605" s="1" t="s">
         <v>44</v>
@@ -66563,31 +66487,31 @@
     </row>
     <row r="1606" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1606" s="5" t="s">
-        <v>5172</v>
+        <v>5166</v>
       </c>
       <c r="B1606" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C1606" s="1" t="s">
-        <v>5175</v>
+        <v>5169</v>
       </c>
       <c r="D1606" s="1" t="s">
         <v>4743</v>
       </c>
       <c r="E1606" s="1" t="s">
-        <v>5119</v>
+        <v>5113</v>
       </c>
       <c r="F1606" s="1" t="s">
-        <v>5134</v>
+        <v>5128</v>
       </c>
       <c r="H1606" s="1" t="s">
-        <v>5177</v>
+        <v>5171</v>
       </c>
       <c r="I1606" s="1" t="s">
-        <v>5108</v>
+        <v>5102</v>
       </c>
       <c r="J1606" s="1" t="s">
-        <v>5180</v>
+        <v>5174</v>
       </c>
       <c r="K1606" s="1" t="s">
         <v>44</v>
@@ -66595,28 +66519,28 @@
     </row>
     <row r="1607" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1607" s="1" t="s">
-        <v>5235</v>
+        <v>5229</v>
       </c>
       <c r="B1607" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1607" s="1" t="s">
-        <v>5230</v>
+        <v>5224</v>
       </c>
       <c r="D1607" s="1" t="s">
-        <v>5232</v>
+        <v>5226</v>
       </c>
       <c r="F1607" s="1" t="s">
+        <v>5228</v>
+      </c>
+      <c r="G1607" s="1" t="s">
+        <v>5227</v>
+      </c>
+      <c r="I1607" s="1" t="s">
         <v>5234</v>
       </c>
-      <c r="G1607" s="1" t="s">
-        <v>5233</v>
-      </c>
-      <c r="I1607" s="1" t="s">
-        <v>5240</v>
-      </c>
       <c r="J1607" s="1" t="s">
-        <v>5237</v>
+        <v>5231</v>
       </c>
       <c r="K1607" s="1" t="s">
         <v>44</v>
@@ -66624,28 +66548,28 @@
     </row>
     <row r="1608" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1608" s="1" t="s">
-        <v>5229</v>
+        <v>5223</v>
       </c>
       <c r="B1608" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1608" s="1" t="s">
-        <v>5231</v>
+        <v>5225</v>
       </c>
       <c r="D1608" s="1" t="s">
+        <v>5226</v>
+      </c>
+      <c r="F1608" s="1" t="s">
+        <v>5228</v>
+      </c>
+      <c r="H1608" s="1" t="s">
+        <v>5230</v>
+      </c>
+      <c r="I1608" s="1" t="s">
         <v>5232</v>
       </c>
-      <c r="F1608" s="1" t="s">
-        <v>5234</v>
-      </c>
-      <c r="H1608" s="1" t="s">
-        <v>5236</v>
-      </c>
-      <c r="I1608" s="1" t="s">
-        <v>5238</v>
-      </c>
       <c r="J1608" s="1" t="s">
-        <v>5239</v>
+        <v>5233</v>
       </c>
       <c r="K1608" s="1" t="s">
         <v>44</v>
@@ -66653,54 +66577,54 @@
     </row>
     <row r="1609" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1609" s="5" t="s">
-        <v>5241</v>
+        <v>5235</v>
       </c>
       <c r="B1609" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C1609" s="1" t="s">
-        <v>5242</v>
+        <v>5236</v>
       </c>
       <c r="D1609" s="1" t="s">
-        <v>5243</v>
+        <v>5237</v>
       </c>
       <c r="F1609" s="1" t="s">
         <v>2404</v>
       </c>
       <c r="G1609" s="1" t="s">
-        <v>5245</v>
+        <v>5239</v>
       </c>
       <c r="I1609" s="1" t="s">
-        <v>5246</v>
+        <v>5240</v>
       </c>
       <c r="K1609" s="1" t="s">
-        <v>5247</v>
+        <v>5241</v>
       </c>
     </row>
     <row r="1610" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1610" s="1" t="s">
-        <v>5277</v>
+        <v>5271</v>
       </c>
       <c r="B1610" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1610" s="1" t="s">
-        <v>5272</v>
+        <v>5266</v>
       </c>
       <c r="D1610" s="1" t="s">
-        <v>5273</v>
+        <v>5267</v>
       </c>
       <c r="F1610" s="1" t="s">
-        <v>5276</v>
+        <v>5270</v>
       </c>
       <c r="G1610" s="1" t="s">
-        <v>5274</v>
+        <v>5268</v>
       </c>
       <c r="I1610" s="1" t="s">
-        <v>5344</v>
+        <v>5338</v>
       </c>
       <c r="J1610" s="1" t="s">
-        <v>5275</v>
+        <v>5269</v>
       </c>
       <c r="K1610" s="1" t="s">
         <v>44</v>
@@ -66708,28 +66632,28 @@
     </row>
     <row r="1611" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1611" s="1" t="s">
-        <v>5248</v>
+        <v>5242</v>
       </c>
       <c r="B1611" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1611" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1611" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1611" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1611" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1611" s="1" t="s">
+      <c r="I1611" s="1" t="s">
         <v>5273</v>
       </c>
-      <c r="F1611" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1611" s="1" t="s">
-        <v>5278</v>
-      </c>
-      <c r="I1611" s="1" t="s">
-        <v>5279</v>
-      </c>
       <c r="J1611" s="1" t="s">
-        <v>5280</v>
+        <v>5274</v>
       </c>
       <c r="K1611" s="1" t="s">
         <v>44</v>
@@ -66737,28 +66661,28 @@
     </row>
     <row r="1612" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1612" s="1" t="s">
-        <v>5249</v>
+        <v>5243</v>
       </c>
       <c r="B1612" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1612" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1612" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1612" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1612" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1612" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1612" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1612" s="1" t="s">
-        <v>5278</v>
-      </c>
       <c r="I1612" s="1" t="s">
-        <v>5291</v>
+        <v>5285</v>
       </c>
       <c r="J1612" s="1" t="s">
-        <v>5281</v>
+        <v>5275</v>
       </c>
       <c r="K1612" s="1" t="s">
         <v>44</v>
@@ -66766,28 +66690,28 @@
     </row>
     <row r="1613" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1613" s="1" t="s">
-        <v>5250</v>
+        <v>5244</v>
       </c>
       <c r="B1613" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1613" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1613" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1613" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1613" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1613" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1613" s="1" t="s">
+      <c r="I1613" s="1" t="s">
+        <v>5286</v>
+      </c>
+      <c r="J1613" s="1" t="s">
         <v>5276</v>
-      </c>
-      <c r="H1613" s="1" t="s">
-        <v>5278</v>
-      </c>
-      <c r="I1613" s="1" t="s">
-        <v>5292</v>
-      </c>
-      <c r="J1613" s="1" t="s">
-        <v>5282</v>
       </c>
       <c r="K1613" s="1" t="s">
         <v>44</v>
@@ -66795,28 +66719,28 @@
     </row>
     <row r="1614" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1614" s="1" t="s">
-        <v>5251</v>
+        <v>5245</v>
       </c>
       <c r="B1614" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1614" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1614" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1614" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1614" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1614" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1614" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1614" s="1" t="s">
-        <v>5278</v>
-      </c>
       <c r="I1614" s="1" t="s">
-        <v>5306</v>
+        <v>5300</v>
       </c>
       <c r="J1614" s="1" t="s">
-        <v>5283</v>
+        <v>5277</v>
       </c>
       <c r="K1614" s="1" t="s">
         <v>44</v>
@@ -66824,28 +66748,28 @@
     </row>
     <row r="1615" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1615" s="1" t="s">
-        <v>5252</v>
+        <v>5246</v>
       </c>
       <c r="B1615" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1615" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1615" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1615" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1615" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1615" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1615" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1615" s="1" t="s">
+      <c r="I1615" s="1" t="s">
+        <v>5301</v>
+      </c>
+      <c r="J1615" s="1" t="s">
         <v>5278</v>
-      </c>
-      <c r="I1615" s="1" t="s">
-        <v>5307</v>
-      </c>
-      <c r="J1615" s="1" t="s">
-        <v>5284</v>
       </c>
       <c r="K1615" s="1" t="s">
         <v>44</v>
@@ -66853,28 +66777,28 @@
     </row>
     <row r="1616" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1616" s="1" t="s">
-        <v>5253</v>
+        <v>5247</v>
       </c>
       <c r="B1616" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1616" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1616" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1616" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1616" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1616" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1616" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1616" s="1" t="s">
-        <v>5278</v>
-      </c>
       <c r="I1616" s="1" t="s">
-        <v>5308</v>
+        <v>5302</v>
       </c>
       <c r="J1616" s="1" t="s">
-        <v>5285</v>
+        <v>5279</v>
       </c>
       <c r="K1616" s="1" t="s">
         <v>44</v>
@@ -66882,28 +66806,28 @@
     </row>
     <row r="1617" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1617" s="1" t="s">
-        <v>5254</v>
+        <v>5248</v>
       </c>
       <c r="B1617" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1617" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1617" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1617" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1617" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1617" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1617" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1617" s="1" t="s">
-        <v>5278</v>
-      </c>
       <c r="I1617" s="1" t="s">
-        <v>5309</v>
+        <v>5303</v>
       </c>
       <c r="J1617" s="1" t="s">
-        <v>5286</v>
+        <v>5280</v>
       </c>
       <c r="K1617" s="1" t="s">
         <v>44</v>
@@ -66911,28 +66835,28 @@
     </row>
     <row r="1618" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1618" s="1" t="s">
-        <v>5255</v>
+        <v>5249</v>
       </c>
       <c r="B1618" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1618" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1618" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1618" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1618" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1618" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1618" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1618" s="1" t="s">
-        <v>5278</v>
-      </c>
       <c r="I1618" s="1" t="s">
-        <v>5310</v>
+        <v>5304</v>
       </c>
       <c r="J1618" s="1" t="s">
-        <v>5287</v>
+        <v>5281</v>
       </c>
       <c r="K1618" s="1" t="s">
         <v>44</v>
@@ -66940,28 +66864,28 @@
     </row>
     <row r="1619" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1619" s="1" t="s">
-        <v>5256</v>
+        <v>5250</v>
       </c>
       <c r="B1619" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1619" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1619" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1619" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1619" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1619" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1619" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1619" s="1" t="s">
-        <v>5278</v>
-      </c>
       <c r="I1619" s="1" t="s">
-        <v>5311</v>
+        <v>5305</v>
       </c>
       <c r="J1619" s="1" t="s">
-        <v>5288</v>
+        <v>5282</v>
       </c>
       <c r="K1619" s="1" t="s">
         <v>44</v>
@@ -66969,28 +66893,28 @@
     </row>
     <row r="1620" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1620" s="1" t="s">
-        <v>5257</v>
+        <v>5251</v>
       </c>
       <c r="B1620" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1620" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1620" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1620" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1620" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1620" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1620" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1620" s="1" t="s">
-        <v>5278</v>
-      </c>
       <c r="I1620" s="1" t="s">
-        <v>5312</v>
+        <v>5306</v>
       </c>
       <c r="J1620" s="1" t="s">
-        <v>5289</v>
+        <v>5283</v>
       </c>
       <c r="K1620" s="1" t="s">
         <v>44</v>
@@ -66998,28 +66922,28 @@
     </row>
     <row r="1621" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1621" s="1" t="s">
-        <v>5258</v>
+        <v>5252</v>
       </c>
       <c r="B1621" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1621" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1621" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1621" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1621" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1621" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1621" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1621" s="1" t="s">
-        <v>5278</v>
-      </c>
       <c r="I1621" s="1" t="s">
-        <v>5313</v>
+        <v>5307</v>
       </c>
       <c r="J1621" s="1" t="s">
-        <v>5290</v>
+        <v>5284</v>
       </c>
       <c r="K1621" s="1" t="s">
         <v>44</v>
@@ -67027,28 +66951,28 @@
     </row>
     <row r="1622" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1622" s="1" t="s">
-        <v>5259</v>
+        <v>5253</v>
       </c>
       <c r="B1622" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1622" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1622" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1622" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1622" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1622" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1622" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1622" s="1" t="s">
-        <v>5278</v>
-      </c>
       <c r="I1622" s="1" t="s">
-        <v>5326</v>
+        <v>5320</v>
       </c>
       <c r="J1622" s="1" t="s">
-        <v>5293</v>
+        <v>5287</v>
       </c>
       <c r="K1622" s="1" t="s">
         <v>44</v>
@@ -67056,28 +66980,28 @@
     </row>
     <row r="1623" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1623" s="1" t="s">
-        <v>5260</v>
+        <v>5254</v>
       </c>
       <c r="B1623" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1623" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1623" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1623" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1623" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1623" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1623" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1623" s="1" t="s">
-        <v>5278</v>
-      </c>
       <c r="I1623" s="1" t="s">
-        <v>5327</v>
+        <v>5321</v>
       </c>
       <c r="J1623" s="1" t="s">
-        <v>5294</v>
+        <v>5288</v>
       </c>
       <c r="K1623" s="1" t="s">
         <v>44</v>
@@ -67085,28 +67009,28 @@
     </row>
     <row r="1624" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1624" s="1" t="s">
-        <v>5261</v>
+        <v>5255</v>
       </c>
       <c r="B1624" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1624" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1624" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1624" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1624" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1624" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1624" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1624" s="1" t="s">
-        <v>5278</v>
-      </c>
       <c r="I1624" s="1" t="s">
-        <v>5328</v>
+        <v>5322</v>
       </c>
       <c r="J1624" s="1" t="s">
-        <v>5295</v>
+        <v>5289</v>
       </c>
       <c r="K1624" s="1" t="s">
         <v>44</v>
@@ -67114,28 +67038,28 @@
     </row>
     <row r="1625" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1625" s="1" t="s">
-        <v>5262</v>
+        <v>5256</v>
       </c>
       <c r="B1625" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1625" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1625" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1625" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1625" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1625" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1625" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1625" s="1" t="s">
-        <v>5278</v>
-      </c>
       <c r="I1625" s="1" t="s">
-        <v>5329</v>
+        <v>5323</v>
       </c>
       <c r="J1625" s="1" t="s">
-        <v>5296</v>
+        <v>5290</v>
       </c>
       <c r="K1625" s="1" t="s">
         <v>44</v>
@@ -67143,28 +67067,28 @@
     </row>
     <row r="1626" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1626" s="1" t="s">
-        <v>5263</v>
+        <v>5257</v>
       </c>
       <c r="B1626" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1626" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1626" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1626" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1626" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1626" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1626" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1626" s="1" t="s">
-        <v>5278</v>
-      </c>
       <c r="I1626" s="1" t="s">
-        <v>5330</v>
+        <v>5324</v>
       </c>
       <c r="J1626" s="1" t="s">
-        <v>5297</v>
+        <v>5291</v>
       </c>
       <c r="K1626" s="1" t="s">
         <v>44</v>
@@ -67172,28 +67096,28 @@
     </row>
     <row r="1627" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1627" s="1" t="s">
-        <v>5264</v>
+        <v>5258</v>
       </c>
       <c r="B1627" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1627" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1627" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1627" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1627" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1627" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1627" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1627" s="1" t="s">
-        <v>5278</v>
-      </c>
       <c r="I1627" s="1" t="s">
-        <v>5331</v>
+        <v>5325</v>
       </c>
       <c r="J1627" s="1" t="s">
-        <v>5298</v>
+        <v>5292</v>
       </c>
       <c r="K1627" s="1" t="s">
         <v>44</v>
@@ -67201,28 +67125,28 @@
     </row>
     <row r="1628" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1628" s="1" t="s">
-        <v>5265</v>
+        <v>5259</v>
       </c>
       <c r="B1628" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1628" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1628" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1628" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1628" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1628" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1628" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1628" s="1" t="s">
-        <v>5278</v>
-      </c>
       <c r="I1628" s="1" t="s">
-        <v>5332</v>
+        <v>5326</v>
       </c>
       <c r="J1628" s="1" t="s">
-        <v>5299</v>
+        <v>5293</v>
       </c>
       <c r="K1628" s="1" t="s">
         <v>44</v>
@@ -67230,28 +67154,28 @@
     </row>
     <row r="1629" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1629" s="1" t="s">
+        <v>5260</v>
+      </c>
+      <c r="B1629" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1629" s="1" t="s">
         <v>5266</v>
       </c>
-      <c r="B1629" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1629" s="1" t="s">
+      <c r="D1629" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1629" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1629" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1629" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1629" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1629" s="1" t="s">
-        <v>5278</v>
-      </c>
       <c r="I1629" s="1" t="s">
-        <v>5333</v>
+        <v>5327</v>
       </c>
       <c r="J1629" s="1" t="s">
-        <v>5300</v>
+        <v>5294</v>
       </c>
       <c r="K1629" s="1" t="s">
         <v>44</v>
@@ -67259,28 +67183,28 @@
     </row>
     <row r="1630" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1630" s="1" t="s">
+        <v>5261</v>
+      </c>
+      <c r="B1630" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1630" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1630" s="1" t="s">
         <v>5267</v>
       </c>
-      <c r="B1630" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1630" s="1" t="s">
+      <c r="F1630" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1630" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1630" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1630" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1630" s="1" t="s">
-        <v>5278</v>
-      </c>
       <c r="I1630" s="1" t="s">
-        <v>5334</v>
+        <v>5328</v>
       </c>
       <c r="J1630" s="1" t="s">
-        <v>5301</v>
+        <v>5295</v>
       </c>
       <c r="K1630" s="1" t="s">
         <v>44</v>
@@ -67288,28 +67212,28 @@
     </row>
     <row r="1631" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1631" s="1" t="s">
-        <v>5268</v>
+        <v>5262</v>
       </c>
       <c r="B1631" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1631" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1631" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1631" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1631" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1631" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1631" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1631" s="1" t="s">
-        <v>5278</v>
-      </c>
       <c r="I1631" s="1" t="s">
-        <v>5335</v>
+        <v>5329</v>
       </c>
       <c r="J1631" s="1" t="s">
-        <v>5302</v>
+        <v>5296</v>
       </c>
       <c r="K1631" s="1" t="s">
         <v>44</v>
@@ -67317,28 +67241,28 @@
     </row>
     <row r="1632" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1632" s="1" t="s">
-        <v>5269</v>
+        <v>5263</v>
       </c>
       <c r="B1632" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1632" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1632" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1632" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1632" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1632" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1632" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1632" s="1" t="s">
-        <v>5278</v>
-      </c>
       <c r="I1632" s="1" t="s">
-        <v>5336</v>
+        <v>5330</v>
       </c>
       <c r="J1632" s="1" t="s">
-        <v>5303</v>
+        <v>5297</v>
       </c>
       <c r="K1632" s="1" t="s">
         <v>44</v>
@@ -67346,28 +67270,28 @@
     </row>
     <row r="1633" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1633" s="1" t="s">
+        <v>5264</v>
+      </c>
+      <c r="B1633" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1633" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1633" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1633" s="1" t="s">
         <v>5270</v>
       </c>
-      <c r="B1633" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1633" s="1" t="s">
+      <c r="H1633" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1633" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1633" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1633" s="1" t="s">
-        <v>5278</v>
-      </c>
       <c r="I1633" s="1" t="s">
-        <v>5337</v>
+        <v>5331</v>
       </c>
       <c r="J1633" s="1" t="s">
-        <v>5304</v>
+        <v>5298</v>
       </c>
       <c r="K1633" s="1" t="s">
         <v>44</v>
@@ -67375,28 +67299,28 @@
     </row>
     <row r="1634" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1634" s="1" t="s">
-        <v>5271</v>
+        <v>5265</v>
       </c>
       <c r="B1634" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1634" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1634" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1634" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1634" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1634" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1634" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1634" s="1" t="s">
-        <v>5278</v>
-      </c>
       <c r="I1634" s="1" t="s">
-        <v>5338</v>
+        <v>5332</v>
       </c>
       <c r="J1634" s="1" t="s">
-        <v>5305</v>
+        <v>5299</v>
       </c>
       <c r="K1634" s="1" t="s">
         <v>44</v>
@@ -67404,28 +67328,28 @@
     </row>
     <row r="1635" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1635" s="1" t="s">
-        <v>5314</v>
+        <v>5308</v>
       </c>
       <c r="B1635" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1635" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1635" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1635" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1635" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1635" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1635" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1635" s="1" t="s">
-        <v>5278</v>
-      </c>
       <c r="I1635" s="1" t="s">
-        <v>5339</v>
+        <v>5333</v>
       </c>
       <c r="J1635" s="1" t="s">
-        <v>5317</v>
+        <v>5311</v>
       </c>
       <c r="K1635" s="1" t="s">
         <v>44</v>
@@ -67433,28 +67357,28 @@
     </row>
     <row r="1636" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1636" s="1" t="s">
-        <v>5315</v>
+        <v>5309</v>
       </c>
       <c r="B1636" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1636" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1636" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1636" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1636" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1636" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1636" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1636" s="1" t="s">
-        <v>5278</v>
-      </c>
       <c r="I1636" s="1" t="s">
-        <v>5340</v>
+        <v>5334</v>
       </c>
       <c r="J1636" s="1" t="s">
-        <v>5318</v>
+        <v>5312</v>
       </c>
       <c r="K1636" s="1" t="s">
         <v>44</v>
@@ -67462,28 +67386,28 @@
     </row>
     <row r="1637" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1637" s="1" t="s">
-        <v>5316</v>
+        <v>5310</v>
       </c>
       <c r="B1637" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1637" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1637" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1637" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1637" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1637" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1637" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1637" s="1" t="s">
-        <v>5278</v>
-      </c>
       <c r="I1637" s="1" t="s">
-        <v>5341</v>
+        <v>5335</v>
       </c>
       <c r="J1637" s="1" t="s">
-        <v>5319</v>
+        <v>5313</v>
       </c>
       <c r="K1637" s="1" t="s">
         <v>44</v>
@@ -67491,28 +67415,28 @@
     </row>
     <row r="1638" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1638" s="1" t="s">
-        <v>5320</v>
+        <v>5314</v>
       </c>
       <c r="B1638" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1638" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1638" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1638" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1638" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1638" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1638" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1638" s="1" t="s">
-        <v>5278</v>
-      </c>
       <c r="I1638" s="1" t="s">
-        <v>5342</v>
+        <v>5336</v>
       </c>
       <c r="J1638" s="1" t="s">
-        <v>5323</v>
+        <v>5317</v>
       </c>
       <c r="K1638" s="1" t="s">
         <v>44</v>
@@ -67520,28 +67444,28 @@
     </row>
     <row r="1639" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1639" s="1" t="s">
-        <v>5321</v>
+        <v>5315</v>
       </c>
       <c r="B1639" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1639" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1639" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1639" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1639" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1639" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1639" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1639" s="1" t="s">
-        <v>5278</v>
-      </c>
       <c r="I1639" s="1" t="s">
-        <v>5343</v>
+        <v>5337</v>
       </c>
       <c r="J1639" s="1" t="s">
-        <v>5324</v>
+        <v>5318</v>
       </c>
       <c r="K1639" s="1" t="s">
         <v>44</v>
@@ -67549,28 +67473,28 @@
     </row>
     <row r="1640" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1640" s="1" t="s">
-        <v>5322</v>
+        <v>5316</v>
       </c>
       <c r="B1640" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1640" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1640" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1640" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1640" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1640" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1640" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1640" s="1" t="s">
-        <v>5278</v>
-      </c>
       <c r="I1640" s="1" t="s">
-        <v>5355</v>
+        <v>5349</v>
       </c>
       <c r="J1640" s="1" t="s">
-        <v>5325</v>
+        <v>5319</v>
       </c>
       <c r="K1640" s="1" t="s">
         <v>44</v>
@@ -67578,28 +67502,28 @@
     </row>
     <row r="1641" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1641" s="1" t="s">
-        <v>5345</v>
+        <v>5339</v>
       </c>
       <c r="B1641" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1641" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1641" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1641" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1641" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1641" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1641" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1641" s="1" t="s">
-        <v>5278</v>
-      </c>
       <c r="I1641" s="1" t="s">
-        <v>5356</v>
+        <v>5350</v>
       </c>
       <c r="J1641" s="1" t="s">
-        <v>5349</v>
+        <v>5343</v>
       </c>
       <c r="K1641" s="1" t="s">
         <v>44</v>
@@ -67607,28 +67531,28 @@
     </row>
     <row r="1642" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1642" s="1" t="s">
-        <v>5346</v>
+        <v>5340</v>
       </c>
       <c r="B1642" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1642" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1642" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1642" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1642" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1642" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1642" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1642" s="1" t="s">
-        <v>5278</v>
-      </c>
       <c r="I1642" s="1" t="s">
-        <v>5505</v>
+        <v>5499</v>
       </c>
       <c r="J1642" s="1" t="s">
-        <v>5350</v>
+        <v>5344</v>
       </c>
       <c r="K1642" s="1" t="s">
         <v>44</v>
@@ -67636,28 +67560,28 @@
     </row>
     <row r="1643" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1643" s="1" t="s">
-        <v>5347</v>
+        <v>5341</v>
       </c>
       <c r="B1643" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1643" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1643" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1643" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1643" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1643" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1643" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1643" s="1" t="s">
-        <v>5278</v>
-      </c>
       <c r="I1643" s="1" t="s">
-        <v>5357</v>
+        <v>5351</v>
       </c>
       <c r="J1643" s="1" t="s">
-        <v>5351</v>
+        <v>5345</v>
       </c>
       <c r="K1643" s="1" t="s">
         <v>44</v>
@@ -67665,28 +67589,28 @@
     </row>
     <row r="1644" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1644" s="1" t="s">
-        <v>5348</v>
+        <v>5342</v>
       </c>
       <c r="B1644" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1644" s="1" t="s">
+        <v>5266</v>
+      </c>
+      <c r="D1644" s="1" t="s">
+        <v>5267</v>
+      </c>
+      <c r="F1644" s="1" t="s">
+        <v>5270</v>
+      </c>
+      <c r="H1644" s="1" t="s">
         <v>5272</v>
       </c>
-      <c r="D1644" s="1" t="s">
-        <v>5273</v>
-      </c>
-      <c r="F1644" s="1" t="s">
-        <v>5276</v>
-      </c>
-      <c r="H1644" s="1" t="s">
-        <v>5278</v>
-      </c>
       <c r="I1644" s="1" t="s">
-        <v>5358</v>
+        <v>5352</v>
       </c>
       <c r="J1644" s="1" t="s">
-        <v>5352</v>
+        <v>5346</v>
       </c>
       <c r="K1644" s="1" t="s">
         <v>44</v>
@@ -67694,28 +67618,28 @@
     </row>
     <row r="1645" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1645" s="5" t="s">
-        <v>5369</v>
+        <v>5363</v>
       </c>
       <c r="B1645" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C1645" s="1" t="s">
-        <v>5364</v>
+        <v>5358</v>
       </c>
       <c r="D1645" s="1" t="s">
-        <v>5368</v>
+        <v>5362</v>
       </c>
       <c r="F1645" s="1" t="s">
-        <v>5361</v>
+        <v>5355</v>
       </c>
       <c r="G1645" s="1" t="s">
-        <v>5362</v>
+        <v>5356</v>
       </c>
       <c r="I1645" s="1" t="s">
-        <v>5363</v>
+        <v>5357</v>
       </c>
       <c r="J1645" s="1" t="s">
-        <v>5365</v>
+        <v>5359</v>
       </c>
       <c r="K1645" s="1" t="s">
         <v>44</v>
@@ -67723,28 +67647,28 @@
     </row>
     <row r="1646" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1646" s="5" t="s">
+        <v>5360</v>
+      </c>
+      <c r="B1646" s="4" t="s">
+        <v>5116</v>
+      </c>
+      <c r="C1646" s="1" t="s">
+        <v>5370</v>
+      </c>
+      <c r="D1646" s="1" t="s">
+        <v>5362</v>
+      </c>
+      <c r="F1646" s="1" t="s">
+        <v>5355</v>
+      </c>
+      <c r="H1646" s="1" t="s">
+        <v>5364</v>
+      </c>
+      <c r="I1646" s="1" t="s">
+        <v>5365</v>
+      </c>
+      <c r="J1646" s="1" t="s">
         <v>5366</v>
-      </c>
-      <c r="B1646" s="4" t="s">
-        <v>5122</v>
-      </c>
-      <c r="C1646" s="1" t="s">
-        <v>5376</v>
-      </c>
-      <c r="D1646" s="1" t="s">
-        <v>5368</v>
-      </c>
-      <c r="F1646" s="1" t="s">
-        <v>5361</v>
-      </c>
-      <c r="H1646" s="1" t="s">
-        <v>5370</v>
-      </c>
-      <c r="I1646" s="1" t="s">
-        <v>5371</v>
-      </c>
-      <c r="J1646" s="1" t="s">
-        <v>5372</v>
       </c>
       <c r="K1646" s="1" t="s">
         <v>44</v>
@@ -67752,28 +67676,28 @@
     </row>
     <row r="1647" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1647" s="5" t="s">
+        <v>5361</v>
+      </c>
+      <c r="B1647" s="4" t="s">
+        <v>5116</v>
+      </c>
+      <c r="C1647" s="1" t="s">
+        <v>5375</v>
+      </c>
+      <c r="D1647" s="1" t="s">
+        <v>5362</v>
+      </c>
+      <c r="F1647" s="1" t="s">
+        <v>5355</v>
+      </c>
+      <c r="H1647" s="1" t="s">
+        <v>5364</v>
+      </c>
+      <c r="I1647" s="1" t="s">
+        <v>5371</v>
+      </c>
+      <c r="J1647" s="1" t="s">
         <v>5367</v>
-      </c>
-      <c r="B1647" s="4" t="s">
-        <v>5122</v>
-      </c>
-      <c r="C1647" s="1" t="s">
-        <v>5381</v>
-      </c>
-      <c r="D1647" s="1" t="s">
-        <v>5368</v>
-      </c>
-      <c r="F1647" s="1" t="s">
-        <v>5361</v>
-      </c>
-      <c r="H1647" s="1" t="s">
-        <v>5370</v>
-      </c>
-      <c r="I1647" s="1" t="s">
-        <v>5377</v>
-      </c>
-      <c r="J1647" s="1" t="s">
-        <v>5373</v>
       </c>
       <c r="K1647" s="1" t="s">
         <v>44</v>
@@ -67781,28 +67705,28 @@
     </row>
     <row r="1648" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1648" s="5" t="s">
+        <v>5368</v>
+      </c>
+      <c r="B1648" s="4" t="s">
+        <v>5116</v>
+      </c>
+      <c r="C1648" s="1" t="s">
+        <v>5376</v>
+      </c>
+      <c r="D1648" s="1" t="s">
+        <v>5362</v>
+      </c>
+      <c r="F1648" s="1" t="s">
+        <v>5369</v>
+      </c>
+      <c r="G1648" s="1" t="s">
         <v>5374</v>
       </c>
-      <c r="B1648" s="4" t="s">
-        <v>5122</v>
-      </c>
-      <c r="C1648" s="1" t="s">
-        <v>5382</v>
-      </c>
-      <c r="D1648" s="1" t="s">
-        <v>5368</v>
-      </c>
-      <c r="F1648" s="1" t="s">
-        <v>5375</v>
-      </c>
-      <c r="G1648" s="1" t="s">
-        <v>5380</v>
-      </c>
       <c r="I1648" s="1" t="s">
-        <v>5383</v>
+        <v>5377</v>
       </c>
       <c r="J1648" s="1" t="s">
-        <v>5384</v>
+        <v>5378</v>
       </c>
       <c r="K1648" s="1" t="s">
         <v>44</v>
@@ -67810,25 +67734,25 @@
     </row>
     <row r="1649" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1649" s="5" t="s">
-        <v>5378</v>
+        <v>5372</v>
       </c>
       <c r="B1649" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C1649" s="1" t="s">
-        <v>5379</v>
+        <v>5373</v>
       </c>
       <c r="D1649" s="1" t="s">
-        <v>5368</v>
+        <v>5362</v>
       </c>
       <c r="F1649" s="1" t="s">
-        <v>5386</v>
+        <v>5380</v>
       </c>
       <c r="I1649" s="1" t="s">
-        <v>5387</v>
+        <v>5381</v>
       </c>
       <c r="J1649" s="1" t="s">
-        <v>5388</v>
+        <v>5382</v>
       </c>
       <c r="K1649" s="1" t="s">
         <v>44</v>
@@ -67836,28 +67760,28 @@
     </row>
     <row r="1650" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1650" s="5" t="s">
-        <v>5485</v>
+        <v>5479</v>
       </c>
       <c r="B1650" s="4" t="s">
-        <v>5122</v>
+        <v>5116</v>
       </c>
       <c r="C1650" s="1" t="s">
-        <v>5385</v>
+        <v>5379</v>
       </c>
       <c r="D1650" s="1" t="s">
-        <v>5368</v>
+        <v>5362</v>
       </c>
       <c r="F1650" s="1" t="s">
-        <v>5389</v>
+        <v>5383</v>
       </c>
       <c r="G1650" s="1" t="s">
         <v>2165</v>
       </c>
       <c r="I1650" s="1" t="s">
-        <v>5391</v>
+        <v>5385</v>
       </c>
       <c r="J1650" s="1" t="s">
-        <v>5390</v>
+        <v>5384</v>
       </c>
       <c r="K1650" s="1" t="s">
         <v>44</v>
@@ -67865,13 +67789,13 @@
     </row>
     <row r="1651" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1651" s="1" t="s">
-        <v>5427</v>
+        <v>5421</v>
       </c>
       <c r="B1651" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1651" s="1" t="s">
-        <v>5402</v>
+        <v>5396</v>
       </c>
       <c r="D1651" s="1" t="s">
         <v>2402</v>
@@ -67880,16 +67804,16 @@
         <v>2464</v>
       </c>
       <c r="F1651" s="1" t="s">
-        <v>5423</v>
+        <v>5417</v>
       </c>
       <c r="G1651" s="1" t="s">
-        <v>5424</v>
+        <v>5418</v>
       </c>
       <c r="I1651" s="1" t="s">
-        <v>5425</v>
+        <v>5419</v>
       </c>
       <c r="J1651" s="1" t="s">
-        <v>5426</v>
+        <v>5420</v>
       </c>
       <c r="K1651" s="1" t="s">
         <v>44</v>
@@ -67897,13 +67821,13 @@
     </row>
     <row r="1652" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1652" s="1" t="s">
-        <v>5392</v>
+        <v>5386</v>
       </c>
       <c r="B1652" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1652" s="1" t="s">
-        <v>5407</v>
+        <v>5401</v>
       </c>
       <c r="D1652" s="1" t="s">
         <v>2402</v>
@@ -67912,16 +67836,16 @@
         <v>2464</v>
       </c>
       <c r="F1652" s="1" t="s">
+        <v>5417</v>
+      </c>
+      <c r="H1652" s="1" t="s">
+        <v>5421</v>
+      </c>
+      <c r="I1652" s="1" t="s">
+        <v>5422</v>
+      </c>
+      <c r="J1652" s="1" t="s">
         <v>5423</v>
-      </c>
-      <c r="H1652" s="1" t="s">
-        <v>5427</v>
-      </c>
-      <c r="I1652" s="1" t="s">
-        <v>5428</v>
-      </c>
-      <c r="J1652" s="1" t="s">
-        <v>5429</v>
       </c>
       <c r="K1652" s="1" t="s">
         <v>154</v>
@@ -67929,13 +67853,13 @@
     </row>
     <row r="1653" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1653" s="1" t="s">
-        <v>5393</v>
+        <v>5387</v>
       </c>
       <c r="B1653" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1653" s="1" t="s">
-        <v>5403</v>
+        <v>5397</v>
       </c>
       <c r="D1653" s="1" t="s">
         <v>2402</v>
@@ -67944,16 +67868,16 @@
         <v>2464</v>
       </c>
       <c r="F1653" s="1" t="s">
-        <v>5423</v>
+        <v>5417</v>
       </c>
       <c r="H1653" s="1" t="s">
-        <v>5427</v>
+        <v>5421</v>
       </c>
       <c r="I1653" s="1" t="s">
+        <v>5424</v>
+      </c>
+      <c r="J1653" s="1" t="s">
         <v>5430</v>
-      </c>
-      <c r="J1653" s="1" t="s">
-        <v>5436</v>
       </c>
       <c r="K1653" s="1" t="s">
         <v>44</v>
@@ -67961,13 +67885,13 @@
     </row>
     <row r="1654" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1654" s="1" t="s">
-        <v>5394</v>
+        <v>5388</v>
       </c>
       <c r="B1654" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1654" s="1" t="s">
-        <v>5432</v>
+        <v>5426</v>
       </c>
       <c r="D1654" s="1" t="s">
         <v>2402</v>
@@ -67976,16 +67900,16 @@
         <v>2464</v>
       </c>
       <c r="F1654" s="1" t="s">
-        <v>5423</v>
+        <v>5417</v>
       </c>
       <c r="H1654" s="1" t="s">
+        <v>5421</v>
+      </c>
+      <c r="I1654" s="1" t="s">
         <v>5427</v>
       </c>
-      <c r="I1654" s="1" t="s">
-        <v>5433</v>
-      </c>
       <c r="J1654" s="1" t="s">
-        <v>5437</v>
+        <v>5431</v>
       </c>
       <c r="K1654" s="1" t="s">
         <v>154</v>
@@ -67993,13 +67917,13 @@
     </row>
     <row r="1655" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1655" s="1" t="s">
-        <v>5456</v>
+        <v>5450</v>
       </c>
       <c r="B1655" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1655" s="1" t="s">
-        <v>5457</v>
+        <v>5451</v>
       </c>
       <c r="D1655" s="1" t="s">
         <v>2402</v>
@@ -68008,16 +67932,16 @@
         <v>2464</v>
       </c>
       <c r="F1655" s="1" t="s">
-        <v>5454</v>
+        <v>5448</v>
       </c>
       <c r="G1655" s="1" t="s">
-        <v>5455</v>
+        <v>5449</v>
       </c>
       <c r="I1655" s="1" t="s">
-        <v>5464</v>
+        <v>5458</v>
       </c>
       <c r="J1655" s="1" t="s">
-        <v>5438</v>
+        <v>5432</v>
       </c>
       <c r="K1655" s="1" t="s">
         <v>154</v>
@@ -68025,13 +67949,13 @@
     </row>
     <row r="1656" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1656" s="1" t="s">
-        <v>5395</v>
+        <v>5389</v>
       </c>
       <c r="B1656" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1656" s="1" t="s">
-        <v>5463</v>
+        <v>5457</v>
       </c>
       <c r="D1656" s="1" t="s">
         <v>2402</v>
@@ -68040,16 +67964,16 @@
         <v>2464</v>
       </c>
       <c r="F1656" s="1" t="s">
-        <v>5454</v>
+        <v>5448</v>
       </c>
       <c r="H1656" s="1" t="s">
-        <v>5456</v>
+        <v>5450</v>
       </c>
       <c r="I1656" s="1" t="s">
-        <v>5465</v>
+        <v>5459</v>
       </c>
       <c r="J1656" s="1" t="s">
-        <v>5439</v>
+        <v>5433</v>
       </c>
       <c r="K1656" s="1" t="s">
         <v>154</v>
@@ -68057,13 +67981,13 @@
     </row>
     <row r="1657" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1657" s="1" t="s">
-        <v>5396</v>
+        <v>5390</v>
       </c>
       <c r="B1657" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1657" s="1" t="s">
-        <v>5458</v>
+        <v>5452</v>
       </c>
       <c r="D1657" s="1" t="s">
         <v>2402</v>
@@ -68072,16 +67996,16 @@
         <v>2464</v>
       </c>
       <c r="F1657" s="1" t="s">
-        <v>5454</v>
+        <v>5448</v>
       </c>
       <c r="H1657" s="1" t="s">
-        <v>5456</v>
+        <v>5450</v>
       </c>
       <c r="I1657" s="1" t="s">
-        <v>5466</v>
+        <v>5460</v>
       </c>
       <c r="J1657" s="1" t="s">
-        <v>5440</v>
+        <v>5434</v>
       </c>
       <c r="K1657" s="1" t="s">
         <v>154</v>
@@ -68089,13 +68013,13 @@
     </row>
     <row r="1658" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1658" s="1" t="s">
-        <v>5397</v>
+        <v>5391</v>
       </c>
       <c r="B1658" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1658" s="1" t="s">
-        <v>5461</v>
+        <v>5455</v>
       </c>
       <c r="D1658" s="1" t="s">
         <v>2402</v>
@@ -68104,16 +68028,16 @@
         <v>2464</v>
       </c>
       <c r="F1658" s="1" t="s">
-        <v>5454</v>
+        <v>5448</v>
       </c>
       <c r="H1658" s="1" t="s">
-        <v>5456</v>
+        <v>5450</v>
       </c>
       <c r="I1658" s="1" t="s">
-        <v>5467</v>
+        <v>5461</v>
       </c>
       <c r="J1658" s="1" t="s">
-        <v>5441</v>
+        <v>5435</v>
       </c>
       <c r="K1658" s="1" t="s">
         <v>154</v>
@@ -68121,13 +68045,13 @@
     </row>
     <row r="1659" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1659" s="1" t="s">
+        <v>5392</v>
+      </c>
+      <c r="B1659" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1659" s="1" t="s">
         <v>5398</v>
-      </c>
-      <c r="B1659" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1659" s="1" t="s">
-        <v>5404</v>
       </c>
       <c r="D1659" s="1" t="s">
         <v>2402</v>
@@ -68136,16 +68060,16 @@
         <v>2464</v>
       </c>
       <c r="F1659" s="1" t="s">
-        <v>5454</v>
+        <v>5448</v>
       </c>
       <c r="H1659" s="1" t="s">
-        <v>5456</v>
+        <v>5450</v>
       </c>
       <c r="I1659" s="1" t="s">
-        <v>5468</v>
+        <v>5462</v>
       </c>
       <c r="J1659" s="1" t="s">
-        <v>5442</v>
+        <v>5436</v>
       </c>
       <c r="K1659" s="1" t="s">
         <v>44</v>
@@ -68153,13 +68077,13 @@
     </row>
     <row r="1660" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1660" s="1" t="s">
+        <v>5393</v>
+      </c>
+      <c r="B1660" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1660" s="1" t="s">
         <v>5399</v>
-      </c>
-      <c r="B1660" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1660" s="1" t="s">
-        <v>5405</v>
       </c>
       <c r="D1660" s="1" t="s">
         <v>2402</v>
@@ -68168,16 +68092,16 @@
         <v>2464</v>
       </c>
       <c r="F1660" s="1" t="s">
-        <v>5454</v>
+        <v>5448</v>
       </c>
       <c r="H1660" s="1" t="s">
-        <v>5456</v>
+        <v>5450</v>
       </c>
       <c r="I1660" s="1" t="s">
-        <v>5469</v>
+        <v>5463</v>
       </c>
       <c r="J1660" s="1" t="s">
-        <v>5443</v>
+        <v>5437</v>
       </c>
       <c r="K1660" s="1" t="s">
         <v>154</v>
@@ -68185,13 +68109,13 @@
     </row>
     <row r="1661" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1661" s="1" t="s">
+        <v>5394</v>
+      </c>
+      <c r="B1661" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1661" s="1" t="s">
         <v>5400</v>
-      </c>
-      <c r="B1661" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1661" s="1" t="s">
-        <v>5406</v>
       </c>
       <c r="D1661" s="1" t="s">
         <v>2402</v>
@@ -68200,16 +68124,16 @@
         <v>2464</v>
       </c>
       <c r="F1661" s="1" t="s">
-        <v>5454</v>
+        <v>5448</v>
       </c>
       <c r="H1661" s="1" t="s">
-        <v>5456</v>
+        <v>5450</v>
       </c>
       <c r="I1661" s="1" t="s">
-        <v>5473</v>
+        <v>5467</v>
       </c>
       <c r="J1661" s="1" t="s">
-        <v>5444</v>
+        <v>5438</v>
       </c>
       <c r="K1661" s="1" t="s">
         <v>44</v>
@@ -68217,13 +68141,13 @@
     </row>
     <row r="1662" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1662" s="1" t="s">
-        <v>5476</v>
+        <v>5470</v>
       </c>
       <c r="B1662" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1662" s="1" t="s">
-        <v>5477</v>
+        <v>5471</v>
       </c>
       <c r="D1662" s="1" t="s">
         <v>2402</v>
@@ -68232,16 +68156,16 @@
         <v>2464</v>
       </c>
       <c r="F1662" s="1" t="s">
-        <v>5474</v>
+        <v>5468</v>
       </c>
       <c r="G1662" s="1" t="s">
-        <v>5475</v>
+        <v>5469</v>
       </c>
       <c r="I1662" s="1" t="s">
-        <v>5478</v>
+        <v>5472</v>
       </c>
       <c r="J1662" s="1" t="s">
-        <v>5445</v>
+        <v>5439</v>
       </c>
       <c r="K1662" s="1" t="s">
         <v>154</v>
@@ -68249,13 +68173,13 @@
     </row>
     <row r="1663" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1663" s="1" t="s">
-        <v>5401</v>
+        <v>5395</v>
       </c>
       <c r="B1663" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1663" s="1" t="s">
-        <v>5418</v>
+        <v>5412</v>
       </c>
       <c r="D1663" s="1" t="s">
         <v>2402</v>
@@ -68264,16 +68188,16 @@
         <v>2464</v>
       </c>
       <c r="F1663" s="1" t="s">
+        <v>5468</v>
+      </c>
+      <c r="H1663" s="1" t="s">
+        <v>5470</v>
+      </c>
+      <c r="I1663" s="1" t="s">
         <v>5474</v>
       </c>
-      <c r="H1663" s="1" t="s">
-        <v>5476</v>
-      </c>
-      <c r="I1663" s="1" t="s">
-        <v>5480</v>
-      </c>
       <c r="J1663" s="1" t="s">
-        <v>5446</v>
+        <v>5440</v>
       </c>
       <c r="K1663" s="1" t="s">
         <v>44</v>
@@ -68281,13 +68205,13 @@
     </row>
     <row r="1664" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1664" s="1" t="s">
-        <v>5408</v>
+        <v>5402</v>
       </c>
       <c r="B1664" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1664" s="1" t="s">
-        <v>5415</v>
+        <v>5409</v>
       </c>
       <c r="D1664" s="1" t="s">
         <v>2402</v>
@@ -68296,16 +68220,16 @@
         <v>2464</v>
       </c>
       <c r="F1664" s="1" t="s">
-        <v>5474</v>
+        <v>5468</v>
       </c>
       <c r="H1664" s="1" t="s">
-        <v>5476</v>
+        <v>5470</v>
       </c>
       <c r="I1664" s="1" t="s">
-        <v>5481</v>
+        <v>5475</v>
       </c>
       <c r="J1664" s="1" t="s">
-        <v>5447</v>
+        <v>5441</v>
       </c>
       <c r="K1664" s="1" t="s">
         <v>154</v>
@@ -68313,13 +68237,13 @@
     </row>
     <row r="1665" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1665" s="1" t="s">
-        <v>5409</v>
+        <v>5403</v>
       </c>
       <c r="B1665" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1665" s="1" t="s">
-        <v>5417</v>
+        <v>5411</v>
       </c>
       <c r="D1665" s="1" t="s">
         <v>2402</v>
@@ -68328,16 +68252,16 @@
         <v>2464</v>
       </c>
       <c r="F1665" s="1" t="s">
-        <v>5474</v>
+        <v>5468</v>
       </c>
       <c r="H1665" s="1" t="s">
+        <v>5470</v>
+      </c>
+      <c r="I1665" s="1" t="s">
         <v>5476</v>
       </c>
-      <c r="I1665" s="1" t="s">
-        <v>5482</v>
-      </c>
       <c r="J1665" s="1" t="s">
-        <v>5448</v>
+        <v>5442</v>
       </c>
       <c r="K1665" s="1" t="s">
         <v>154</v>
@@ -68345,13 +68269,13 @@
     </row>
     <row r="1666" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1666" s="1" t="s">
-        <v>5410</v>
+        <v>5404</v>
       </c>
       <c r="B1666" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1666" s="1" t="s">
-        <v>5435</v>
+        <v>5429</v>
       </c>
       <c r="D1666" s="1" t="s">
         <v>2402</v>
@@ -68360,16 +68284,16 @@
         <v>2464</v>
       </c>
       <c r="F1666" s="1" t="s">
-        <v>5474</v>
+        <v>5468</v>
       </c>
       <c r="H1666" s="1" t="s">
-        <v>5476</v>
+        <v>5470</v>
       </c>
       <c r="I1666" s="1" t="s">
-        <v>5483</v>
+        <v>5477</v>
       </c>
       <c r="J1666" s="1" t="s">
-        <v>5449</v>
+        <v>5443</v>
       </c>
       <c r="K1666" s="1" t="s">
         <v>154</v>
@@ -68377,13 +68301,13 @@
     </row>
     <row r="1667" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1667" s="1" t="s">
-        <v>5411</v>
+        <v>5405</v>
       </c>
       <c r="B1667" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1667" s="1" t="s">
-        <v>5416</v>
+        <v>5410</v>
       </c>
       <c r="D1667" s="1" t="s">
         <v>2402</v>
@@ -68392,16 +68316,16 @@
         <v>2464</v>
       </c>
       <c r="F1667" s="1" t="s">
-        <v>5474</v>
+        <v>5468</v>
       </c>
       <c r="H1667" s="1" t="s">
-        <v>5476</v>
+        <v>5470</v>
       </c>
       <c r="I1667" s="1" t="s">
-        <v>5484</v>
+        <v>5478</v>
       </c>
       <c r="J1667" s="1" t="s">
-        <v>5450</v>
+        <v>5444</v>
       </c>
       <c r="K1667" s="1" t="s">
         <v>154</v>
@@ -68409,13 +68333,13 @@
     </row>
     <row r="1668" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1668" s="1" t="s">
-        <v>5487</v>
+        <v>5481</v>
       </c>
       <c r="B1668" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1668" s="1" t="s">
-        <v>5479</v>
+        <v>5473</v>
       </c>
       <c r="D1668" s="1" t="s">
         <v>2402</v>
@@ -68424,16 +68348,16 @@
         <v>2464</v>
       </c>
       <c r="F1668" s="1" t="s">
-        <v>5488</v>
+        <v>5482</v>
       </c>
       <c r="G1668" s="1" t="s">
-        <v>5486</v>
+        <v>5480</v>
       </c>
       <c r="I1668" s="1" t="s">
-        <v>5489</v>
+        <v>5483</v>
       </c>
       <c r="J1668" s="1" t="s">
-        <v>5451</v>
+        <v>5445</v>
       </c>
       <c r="K1668" s="1" t="s">
         <v>154</v>
@@ -68441,13 +68365,13 @@
     </row>
     <row r="1669" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1669" s="1" t="s">
-        <v>5412</v>
+        <v>5406</v>
       </c>
       <c r="B1669" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1669" s="1" t="s">
-        <v>5434</v>
+        <v>5428</v>
       </c>
       <c r="D1669" s="1" t="s">
         <v>2402</v>
@@ -68456,16 +68380,16 @@
         <v>2464</v>
       </c>
       <c r="F1669" s="1" t="s">
-        <v>5488</v>
+        <v>5482</v>
       </c>
       <c r="H1669" s="1" t="s">
-        <v>5487</v>
+        <v>5481</v>
       </c>
       <c r="I1669" s="1" t="s">
-        <v>5490</v>
+        <v>5484</v>
       </c>
       <c r="J1669" s="1" t="s">
-        <v>5452</v>
+        <v>5446</v>
       </c>
       <c r="K1669" s="1" t="s">
         <v>154</v>
@@ -68473,13 +68397,13 @@
     </row>
     <row r="1670" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1670" s="1" t="s">
-        <v>5413</v>
+        <v>5407</v>
       </c>
       <c r="B1670" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1670" s="1" t="s">
-        <v>5421</v>
+        <v>5415</v>
       </c>
       <c r="D1670" s="1" t="s">
         <v>2402</v>
@@ -68488,16 +68412,16 @@
         <v>2464</v>
       </c>
       <c r="F1670" s="1" t="s">
-        <v>5488</v>
+        <v>5482</v>
       </c>
       <c r="H1670" s="1" t="s">
-        <v>5487</v>
+        <v>5481</v>
       </c>
       <c r="I1670" s="1" t="s">
-        <v>5491</v>
+        <v>5485</v>
       </c>
       <c r="J1670" s="1" t="s">
-        <v>5453</v>
+        <v>5447</v>
       </c>
       <c r="K1670" s="1" t="s">
         <v>44</v>
@@ -68505,31 +68429,31 @@
     </row>
     <row r="1671" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1671" s="1" t="s">
+        <v>5408</v>
+      </c>
+      <c r="B1671" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1671" s="1" t="s">
         <v>5414</v>
       </c>
-      <c r="B1671" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1671" s="1" t="s">
-        <v>5420</v>
-      </c>
       <c r="D1671" s="1" t="s">
-        <v>5506</v>
+        <v>5500</v>
       </c>
       <c r="E1671" s="1" t="s">
-        <v>5507</v>
+        <v>5501</v>
       </c>
       <c r="F1671" s="1" t="s">
-        <v>5488</v>
+        <v>5482</v>
       </c>
       <c r="H1671" s="1" t="s">
-        <v>5487</v>
+        <v>5481</v>
       </c>
       <c r="I1671" s="1" t="s">
-        <v>5492</v>
+        <v>5486</v>
       </c>
       <c r="J1671" s="1" t="s">
-        <v>5470</v>
+        <v>5464</v>
       </c>
       <c r="K1671" s="1" t="s">
         <v>154</v>
@@ -68537,13 +68461,13 @@
     </row>
     <row r="1672" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1672" s="1" t="s">
-        <v>5431</v>
+        <v>5425</v>
       </c>
       <c r="B1672" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1672" s="1" t="s">
-        <v>5419</v>
+        <v>5413</v>
       </c>
       <c r="D1672" s="1" t="s">
         <v>2402</v>
@@ -68552,16 +68476,16 @@
         <v>2464</v>
       </c>
       <c r="F1672" s="1" t="s">
-        <v>5488</v>
+        <v>5482</v>
       </c>
       <c r="H1672" s="1" t="s">
+        <v>5481</v>
+      </c>
+      <c r="I1672" s="1" t="s">
         <v>5487</v>
       </c>
-      <c r="I1672" s="1" t="s">
-        <v>5493</v>
-      </c>
       <c r="J1672" s="1" t="s">
-        <v>5471</v>
+        <v>5465</v>
       </c>
       <c r="K1672" s="1" t="s">
         <v>154</v>
@@ -68569,13 +68493,13 @@
     </row>
     <row r="1673" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1673" s="1" t="s">
-        <v>5459</v>
+        <v>5453</v>
       </c>
       <c r="B1673" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1673" s="1" t="s">
-        <v>5422</v>
+        <v>5416</v>
       </c>
       <c r="D1673" s="1" t="s">
         <v>2402</v>
@@ -68584,16 +68508,16 @@
         <v>2464</v>
       </c>
       <c r="F1673" s="1" t="s">
+        <v>5482</v>
+      </c>
+      <c r="H1673" s="1" t="s">
+        <v>5481</v>
+      </c>
+      <c r="I1673" s="1" t="s">
         <v>5488</v>
       </c>
-      <c r="H1673" s="1" t="s">
-        <v>5487</v>
-      </c>
-      <c r="I1673" s="1" t="s">
-        <v>5494</v>
-      </c>
       <c r="J1673" s="1" t="s">
-        <v>5472</v>
+        <v>5466</v>
       </c>
       <c r="K1673" s="1" t="s">
         <v>154</v>
@@ -68601,13 +68525,13 @@
     </row>
     <row r="1674" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1674" s="1" t="s">
-        <v>5460</v>
+        <v>5454</v>
       </c>
       <c r="B1674" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1674" s="1" t="s">
-        <v>5496</v>
+        <v>5490</v>
       </c>
       <c r="D1674" s="1" t="s">
         <v>2402</v>
@@ -68616,16 +68540,16 @@
         <v>2464</v>
       </c>
       <c r="F1674" s="1" t="s">
-        <v>5488</v>
+        <v>5482</v>
       </c>
       <c r="H1674" s="1" t="s">
-        <v>5487</v>
+        <v>5481</v>
       </c>
       <c r="I1674" s="1" t="s">
-        <v>5501</v>
+        <v>5495</v>
       </c>
       <c r="J1674" s="1" t="s">
-        <v>5502</v>
+        <v>5496</v>
       </c>
       <c r="K1674" s="1" t="s">
         <v>154</v>
@@ -68633,13 +68557,13 @@
     </row>
     <row r="1675" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1675" s="1" t="s">
-        <v>5462</v>
+        <v>5456</v>
       </c>
       <c r="B1675" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1675" s="1" t="s">
-        <v>5495</v>
+        <v>5489</v>
       </c>
       <c r="D1675" s="1" t="s">
         <v>2402</v>
@@ -68648,16 +68572,16 @@
         <v>2464</v>
       </c>
       <c r="F1675" s="1" t="s">
-        <v>5488</v>
+        <v>5482</v>
       </c>
       <c r="H1675" s="1" t="s">
-        <v>5487</v>
+        <v>5481</v>
       </c>
       <c r="I1675" s="1" t="s">
-        <v>5499</v>
+        <v>5493</v>
       </c>
       <c r="J1675" s="1" t="s">
-        <v>5503</v>
+        <v>5497</v>
       </c>
       <c r="K1675" s="1" t="s">
         <v>154</v>
@@ -68665,13 +68589,13 @@
     </row>
     <row r="1676" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1676" s="1" t="s">
-        <v>5497</v>
+        <v>5491</v>
       </c>
       <c r="B1676" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1676" s="1" t="s">
-        <v>5498</v>
+        <v>5492</v>
       </c>
       <c r="D1676" s="1" t="s">
         <v>2402</v>
@@ -68680,16 +68604,16 @@
         <v>2464</v>
       </c>
       <c r="F1676" s="1" t="s">
-        <v>5488</v>
+        <v>5482</v>
       </c>
       <c r="H1676" s="1" t="s">
-        <v>5487</v>
+        <v>5481</v>
       </c>
       <c r="I1676" s="1" t="s">
-        <v>5500</v>
+        <v>5494</v>
       </c>
       <c r="J1676" s="1" t="s">
-        <v>5504</v>
+        <v>5498</v>
       </c>
       <c r="K1676" s="1" t="s">
         <v>154</v>
@@ -68697,31 +68621,31 @@
     </row>
     <row r="1677" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1677" s="1" t="s">
-        <v>5516</v>
+        <v>5510</v>
       </c>
       <c r="B1677" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1677" s="1" t="s">
-        <v>5528</v>
+        <v>5522</v>
       </c>
       <c r="D1677" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="E1677" s="1" t="s">
-        <v>5509</v>
+        <v>5503</v>
       </c>
       <c r="F1677" s="1" t="s">
-        <v>5510</v>
+        <v>5504</v>
       </c>
       <c r="G1677" s="1" t="s">
-        <v>5511</v>
+        <v>5505</v>
       </c>
       <c r="I1677" s="1" t="s">
-        <v>5520</v>
+        <v>5514</v>
       </c>
       <c r="J1677" s="1" t="s">
-        <v>5512</v>
+        <v>5506</v>
       </c>
       <c r="K1677" s="1" t="s">
         <v>154</v>
@@ -68729,31 +68653,31 @@
     </row>
     <row r="1678" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1678" s="1" t="s">
-        <v>5513</v>
+        <v>5507</v>
       </c>
       <c r="B1678" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1678" s="1" t="s">
-        <v>5529</v>
+        <v>5523</v>
       </c>
       <c r="D1678" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="E1678" s="1" t="s">
-        <v>5509</v>
+        <v>5503</v>
       </c>
       <c r="F1678" s="1" t="s">
-        <v>5510</v>
+        <v>5504</v>
       </c>
       <c r="H1678" s="1" t="s">
-        <v>5508</v>
+        <v>5502</v>
       </c>
       <c r="I1678" s="1" t="s">
-        <v>5521</v>
+        <v>5515</v>
       </c>
       <c r="J1678" s="1" t="s">
-        <v>5517</v>
+        <v>5511</v>
       </c>
       <c r="K1678" s="1" t="s">
         <v>154</v>
@@ -68761,31 +68685,31 @@
     </row>
     <row r="1679" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1679" s="1" t="s">
-        <v>5514</v>
+        <v>5508</v>
       </c>
       <c r="B1679" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1679" s="1" t="s">
-        <v>5530</v>
+        <v>5524</v>
       </c>
       <c r="D1679" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="E1679" s="1" t="s">
-        <v>5509</v>
+        <v>5503</v>
       </c>
       <c r="F1679" s="1" t="s">
-        <v>5510</v>
+        <v>5504</v>
       </c>
       <c r="H1679" s="1" t="s">
-        <v>5508</v>
+        <v>5502</v>
       </c>
       <c r="I1679" s="1" t="s">
-        <v>5523</v>
+        <v>5517</v>
       </c>
       <c r="J1679" s="1" t="s">
-        <v>5518</v>
+        <v>5512</v>
       </c>
       <c r="K1679" s="1" t="s">
         <v>154</v>
@@ -68793,31 +68717,31 @@
     </row>
     <row r="1680" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1680" s="1" t="s">
-        <v>5515</v>
+        <v>5509</v>
       </c>
       <c r="B1680" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1680" s="1" t="s">
-        <v>5531</v>
+        <v>5525</v>
       </c>
       <c r="D1680" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="E1680" s="1" t="s">
-        <v>5509</v>
+        <v>5503</v>
       </c>
       <c r="F1680" s="1" t="s">
-        <v>5510</v>
+        <v>5504</v>
       </c>
       <c r="H1680" s="1" t="s">
-        <v>5508</v>
+        <v>5502</v>
       </c>
       <c r="I1680" s="1" t="s">
-        <v>5522</v>
+        <v>5516</v>
       </c>
       <c r="J1680" s="1" t="s">
-        <v>5519</v>
+        <v>5513</v>
       </c>
       <c r="K1680" s="1" t="s">
         <v>154</v>
@@ -68825,31 +68749,31 @@
     </row>
     <row r="1681" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1681" s="1" t="s">
-        <v>5524</v>
+        <v>5518</v>
       </c>
       <c r="B1681" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1681" s="1" t="s">
-        <v>5532</v>
+        <v>5526</v>
       </c>
       <c r="D1681" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="E1681" s="1" t="s">
-        <v>5509</v>
+        <v>5503</v>
       </c>
       <c r="F1681" s="1" t="s">
-        <v>5510</v>
+        <v>5504</v>
       </c>
       <c r="H1681" s="1" t="s">
-        <v>5508</v>
+        <v>5502</v>
       </c>
       <c r="I1681" s="1" t="s">
-        <v>5543</v>
+        <v>5537</v>
       </c>
       <c r="J1681" s="1" t="s">
-        <v>5544</v>
+        <v>5538</v>
       </c>
       <c r="K1681" s="1" t="s">
         <v>154</v>
@@ -68857,31 +68781,31 @@
     </row>
     <row r="1682" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1682" s="1" t="s">
-        <v>5525</v>
+        <v>5519</v>
       </c>
       <c r="B1682" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1682" s="1" t="s">
-        <v>5533</v>
+        <v>5527</v>
       </c>
       <c r="D1682" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="E1682" s="1" t="s">
-        <v>5509</v>
+        <v>5503</v>
       </c>
       <c r="F1682" s="1" t="s">
-        <v>5510</v>
+        <v>5504</v>
       </c>
       <c r="H1682" s="1" t="s">
-        <v>5508</v>
+        <v>5502</v>
       </c>
       <c r="I1682" s="1" t="s">
-        <v>5551</v>
+        <v>5545</v>
       </c>
       <c r="J1682" s="1" t="s">
-        <v>5545</v>
+        <v>5539</v>
       </c>
       <c r="K1682" s="1" t="s">
         <v>154</v>
@@ -68889,31 +68813,31 @@
     </row>
     <row r="1683" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1683" s="1" t="s">
-        <v>5526</v>
+        <v>5520</v>
       </c>
       <c r="B1683" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1683" s="1" t="s">
-        <v>5534</v>
+        <v>5528</v>
       </c>
       <c r="D1683" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="E1683" s="1" t="s">
-        <v>5509</v>
+        <v>5503</v>
       </c>
       <c r="F1683" s="1" t="s">
-        <v>5510</v>
+        <v>5504</v>
       </c>
       <c r="H1683" s="1" t="s">
-        <v>5508</v>
+        <v>5502</v>
       </c>
       <c r="I1683" s="1" t="s">
-        <v>5552</v>
+        <v>5546</v>
       </c>
       <c r="J1683" s="1" t="s">
-        <v>5546</v>
+        <v>5540</v>
       </c>
       <c r="K1683" s="1" t="s">
         <v>154</v>
@@ -68921,31 +68845,31 @@
     </row>
     <row r="1684" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1684" s="1" t="s">
-        <v>5527</v>
+        <v>5521</v>
       </c>
       <c r="B1684" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1684" s="1" t="s">
-        <v>5535</v>
+        <v>5529</v>
       </c>
       <c r="D1684" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="E1684" s="1" t="s">
-        <v>5509</v>
+        <v>5503</v>
       </c>
       <c r="F1684" s="1" t="s">
-        <v>5510</v>
+        <v>5504</v>
       </c>
       <c r="H1684" s="1" t="s">
-        <v>5508</v>
+        <v>5502</v>
       </c>
       <c r="I1684" s="1" t="s">
-        <v>5553</v>
+        <v>5547</v>
       </c>
       <c r="J1684" s="1" t="s">
-        <v>5547</v>
+        <v>5541</v>
       </c>
       <c r="K1684" s="1" t="s">
         <v>154</v>
@@ -68953,31 +68877,31 @@
     </row>
     <row r="1685" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1685" s="1" t="s">
-        <v>5542</v>
+        <v>5536</v>
       </c>
       <c r="B1685" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1685" s="1" t="s">
-        <v>5537</v>
+        <v>5531</v>
       </c>
       <c r="D1685" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="E1685" s="1" t="s">
-        <v>5509</v>
+        <v>5503</v>
       </c>
       <c r="F1685" s="1" t="s">
-        <v>5541</v>
+        <v>5535</v>
       </c>
       <c r="G1685" s="1" t="s">
-        <v>5511</v>
+        <v>5505</v>
       </c>
       <c r="I1685" s="1" t="s">
-        <v>5554</v>
+        <v>5548</v>
       </c>
       <c r="J1685" s="1" t="s">
-        <v>5548</v>
+        <v>5542</v>
       </c>
       <c r="K1685" s="1" t="s">
         <v>154</v>
@@ -68985,31 +68909,31 @@
     </row>
     <row r="1686" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1686" s="1" t="s">
-        <v>5536</v>
+        <v>5530</v>
       </c>
       <c r="B1686" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1686" s="1" t="s">
-        <v>5539</v>
+        <v>5533</v>
       </c>
       <c r="D1686" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="E1686" s="1" t="s">
-        <v>5509</v>
+        <v>5503</v>
       </c>
       <c r="F1686" s="1" t="s">
-        <v>5541</v>
+        <v>5535</v>
       </c>
       <c r="H1686" s="1" t="s">
-        <v>5542</v>
+        <v>5536</v>
       </c>
       <c r="I1686" s="1" t="s">
-        <v>5555</v>
+        <v>5549</v>
       </c>
       <c r="J1686" s="1" t="s">
-        <v>5549</v>
+        <v>5543</v>
       </c>
       <c r="K1686" s="1" t="s">
         <v>154</v>
@@ -69017,31 +68941,31 @@
     </row>
     <row r="1687" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1687" s="1" t="s">
-        <v>5538</v>
+        <v>5532</v>
       </c>
       <c r="B1687" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1687" s="1" t="s">
-        <v>5540</v>
+        <v>5534</v>
       </c>
       <c r="D1687" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="E1687" s="1" t="s">
-        <v>5509</v>
+        <v>5503</v>
       </c>
       <c r="F1687" s="1" t="s">
-        <v>5541</v>
+        <v>5535</v>
       </c>
       <c r="H1687" s="1" t="s">
-        <v>5542</v>
+        <v>5536</v>
       </c>
       <c r="I1687" s="1" t="s">
-        <v>5556</v>
+        <v>5550</v>
       </c>
       <c r="J1687" s="1" t="s">
-        <v>5550</v>
+        <v>5544</v>
       </c>
       <c r="K1687" s="1" t="s">
         <v>154</v>
@@ -69049,28 +68973,28 @@
     </row>
     <row r="1688" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1688" s="1" t="s">
-        <v>5656</v>
+        <v>5650</v>
       </c>
       <c r="B1688" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1688" s="1" t="s">
-        <v>5716</v>
+        <v>5710</v>
       </c>
       <c r="D1688" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1688" s="1" t="s">
-        <v>5609</v>
+        <v>5603</v>
       </c>
       <c r="G1688" s="1" t="s">
-        <v>5610</v>
+        <v>5604</v>
       </c>
       <c r="I1688" s="1" t="s">
-        <v>5655</v>
+        <v>5649</v>
       </c>
       <c r="J1688" s="1" t="s">
-        <v>5611</v>
+        <v>5605</v>
       </c>
       <c r="K1688" s="1" t="s">
         <v>44</v>
@@ -69078,28 +69002,28 @@
     </row>
     <row r="1689" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1689" s="1" t="s">
-        <v>5557</v>
+        <v>5551</v>
       </c>
       <c r="B1689" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1689" s="1" t="s">
-        <v>5717</v>
+        <v>5711</v>
       </c>
       <c r="D1689" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1689" s="1" t="s">
-        <v>5609</v>
+        <v>5603</v>
       </c>
       <c r="H1689" s="1" t="s">
-        <v>5656</v>
+        <v>5650</v>
       </c>
       <c r="I1689" s="1" t="s">
-        <v>5657</v>
+        <v>5651</v>
       </c>
       <c r="J1689" s="1" t="s">
-        <v>5612</v>
+        <v>5606</v>
       </c>
       <c r="K1689" s="1" t="s">
         <v>44</v>
@@ -69107,28 +69031,28 @@
     </row>
     <row r="1690" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1690" s="1" t="s">
-        <v>5558</v>
+        <v>5552</v>
       </c>
       <c r="B1690" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1690" s="1" t="s">
-        <v>5718</v>
+        <v>5712</v>
       </c>
       <c r="D1690" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1690" s="1" t="s">
-        <v>5609</v>
+        <v>5603</v>
       </c>
       <c r="H1690" s="1" t="s">
-        <v>5656</v>
+        <v>5650</v>
       </c>
       <c r="I1690" s="1" t="s">
-        <v>5658</v>
+        <v>5652</v>
       </c>
       <c r="J1690" s="1" t="s">
-        <v>5613</v>
+        <v>5607</v>
       </c>
       <c r="K1690" s="1" t="s">
         <v>44</v>
@@ -69136,28 +69060,28 @@
     </row>
     <row r="1691" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1691" s="1" t="s">
-        <v>5661</v>
+        <v>5655</v>
       </c>
       <c r="B1691" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1691" s="1" t="s">
-        <v>5573</v>
+        <v>5567</v>
       </c>
       <c r="D1691" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1691" s="1" t="s">
-        <v>5659</v>
+        <v>5653</v>
       </c>
       <c r="G1691" s="1" t="s">
-        <v>5610</v>
+        <v>5604</v>
       </c>
       <c r="I1691" s="1" t="s">
-        <v>5660</v>
+        <v>5654</v>
       </c>
       <c r="J1691" s="1" t="s">
-        <v>5614</v>
+        <v>5608</v>
       </c>
       <c r="K1691" s="1" t="s">
         <v>44</v>
@@ -69165,28 +69089,28 @@
     </row>
     <row r="1692" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1692" s="1" t="s">
-        <v>5559</v>
+        <v>5553</v>
       </c>
       <c r="B1692" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1692" s="1" t="s">
-        <v>5574</v>
+        <v>5568</v>
       </c>
       <c r="D1692" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1692" s="1" t="s">
-        <v>5659</v>
+        <v>5653</v>
       </c>
       <c r="H1692" s="1" t="s">
-        <v>5661</v>
+        <v>5655</v>
       </c>
       <c r="I1692" s="1" t="s">
-        <v>5662</v>
+        <v>5656</v>
       </c>
       <c r="J1692" s="1" t="s">
-        <v>5615</v>
+        <v>5609</v>
       </c>
       <c r="K1692" s="1" t="s">
         <v>44</v>
@@ -69194,28 +69118,28 @@
     </row>
     <row r="1693" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1693" s="1" t="s">
-        <v>5560</v>
+        <v>5554</v>
       </c>
       <c r="B1693" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1693" s="1" t="s">
-        <v>5575</v>
+        <v>5569</v>
       </c>
       <c r="D1693" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1693" s="1" t="s">
-        <v>5659</v>
+        <v>5653</v>
       </c>
       <c r="H1693" s="1" t="s">
-        <v>5661</v>
+        <v>5655</v>
       </c>
       <c r="I1693" s="1" t="s">
-        <v>5663</v>
+        <v>5657</v>
       </c>
       <c r="J1693" s="1" t="s">
-        <v>5616</v>
+        <v>5610</v>
       </c>
       <c r="K1693" s="1" t="s">
         <v>44</v>
@@ -69223,28 +69147,28 @@
     </row>
     <row r="1694" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1694" s="1" t="s">
-        <v>5665</v>
+        <v>5659</v>
       </c>
       <c r="B1694" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1694" s="1" t="s">
-        <v>5576</v>
+        <v>5570</v>
       </c>
       <c r="D1694" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1694" s="1" t="s">
-        <v>5664</v>
+        <v>5658</v>
       </c>
       <c r="G1694" s="1" t="s">
-        <v>5610</v>
+        <v>5604</v>
       </c>
       <c r="I1694" s="1" t="s">
-        <v>5948</v>
+        <v>5942</v>
       </c>
       <c r="J1694" s="1" t="s">
-        <v>5617</v>
+        <v>5611</v>
       </c>
       <c r="K1694" s="1" t="s">
         <v>44</v>
@@ -69252,28 +69176,28 @@
     </row>
     <row r="1695" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1695" s="1" t="s">
-        <v>5561</v>
+        <v>5555</v>
       </c>
       <c r="B1695" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1695" s="1" t="s">
-        <v>5577</v>
+        <v>5571</v>
       </c>
       <c r="D1695" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1695" s="1" t="s">
-        <v>5664</v>
+        <v>5658</v>
       </c>
       <c r="H1695" s="1" t="s">
-        <v>5665</v>
+        <v>5659</v>
       </c>
       <c r="I1695" s="1" t="s">
-        <v>5866</v>
+        <v>5860</v>
       </c>
       <c r="J1695" s="1" t="s">
-        <v>5618</v>
+        <v>5612</v>
       </c>
       <c r="K1695" s="1" t="s">
         <v>44</v>
@@ -69281,28 +69205,28 @@
     </row>
     <row r="1696" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1696" s="1" t="s">
-        <v>5562</v>
+        <v>5556</v>
       </c>
       <c r="B1696" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1696" s="1" t="s">
-        <v>5578</v>
+        <v>5572</v>
       </c>
       <c r="D1696" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1696" s="1" t="s">
-        <v>5664</v>
+        <v>5658</v>
       </c>
       <c r="H1696" s="1" t="s">
-        <v>5665</v>
+        <v>5659</v>
       </c>
       <c r="I1696" s="1" t="s">
-        <v>5666</v>
+        <v>5660</v>
       </c>
       <c r="J1696" s="1" t="s">
-        <v>5619</v>
+        <v>5613</v>
       </c>
       <c r="K1696" s="1" t="s">
         <v>44</v>
@@ -69310,28 +69234,28 @@
     </row>
     <row r="1697" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1697" s="1" t="s">
-        <v>5668</v>
+        <v>5662</v>
       </c>
       <c r="B1697" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1697" s="1" t="s">
-        <v>5579</v>
+        <v>5573</v>
       </c>
       <c r="D1697" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1697" s="1" t="s">
-        <v>5667</v>
+        <v>5661</v>
       </c>
       <c r="G1697" s="1" t="s">
-        <v>5610</v>
+        <v>5604</v>
       </c>
       <c r="I1697" s="1" t="s">
-        <v>5684</v>
+        <v>5678</v>
       </c>
       <c r="J1697" s="1" t="s">
-        <v>5620</v>
+        <v>5614</v>
       </c>
       <c r="K1697" s="1" t="s">
         <v>44</v>
@@ -69339,28 +69263,28 @@
     </row>
     <row r="1698" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1698" s="1" t="s">
-        <v>5563</v>
+        <v>5557</v>
       </c>
       <c r="B1698" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1698" s="1" t="s">
-        <v>5580</v>
+        <v>5574</v>
       </c>
       <c r="D1698" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1698" s="1" t="s">
-        <v>5667</v>
+        <v>5661</v>
       </c>
       <c r="H1698" s="1" t="s">
-        <v>5668</v>
+        <v>5662</v>
       </c>
       <c r="I1698" s="1" t="s">
-        <v>5685</v>
+        <v>5679</v>
       </c>
       <c r="J1698" s="1" t="s">
-        <v>5621</v>
+        <v>5615</v>
       </c>
       <c r="K1698" s="1" t="s">
         <v>44</v>
@@ -69368,28 +69292,28 @@
     </row>
     <row r="1699" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1699" s="1" t="s">
-        <v>5564</v>
+        <v>5558</v>
       </c>
       <c r="B1699" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1699" s="1" t="s">
-        <v>5581</v>
+        <v>5575</v>
       </c>
       <c r="D1699" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1699" s="1" t="s">
-        <v>5667</v>
+        <v>5661</v>
       </c>
       <c r="H1699" s="1" t="s">
-        <v>5668</v>
+        <v>5662</v>
       </c>
       <c r="I1699" s="1" t="s">
-        <v>5686</v>
+        <v>5680</v>
       </c>
       <c r="J1699" s="1" t="s">
-        <v>5622</v>
+        <v>5616</v>
       </c>
       <c r="K1699" s="1" t="s">
         <v>44</v>
@@ -69397,28 +69321,28 @@
     </row>
     <row r="1700" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1700" s="1" t="s">
-        <v>5688</v>
+        <v>5682</v>
       </c>
       <c r="B1700" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1700" s="1" t="s">
-        <v>5582</v>
+        <v>5576</v>
       </c>
       <c r="D1700" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1700" s="1" t="s">
-        <v>5687</v>
+        <v>5681</v>
       </c>
       <c r="G1700" s="1" t="s">
-        <v>5610</v>
+        <v>5604</v>
       </c>
       <c r="I1700" s="1" t="s">
-        <v>5689</v>
+        <v>5683</v>
       </c>
       <c r="J1700" s="1" t="s">
-        <v>5623</v>
+        <v>5617</v>
       </c>
       <c r="K1700" s="1" t="s">
         <v>44</v>
@@ -69426,28 +69350,28 @@
     </row>
     <row r="1701" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1701" s="1" t="s">
-        <v>5565</v>
+        <v>5559</v>
       </c>
       <c r="B1701" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1701" s="1" t="s">
-        <v>5583</v>
+        <v>5577</v>
       </c>
       <c r="D1701" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1701" s="1" t="s">
-        <v>5687</v>
+        <v>5681</v>
       </c>
       <c r="H1701" s="1" t="s">
-        <v>5688</v>
+        <v>5682</v>
       </c>
       <c r="I1701" s="1" t="s">
-        <v>5690</v>
+        <v>5684</v>
       </c>
       <c r="J1701" s="1" t="s">
-        <v>5624</v>
+        <v>5618</v>
       </c>
       <c r="K1701" s="1" t="s">
         <v>44</v>
@@ -69455,28 +69379,28 @@
     </row>
     <row r="1702" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1702" s="1" t="s">
-        <v>5566</v>
+        <v>5560</v>
       </c>
       <c r="B1702" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1702" s="1" t="s">
-        <v>5584</v>
+        <v>5578</v>
       </c>
       <c r="D1702" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1702" s="1" t="s">
-        <v>5687</v>
+        <v>5681</v>
       </c>
       <c r="H1702" s="1" t="s">
-        <v>5688</v>
+        <v>5682</v>
       </c>
       <c r="I1702" s="1" t="s">
-        <v>5691</v>
+        <v>5685</v>
       </c>
       <c r="J1702" s="1" t="s">
-        <v>5625</v>
+        <v>5619</v>
       </c>
       <c r="K1702" s="1" t="s">
         <v>44</v>
@@ -69484,28 +69408,28 @@
     </row>
     <row r="1703" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1703" s="1" t="s">
-        <v>5567</v>
+        <v>5561</v>
       </c>
       <c r="B1703" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1703" s="1" t="s">
-        <v>5585</v>
+        <v>5579</v>
       </c>
       <c r="D1703" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1703" s="1" t="s">
-        <v>5692</v>
+        <v>5686</v>
       </c>
       <c r="G1703" s="1" t="s">
-        <v>5610</v>
+        <v>5604</v>
       </c>
       <c r="I1703" s="1" t="s">
-        <v>5694</v>
+        <v>5688</v>
       </c>
       <c r="J1703" s="1" t="s">
-        <v>5626</v>
+        <v>5620</v>
       </c>
       <c r="K1703" s="1" t="s">
         <v>44</v>
@@ -69513,28 +69437,28 @@
     </row>
     <row r="1704" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1704" s="1" t="s">
-        <v>5693</v>
+        <v>5687</v>
       </c>
       <c r="B1704" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1704" s="1" t="s">
-        <v>5586</v>
+        <v>5580</v>
       </c>
       <c r="D1704" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1704" s="1" t="s">
-        <v>5692</v>
+        <v>5686</v>
       </c>
       <c r="H1704" s="1" t="s">
-        <v>5832</v>
+        <v>5826</v>
       </c>
       <c r="I1704" s="1" t="s">
-        <v>5695</v>
+        <v>5689</v>
       </c>
       <c r="J1704" s="1" t="s">
-        <v>5627</v>
+        <v>5621</v>
       </c>
       <c r="K1704" s="1" t="s">
         <v>44</v>
@@ -69542,28 +69466,28 @@
     </row>
     <row r="1705" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1705" s="1" t="s">
-        <v>5568</v>
+        <v>5562</v>
       </c>
       <c r="B1705" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1705" s="1" t="s">
-        <v>5587</v>
+        <v>5581</v>
       </c>
       <c r="D1705" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1705" s="1" t="s">
-        <v>5692</v>
+        <v>5686</v>
       </c>
       <c r="H1705" s="1" t="s">
-        <v>5832</v>
+        <v>5826</v>
       </c>
       <c r="I1705" s="1" t="s">
-        <v>5696</v>
+        <v>5690</v>
       </c>
       <c r="J1705" s="1" t="s">
-        <v>5628</v>
+        <v>5622</v>
       </c>
       <c r="K1705" s="1" t="s">
         <v>44</v>
@@ -69571,28 +69495,28 @@
     </row>
     <row r="1706" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1706" s="1" t="s">
-        <v>5698</v>
+        <v>5692</v>
       </c>
       <c r="B1706" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1706" s="1" t="s">
-        <v>5588</v>
+        <v>5582</v>
       </c>
       <c r="D1706" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1706" s="1" t="s">
-        <v>5697</v>
+        <v>5691</v>
       </c>
       <c r="G1706" s="1" t="s">
-        <v>5610</v>
+        <v>5604</v>
       </c>
       <c r="I1706" s="1" t="s">
-        <v>5702</v>
+        <v>5696</v>
       </c>
       <c r="J1706" s="1" t="s">
-        <v>5629</v>
+        <v>5623</v>
       </c>
       <c r="K1706" s="1" t="s">
         <v>44</v>
@@ -69600,28 +69524,28 @@
     </row>
     <row r="1707" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1707" s="1" t="s">
-        <v>5569</v>
+        <v>5563</v>
       </c>
       <c r="B1707" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1707" s="1" t="s">
-        <v>5589</v>
+        <v>5583</v>
       </c>
       <c r="D1707" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1707" s="1" t="s">
+        <v>5691</v>
+      </c>
+      <c r="H1707" s="1" t="s">
+        <v>5692</v>
+      </c>
+      <c r="I1707" s="1" t="s">
         <v>5697</v>
       </c>
-      <c r="H1707" s="1" t="s">
-        <v>5698</v>
-      </c>
-      <c r="I1707" s="1" t="s">
-        <v>5703</v>
-      </c>
       <c r="J1707" s="1" t="s">
-        <v>5630</v>
+        <v>5624</v>
       </c>
       <c r="K1707" s="1" t="s">
         <v>44</v>
@@ -69629,28 +69553,28 @@
     </row>
     <row r="1708" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1708" s="1" t="s">
-        <v>5570</v>
+        <v>5564</v>
       </c>
       <c r="B1708" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1708" s="1" t="s">
-        <v>5590</v>
+        <v>5584</v>
       </c>
       <c r="D1708" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1708" s="1" t="s">
-        <v>5697</v>
+        <v>5691</v>
       </c>
       <c r="H1708" s="1" t="s">
+        <v>5692</v>
+      </c>
+      <c r="I1708" s="1" t="s">
         <v>5698</v>
       </c>
-      <c r="I1708" s="1" t="s">
-        <v>5704</v>
-      </c>
       <c r="J1708" s="1" t="s">
-        <v>5631</v>
+        <v>5625</v>
       </c>
       <c r="K1708" s="1" t="s">
         <v>44</v>
@@ -69658,28 +69582,28 @@
     </row>
     <row r="1709" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1709" s="1" t="s">
-        <v>5700</v>
+        <v>5694</v>
       </c>
       <c r="B1709" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1709" s="1" t="s">
-        <v>5675</v>
+        <v>5669</v>
       </c>
       <c r="D1709" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1709" s="1" t="s">
-        <v>5699</v>
+        <v>5693</v>
       </c>
       <c r="G1709" s="1" t="s">
-        <v>5610</v>
+        <v>5604</v>
       </c>
       <c r="I1709" s="1" t="s">
-        <v>5701</v>
+        <v>5695</v>
       </c>
       <c r="J1709" s="1" t="s">
-        <v>5632</v>
+        <v>5626</v>
       </c>
       <c r="K1709" s="1" t="s">
         <v>44</v>
@@ -69687,28 +69611,28 @@
     </row>
     <row r="1710" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1710" s="1" t="s">
-        <v>5571</v>
+        <v>5565</v>
       </c>
       <c r="B1710" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1710" s="1" t="s">
-        <v>5676</v>
+        <v>5670</v>
       </c>
       <c r="D1710" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1710" s="1" t="s">
+        <v>5693</v>
+      </c>
+      <c r="H1710" s="1" t="s">
+        <v>5694</v>
+      </c>
+      <c r="I1710" s="1" t="s">
         <v>5699</v>
       </c>
-      <c r="H1710" s="1" t="s">
-        <v>5700</v>
-      </c>
-      <c r="I1710" s="1" t="s">
-        <v>5705</v>
-      </c>
       <c r="J1710" s="1" t="s">
-        <v>5633</v>
+        <v>5627</v>
       </c>
       <c r="K1710" s="1" t="s">
         <v>44</v>
@@ -69716,28 +69640,28 @@
     </row>
     <row r="1711" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1711" s="1" t="s">
-        <v>5572</v>
+        <v>5566</v>
       </c>
       <c r="B1711" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1711" s="1" t="s">
-        <v>5677</v>
+        <v>5671</v>
       </c>
       <c r="D1711" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1711" s="1" t="s">
-        <v>5699</v>
+        <v>5693</v>
       </c>
       <c r="H1711" s="1" t="s">
+        <v>5694</v>
+      </c>
+      <c r="I1711" s="1" t="s">
         <v>5700</v>
       </c>
-      <c r="I1711" s="1" t="s">
-        <v>5706</v>
-      </c>
       <c r="J1711" s="1" t="s">
-        <v>5634</v>
+        <v>5628</v>
       </c>
       <c r="K1711" s="1" t="s">
         <v>44</v>
@@ -69745,28 +69669,28 @@
     </row>
     <row r="1712" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1712" s="1" t="s">
-        <v>5725</v>
+        <v>5719</v>
       </c>
       <c r="B1712" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1712" s="1" t="s">
-        <v>5591</v>
+        <v>5585</v>
       </c>
       <c r="D1712" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1712" s="1" t="s">
-        <v>5719</v>
+        <v>5713</v>
       </c>
       <c r="G1712" s="1" t="s">
-        <v>5610</v>
+        <v>5604</v>
       </c>
       <c r="I1712" s="1" t="s">
-        <v>5728</v>
+        <v>5722</v>
       </c>
       <c r="J1712" s="1" t="s">
-        <v>5635</v>
+        <v>5629</v>
       </c>
       <c r="K1712" s="1" t="s">
         <v>154</v>
@@ -69774,28 +69698,28 @@
     </row>
     <row r="1713" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1713" s="1" t="s">
-        <v>5592</v>
+        <v>5586</v>
       </c>
       <c r="B1713" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1713" s="1" t="s">
-        <v>5722</v>
+        <v>5716</v>
       </c>
       <c r="D1713" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1713" s="1" t="s">
+        <v>5713</v>
+      </c>
+      <c r="H1713" s="1" t="s">
         <v>5719</v>
       </c>
-      <c r="H1713" s="1" t="s">
-        <v>5725</v>
-      </c>
       <c r="I1713" s="1" t="s">
-        <v>5729</v>
+        <v>5723</v>
       </c>
       <c r="J1713" s="1" t="s">
-        <v>5636</v>
+        <v>5630</v>
       </c>
       <c r="K1713" s="1" t="s">
         <v>154</v>
@@ -69803,28 +69727,28 @@
     </row>
     <row r="1714" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1714" s="1" t="s">
-        <v>5593</v>
+        <v>5587</v>
       </c>
       <c r="B1714" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1714" s="1" t="s">
-        <v>5723</v>
+        <v>5717</v>
       </c>
       <c r="D1714" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1714" s="1" t="s">
+        <v>5713</v>
+      </c>
+      <c r="H1714" s="1" t="s">
         <v>5719</v>
       </c>
-      <c r="H1714" s="1" t="s">
-        <v>5725</v>
-      </c>
       <c r="I1714" s="1" t="s">
-        <v>5730</v>
+        <v>5724</v>
       </c>
       <c r="J1714" s="1" t="s">
-        <v>5637</v>
+        <v>5631</v>
       </c>
       <c r="K1714" s="1" t="s">
         <v>154</v>
@@ -69832,28 +69756,28 @@
     </row>
     <row r="1715" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1715" s="1" t="s">
-        <v>5726</v>
+        <v>5720</v>
       </c>
       <c r="B1715" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1715" s="1" t="s">
-        <v>5713</v>
+        <v>5707</v>
       </c>
       <c r="D1715" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1715" s="1" t="s">
-        <v>5724</v>
+        <v>5718</v>
       </c>
       <c r="G1715" s="1" t="s">
-        <v>5610</v>
+        <v>5604</v>
       </c>
       <c r="I1715" s="1" t="s">
-        <v>5733</v>
+        <v>5727</v>
       </c>
       <c r="J1715" s="1" t="s">
-        <v>5638</v>
+        <v>5632</v>
       </c>
       <c r="K1715" s="1" t="s">
         <v>44</v>
@@ -69861,28 +69785,28 @@
     </row>
     <row r="1716" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1716" s="1" t="s">
-        <v>5594</v>
+        <v>5588</v>
       </c>
       <c r="B1716" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1716" s="1" t="s">
-        <v>5714</v>
+        <v>5708</v>
       </c>
       <c r="D1716" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1716" s="1" t="s">
-        <v>5724</v>
+        <v>5718</v>
       </c>
       <c r="H1716" s="1" t="s">
-        <v>5727</v>
+        <v>5721</v>
       </c>
       <c r="I1716" s="1" t="s">
-        <v>5734</v>
+        <v>5728</v>
       </c>
       <c r="J1716" s="1" t="s">
-        <v>5639</v>
+        <v>5633</v>
       </c>
       <c r="K1716" s="1" t="s">
         <v>44</v>
@@ -69890,28 +69814,28 @@
     </row>
     <row r="1717" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1717" s="1" t="s">
-        <v>5595</v>
+        <v>5589</v>
       </c>
       <c r="B1717" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1717" s="1" t="s">
-        <v>5715</v>
+        <v>5709</v>
       </c>
       <c r="D1717" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1717" s="1" t="s">
-        <v>5724</v>
+        <v>5718</v>
       </c>
       <c r="H1717" s="1" t="s">
-        <v>5727</v>
+        <v>5721</v>
       </c>
       <c r="I1717" s="1" t="s">
-        <v>5735</v>
+        <v>5729</v>
       </c>
       <c r="J1717" s="1" t="s">
-        <v>5640</v>
+        <v>5634</v>
       </c>
       <c r="K1717" s="1" t="s">
         <v>44</v>
@@ -69919,28 +69843,28 @@
     </row>
     <row r="1718" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1718" s="1" t="s">
-        <v>5783</v>
+        <v>5777</v>
       </c>
       <c r="B1718" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1718" s="1" t="s">
-        <v>5736</v>
+        <v>5730</v>
       </c>
       <c r="D1718" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1718" s="1" t="s">
-        <v>5773</v>
+        <v>5767</v>
       </c>
       <c r="G1718" s="1" t="s">
-        <v>5795</v>
+        <v>5789</v>
       </c>
       <c r="I1718" s="1" t="s">
-        <v>5796</v>
+        <v>5790</v>
       </c>
       <c r="J1718" s="1" t="s">
-        <v>5641</v>
+        <v>5635</v>
       </c>
       <c r="K1718" s="1" t="s">
         <v>44</v>
@@ -69948,28 +69872,28 @@
     </row>
     <row r="1719" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1719" s="1" t="s">
-        <v>5596</v>
+        <v>5590</v>
       </c>
       <c r="B1719" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1719" s="1" t="s">
-        <v>5737</v>
+        <v>5731</v>
       </c>
       <c r="D1719" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1719" s="1" t="s">
-        <v>5773</v>
+        <v>5767</v>
       </c>
       <c r="H1719" s="1" t="s">
-        <v>5783</v>
+        <v>5777</v>
       </c>
       <c r="I1719" s="1" t="s">
-        <v>5797</v>
+        <v>5791</v>
       </c>
       <c r="J1719" s="1" t="s">
-        <v>5642</v>
+        <v>5636</v>
       </c>
       <c r="K1719" s="1" t="s">
         <v>44</v>
@@ -69977,28 +69901,28 @@
     </row>
     <row r="1720" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1720" s="1" t="s">
-        <v>5597</v>
+        <v>5591</v>
       </c>
       <c r="B1720" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1720" s="1" t="s">
-        <v>5738</v>
+        <v>5732</v>
       </c>
       <c r="D1720" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1720" s="1" t="s">
-        <v>5773</v>
+        <v>5767</v>
       </c>
       <c r="H1720" s="1" t="s">
-        <v>5783</v>
+        <v>5777</v>
       </c>
       <c r="I1720" s="1" t="s">
-        <v>5798</v>
+        <v>5792</v>
       </c>
       <c r="J1720" s="1" t="s">
-        <v>5643</v>
+        <v>5637</v>
       </c>
       <c r="K1720" s="1" t="s">
         <v>44</v>
@@ -70006,28 +69930,28 @@
     </row>
     <row r="1721" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1721" s="1" t="s">
-        <v>5598</v>
+        <v>5592</v>
       </c>
       <c r="B1721" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1721" s="1" t="s">
-        <v>5739</v>
+        <v>5733</v>
       </c>
       <c r="D1721" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1721" s="1" t="s">
-        <v>5774</v>
+        <v>5768</v>
       </c>
       <c r="G1721" s="1" t="s">
-        <v>5795</v>
+        <v>5789</v>
       </c>
       <c r="I1721" s="1" t="s">
-        <v>5799</v>
+        <v>5793</v>
       </c>
       <c r="J1721" s="1" t="s">
-        <v>5644</v>
+        <v>5638</v>
       </c>
       <c r="K1721" s="1" t="s">
         <v>44</v>
@@ -70035,28 +69959,28 @@
     </row>
     <row r="1722" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1722" s="1" t="s">
-        <v>5599</v>
+        <v>5593</v>
       </c>
       <c r="B1722" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1722" s="1" t="s">
-        <v>5740</v>
+        <v>5734</v>
       </c>
       <c r="D1722" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1722" s="1" t="s">
-        <v>5774</v>
+        <v>5768</v>
       </c>
       <c r="H1722" s="1" t="s">
-        <v>5784</v>
+        <v>5778</v>
       </c>
       <c r="I1722" s="1" t="s">
-        <v>5800</v>
+        <v>5794</v>
       </c>
       <c r="J1722" s="1" t="s">
-        <v>5645</v>
+        <v>5639</v>
       </c>
       <c r="K1722" s="1" t="s">
         <v>44</v>
@@ -70064,28 +69988,28 @@
     </row>
     <row r="1723" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1723" s="1" t="s">
-        <v>5600</v>
+        <v>5594</v>
       </c>
       <c r="B1723" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1723" s="1" t="s">
-        <v>5741</v>
+        <v>5735</v>
       </c>
       <c r="D1723" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1723" s="1" t="s">
-        <v>5774</v>
+        <v>5768</v>
       </c>
       <c r="H1723" s="1" t="s">
-        <v>5784</v>
+        <v>5778</v>
       </c>
       <c r="I1723" s="1" t="s">
-        <v>5801</v>
+        <v>5795</v>
       </c>
       <c r="J1723" s="1" t="s">
-        <v>5646</v>
+        <v>5640</v>
       </c>
       <c r="K1723" s="1" t="s">
         <v>44</v>
@@ -70093,28 +70017,28 @@
     </row>
     <row r="1724" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1724" s="1" t="s">
-        <v>5601</v>
+        <v>5595</v>
       </c>
       <c r="B1724" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1724" s="1" t="s">
-        <v>5742</v>
+        <v>5736</v>
       </c>
       <c r="D1724" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1724" s="1" t="s">
-        <v>5775</v>
+        <v>5769</v>
       </c>
       <c r="G1724" s="1" t="s">
-        <v>5795</v>
+        <v>5789</v>
       </c>
       <c r="I1724" s="1" t="s">
-        <v>5949</v>
+        <v>5943</v>
       </c>
       <c r="J1724" s="1" t="s">
-        <v>5647</v>
+        <v>5641</v>
       </c>
       <c r="K1724" s="1" t="s">
         <v>44</v>
@@ -70122,28 +70046,28 @@
     </row>
     <row r="1725" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1725" s="1" t="s">
-        <v>5602</v>
+        <v>5596</v>
       </c>
       <c r="B1725" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1725" s="1" t="s">
-        <v>5743</v>
+        <v>5737</v>
       </c>
       <c r="D1725" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1725" s="1" t="s">
-        <v>5775</v>
+        <v>5769</v>
       </c>
       <c r="H1725" s="1" t="s">
-        <v>5785</v>
+        <v>5779</v>
       </c>
       <c r="I1725" s="1" t="s">
-        <v>5867</v>
+        <v>5861</v>
       </c>
       <c r="J1725" s="1" t="s">
-        <v>5648</v>
+        <v>5642</v>
       </c>
       <c r="K1725" s="1" t="s">
         <v>44</v>
@@ -70151,28 +70075,28 @@
     </row>
     <row r="1726" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1726" s="1" t="s">
-        <v>5603</v>
+        <v>5597</v>
       </c>
       <c r="B1726" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1726" s="1" t="s">
-        <v>5744</v>
+        <v>5738</v>
       </c>
       <c r="D1726" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1726" s="1" t="s">
-        <v>5775</v>
+        <v>5769</v>
       </c>
       <c r="H1726" s="1" t="s">
-        <v>5785</v>
+        <v>5779</v>
       </c>
       <c r="I1726" s="1" t="s">
-        <v>5802</v>
+        <v>5796</v>
       </c>
       <c r="J1726" s="1" t="s">
-        <v>5649</v>
+        <v>5643</v>
       </c>
       <c r="K1726" s="1" t="s">
         <v>44</v>
@@ -70180,28 +70104,28 @@
     </row>
     <row r="1727" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1727" s="1" t="s">
-        <v>5604</v>
+        <v>5598</v>
       </c>
       <c r="B1727" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1727" s="1" t="s">
-        <v>5745</v>
+        <v>5739</v>
       </c>
       <c r="D1727" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1727" s="1" t="s">
-        <v>5776</v>
+        <v>5770</v>
       </c>
       <c r="G1727" s="1" t="s">
-        <v>5795</v>
+        <v>5789</v>
       </c>
       <c r="I1727" s="1" t="s">
-        <v>5803</v>
+        <v>5797</v>
       </c>
       <c r="J1727" s="1" t="s">
-        <v>5650</v>
+        <v>5644</v>
       </c>
       <c r="K1727" s="1" t="s">
         <v>44</v>
@@ -70209,28 +70133,28 @@
     </row>
     <row r="1728" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1728" s="1" t="s">
-        <v>5605</v>
+        <v>5599</v>
       </c>
       <c r="B1728" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1728" s="1" t="s">
-        <v>5746</v>
+        <v>5740</v>
       </c>
       <c r="D1728" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1728" s="1" t="s">
-        <v>5776</v>
+        <v>5770</v>
       </c>
       <c r="H1728" s="1" t="s">
-        <v>5786</v>
+        <v>5780</v>
       </c>
       <c r="I1728" s="1" t="s">
-        <v>5804</v>
+        <v>5798</v>
       </c>
       <c r="J1728" s="1" t="s">
-        <v>5651</v>
+        <v>5645</v>
       </c>
       <c r="K1728" s="1" t="s">
         <v>44</v>
@@ -70238,28 +70162,28 @@
     </row>
     <row r="1729" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1729" s="1" t="s">
-        <v>5606</v>
+        <v>5600</v>
       </c>
       <c r="B1729" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1729" s="1" t="s">
-        <v>5747</v>
+        <v>5741</v>
       </c>
       <c r="D1729" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1729" s="1" t="s">
-        <v>5776</v>
+        <v>5770</v>
       </c>
       <c r="H1729" s="1" t="s">
-        <v>5786</v>
+        <v>5780</v>
       </c>
       <c r="I1729" s="1" t="s">
-        <v>5805</v>
+        <v>5799</v>
       </c>
       <c r="J1729" s="1" t="s">
-        <v>5652</v>
+        <v>5646</v>
       </c>
       <c r="K1729" s="1" t="s">
         <v>44</v>
@@ -70267,28 +70191,28 @@
     </row>
     <row r="1730" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1730" s="1" t="s">
-        <v>5607</v>
+        <v>5601</v>
       </c>
       <c r="B1730" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1730" s="1" t="s">
-        <v>5748</v>
+        <v>5742</v>
       </c>
       <c r="D1730" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1730" s="1" t="s">
-        <v>5777</v>
+        <v>5771</v>
       </c>
       <c r="G1730" s="1" t="s">
-        <v>5795</v>
+        <v>5789</v>
       </c>
       <c r="I1730" s="1" t="s">
-        <v>5806</v>
+        <v>5800</v>
       </c>
       <c r="J1730" s="1" t="s">
-        <v>5653</v>
+        <v>5647</v>
       </c>
       <c r="K1730" s="1" t="s">
         <v>44</v>
@@ -70296,28 +70220,28 @@
     </row>
     <row r="1731" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1731" s="1" t="s">
-        <v>5608</v>
+        <v>5602</v>
       </c>
       <c r="B1731" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1731" s="1" t="s">
-        <v>5749</v>
+        <v>5743</v>
       </c>
       <c r="D1731" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1731" s="1" t="s">
-        <v>5777</v>
+        <v>5771</v>
       </c>
       <c r="H1731" s="1" t="s">
-        <v>5787</v>
+        <v>5781</v>
       </c>
       <c r="I1731" s="1" t="s">
-        <v>5807</v>
+        <v>5801</v>
       </c>
       <c r="J1731" s="1" t="s">
-        <v>5654</v>
+        <v>5648</v>
       </c>
       <c r="K1731" s="1" t="s">
         <v>44</v>
@@ -70325,28 +70249,28 @@
     </row>
     <row r="1732" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1732" s="1" t="s">
-        <v>5669</v>
+        <v>5663</v>
       </c>
       <c r="B1732" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1732" s="1" t="s">
-        <v>5750</v>
+        <v>5744</v>
       </c>
       <c r="D1732" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1732" s="1" t="s">
-        <v>5777</v>
+        <v>5771</v>
       </c>
       <c r="H1732" s="1" t="s">
-        <v>5787</v>
+        <v>5781</v>
       </c>
       <c r="I1732" s="1" t="s">
-        <v>5808</v>
+        <v>5802</v>
       </c>
       <c r="J1732" s="1" t="s">
-        <v>5678</v>
+        <v>5672</v>
       </c>
       <c r="K1732" s="1" t="s">
         <v>44</v>
@@ -70354,28 +70278,28 @@
     </row>
     <row r="1733" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1733" s="1" t="s">
-        <v>5670</v>
+        <v>5664</v>
       </c>
       <c r="B1733" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1733" s="1" t="s">
-        <v>5751</v>
+        <v>5745</v>
       </c>
       <c r="D1733" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1733" s="1" t="s">
-        <v>5778</v>
+        <v>5772</v>
       </c>
       <c r="G1733" s="1" t="s">
-        <v>5795</v>
+        <v>5789</v>
       </c>
       <c r="I1733" s="1" t="s">
-        <v>5809</v>
+        <v>5803</v>
       </c>
       <c r="J1733" s="1" t="s">
-        <v>5679</v>
+        <v>5673</v>
       </c>
       <c r="K1733" s="1" t="s">
         <v>44</v>
@@ -70383,28 +70307,28 @@
     </row>
     <row r="1734" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1734" s="1" t="s">
-        <v>5671</v>
+        <v>5665</v>
       </c>
       <c r="B1734" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1734" s="1" t="s">
-        <v>5752</v>
+        <v>5746</v>
       </c>
       <c r="D1734" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1734" s="1" t="s">
-        <v>5778</v>
+        <v>5772</v>
       </c>
       <c r="H1734" s="1" t="s">
-        <v>5788</v>
+        <v>5782</v>
       </c>
       <c r="I1734" s="1" t="s">
-        <v>5810</v>
+        <v>5804</v>
       </c>
       <c r="J1734" s="1" t="s">
-        <v>5680</v>
+        <v>5674</v>
       </c>
       <c r="K1734" s="1" t="s">
         <v>44</v>
@@ -70412,28 +70336,28 @@
     </row>
     <row r="1735" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1735" s="1" t="s">
-        <v>5672</v>
+        <v>5666</v>
       </c>
       <c r="B1735" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1735" s="1" t="s">
-        <v>5753</v>
+        <v>5747</v>
       </c>
       <c r="D1735" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1735" s="1" t="s">
-        <v>5778</v>
+        <v>5772</v>
       </c>
       <c r="H1735" s="1" t="s">
-        <v>5788</v>
+        <v>5782</v>
       </c>
       <c r="I1735" s="1" t="s">
-        <v>5811</v>
+        <v>5805</v>
       </c>
       <c r="J1735" s="1" t="s">
-        <v>5681</v>
+        <v>5675</v>
       </c>
       <c r="K1735" s="1" t="s">
         <v>44</v>
@@ -70441,28 +70365,28 @@
     </row>
     <row r="1736" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1736" s="1" t="s">
-        <v>5673</v>
+        <v>5667</v>
       </c>
       <c r="B1736" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1736" s="1" t="s">
-        <v>5754</v>
+        <v>5748</v>
       </c>
       <c r="D1736" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1736" s="1" t="s">
-        <v>5779</v>
+        <v>5773</v>
       </c>
       <c r="G1736" s="1" t="s">
-        <v>5795</v>
+        <v>5789</v>
       </c>
       <c r="I1736" s="1" t="s">
-        <v>5812</v>
+        <v>5806</v>
       </c>
       <c r="J1736" s="1" t="s">
-        <v>5682</v>
+        <v>5676</v>
       </c>
       <c r="K1736" s="1" t="s">
         <v>44</v>
@@ -70470,28 +70394,28 @@
     </row>
     <row r="1737" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1737" s="1" t="s">
-        <v>5674</v>
+        <v>5668</v>
       </c>
       <c r="B1737" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1737" s="1" t="s">
-        <v>5755</v>
+        <v>5749</v>
       </c>
       <c r="D1737" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1737" s="1" t="s">
-        <v>5779</v>
+        <v>5773</v>
       </c>
       <c r="H1737" s="1" t="s">
-        <v>5789</v>
+        <v>5783</v>
       </c>
       <c r="I1737" s="1" t="s">
-        <v>5813</v>
+        <v>5807</v>
       </c>
       <c r="J1737" s="1" t="s">
-        <v>5683</v>
+        <v>5677</v>
       </c>
       <c r="K1737" s="1" t="s">
         <v>44</v>
@@ -70499,28 +70423,28 @@
     </row>
     <row r="1738" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1738" s="1" t="s">
-        <v>5707</v>
+        <v>5701</v>
       </c>
       <c r="B1738" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1738" s="1" t="s">
-        <v>5761</v>
+        <v>5755</v>
       </c>
       <c r="D1738" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1738" s="1" t="s">
-        <v>5779</v>
+        <v>5773</v>
       </c>
       <c r="H1738" s="1" t="s">
-        <v>5789</v>
+        <v>5783</v>
       </c>
       <c r="I1738" s="1" t="s">
-        <v>5814</v>
+        <v>5808</v>
       </c>
       <c r="J1738" s="1" t="s">
-        <v>5710</v>
+        <v>5704</v>
       </c>
       <c r="K1738" s="1" t="s">
         <v>44</v>
@@ -70528,28 +70452,28 @@
     </row>
     <row r="1739" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1739" s="1" t="s">
-        <v>5708</v>
+        <v>5702</v>
       </c>
       <c r="B1739" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1739" s="1" t="s">
-        <v>5762</v>
+        <v>5756</v>
       </c>
       <c r="D1739" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1739" s="1" t="s">
-        <v>5780</v>
+        <v>5774</v>
       </c>
       <c r="G1739" s="1" t="s">
-        <v>5795</v>
+        <v>5789</v>
       </c>
       <c r="I1739" s="1" t="s">
-        <v>5815</v>
+        <v>5809</v>
       </c>
       <c r="J1739" s="1" t="s">
-        <v>5711</v>
+        <v>5705</v>
       </c>
       <c r="K1739" s="1" t="s">
         <v>44</v>
@@ -70557,28 +70481,28 @@
     </row>
     <row r="1740" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1740" s="1" t="s">
-        <v>5709</v>
+        <v>5703</v>
       </c>
       <c r="B1740" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1740" s="1" t="s">
-        <v>5763</v>
+        <v>5757</v>
       </c>
       <c r="D1740" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1740" s="1" t="s">
-        <v>5780</v>
+        <v>5774</v>
       </c>
       <c r="H1740" s="1" t="s">
-        <v>5790</v>
+        <v>5784</v>
       </c>
       <c r="I1740" s="1" t="s">
-        <v>5816</v>
+        <v>5810</v>
       </c>
       <c r="J1740" s="1" t="s">
-        <v>5712</v>
+        <v>5706</v>
       </c>
       <c r="K1740" s="1" t="s">
         <v>44</v>
@@ -70586,28 +70510,28 @@
     </row>
     <row r="1741" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1741" s="1" t="s">
-        <v>5720</v>
+        <v>5714</v>
       </c>
       <c r="B1741" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1741" s="1" t="s">
-        <v>5764</v>
+        <v>5758</v>
       </c>
       <c r="D1741" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1741" s="1" t="s">
-        <v>5780</v>
+        <v>5774</v>
       </c>
       <c r="H1741" s="1" t="s">
-        <v>5790</v>
+        <v>5784</v>
       </c>
       <c r="I1741" s="1" t="s">
-        <v>5817</v>
+        <v>5811</v>
       </c>
       <c r="J1741" s="1" t="s">
-        <v>5731</v>
+        <v>5725</v>
       </c>
       <c r="K1741" s="1" t="s">
         <v>44</v>
@@ -70615,28 +70539,28 @@
     </row>
     <row r="1742" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1742" s="1" t="s">
-        <v>5721</v>
+        <v>5715</v>
       </c>
       <c r="B1742" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1742" s="1" t="s">
-        <v>5765</v>
+        <v>5759</v>
       </c>
       <c r="D1742" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1742" s="1" t="s">
-        <v>5781</v>
+        <v>5775</v>
       </c>
       <c r="G1742" s="1" t="s">
-        <v>5795</v>
+        <v>5789</v>
       </c>
       <c r="I1742" s="1" t="s">
-        <v>5818</v>
+        <v>5812</v>
       </c>
       <c r="J1742" s="1" t="s">
-        <v>5732</v>
+        <v>5726</v>
       </c>
       <c r="K1742" s="1" t="s">
         <v>44</v>
@@ -70644,28 +70568,28 @@
     </row>
     <row r="1743" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1743" s="1" t="s">
-        <v>5756</v>
+        <v>5750</v>
       </c>
       <c r="B1743" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1743" s="1" t="s">
-        <v>5766</v>
+        <v>5760</v>
       </c>
       <c r="D1743" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1743" s="1" t="s">
-        <v>5781</v>
+        <v>5775</v>
       </c>
       <c r="H1743" s="1" t="s">
-        <v>5791</v>
+        <v>5785</v>
       </c>
       <c r="I1743" s="1" t="s">
-        <v>5819</v>
+        <v>5813</v>
       </c>
       <c r="J1743" s="1" t="s">
-        <v>5768</v>
+        <v>5762</v>
       </c>
       <c r="K1743" s="1" t="s">
         <v>44</v>
@@ -70673,28 +70597,28 @@
     </row>
     <row r="1744" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1744" s="1" t="s">
-        <v>5757</v>
+        <v>5751</v>
       </c>
       <c r="B1744" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1744" s="1" t="s">
-        <v>5767</v>
+        <v>5761</v>
       </c>
       <c r="D1744" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1744" s="1" t="s">
-        <v>5781</v>
+        <v>5775</v>
       </c>
       <c r="H1744" s="1" t="s">
-        <v>5791</v>
+        <v>5785</v>
       </c>
       <c r="I1744" s="1" t="s">
-        <v>5820</v>
+        <v>5814</v>
       </c>
       <c r="J1744" s="1" t="s">
-        <v>5769</v>
+        <v>5763</v>
       </c>
       <c r="K1744" s="1" t="s">
         <v>44</v>
@@ -70702,28 +70626,28 @@
     </row>
     <row r="1745" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1745" s="1" t="s">
-        <v>5758</v>
+        <v>5752</v>
       </c>
       <c r="B1745" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1745" s="1" t="s">
-        <v>5792</v>
+        <v>5786</v>
       </c>
       <c r="D1745" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1745" s="1" t="s">
-        <v>5781</v>
+        <v>5775</v>
       </c>
       <c r="H1745" s="1" t="s">
-        <v>5791</v>
+        <v>5785</v>
       </c>
       <c r="I1745" s="1" t="s">
-        <v>5821</v>
+        <v>5815</v>
       </c>
       <c r="J1745" s="1" t="s">
-        <v>5770</v>
+        <v>5764</v>
       </c>
       <c r="K1745" s="1" t="s">
         <v>44</v>
@@ -70731,28 +70655,28 @@
     </row>
     <row r="1746" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1746" s="1" t="s">
-        <v>5759</v>
+        <v>5753</v>
       </c>
       <c r="B1746" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1746" s="1" t="s">
-        <v>5793</v>
+        <v>5787</v>
       </c>
       <c r="D1746" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1746" s="1" t="s">
-        <v>5781</v>
+        <v>5775</v>
       </c>
       <c r="H1746" s="1" t="s">
-        <v>5791</v>
+        <v>5785</v>
       </c>
       <c r="I1746" s="1" t="s">
-        <v>5822</v>
+        <v>5816</v>
       </c>
       <c r="J1746" s="1" t="s">
-        <v>5771</v>
+        <v>5765</v>
       </c>
       <c r="K1746" s="1" t="s">
         <v>154</v>
@@ -70760,28 +70684,28 @@
     </row>
     <row r="1747" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1747" s="1" t="s">
-        <v>5760</v>
+        <v>5754</v>
       </c>
       <c r="B1747" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1747" s="1" t="s">
-        <v>5794</v>
+        <v>5788</v>
       </c>
       <c r="D1747" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1747" s="1" t="s">
-        <v>5781</v>
+        <v>5775</v>
       </c>
       <c r="H1747" s="1" t="s">
-        <v>5791</v>
+        <v>5785</v>
       </c>
       <c r="I1747" s="1" t="s">
-        <v>5823</v>
+        <v>5817</v>
       </c>
       <c r="J1747" s="1" t="s">
-        <v>5772</v>
+        <v>5766</v>
       </c>
       <c r="K1747" s="1" t="s">
         <v>154</v>
@@ -70789,28 +70713,28 @@
     </row>
     <row r="1748" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1748" s="1" t="s">
-        <v>5824</v>
+        <v>5818</v>
       </c>
       <c r="B1748" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1748" s="1" t="s">
-        <v>5825</v>
+        <v>5819</v>
       </c>
       <c r="D1748" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1748" s="1" t="s">
-        <v>5782</v>
+        <v>5776</v>
       </c>
       <c r="G1748" s="1" t="s">
-        <v>5795</v>
+        <v>5789</v>
       </c>
       <c r="I1748" s="1" t="s">
-        <v>5826</v>
+        <v>5820</v>
       </c>
       <c r="J1748" s="1" t="s">
-        <v>5827</v>
+        <v>5821</v>
       </c>
       <c r="K1748" s="1" t="s">
         <v>154</v>
@@ -70818,28 +70742,28 @@
     </row>
     <row r="1749" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1749" s="1" t="s">
-        <v>5828</v>
+        <v>5822</v>
       </c>
       <c r="B1749" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1749" s="1" t="s">
-        <v>5829</v>
+        <v>5823</v>
       </c>
       <c r="D1749" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1749" s="1" t="s">
-        <v>5781</v>
+        <v>5775</v>
       </c>
       <c r="H1749" s="1" t="s">
-        <v>5791</v>
+        <v>5785</v>
       </c>
       <c r="I1749" s="1" t="s">
-        <v>5831</v>
+        <v>5825</v>
       </c>
       <c r="J1749" s="1" t="s">
-        <v>5830</v>
+        <v>5824</v>
       </c>
       <c r="K1749" s="1" t="s">
         <v>44</v>
@@ -70847,31 +70771,31 @@
     </row>
     <row r="1750" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1750" s="1" t="s">
-        <v>5843</v>
+        <v>5837</v>
       </c>
       <c r="B1750" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1750" s="1" t="s">
-        <v>5834</v>
+        <v>5828</v>
       </c>
       <c r="D1750" s="1" t="s">
-        <v>5838</v>
+        <v>5832</v>
       </c>
       <c r="E1750" s="1" t="s">
-        <v>5839</v>
+        <v>5833</v>
       </c>
       <c r="F1750" s="1" t="s">
-        <v>5842</v>
+        <v>5836</v>
       </c>
       <c r="G1750" s="1" t="s">
         <v>2127</v>
       </c>
       <c r="I1750" s="1" t="s">
-        <v>5844</v>
+        <v>5838</v>
       </c>
       <c r="J1750" s="1" t="s">
-        <v>5845</v>
+        <v>5839</v>
       </c>
       <c r="K1750" s="1" t="s">
         <v>44</v>
@@ -70879,31 +70803,31 @@
     </row>
     <row r="1751" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1751" s="1" t="s">
-        <v>5833</v>
+        <v>5827</v>
       </c>
       <c r="B1751" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1751" s="1" t="s">
-        <v>5835</v>
+        <v>5829</v>
       </c>
       <c r="D1751" s="1" t="s">
-        <v>5838</v>
+        <v>5832</v>
       </c>
       <c r="E1751" s="1" t="s">
+        <v>5834</v>
+      </c>
+      <c r="F1751" s="1" t="s">
+        <v>5836</v>
+      </c>
+      <c r="H1751" s="1" t="s">
+        <v>5837</v>
+      </c>
+      <c r="I1751" s="1" t="s">
         <v>5840</v>
       </c>
-      <c r="F1751" s="1" t="s">
-        <v>5842</v>
-      </c>
-      <c r="H1751" s="1" t="s">
-        <v>5843</v>
-      </c>
-      <c r="I1751" s="1" t="s">
-        <v>5846</v>
-      </c>
       <c r="J1751" s="1" t="s">
-        <v>5847</v>
+        <v>5841</v>
       </c>
       <c r="K1751" s="1" t="s">
         <v>44</v>
@@ -70911,31 +70835,31 @@
     </row>
     <row r="1752" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1752" s="1" t="s">
+        <v>5830</v>
+      </c>
+      <c r="B1752" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1752" s="1" t="s">
+        <v>5831</v>
+      </c>
+      <c r="D1752" s="1" t="s">
+        <v>5832</v>
+      </c>
+      <c r="E1752" s="1" t="s">
+        <v>5835</v>
+      </c>
+      <c r="F1752" s="1" t="s">
         <v>5836</v>
       </c>
-      <c r="B1752" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1752" s="1" t="s">
+      <c r="H1752" s="1" t="s">
         <v>5837</v>
       </c>
-      <c r="D1752" s="1" t="s">
-        <v>5838</v>
-      </c>
-      <c r="E1752" s="1" t="s">
-        <v>5841</v>
-      </c>
-      <c r="F1752" s="1" t="s">
+      <c r="I1752" s="1" t="s">
+        <v>5843</v>
+      </c>
+      <c r="J1752" s="1" t="s">
         <v>5842</v>
-      </c>
-      <c r="H1752" s="1" t="s">
-        <v>5843</v>
-      </c>
-      <c r="I1752" s="1" t="s">
-        <v>5849</v>
-      </c>
-      <c r="J1752" s="1" t="s">
-        <v>5848</v>
       </c>
       <c r="K1752" s="1" t="s">
         <v>44</v>
@@ -70943,13 +70867,13 @@
     </row>
     <row r="1753" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1753" s="1" t="s">
-        <v>5857</v>
+        <v>5851</v>
       </c>
       <c r="B1753" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1753" s="1" t="s">
-        <v>5852</v>
+        <v>5846</v>
       </c>
       <c r="D1753" s="1" t="s">
         <v>2194</v>
@@ -70958,16 +70882,16 @@
         <v>2196</v>
       </c>
       <c r="F1753" s="1" t="s">
-        <v>5859</v>
+        <v>5853</v>
       </c>
       <c r="G1753" s="1" t="s">
+        <v>5850</v>
+      </c>
+      <c r="I1753" s="1" t="s">
+        <v>5854</v>
+      </c>
+      <c r="J1753" s="1" t="s">
         <v>5856</v>
-      </c>
-      <c r="I1753" s="1" t="s">
-        <v>5860</v>
-      </c>
-      <c r="J1753" s="1" t="s">
-        <v>5862</v>
       </c>
       <c r="K1753" s="1" t="s">
         <v>44</v>
@@ -70975,13 +70899,13 @@
     </row>
     <row r="1754" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1754" s="1" t="s">
-        <v>5850</v>
+        <v>5844</v>
       </c>
       <c r="B1754" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1754" s="1" t="s">
-        <v>5853</v>
+        <v>5847</v>
       </c>
       <c r="D1754" s="1" t="s">
         <v>2194</v>
@@ -70990,16 +70914,16 @@
         <v>2286</v>
       </c>
       <c r="F1754" s="1" t="s">
+        <v>5849</v>
+      </c>
+      <c r="H1754" s="1" t="s">
+        <v>5851</v>
+      </c>
+      <c r="I1754" s="1" t="s">
         <v>5855</v>
       </c>
-      <c r="H1754" s="1" t="s">
+      <c r="J1754" s="1" t="s">
         <v>5857</v>
-      </c>
-      <c r="I1754" s="1" t="s">
-        <v>5861</v>
-      </c>
-      <c r="J1754" s="1" t="s">
-        <v>5863</v>
       </c>
       <c r="K1754" s="1" t="s">
         <v>44</v>
@@ -71007,13 +70931,13 @@
     </row>
     <row r="1755" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1755" s="1" t="s">
-        <v>5851</v>
+        <v>5845</v>
       </c>
       <c r="B1755" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1755" s="1" t="s">
-        <v>5854</v>
+        <v>5848</v>
       </c>
       <c r="D1755" s="1" t="s">
         <v>2194</v>
@@ -71022,16 +70946,16 @@
         <v>2316</v>
       </c>
       <c r="F1755" s="1" t="s">
+        <v>5853</v>
+      </c>
+      <c r="H1755" s="1" t="s">
+        <v>5851</v>
+      </c>
+      <c r="I1755" s="1" t="s">
         <v>5859</v>
       </c>
-      <c r="H1755" s="1" t="s">
-        <v>5857</v>
-      </c>
-      <c r="I1755" s="1" t="s">
-        <v>5865</v>
-      </c>
       <c r="J1755" s="1" t="s">
-        <v>5864</v>
+        <v>5858</v>
       </c>
       <c r="K1755" s="1" t="s">
         <v>44</v>
@@ -71039,28 +70963,28 @@
     </row>
     <row r="1756" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1756" s="1" t="s">
-        <v>5868</v>
+        <v>5862</v>
       </c>
       <c r="B1756" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1756" s="1" t="s">
-        <v>5869</v>
+        <v>5863</v>
       </c>
       <c r="D1756" s="1" t="s">
         <v>2402</v>
       </c>
       <c r="F1756" s="1" t="s">
-        <v>5781</v>
+        <v>5775</v>
       </c>
       <c r="H1756" s="1" t="s">
-        <v>5791</v>
+        <v>5785</v>
       </c>
       <c r="I1756" s="1" t="s">
-        <v>5870</v>
+        <v>5864</v>
       </c>
       <c r="J1756" s="1" t="s">
-        <v>5871</v>
+        <v>5865</v>
       </c>
       <c r="K1756" s="1" t="s">
         <v>154</v>
@@ -71068,22 +70992,22 @@
     </row>
     <row r="1757" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1757" s="1" t="s">
-        <v>5878</v>
+        <v>5872</v>
       </c>
       <c r="B1757" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1757" s="1" t="s">
-        <v>5900</v>
+        <v>5894</v>
       </c>
       <c r="D1757" s="7" t="s">
-        <v>5901</v>
+        <v>5895</v>
       </c>
       <c r="E1757" s="1" t="s">
-        <v>5902</v>
+        <v>5896</v>
       </c>
       <c r="I1757" s="8" t="s">
-        <v>5903</v>
+        <v>5897</v>
       </c>
       <c r="K1757" s="1" t="s">
         <v>9</v>
@@ -71091,22 +71015,22 @@
     </row>
     <row r="1758" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1758" s="1" t="s">
-        <v>5879</v>
+        <v>5873</v>
       </c>
       <c r="B1758" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1758" s="1" t="s">
-        <v>5900</v>
+        <v>5894</v>
       </c>
       <c r="D1758" s="7" t="s">
-        <v>5901</v>
+        <v>5895</v>
       </c>
       <c r="E1758" s="7" t="s">
-        <v>5902</v>
+        <v>5896</v>
       </c>
       <c r="I1758" s="8" t="s">
-        <v>5904</v>
+        <v>5898</v>
       </c>
       <c r="K1758" s="8" t="s">
         <v>9</v>
@@ -71114,22 +71038,22 @@
     </row>
     <row r="1759" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1759" s="1" t="s">
-        <v>5880</v>
+        <v>5874</v>
       </c>
       <c r="B1759" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1759" s="1" t="s">
-        <v>5900</v>
+        <v>5894</v>
       </c>
       <c r="D1759" s="7" t="s">
-        <v>5901</v>
+        <v>5895</v>
       </c>
       <c r="E1759" s="7" t="s">
-        <v>5902</v>
+        <v>5896</v>
       </c>
       <c r="I1759" s="8" t="s">
-        <v>5905</v>
+        <v>5899</v>
       </c>
       <c r="K1759" s="8" t="s">
         <v>9</v>
@@ -71137,22 +71061,22 @@
     </row>
     <row r="1760" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1760" s="1" t="s">
-        <v>5881</v>
+        <v>5875</v>
       </c>
       <c r="B1760" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1760" s="1" t="s">
+        <v>5894</v>
+      </c>
+      <c r="D1760" s="7" t="s">
+        <v>5895</v>
+      </c>
+      <c r="E1760" s="7" t="s">
+        <v>5896</v>
+      </c>
+      <c r="I1760" s="8" t="s">
         <v>5900</v>
-      </c>
-      <c r="D1760" s="7" t="s">
-        <v>5901</v>
-      </c>
-      <c r="E1760" s="7" t="s">
-        <v>5902</v>
-      </c>
-      <c r="I1760" s="8" t="s">
-        <v>5906</v>
       </c>
       <c r="K1760" s="8" t="s">
         <v>9</v>
@@ -71160,22 +71084,22 @@
     </row>
     <row r="1761" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1761" s="1" t="s">
-        <v>5882</v>
+        <v>5876</v>
       </c>
       <c r="B1761" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1761" s="1" t="s">
-        <v>5900</v>
+        <v>5894</v>
       </c>
       <c r="D1761" s="7" t="s">
+        <v>5895</v>
+      </c>
+      <c r="E1761" s="7" t="s">
+        <v>5896</v>
+      </c>
+      <c r="I1761" s="8" t="s">
         <v>5901</v>
-      </c>
-      <c r="E1761" s="7" t="s">
-        <v>5902</v>
-      </c>
-      <c r="I1761" s="8" t="s">
-        <v>5907</v>
       </c>
       <c r="K1761" s="8" t="s">
         <v>9</v>
@@ -71183,22 +71107,22 @@
     </row>
     <row r="1762" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1762" s="1" t="s">
-        <v>5883</v>
+        <v>5877</v>
       </c>
       <c r="B1762" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1762" s="1" t="s">
-        <v>5900</v>
+        <v>5894</v>
       </c>
       <c r="D1762" s="7" t="s">
-        <v>5901</v>
+        <v>5895</v>
       </c>
       <c r="E1762" s="7" t="s">
+        <v>5896</v>
+      </c>
+      <c r="I1762" s="8" t="s">
         <v>5902</v>
-      </c>
-      <c r="I1762" s="8" t="s">
-        <v>5908</v>
       </c>
       <c r="K1762" s="8" t="s">
         <v>9</v>
@@ -71206,22 +71130,22 @@
     </row>
     <row r="1763" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1763" s="1" t="s">
-        <v>5884</v>
+        <v>5878</v>
       </c>
       <c r="B1763" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1763" s="1" t="s">
-        <v>5900</v>
+        <v>5894</v>
       </c>
       <c r="D1763" s="7" t="s">
-        <v>5901</v>
+        <v>5895</v>
       </c>
       <c r="E1763" s="7" t="s">
-        <v>5902</v>
+        <v>5896</v>
       </c>
       <c r="I1763" s="8" t="s">
-        <v>5909</v>
+        <v>5903</v>
       </c>
       <c r="K1763" s="8" t="s">
         <v>9</v>
@@ -71229,22 +71153,22 @@
     </row>
     <row r="1764" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1764" s="1" t="s">
-        <v>5885</v>
+        <v>5879</v>
       </c>
       <c r="B1764" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1764" s="1" t="s">
-        <v>5900</v>
+        <v>5894</v>
       </c>
       <c r="D1764" s="7" t="s">
-        <v>5901</v>
+        <v>5895</v>
       </c>
       <c r="E1764" s="7" t="s">
-        <v>5902</v>
+        <v>5896</v>
       </c>
       <c r="I1764" s="8" t="s">
-        <v>5910</v>
+        <v>5904</v>
       </c>
       <c r="K1764" s="8" t="s">
         <v>9</v>
@@ -71252,22 +71176,22 @@
     </row>
     <row r="1765" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1765" s="1" t="s">
-        <v>5886</v>
+        <v>5880</v>
       </c>
       <c r="B1765" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1765" s="1" t="s">
-        <v>5900</v>
+        <v>5894</v>
       </c>
       <c r="D1765" s="7" t="s">
-        <v>5901</v>
+        <v>5895</v>
       </c>
       <c r="E1765" s="7" t="s">
-        <v>5902</v>
+        <v>5896</v>
       </c>
       <c r="I1765" s="8" t="s">
-        <v>5911</v>
+        <v>5905</v>
       </c>
       <c r="K1765" s="8" t="s">
         <v>9</v>
@@ -71275,22 +71199,22 @@
     </row>
     <row r="1766" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1766" s="1" t="s">
-        <v>5887</v>
+        <v>5881</v>
       </c>
       <c r="B1766" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1766" s="1" t="s">
-        <v>5900</v>
+        <v>5894</v>
       </c>
       <c r="D1766" s="7" t="s">
-        <v>5901</v>
+        <v>5895</v>
       </c>
       <c r="E1766" s="7" t="s">
-        <v>5902</v>
+        <v>5896</v>
       </c>
       <c r="I1766" s="8" t="s">
-        <v>5912</v>
+        <v>5906</v>
       </c>
       <c r="K1766" s="8" t="s">
         <v>9</v>
@@ -71298,22 +71222,22 @@
     </row>
     <row r="1767" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1767" s="1" t="s">
-        <v>5888</v>
+        <v>5882</v>
       </c>
       <c r="B1767" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1767" s="1" t="s">
-        <v>5900</v>
+        <v>5894</v>
       </c>
       <c r="D1767" s="7" t="s">
-        <v>5901</v>
+        <v>5895</v>
       </c>
       <c r="E1767" s="7" t="s">
-        <v>5902</v>
+        <v>5896</v>
       </c>
       <c r="I1767" s="8" t="s">
-        <v>5913</v>
+        <v>5907</v>
       </c>
       <c r="K1767" s="8" t="s">
         <v>9</v>
@@ -71321,22 +71245,22 @@
     </row>
     <row r="1768" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1768" s="1" t="s">
-        <v>5889</v>
+        <v>5883</v>
       </c>
       <c r="B1768" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1768" s="1" t="s">
-        <v>5900</v>
+        <v>5894</v>
       </c>
       <c r="D1768" s="7" t="s">
-        <v>5901</v>
+        <v>5895</v>
       </c>
       <c r="E1768" s="7" t="s">
-        <v>5902</v>
+        <v>5896</v>
       </c>
       <c r="I1768" s="8" t="s">
-        <v>5914</v>
+        <v>5908</v>
       </c>
       <c r="K1768" s="8" t="s">
         <v>9</v>
@@ -71344,22 +71268,22 @@
     </row>
     <row r="1769" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1769" s="1" t="s">
-        <v>5890</v>
+        <v>5884</v>
       </c>
       <c r="B1769" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1769" s="1" t="s">
-        <v>5900</v>
+        <v>5894</v>
       </c>
       <c r="D1769" s="7" t="s">
-        <v>5901</v>
+        <v>5895</v>
       </c>
       <c r="E1769" s="7" t="s">
-        <v>5902</v>
+        <v>5896</v>
       </c>
       <c r="I1769" s="8" t="s">
-        <v>5915</v>
+        <v>5909</v>
       </c>
       <c r="K1769" s="8" t="s">
         <v>9</v>
@@ -71367,22 +71291,22 @@
     </row>
     <row r="1770" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1770" s="1" t="s">
-        <v>5891</v>
+        <v>5885</v>
       </c>
       <c r="B1770" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1770" s="8" t="s">
-        <v>5923</v>
+        <v>5917</v>
       </c>
       <c r="D1770" s="8" t="s">
-        <v>5901</v>
+        <v>5895</v>
       </c>
       <c r="E1770" s="1" t="s">
-        <v>5924</v>
+        <v>5918</v>
       </c>
       <c r="I1770" s="9" t="s">
-        <v>5925</v>
+        <v>5919</v>
       </c>
       <c r="K1770" s="9" t="s">
         <v>9</v>
@@ -71390,22 +71314,22 @@
     </row>
     <row r="1771" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1771" s="1" t="s">
-        <v>5892</v>
+        <v>5886</v>
       </c>
       <c r="B1771" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1771" s="8" t="s">
-        <v>5923</v>
+        <v>5917</v>
       </c>
       <c r="D1771" s="8" t="s">
-        <v>5901</v>
+        <v>5895</v>
       </c>
       <c r="E1771" s="8" t="s">
-        <v>5924</v>
+        <v>5918</v>
       </c>
       <c r="I1771" s="9" t="s">
-        <v>5926</v>
+        <v>5920</v>
       </c>
       <c r="K1771" s="9" t="s">
         <v>9</v>
@@ -71413,22 +71337,22 @@
     </row>
     <row r="1772" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1772" s="1" t="s">
-        <v>5893</v>
+        <v>5887</v>
       </c>
       <c r="B1772" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1772" s="8" t="s">
-        <v>5923</v>
+        <v>5917</v>
       </c>
       <c r="D1772" s="8" t="s">
-        <v>5901</v>
+        <v>5895</v>
       </c>
       <c r="E1772" s="8" t="s">
-        <v>5924</v>
+        <v>5918</v>
       </c>
       <c r="I1772" s="9" t="s">
-        <v>5927</v>
+        <v>5921</v>
       </c>
       <c r="K1772" s="9" t="s">
         <v>9</v>
@@ -71436,22 +71360,22 @@
     </row>
     <row r="1773" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1773" s="1" t="s">
-        <v>5894</v>
+        <v>5888</v>
       </c>
       <c r="B1773" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1773" s="8" t="s">
-        <v>5923</v>
+        <v>5917</v>
       </c>
       <c r="D1773" s="8" t="s">
-        <v>5901</v>
+        <v>5895</v>
       </c>
       <c r="E1773" s="8" t="s">
-        <v>5924</v>
+        <v>5918</v>
       </c>
       <c r="I1773" s="9" t="s">
-        <v>5928</v>
+        <v>5922</v>
       </c>
       <c r="K1773" s="9" t="s">
         <v>9</v>
@@ -71459,22 +71383,22 @@
     </row>
     <row r="1774" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1774" s="1" t="s">
+        <v>5889</v>
+      </c>
+      <c r="B1774" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1774" s="8" t="s">
+        <v>5917</v>
+      </c>
+      <c r="D1774" s="8" t="s">
         <v>5895</v>
       </c>
-      <c r="B1774" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1774" s="8" t="s">
+      <c r="E1774" s="8" t="s">
+        <v>5918</v>
+      </c>
+      <c r="I1774" s="9" t="s">
         <v>5923</v>
-      </c>
-      <c r="D1774" s="8" t="s">
-        <v>5901</v>
-      </c>
-      <c r="E1774" s="8" t="s">
-        <v>5924</v>
-      </c>
-      <c r="I1774" s="9" t="s">
-        <v>5929</v>
       </c>
       <c r="K1774" s="9" t="s">
         <v>9</v>
@@ -71482,22 +71406,22 @@
     </row>
     <row r="1775" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1775" s="1" t="s">
-        <v>5896</v>
+        <v>5890</v>
       </c>
       <c r="B1775" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1775" s="8" t="s">
-        <v>5923</v>
+        <v>5917</v>
       </c>
       <c r="D1775" s="8" t="s">
-        <v>5901</v>
+        <v>5895</v>
       </c>
       <c r="E1775" s="8" t="s">
+        <v>5918</v>
+      </c>
+      <c r="I1775" s="9" t="s">
         <v>5924</v>
-      </c>
-      <c r="I1775" s="9" t="s">
-        <v>5930</v>
       </c>
       <c r="K1775" s="9" t="s">
         <v>9</v>
@@ -71505,22 +71429,22 @@
     </row>
     <row r="1776" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1776" s="1" t="s">
-        <v>5897</v>
+        <v>5891</v>
       </c>
       <c r="B1776" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1776" s="8" t="s">
-        <v>5923</v>
+        <v>5917</v>
       </c>
       <c r="D1776" s="8" t="s">
-        <v>5901</v>
+        <v>5895</v>
       </c>
       <c r="E1776" s="8" t="s">
-        <v>5924</v>
+        <v>5918</v>
       </c>
       <c r="I1776" s="9" t="s">
-        <v>5931</v>
+        <v>5925</v>
       </c>
       <c r="K1776" s="9" t="s">
         <v>9</v>
@@ -71528,22 +71452,22 @@
     </row>
     <row r="1777" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1777" s="1" t="s">
-        <v>5898</v>
+        <v>5892</v>
       </c>
       <c r="B1777" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1777" s="8" t="s">
-        <v>5923</v>
+        <v>5917</v>
       </c>
       <c r="D1777" s="8" t="s">
-        <v>5901</v>
+        <v>5895</v>
       </c>
       <c r="E1777" s="8" t="s">
-        <v>5924</v>
+        <v>5918</v>
       </c>
       <c r="I1777" s="9" t="s">
-        <v>5932</v>
+        <v>5926</v>
       </c>
       <c r="K1777" s="9" t="s">
         <v>9</v>
@@ -71551,22 +71475,22 @@
     </row>
     <row r="1778" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1778" s="1" t="s">
-        <v>5899</v>
+        <v>5893</v>
       </c>
       <c r="B1778" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1778" s="8" t="s">
-        <v>5923</v>
+        <v>5917</v>
       </c>
       <c r="D1778" s="8" t="s">
-        <v>5901</v>
+        <v>5895</v>
       </c>
       <c r="E1778" s="8" t="s">
-        <v>5924</v>
+        <v>5918</v>
       </c>
       <c r="I1778" s="9" t="s">
-        <v>5933</v>
+        <v>5927</v>
       </c>
       <c r="K1778" s="9" t="s">
         <v>9</v>
@@ -71574,22 +71498,22 @@
     </row>
     <row r="1779" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1779" s="8" t="s">
-        <v>5916</v>
+        <v>5910</v>
       </c>
       <c r="B1779" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1779" s="8" t="s">
-        <v>5923</v>
+        <v>5917</v>
       </c>
       <c r="D1779" s="8" t="s">
-        <v>5901</v>
+        <v>5895</v>
       </c>
       <c r="E1779" s="8" t="s">
-        <v>5924</v>
+        <v>5918</v>
       </c>
       <c r="I1779" s="9" t="s">
-        <v>5934</v>
+        <v>5928</v>
       </c>
       <c r="K1779" s="9" t="s">
         <v>9</v>
@@ -71597,22 +71521,22 @@
     </row>
     <row r="1780" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1780" s="8" t="s">
+        <v>5911</v>
+      </c>
+      <c r="B1780" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1780" s="8" t="s">
         <v>5917</v>
       </c>
-      <c r="B1780" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1780" s="8" t="s">
-        <v>5923</v>
-      </c>
       <c r="D1780" s="8" t="s">
-        <v>5901</v>
+        <v>5895</v>
       </c>
       <c r="E1780" s="8" t="s">
-        <v>5924</v>
+        <v>5918</v>
       </c>
       <c r="I1780" s="9" t="s">
-        <v>5935</v>
+        <v>5929</v>
       </c>
       <c r="K1780" s="9" t="s">
         <v>9</v>
@@ -71620,22 +71544,22 @@
     </row>
     <row r="1781" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1781" s="8" t="s">
+        <v>5912</v>
+      </c>
+      <c r="B1781" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1781" s="8" t="s">
+        <v>5917</v>
+      </c>
+      <c r="D1781" s="8" t="s">
+        <v>5895</v>
+      </c>
+      <c r="E1781" s="8" t="s">
         <v>5918</v>
       </c>
-      <c r="B1781" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1781" s="8" t="s">
-        <v>5923</v>
-      </c>
-      <c r="D1781" s="8" t="s">
-        <v>5901</v>
-      </c>
-      <c r="E1781" s="8" t="s">
-        <v>5924</v>
-      </c>
       <c r="I1781" s="9" t="s">
-        <v>5936</v>
+        <v>5930</v>
       </c>
       <c r="K1781" s="9" t="s">
         <v>9</v>
@@ -71643,25 +71567,25 @@
     </row>
     <row r="1782" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1782" s="8" t="s">
-        <v>5919</v>
+        <v>5913</v>
       </c>
       <c r="B1782" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1782" s="11" t="s">
-        <v>5938</v>
+        <v>5932</v>
       </c>
       <c r="D1782" s="11" t="s">
-        <v>5901</v>
+        <v>5895</v>
       </c>
       <c r="E1782" s="11" t="s">
-        <v>5924</v>
+        <v>5918</v>
       </c>
       <c r="I1782" s="11" t="s">
-        <v>5939</v>
+        <v>5933</v>
       </c>
       <c r="J1782" s="1" t="s">
-        <v>5940</v>
+        <v>5934</v>
       </c>
       <c r="K1782" s="11" t="s">
         <v>9</v>
@@ -71669,25 +71593,25 @@
     </row>
     <row r="1783" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1783" s="8" t="s">
-        <v>5920</v>
+        <v>5914</v>
       </c>
       <c r="B1783" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1783" s="11" t="s">
-        <v>5938</v>
+        <v>5932</v>
       </c>
       <c r="D1783" s="11" t="s">
-        <v>5901</v>
+        <v>5895</v>
       </c>
       <c r="E1783" s="11" t="s">
-        <v>5924</v>
+        <v>5918</v>
       </c>
       <c r="I1783" s="11" t="s">
-        <v>5937</v>
+        <v>5931</v>
       </c>
       <c r="J1783" s="1" t="s">
-        <v>5940</v>
+        <v>5934</v>
       </c>
       <c r="K1783" s="11" t="s">
         <v>9</v>
@@ -71695,25 +71619,25 @@
     </row>
     <row r="1784" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1784" s="8" t="s">
-        <v>5921</v>
+        <v>5915</v>
       </c>
       <c r="B1784" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1784" s="11" t="s">
-        <v>5938</v>
+        <v>5932</v>
       </c>
       <c r="D1784" s="11" t="s">
-        <v>5901</v>
+        <v>5895</v>
       </c>
       <c r="E1784" s="11" t="s">
-        <v>5924</v>
+        <v>5918</v>
       </c>
       <c r="I1784" s="11" t="s">
-        <v>5941</v>
+        <v>5935</v>
       </c>
       <c r="J1784" s="10" t="s">
-        <v>5942</v>
+        <v>5936</v>
       </c>
       <c r="K1784" s="11" t="s">
         <v>9</v>
@@ -71721,25 +71645,25 @@
     </row>
     <row r="1785" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1785" s="8" t="s">
-        <v>5922</v>
+        <v>5916</v>
       </c>
       <c r="B1785" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1785" s="1" t="s">
-        <v>5943</v>
+        <v>5937</v>
       </c>
       <c r="D1785" s="12" t="s">
-        <v>5944</v>
+        <v>5938</v>
       </c>
       <c r="E1785" s="12" t="s">
+        <v>5939</v>
+      </c>
+      <c r="I1785" s="1" t="s">
+        <v>5940</v>
+      </c>
+      <c r="J1785" s="1" t="s">
         <v>5945</v>
-      </c>
-      <c r="I1785" s="1" t="s">
-        <v>5946</v>
-      </c>
-      <c r="J1785" s="1" t="s">
-        <v>5951</v>
       </c>
       <c r="K1785" s="12" t="s">
         <v>9</v>
@@ -71747,28 +71671,28 @@
     </row>
     <row r="1786" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1786" s="12" t="s">
-        <v>5954</v>
+        <v>5948</v>
       </c>
       <c r="B1786" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1786" s="12" t="s">
-        <v>5959</v>
+        <v>5953</v>
       </c>
       <c r="D1786" s="12" t="s">
-        <v>5955</v>
+        <v>5949</v>
       </c>
       <c r="E1786" s="12"/>
       <c r="F1786" s="12" t="s">
-        <v>5956</v>
+        <v>5950</v>
       </c>
       <c r="G1786" s="12"/>
       <c r="H1786" s="12"/>
       <c r="I1786" s="12" t="s">
-        <v>5985</v>
+        <v>5979</v>
       </c>
       <c r="J1786" s="12" t="s">
-        <v>5957</v>
+        <v>5951</v>
       </c>
       <c r="K1786" s="1" t="s">
         <v>44</v>
@@ -71776,16 +71700,16 @@
     </row>
     <row r="1787" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1787" s="12" t="s">
-        <v>5961</v>
+        <v>5955</v>
       </c>
       <c r="B1787" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1787" s="1" t="s">
-        <v>5963</v>
+        <v>5957</v>
       </c>
       <c r="D1787" s="1" t="s">
-        <v>5965</v>
+        <v>5959</v>
       </c>
       <c r="F1787" s="12" t="s">
         <v>2126</v>
@@ -71795,10 +71719,10 @@
         <v>4717</v>
       </c>
       <c r="I1787" s="1" t="s">
-        <v>5966</v>
+        <v>5960</v>
       </c>
       <c r="J1787" s="1" t="s">
-        <v>5968</v>
+        <v>5962</v>
       </c>
       <c r="K1787" s="12" t="s">
         <v>44</v>
@@ -71806,16 +71730,16 @@
     </row>
     <row r="1788" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1788" s="12" t="s">
-        <v>5962</v>
+        <v>5956</v>
       </c>
       <c r="B1788" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1788" s="12" t="s">
-        <v>5964</v>
+        <v>5958</v>
       </c>
       <c r="D1788" s="12" t="s">
-        <v>5965</v>
+        <v>5959</v>
       </c>
       <c r="F1788" s="12" t="s">
         <v>2126</v>
@@ -71825,10 +71749,10 @@
         <v>4717</v>
       </c>
       <c r="I1788" s="1" t="s">
-        <v>5967</v>
+        <v>5961</v>
       </c>
       <c r="J1788" s="12" t="s">
-        <v>5969</v>
+        <v>5963</v>
       </c>
       <c r="K1788" s="12" t="s">
         <v>44</v>
@@ -71836,16 +71760,16 @@
     </row>
     <row r="1789" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1789" s="12" t="s">
-        <v>5970</v>
+        <v>5964</v>
       </c>
       <c r="B1789" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1789" s="12" t="s">
-        <v>5971</v>
+        <v>5965</v>
       </c>
       <c r="D1789" s="12" t="s">
-        <v>5965</v>
+        <v>5959</v>
       </c>
       <c r="E1789" s="12"/>
       <c r="F1789" s="12" t="s">
@@ -71856,10 +71780,10 @@
         <v>4717</v>
       </c>
       <c r="I1789" s="1" t="s">
-        <v>5972</v>
+        <v>5966</v>
       </c>
       <c r="J1789" s="12" t="s">
-        <v>5973</v>
+        <v>5967</v>
       </c>
       <c r="K1789" s="12" t="s">
         <v>44</v>
@@ -71867,16 +71791,16 @@
     </row>
     <row r="1790" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1790" s="12" t="s">
-        <v>5974</v>
+        <v>5968</v>
       </c>
       <c r="B1790" s="4" t="s">
         <v>34</v>
       </c>
       <c r="C1790" s="1" t="s">
-        <v>5975</v>
+        <v>5969</v>
       </c>
       <c r="D1790" s="12" t="s">
-        <v>5965</v>
+        <v>5959</v>
       </c>
       <c r="F1790" s="12" t="s">
         <v>2126</v>
@@ -71886,10 +71810,10 @@
         <v>4717</v>
       </c>
       <c r="I1790" s="1" t="s">
-        <v>5976</v>
+        <v>5970</v>
       </c>
       <c r="J1790" s="12" t="s">
-        <v>5977</v>
+        <v>5971</v>
       </c>
       <c r="K1790" s="1" t="s">
         <v>154</v>
@@ -71897,31 +71821,31 @@
     </row>
     <row r="1791" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1791" s="12" t="s">
+        <v>5972</v>
+      </c>
+      <c r="B1791" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1791" s="1" t="s">
+        <v>5973</v>
+      </c>
+      <c r="D1791" s="12" t="s">
+        <v>5949</v>
+      </c>
+      <c r="E1791" s="1" t="s">
         <v>5978</v>
       </c>
-      <c r="B1791" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1791" s="1" t="s">
-        <v>5979</v>
-      </c>
-      <c r="D1791" s="12" t="s">
-        <v>5955</v>
-      </c>
-      <c r="E1791" s="1" t="s">
-        <v>5984</v>
-      </c>
       <c r="F1791" s="1" t="s">
-        <v>5980</v>
+        <v>5974</v>
       </c>
       <c r="G1791" s="1" t="s">
-        <v>5981</v>
+        <v>5975</v>
       </c>
       <c r="I1791" s="1" t="s">
-        <v>5982</v>
+        <v>5976</v>
       </c>
       <c r="J1791" s="1" t="s">
-        <v>5983</v>
+        <v>5977</v>
       </c>
       <c r="K1791" s="1" t="s">
         <v>44</v>
@@ -71929,31 +71853,31 @@
     </row>
     <row r="1792" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1792" s="12" t="s">
-        <v>5986</v>
+        <v>5980</v>
       </c>
       <c r="B1792" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C1792" s="1" t="s">
-        <v>5991</v>
+        <v>5985</v>
       </c>
       <c r="D1792" s="1" t="s">
-        <v>5987</v>
+        <v>5981</v>
       </c>
       <c r="E1792" s="1" t="s">
         <v>4744</v>
       </c>
       <c r="F1792" s="1" t="s">
-        <v>5988</v>
+        <v>5982</v>
       </c>
       <c r="G1792" s="1" t="s">
+        <v>5983</v>
+      </c>
+      <c r="I1792" s="1" t="s">
         <v>5989</v>
       </c>
-      <c r="I1792" s="1" t="s">
-        <v>5995</v>
-      </c>
       <c r="J1792" s="1" t="s">
-        <v>5990</v>
+        <v>5984</v>
       </c>
       <c r="K1792" s="1" t="s">
         <v>154</v>
@@ -71961,31 +71885,31 @@
     </row>
     <row r="1793" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1793" s="12" t="s">
-        <v>6000</v>
+        <v>5994</v>
       </c>
       <c r="B1793" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C1793" s="12" t="s">
-        <v>5992</v>
+        <v>5986</v>
       </c>
       <c r="D1793" s="12" t="s">
-        <v>5987</v>
+        <v>5981</v>
       </c>
       <c r="E1793" s="12" t="s">
         <v>4744</v>
       </c>
       <c r="F1793" s="12" t="s">
-        <v>5993</v>
+        <v>5987</v>
       </c>
       <c r="G1793" s="12" t="s">
-        <v>5994</v>
+        <v>5988</v>
       </c>
       <c r="I1793" s="1" t="s">
-        <v>5997</v>
+        <v>5991</v>
       </c>
       <c r="J1793" s="12" t="s">
-        <v>5996</v>
+        <v>5990</v>
       </c>
       <c r="K1793" s="1" t="s">
         <v>44</v>
@@ -71993,31 +71917,31 @@
     </row>
     <row r="1794" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1794" s="12" t="s">
-        <v>5998</v>
+        <v>5992</v>
       </c>
       <c r="B1794" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C1794" s="12" t="s">
-        <v>5999</v>
+        <v>5993</v>
       </c>
       <c r="D1794" s="12" t="s">
-        <v>5987</v>
+        <v>5981</v>
       </c>
       <c r="E1794" s="12" t="s">
         <v>4744</v>
       </c>
       <c r="F1794" s="12" t="s">
-        <v>5993</v>
+        <v>5987</v>
       </c>
       <c r="H1794" s="1" t="s">
-        <v>6001</v>
+        <v>5995</v>
       </c>
       <c r="I1794" s="12" t="s">
-        <v>6002</v>
+        <v>5996</v>
       </c>
       <c r="J1794" s="12" t="s">
-        <v>6003</v>
+        <v>5997</v>
       </c>
       <c r="K1794" s="1" t="s">
         <v>44</v>
@@ -72025,32 +71949,32 @@
     </row>
     <row r="1795" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1795" s="12" t="s">
-        <v>6004</v>
+        <v>5998</v>
       </c>
       <c r="B1795" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C1795" s="12" t="s">
-        <v>6005</v>
+        <v>5999</v>
       </c>
       <c r="D1795" s="12" t="s">
-        <v>6006</v>
+        <v>6000</v>
       </c>
       <c r="E1795" s="12" t="s">
-        <v>6007</v>
+        <v>6001</v>
       </c>
       <c r="F1795" s="12" t="s">
-        <v>5993</v>
+        <v>5987</v>
       </c>
       <c r="G1795" s="12"/>
       <c r="H1795" s="12" t="s">
-        <v>6009</v>
+        <v>6003</v>
       </c>
       <c r="I1795" s="12" t="s">
-        <v>6008</v>
+        <v>6002</v>
       </c>
       <c r="J1795" s="12" t="s">
-        <v>6010</v>
+        <v>6004</v>
       </c>
       <c r="K1795" s="12" t="s">
         <v>44</v>
